--- a/0b_forms/gantt_chart.xlsx
+++ b/0b_forms/gantt_chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathantang/Desktop/Files/OneDrive - Goldsmiths College/Year-2/2-Software_Projects/gitrepo/0b_forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathantang/Documents/OneDrive - Goldsmiths College/Year-2/2-Software_Projects/repo/0b_forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2588,6 +2588,30 @@
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2595,36 +2619,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2673,7 +2673,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="31">
     <dxf>
       <border>
         <left style="thin">
@@ -3014,58 +3014,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3154,7 +3102,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="7"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3177,7 +3125,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3241,7 +3189,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E200000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3291,7 +3239,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3375,7 +3323,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3430,7 +3378,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3485,7 +3433,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3813,7 +3761,7 @@
   <dimension ref="A1:BN56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -3842,27 +3790,27 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="I1" s="129"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
@@ -3907,23 +3855,23 @@
       <c r="B4" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="165">
+      <c r="C4" s="170">
         <v>43374</v>
       </c>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
       <c r="F4" s="110"/>
       <c r="G4" s="113" t="s">
         <v>73</v>
       </c>
       <c r="H4" s="126">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="50"/>
       <c r="K4" s="162" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
+        <v>Week 1</v>
       </c>
       <c r="L4" s="163"/>
       <c r="M4" s="163"/>
@@ -3933,7 +3881,7 @@
       <c r="Q4" s="164"/>
       <c r="R4" s="162" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
+        <v>Week 2</v>
       </c>
       <c r="S4" s="163"/>
       <c r="T4" s="163"/>
@@ -3943,7 +3891,7 @@
       <c r="X4" s="164"/>
       <c r="Y4" s="162" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 9</v>
+        <v>Week 3</v>
       </c>
       <c r="Z4" s="163"/>
       <c r="AA4" s="163"/>
@@ -3953,7 +3901,7 @@
       <c r="AE4" s="164"/>
       <c r="AF4" s="162" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 10</v>
+        <v>Week 4</v>
       </c>
       <c r="AG4" s="163"/>
       <c r="AH4" s="163"/>
@@ -3963,7 +3911,7 @@
       <c r="AL4" s="164"/>
       <c r="AM4" s="162" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 11</v>
+        <v>Week 5</v>
       </c>
       <c r="AN4" s="163"/>
       <c r="AO4" s="163"/>
@@ -3973,7 +3921,7 @@
       <c r="AS4" s="164"/>
       <c r="AT4" s="162" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 12</v>
+        <v>Week 6</v>
       </c>
       <c r="AU4" s="163"/>
       <c r="AV4" s="163"/>
@@ -3983,7 +3931,7 @@
       <c r="AZ4" s="164"/>
       <c r="BA4" s="162" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 13</v>
+        <v>Week 7</v>
       </c>
       <c r="BB4" s="163"/>
       <c r="BC4" s="163"/>
@@ -3993,7 +3941,7 @@
       <c r="BG4" s="164"/>
       <c r="BH4" s="162" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 14</v>
+        <v>Week 8</v>
       </c>
       <c r="BI4" s="163"/>
       <c r="BJ4" s="163"/>
@@ -4007,96 +3955,96 @@
       <c r="B5" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="161">
+      <c r="C5" s="169">
         <v>43612</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="166">
+      <c r="K5" s="165">
         <f>K6</f>
+        <v>43374</v>
+      </c>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="165">
+        <f>R6</f>
+        <v>43381</v>
+      </c>
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="166"/>
+      <c r="X5" s="167"/>
+      <c r="Y5" s="165">
+        <f>Y6</f>
+        <v>43388</v>
+      </c>
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="166"/>
+      <c r="AB5" s="166"/>
+      <c r="AC5" s="166"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="167"/>
+      <c r="AF5" s="165">
+        <f>AF6</f>
+        <v>43395</v>
+      </c>
+      <c r="AG5" s="166"/>
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="166"/>
+      <c r="AL5" s="167"/>
+      <c r="AM5" s="165">
+        <f>AM6</f>
+        <v>43402</v>
+      </c>
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="166"/>
+      <c r="AP5" s="166"/>
+      <c r="AQ5" s="166"/>
+      <c r="AR5" s="166"/>
+      <c r="AS5" s="167"/>
+      <c r="AT5" s="165">
+        <f>AT6</f>
+        <v>43409</v>
+      </c>
+      <c r="AU5" s="166"/>
+      <c r="AV5" s="166"/>
+      <c r="AW5" s="166"/>
+      <c r="AX5" s="166"/>
+      <c r="AY5" s="166"/>
+      <c r="AZ5" s="167"/>
+      <c r="BA5" s="165">
+        <f>BA6</f>
         <v>43416</v>
       </c>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="166">
-        <f>R6</f>
+      <c r="BB5" s="166"/>
+      <c r="BC5" s="166"/>
+      <c r="BD5" s="166"/>
+      <c r="BE5" s="166"/>
+      <c r="BF5" s="166"/>
+      <c r="BG5" s="167"/>
+      <c r="BH5" s="165">
+        <f>BH6</f>
         <v>43423</v>
       </c>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
-      <c r="V5" s="167"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="166">
-        <f>Y6</f>
-        <v>43430</v>
-      </c>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="167"/>
-      <c r="AB5" s="167"/>
-      <c r="AC5" s="167"/>
-      <c r="AD5" s="167"/>
-      <c r="AE5" s="168"/>
-      <c r="AF5" s="166">
-        <f>AF6</f>
-        <v>43437</v>
-      </c>
-      <c r="AG5" s="167"/>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="167"/>
-      <c r="AK5" s="167"/>
-      <c r="AL5" s="168"/>
-      <c r="AM5" s="166">
-        <f>AM6</f>
-        <v>43444</v>
-      </c>
-      <c r="AN5" s="167"/>
-      <c r="AO5" s="167"/>
-      <c r="AP5" s="167"/>
-      <c r="AQ5" s="167"/>
-      <c r="AR5" s="167"/>
-      <c r="AS5" s="168"/>
-      <c r="AT5" s="166">
-        <f>AT6</f>
-        <v>43451</v>
-      </c>
-      <c r="AU5" s="167"/>
-      <c r="AV5" s="167"/>
-      <c r="AW5" s="167"/>
-      <c r="AX5" s="167"/>
-      <c r="AY5" s="167"/>
-      <c r="AZ5" s="168"/>
-      <c r="BA5" s="166">
-        <f>BA6</f>
-        <v>43458</v>
-      </c>
-      <c r="BB5" s="167"/>
-      <c r="BC5" s="167"/>
-      <c r="BD5" s="167"/>
-      <c r="BE5" s="167"/>
-      <c r="BF5" s="167"/>
-      <c r="BG5" s="168"/>
-      <c r="BH5" s="166">
-        <f>BH6</f>
-        <v>43465</v>
-      </c>
-      <c r="BI5" s="167"/>
-      <c r="BJ5" s="167"/>
-      <c r="BK5" s="167"/>
-      <c r="BL5" s="167"/>
-      <c r="BM5" s="167"/>
-      <c r="BN5" s="168"/>
+      <c r="BI5" s="166"/>
+      <c r="BJ5" s="166"/>
+      <c r="BK5" s="166"/>
+      <c r="BL5" s="166"/>
+      <c r="BM5" s="166"/>
+      <c r="BN5" s="167"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
@@ -4111,230 +4059,230 @@
       <c r="J6" s="50"/>
       <c r="K6" s="92">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>43416</v>
+        <v>43374</v>
       </c>
       <c r="L6" s="83">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>43417</v>
+        <v>43375</v>
       </c>
       <c r="M6" s="83">
         <f t="shared" si="0"/>
-        <v>43418</v>
+        <v>43376</v>
       </c>
       <c r="N6" s="83">
         <f t="shared" si="0"/>
-        <v>43419</v>
+        <v>43377</v>
       </c>
       <c r="O6" s="83">
         <f t="shared" si="0"/>
-        <v>43420</v>
+        <v>43378</v>
       </c>
       <c r="P6" s="83">
         <f t="shared" si="0"/>
-        <v>43421</v>
+        <v>43379</v>
       </c>
       <c r="Q6" s="93">
         <f t="shared" si="0"/>
-        <v>43422</v>
+        <v>43380</v>
       </c>
       <c r="R6" s="92">
         <f t="shared" si="0"/>
-        <v>43423</v>
+        <v>43381</v>
       </c>
       <c r="S6" s="83">
         <f t="shared" si="0"/>
-        <v>43424</v>
+        <v>43382</v>
       </c>
       <c r="T6" s="83">
         <f t="shared" si="0"/>
-        <v>43425</v>
+        <v>43383</v>
       </c>
       <c r="U6" s="83">
         <f t="shared" si="0"/>
-        <v>43426</v>
+        <v>43384</v>
       </c>
       <c r="V6" s="83">
         <f t="shared" si="0"/>
-        <v>43427</v>
+        <v>43385</v>
       </c>
       <c r="W6" s="83">
         <f t="shared" si="0"/>
-        <v>43428</v>
+        <v>43386</v>
       </c>
       <c r="X6" s="93">
         <f t="shared" si="0"/>
-        <v>43429</v>
+        <v>43387</v>
       </c>
       <c r="Y6" s="92">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>43388</v>
       </c>
       <c r="Z6" s="83">
         <f t="shared" si="0"/>
-        <v>43431</v>
+        <v>43389</v>
       </c>
       <c r="AA6" s="83">
         <f t="shared" si="0"/>
-        <v>43432</v>
+        <v>43390</v>
       </c>
       <c r="AB6" s="83">
         <f t="shared" si="0"/>
-        <v>43433</v>
+        <v>43391</v>
       </c>
       <c r="AC6" s="83">
         <f t="shared" si="0"/>
-        <v>43434</v>
+        <v>43392</v>
       </c>
       <c r="AD6" s="83">
         <f t="shared" si="0"/>
-        <v>43435</v>
+        <v>43393</v>
       </c>
       <c r="AE6" s="93">
         <f t="shared" si="0"/>
-        <v>43436</v>
+        <v>43394</v>
       </c>
       <c r="AF6" s="92">
         <f t="shared" si="0"/>
-        <v>43437</v>
+        <v>43395</v>
       </c>
       <c r="AG6" s="83">
         <f t="shared" si="0"/>
-        <v>43438</v>
+        <v>43396</v>
       </c>
       <c r="AH6" s="83">
         <f t="shared" si="0"/>
-        <v>43439</v>
+        <v>43397</v>
       </c>
       <c r="AI6" s="83">
         <f t="shared" si="0"/>
-        <v>43440</v>
+        <v>43398</v>
       </c>
       <c r="AJ6" s="83">
         <f t="shared" si="0"/>
-        <v>43441</v>
+        <v>43399</v>
       </c>
       <c r="AK6" s="83">
         <f t="shared" si="0"/>
-        <v>43442</v>
+        <v>43400</v>
       </c>
       <c r="AL6" s="93">
         <f t="shared" si="0"/>
-        <v>43443</v>
+        <v>43401</v>
       </c>
       <c r="AM6" s="92">
         <f t="shared" si="0"/>
-        <v>43444</v>
+        <v>43402</v>
       </c>
       <c r="AN6" s="83">
         <f t="shared" si="0"/>
-        <v>43445</v>
+        <v>43403</v>
       </c>
       <c r="AO6" s="83">
         <f t="shared" si="0"/>
-        <v>43446</v>
+        <v>43404</v>
       </c>
       <c r="AP6" s="83">
         <f t="shared" si="0"/>
-        <v>43447</v>
+        <v>43405</v>
       </c>
       <c r="AQ6" s="83">
         <f t="shared" si="0"/>
-        <v>43448</v>
+        <v>43406</v>
       </c>
       <c r="AR6" s="83">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>43449</v>
+        <v>43407</v>
       </c>
       <c r="AS6" s="93">
         <f t="shared" si="1"/>
-        <v>43450</v>
+        <v>43408</v>
       </c>
       <c r="AT6" s="92">
         <f t="shared" si="1"/>
-        <v>43451</v>
+        <v>43409</v>
       </c>
       <c r="AU6" s="83">
         <f t="shared" si="1"/>
-        <v>43452</v>
+        <v>43410</v>
       </c>
       <c r="AV6" s="83">
         <f t="shared" si="1"/>
-        <v>43453</v>
+        <v>43411</v>
       </c>
       <c r="AW6" s="83">
         <f t="shared" si="1"/>
-        <v>43454</v>
+        <v>43412</v>
       </c>
       <c r="AX6" s="83">
         <f t="shared" si="1"/>
-        <v>43455</v>
+        <v>43413</v>
       </c>
       <c r="AY6" s="83">
         <f t="shared" si="1"/>
-        <v>43456</v>
+        <v>43414</v>
       </c>
       <c r="AZ6" s="93">
         <f t="shared" si="1"/>
-        <v>43457</v>
+        <v>43415</v>
       </c>
       <c r="BA6" s="92">
         <f t="shared" si="1"/>
-        <v>43458</v>
+        <v>43416</v>
       </c>
       <c r="BB6" s="83">
         <f t="shared" si="1"/>
-        <v>43459</v>
+        <v>43417</v>
       </c>
       <c r="BC6" s="83">
         <f t="shared" si="1"/>
-        <v>43460</v>
+        <v>43418</v>
       </c>
       <c r="BD6" s="83">
         <f t="shared" si="1"/>
-        <v>43461</v>
+        <v>43419</v>
       </c>
       <c r="BE6" s="83">
         <f t="shared" si="1"/>
-        <v>43462</v>
+        <v>43420</v>
       </c>
       <c r="BF6" s="83">
         <f t="shared" si="1"/>
-        <v>43463</v>
+        <v>43421</v>
       </c>
       <c r="BG6" s="93">
         <f t="shared" si="1"/>
-        <v>43464</v>
+        <v>43422</v>
       </c>
       <c r="BH6" s="92">
         <f t="shared" si="1"/>
-        <v>43465</v>
+        <v>43423</v>
       </c>
       <c r="BI6" s="83">
         <f t="shared" si="1"/>
-        <v>43466</v>
+        <v>43424</v>
       </c>
       <c r="BJ6" s="83">
         <f t="shared" si="1"/>
-        <v>43467</v>
+        <v>43425</v>
       </c>
       <c r="BK6" s="83">
         <f t="shared" si="1"/>
-        <v>43468</v>
+        <v>43426</v>
       </c>
       <c r="BL6" s="83">
         <f t="shared" si="1"/>
-        <v>43469</v>
+        <v>43427</v>
       </c>
       <c r="BM6" s="83">
         <f t="shared" si="1"/>
-        <v>43470</v>
+        <v>43428</v>
       </c>
       <c r="BN6" s="93">
         <f t="shared" si="1"/>
-        <v>43471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" s="170" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" s="160" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="115" t="s">
         <v>0</v>
       </c>
@@ -4705,7 +4653,7 @@
       <c r="S9" s="107"/>
       <c r="T9" s="107"/>
       <c r="U9" s="107"/>
-      <c r="V9" s="171"/>
+      <c r="V9" s="161"/>
       <c r="W9" s="107"/>
       <c r="X9" s="107"/>
       <c r="Y9" s="107"/>
@@ -5999,7 +5947,7 @@
     </row>
     <row r="25" spans="1:66" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A25" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A25:A30" si="11">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
       <c r="B25" s="124" t="s">
@@ -6083,7 +6031,7 @@
     </row>
     <row r="26" spans="1:66" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A26" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>4.2</v>
       </c>
       <c r="B26" s="124" t="s">
@@ -6167,7 +6115,7 @@
     </row>
     <row r="27" spans="1:66" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A27" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>4.3</v>
       </c>
       <c r="B27" s="124" t="s">
@@ -6251,7 +6199,7 @@
     </row>
     <row r="28" spans="1:66" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A28" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>4.4</v>
       </c>
       <c r="B28" s="124" t="s">
@@ -6335,7 +6283,7 @@
     </row>
     <row r="29" spans="1:66" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A29" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
       <c r="B29" s="124" t="s">
@@ -6346,7 +6294,7 @@
         <v>43416</v>
       </c>
       <c r="F29" s="101">
-        <f t="shared" ref="F29" si="11">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
+        <f t="shared" ref="F29" si="12">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
         <v>43422</v>
       </c>
       <c r="G29" s="62">
@@ -6356,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="64">
-        <f t="shared" ref="I29" si="12">IF(OR(F29=0,E29=0)," - ",NETWORKDAYS(E29,F29))</f>
+        <f t="shared" ref="I29" si="13">IF(OR(F29=0,E29=0)," - ",NETWORKDAYS(E29,F29))</f>
         <v>5</v>
       </c>
       <c r="J29" s="95"/>
@@ -6419,7 +6367,7 @@
     </row>
     <row r="30" spans="1:66" s="61" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A30" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" si="11"/>
         <v>4.6</v>
       </c>
       <c r="B30" s="124" t="s">
@@ -6512,13 +6460,13 @@
       <c r="D31" s="56"/>
       <c r="E31" s="102"/>
       <c r="F31" s="102" t="str">
-        <f t="shared" ref="F31:F32" si="13">IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
+        <f t="shared" ref="F31:F32" si="14">IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G31" s="57"/>
       <c r="H31" s="58"/>
       <c r="I31" s="59" t="str">
-        <f t="shared" ref="I31:I32" si="14">IF(OR(F31=0,E31=0)," - ",NETWORKDAYS(E31,F31))</f>
+        <f t="shared" ref="I31:I32" si="15">IF(OR(F31=0,E31=0)," - ",NETWORKDAYS(E31,F31))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J31" s="96"/>
@@ -6589,13 +6537,13 @@
       <c r="D32" s="79"/>
       <c r="E32" s="100"/>
       <c r="F32" s="101" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G32" s="62"/>
       <c r="H32" s="63"/>
       <c r="I32" s="80" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J32" s="99"/>
@@ -6667,13 +6615,13 @@
       <c r="D33" s="56"/>
       <c r="E33" s="102"/>
       <c r="F33" s="102" t="str">
-        <f t="shared" ref="F33:F34" si="15">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
+        <f t="shared" ref="F33:F34" si="16">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G33" s="57"/>
       <c r="H33" s="58"/>
       <c r="I33" s="59" t="str">
-        <f t="shared" ref="I33:I34" si="16">IF(OR(F33=0,E33=0)," - ",NETWORKDAYS(E33,F33))</f>
+        <f t="shared" ref="I33:I34" si="17">IF(OR(F33=0,E33=0)," - ",NETWORKDAYS(E33,F33))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J33" s="96"/>
@@ -6744,13 +6692,13 @@
       <c r="D34" s="79"/>
       <c r="E34" s="100"/>
       <c r="F34" s="101" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G34" s="62"/>
       <c r="H34" s="63"/>
       <c r="I34" s="80" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J34" s="99"/>
@@ -6822,13 +6770,13 @@
       <c r="D35" s="56"/>
       <c r="E35" s="102"/>
       <c r="F35" s="102" t="str">
-        <f t="shared" ref="F35:F46" si="17">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
+        <f t="shared" ref="F35:F46" si="18">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G35" s="57"/>
       <c r="H35" s="58"/>
       <c r="I35" s="59" t="str">
-        <f t="shared" ref="I35:I46" si="18">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
+        <f t="shared" ref="I35:I46" si="19">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J35" s="96"/>
@@ -6899,13 +6847,13 @@
       <c r="D36" s="79"/>
       <c r="E36" s="100"/>
       <c r="F36" s="101" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G36" s="62"/>
       <c r="H36" s="63"/>
       <c r="I36" s="80" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J36" s="99"/>
@@ -6977,13 +6925,13 @@
       <c r="D37" s="56"/>
       <c r="E37" s="102"/>
       <c r="F37" s="102" t="str">
-        <f t="shared" ref="F37:F38" si="19">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
+        <f t="shared" ref="F37:F38" si="20">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G37" s="57"/>
       <c r="H37" s="58"/>
       <c r="I37" s="59" t="str">
-        <f t="shared" ref="I37:I38" si="20">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
+        <f t="shared" ref="I37:I38" si="21">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J37" s="96"/>
@@ -7054,13 +7002,13 @@
       <c r="D38" s="79"/>
       <c r="E38" s="100"/>
       <c r="F38" s="101" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G38" s="62"/>
       <c r="H38" s="63"/>
       <c r="I38" s="80" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J38" s="99"/>
@@ -7132,13 +7080,13 @@
       <c r="D39" s="56"/>
       <c r="E39" s="102"/>
       <c r="F39" s="102" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G39" s="57"/>
       <c r="H39" s="58"/>
       <c r="I39" s="59" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J39" s="96"/>
@@ -7209,13 +7157,13 @@
       <c r="D40" s="79"/>
       <c r="E40" s="100"/>
       <c r="F40" s="101" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G40" s="62"/>
       <c r="H40" s="63"/>
       <c r="I40" s="80" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J40" s="99"/>
@@ -7287,13 +7235,13 @@
       <c r="D41" s="56"/>
       <c r="E41" s="102"/>
       <c r="F41" s="102" t="str">
-        <f t="shared" ref="F41:F42" si="21">IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
+        <f t="shared" ref="F41:F42" si="22">IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G41" s="57"/>
       <c r="H41" s="58"/>
       <c r="I41" s="59" t="str">
-        <f t="shared" ref="I41:I42" si="22">IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
+        <f t="shared" ref="I41:I42" si="23">IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J41" s="96"/>
@@ -7364,13 +7312,13 @@
       <c r="D42" s="79"/>
       <c r="E42" s="100"/>
       <c r="F42" s="101" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G42" s="62"/>
       <c r="H42" s="63"/>
       <c r="I42" s="80" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J42" s="99"/>
@@ -7442,13 +7390,13 @@
       <c r="D43" s="56"/>
       <c r="E43" s="102"/>
       <c r="F43" s="102" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G43" s="57"/>
       <c r="H43" s="58"/>
       <c r="I43" s="59" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J43" s="96"/>
@@ -7519,13 +7467,13 @@
       <c r="D44" s="79"/>
       <c r="E44" s="100"/>
       <c r="F44" s="101" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G44" s="62"/>
       <c r="H44" s="63"/>
       <c r="I44" s="80" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J44" s="99"/>
@@ -7597,13 +7545,13 @@
       <c r="D45" s="56"/>
       <c r="E45" s="102"/>
       <c r="F45" s="102" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G45" s="57"/>
       <c r="H45" s="58"/>
       <c r="I45" s="59" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J45" s="96"/>
@@ -7674,13 +7622,13 @@
       <c r="D46" s="79"/>
       <c r="E46" s="100"/>
       <c r="F46" s="101" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G46" s="62"/>
       <c r="H46" s="63"/>
       <c r="I46" s="80" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J46" s="99"/>
@@ -7752,13 +7700,13 @@
       <c r="D47" s="56"/>
       <c r="E47" s="102"/>
       <c r="F47" s="102" t="str">
-        <f t="shared" ref="F47:F48" si="23">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
+        <f t="shared" ref="F47:F48" si="24">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G47" s="57"/>
       <c r="H47" s="58"/>
       <c r="I47" s="59" t="str">
-        <f t="shared" ref="I47:I48" si="24">IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
+        <f t="shared" ref="I47:I48" si="25">IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J47" s="96"/>
@@ -7831,13 +7779,13 @@
       <c r="D48" s="79"/>
       <c r="E48" s="100"/>
       <c r="F48" s="101" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G48" s="62"/>
       <c r="H48" s="63"/>
       <c r="I48" s="80" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J48" s="99"/>
@@ -8121,7 +8069,7 @@
       <c r="D52" s="79"/>
       <c r="E52" s="100"/>
       <c r="F52" s="101" t="str">
-        <f t="shared" ref="F52:F55" si="25">IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
+        <f t="shared" ref="F52:F55" si="26">IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G52" s="62"/>
@@ -8200,13 +8148,13 @@
       <c r="D53" s="79"/>
       <c r="E53" s="100"/>
       <c r="F53" s="101" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G53" s="62"/>
       <c r="H53" s="63"/>
       <c r="I53" s="80" t="str">
-        <f t="shared" ref="I53:I55" si="26">IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
+        <f t="shared" ref="I53:I55" si="27">IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J53" s="99"/>
@@ -8279,13 +8227,13 @@
       <c r="D54" s="79"/>
       <c r="E54" s="100"/>
       <c r="F54" s="101" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G54" s="62"/>
       <c r="H54" s="63"/>
       <c r="I54" s="80" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J54" s="99"/>
@@ -8358,13 +8306,13 @@
       <c r="D55" s="79"/>
       <c r="E55" s="100"/>
       <c r="F55" s="101" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G55" s="62"/>
       <c r="H55" s="63"/>
       <c r="I55" s="80" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J55" s="99"/>
@@ -8496,6 +8444,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -8506,15 +8463,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H11 H16:H18 H49:H55 H30 H20:H28 H13">
@@ -9672,10 +9620,10 @@
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="169"/>
+      <c r="B13" s="171"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:3" s="131" customFormat="1" ht="18" x14ac:dyDescent="0.15">
@@ -9737,10 +9685,10 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="169" t="s">
+      <c r="A24" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="169"/>
+      <c r="B24" s="171"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A25" s="141"/>
@@ -9813,10 +9761,10 @@
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="169" t="s">
+      <c r="A38" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="169"/>
+      <c r="B38" s="171"/>
     </row>
     <row r="39" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B39" s="138" t="s">
@@ -9853,10 +9801,10 @@
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="169" t="s">
+      <c r="A49" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="169"/>
+      <c r="B49" s="171"/>
     </row>
     <row r="50" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B50" s="138" t="s">
@@ -9954,10 +9902,10 @@
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="169" t="s">
+      <c r="A65" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="169"/>
+      <c r="B65" s="171"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="B66" s="138" t="s">
@@ -9968,10 +9916,10 @@
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="169" t="s">
+      <c r="A68" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="169"/>
+      <c r="B68" s="171"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="153" t="s">

--- a/0b_forms/gantt_chart.xlsx
+++ b/0b_forms/gantt_chart.xlsx
@@ -2594,24 +2594,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2619,9 +2601,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3125,7 +3125,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3189,7 +3189,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3239,7 +3239,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,7 +3323,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3378,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3433,7 +3433,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3762,7 +3762,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3790,27 +3790,27 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="I1" s="129"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
@@ -3855,11 +3855,11 @@
       <c r="B4" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="170">
+      <c r="C4" s="167">
         <v>43374</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
       <c r="F4" s="110"/>
       <c r="G4" s="113" t="s">
         <v>73</v>
@@ -3869,182 +3869,182 @@
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="162" t="str">
+      <c r="K4" s="164" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="162" t="str">
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="164" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="164"/>
-      <c r="Y4" s="162" t="str">
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="164" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="164"/>
-      <c r="AF4" s="162" t="str">
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="166"/>
+      <c r="AF4" s="164" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
-      <c r="AK4" s="163"/>
-      <c r="AL4" s="164"/>
-      <c r="AM4" s="162" t="str">
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
+      <c r="AK4" s="165"/>
+      <c r="AL4" s="166"/>
+      <c r="AM4" s="164" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="163"/>
-      <c r="AO4" s="163"/>
-      <c r="AP4" s="163"/>
-      <c r="AQ4" s="163"/>
-      <c r="AR4" s="163"/>
-      <c r="AS4" s="164"/>
-      <c r="AT4" s="162" t="str">
+      <c r="AN4" s="165"/>
+      <c r="AO4" s="165"/>
+      <c r="AP4" s="165"/>
+      <c r="AQ4" s="165"/>
+      <c r="AR4" s="165"/>
+      <c r="AS4" s="166"/>
+      <c r="AT4" s="164" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="163"/>
-      <c r="AV4" s="163"/>
-      <c r="AW4" s="163"/>
-      <c r="AX4" s="163"/>
-      <c r="AY4" s="163"/>
-      <c r="AZ4" s="164"/>
-      <c r="BA4" s="162" t="str">
+      <c r="AU4" s="165"/>
+      <c r="AV4" s="165"/>
+      <c r="AW4" s="165"/>
+      <c r="AX4" s="165"/>
+      <c r="AY4" s="165"/>
+      <c r="AZ4" s="166"/>
+      <c r="BA4" s="164" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="163"/>
-      <c r="BC4" s="163"/>
-      <c r="BD4" s="163"/>
-      <c r="BE4" s="163"/>
-      <c r="BF4" s="163"/>
-      <c r="BG4" s="164"/>
-      <c r="BH4" s="162" t="str">
+      <c r="BB4" s="165"/>
+      <c r="BC4" s="165"/>
+      <c r="BD4" s="165"/>
+      <c r="BE4" s="165"/>
+      <c r="BF4" s="165"/>
+      <c r="BG4" s="166"/>
+      <c r="BH4" s="164" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="163"/>
-      <c r="BJ4" s="163"/>
-      <c r="BK4" s="163"/>
-      <c r="BL4" s="163"/>
-      <c r="BM4" s="163"/>
-      <c r="BN4" s="164"/>
+      <c r="BI4" s="165"/>
+      <c r="BJ4" s="165"/>
+      <c r="BK4" s="165"/>
+      <c r="BL4" s="165"/>
+      <c r="BM4" s="165"/>
+      <c r="BN4" s="166"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="109"/>
       <c r="B5" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="169">
+      <c r="C5" s="163">
         <v>43612</v>
       </c>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="165">
+      <c r="K5" s="168">
         <f>K6</f>
         <v>43374</v>
       </c>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="165">
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="170"/>
+      <c r="R5" s="168">
         <f>R6</f>
         <v>43381</v>
       </c>
-      <c r="S5" s="166"/>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="166"/>
-      <c r="W5" s="166"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="165">
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="169"/>
+      <c r="W5" s="169"/>
+      <c r="X5" s="170"/>
+      <c r="Y5" s="168">
         <f>Y6</f>
         <v>43388</v>
       </c>
-      <c r="Z5" s="166"/>
-      <c r="AA5" s="166"/>
-      <c r="AB5" s="166"/>
-      <c r="AC5" s="166"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="165">
+      <c r="Z5" s="169"/>
+      <c r="AA5" s="169"/>
+      <c r="AB5" s="169"/>
+      <c r="AC5" s="169"/>
+      <c r="AD5" s="169"/>
+      <c r="AE5" s="170"/>
+      <c r="AF5" s="168">
         <f>AF6</f>
         <v>43395</v>
       </c>
-      <c r="AG5" s="166"/>
-      <c r="AH5" s="166"/>
-      <c r="AI5" s="166"/>
-      <c r="AJ5" s="166"/>
-      <c r="AK5" s="166"/>
-      <c r="AL5" s="167"/>
-      <c r="AM5" s="165">
+      <c r="AG5" s="169"/>
+      <c r="AH5" s="169"/>
+      <c r="AI5" s="169"/>
+      <c r="AJ5" s="169"/>
+      <c r="AK5" s="169"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="168">
         <f>AM6</f>
         <v>43402</v>
       </c>
-      <c r="AN5" s="166"/>
-      <c r="AO5" s="166"/>
-      <c r="AP5" s="166"/>
-      <c r="AQ5" s="166"/>
-      <c r="AR5" s="166"/>
-      <c r="AS5" s="167"/>
-      <c r="AT5" s="165">
+      <c r="AN5" s="169"/>
+      <c r="AO5" s="169"/>
+      <c r="AP5" s="169"/>
+      <c r="AQ5" s="169"/>
+      <c r="AR5" s="169"/>
+      <c r="AS5" s="170"/>
+      <c r="AT5" s="168">
         <f>AT6</f>
         <v>43409</v>
       </c>
-      <c r="AU5" s="166"/>
-      <c r="AV5" s="166"/>
-      <c r="AW5" s="166"/>
-      <c r="AX5" s="166"/>
-      <c r="AY5" s="166"/>
-      <c r="AZ5" s="167"/>
-      <c r="BA5" s="165">
+      <c r="AU5" s="169"/>
+      <c r="AV5" s="169"/>
+      <c r="AW5" s="169"/>
+      <c r="AX5" s="169"/>
+      <c r="AY5" s="169"/>
+      <c r="AZ5" s="170"/>
+      <c r="BA5" s="168">
         <f>BA6</f>
         <v>43416</v>
       </c>
-      <c r="BB5" s="166"/>
-      <c r="BC5" s="166"/>
-      <c r="BD5" s="166"/>
-      <c r="BE5" s="166"/>
-      <c r="BF5" s="166"/>
-      <c r="BG5" s="167"/>
-      <c r="BH5" s="165">
+      <c r="BB5" s="169"/>
+      <c r="BC5" s="169"/>
+      <c r="BD5" s="169"/>
+      <c r="BE5" s="169"/>
+      <c r="BF5" s="169"/>
+      <c r="BG5" s="170"/>
+      <c r="BH5" s="168">
         <f>BH6</f>
         <v>43423</v>
       </c>
-      <c r="BI5" s="166"/>
-      <c r="BJ5" s="166"/>
-      <c r="BK5" s="166"/>
-      <c r="BL5" s="166"/>
-      <c r="BM5" s="166"/>
-      <c r="BN5" s="167"/>
+      <c r="BI5" s="169"/>
+      <c r="BJ5" s="169"/>
+      <c r="BK5" s="169"/>
+      <c r="BL5" s="169"/>
+      <c r="BM5" s="169"/>
+      <c r="BN5" s="170"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
@@ -6133,7 +6133,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="63">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="I27" s="64">
         <f t="shared" si="4"/>
@@ -6217,7 +6217,7 @@
         <v>7</v>
       </c>
       <c r="H28" s="63">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I28" s="64">
         <f t="shared" si="4"/>
@@ -6301,7 +6301,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="63">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I29" s="64">
         <f t="shared" ref="I29" si="13">IF(OR(F29=0,E29=0)," - ",NETWORKDAYS(E29,F29))</f>
@@ -6385,7 +6385,7 @@
         <v>7</v>
       </c>
       <c r="H30" s="63">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I30" s="64">
         <f t="shared" si="4"/>
@@ -8444,15 +8444,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -8463,6 +8454,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H11 H16:H18 H49:H55 H30 H20:H28 H13">

--- a/0b_forms/gantt_chart.xlsx
+++ b/0b_forms/gantt_chart.xlsx
@@ -2594,6 +2594,24 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2601,27 +2619,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3125,7 +3125,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3189,7 +3189,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E200000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3239,7 +3239,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,7 +3323,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3378,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3433,7 +3433,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,9 +3760,9 @@
   </sheetPr>
   <dimension ref="A1:BN56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="158" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3790,27 +3790,27 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="I1" s="129"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
@@ -3855,11 +3855,11 @@
       <c r="B4" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="167">
+      <c r="C4" s="170">
         <v>43374</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
       <c r="F4" s="110"/>
       <c r="G4" s="113" t="s">
         <v>73</v>
@@ -3869,182 +3869,182 @@
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="164" t="str">
+      <c r="K4" s="162" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="164" t="str">
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="162" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="164" t="str">
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="164"/>
+      <c r="Y4" s="162" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="165"/>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="165"/>
-      <c r="AE4" s="166"/>
-      <c r="AF4" s="164" t="str">
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="164"/>
+      <c r="AF4" s="162" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="165"/>
-      <c r="AH4" s="165"/>
-      <c r="AI4" s="165"/>
-      <c r="AJ4" s="165"/>
-      <c r="AK4" s="165"/>
-      <c r="AL4" s="166"/>
-      <c r="AM4" s="164" t="str">
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="164"/>
+      <c r="AM4" s="162" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="165"/>
-      <c r="AO4" s="165"/>
-      <c r="AP4" s="165"/>
-      <c r="AQ4" s="165"/>
-      <c r="AR4" s="165"/>
-      <c r="AS4" s="166"/>
-      <c r="AT4" s="164" t="str">
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="164"/>
+      <c r="AT4" s="162" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="165"/>
-      <c r="AV4" s="165"/>
-      <c r="AW4" s="165"/>
-      <c r="AX4" s="165"/>
-      <c r="AY4" s="165"/>
-      <c r="AZ4" s="166"/>
-      <c r="BA4" s="164" t="str">
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
+      <c r="AX4" s="163"/>
+      <c r="AY4" s="163"/>
+      <c r="AZ4" s="164"/>
+      <c r="BA4" s="162" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="165"/>
-      <c r="BC4" s="165"/>
-      <c r="BD4" s="165"/>
-      <c r="BE4" s="165"/>
-      <c r="BF4" s="165"/>
-      <c r="BG4" s="166"/>
-      <c r="BH4" s="164" t="str">
+      <c r="BB4" s="163"/>
+      <c r="BC4" s="163"/>
+      <c r="BD4" s="163"/>
+      <c r="BE4" s="163"/>
+      <c r="BF4" s="163"/>
+      <c r="BG4" s="164"/>
+      <c r="BH4" s="162" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="165"/>
-      <c r="BJ4" s="165"/>
-      <c r="BK4" s="165"/>
-      <c r="BL4" s="165"/>
-      <c r="BM4" s="165"/>
-      <c r="BN4" s="166"/>
+      <c r="BI4" s="163"/>
+      <c r="BJ4" s="163"/>
+      <c r="BK4" s="163"/>
+      <c r="BL4" s="163"/>
+      <c r="BM4" s="163"/>
+      <c r="BN4" s="164"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="109"/>
       <c r="B5" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="163">
+      <c r="C5" s="169">
         <v>43612</v>
       </c>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="168">
+      <c r="K5" s="165">
         <f>K6</f>
         <v>43374</v>
       </c>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="168">
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="165">
         <f>R6</f>
         <v>43381</v>
       </c>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="169"/>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="168">
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="166"/>
+      <c r="X5" s="167"/>
+      <c r="Y5" s="165">
         <f>Y6</f>
         <v>43388</v>
       </c>
-      <c r="Z5" s="169"/>
-      <c r="AA5" s="169"/>
-      <c r="AB5" s="169"/>
-      <c r="AC5" s="169"/>
-      <c r="AD5" s="169"/>
-      <c r="AE5" s="170"/>
-      <c r="AF5" s="168">
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="166"/>
+      <c r="AB5" s="166"/>
+      <c r="AC5" s="166"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="167"/>
+      <c r="AF5" s="165">
         <f>AF6</f>
         <v>43395</v>
       </c>
-      <c r="AG5" s="169"/>
-      <c r="AH5" s="169"/>
-      <c r="AI5" s="169"/>
-      <c r="AJ5" s="169"/>
-      <c r="AK5" s="169"/>
-      <c r="AL5" s="170"/>
-      <c r="AM5" s="168">
+      <c r="AG5" s="166"/>
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="166"/>
+      <c r="AL5" s="167"/>
+      <c r="AM5" s="165">
         <f>AM6</f>
         <v>43402</v>
       </c>
-      <c r="AN5" s="169"/>
-      <c r="AO5" s="169"/>
-      <c r="AP5" s="169"/>
-      <c r="AQ5" s="169"/>
-      <c r="AR5" s="169"/>
-      <c r="AS5" s="170"/>
-      <c r="AT5" s="168">
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="166"/>
+      <c r="AP5" s="166"/>
+      <c r="AQ5" s="166"/>
+      <c r="AR5" s="166"/>
+      <c r="AS5" s="167"/>
+      <c r="AT5" s="165">
         <f>AT6</f>
         <v>43409</v>
       </c>
-      <c r="AU5" s="169"/>
-      <c r="AV5" s="169"/>
-      <c r="AW5" s="169"/>
-      <c r="AX5" s="169"/>
-      <c r="AY5" s="169"/>
-      <c r="AZ5" s="170"/>
-      <c r="BA5" s="168">
+      <c r="AU5" s="166"/>
+      <c r="AV5" s="166"/>
+      <c r="AW5" s="166"/>
+      <c r="AX5" s="166"/>
+      <c r="AY5" s="166"/>
+      <c r="AZ5" s="167"/>
+      <c r="BA5" s="165">
         <f>BA6</f>
         <v>43416</v>
       </c>
-      <c r="BB5" s="169"/>
-      <c r="BC5" s="169"/>
-      <c r="BD5" s="169"/>
-      <c r="BE5" s="169"/>
-      <c r="BF5" s="169"/>
-      <c r="BG5" s="170"/>
-      <c r="BH5" s="168">
+      <c r="BB5" s="166"/>
+      <c r="BC5" s="166"/>
+      <c r="BD5" s="166"/>
+      <c r="BE5" s="166"/>
+      <c r="BF5" s="166"/>
+      <c r="BG5" s="167"/>
+      <c r="BH5" s="165">
         <f>BH6</f>
         <v>43423</v>
       </c>
-      <c r="BI5" s="169"/>
-      <c r="BJ5" s="169"/>
-      <c r="BK5" s="169"/>
-      <c r="BL5" s="169"/>
-      <c r="BM5" s="169"/>
-      <c r="BN5" s="170"/>
+      <c r="BI5" s="166"/>
+      <c r="BJ5" s="166"/>
+      <c r="BK5" s="166"/>
+      <c r="BL5" s="166"/>
+      <c r="BM5" s="166"/>
+      <c r="BN5" s="167"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
@@ -6133,7 +6133,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I27" s="64">
         <f t="shared" si="4"/>
@@ -6301,7 +6301,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="63">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I29" s="64">
         <f t="shared" ref="I29" si="13">IF(OR(F29=0,E29=0)," - ",NETWORKDAYS(E29,F29))</f>
@@ -6385,7 +6385,7 @@
         <v>7</v>
       </c>
       <c r="H30" s="63">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I30" s="64">
         <f t="shared" si="4"/>
@@ -8444,6 +8444,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -8454,15 +8463,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H11 H16:H18 H49:H55 H30 H20:H28 H13">

--- a/0b_forms/gantt_chart.xlsx
+++ b/0b_forms/gantt_chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="33600" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="186">
   <si>
     <t>WBS</t>
   </si>
@@ -1222,9 +1222,6 @@
     <t>Proposal</t>
   </si>
   <si>
-    <t>Implementation</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -1265,6 +1262,60 @@
   </si>
   <si>
     <t>Open Questions</t>
+  </si>
+  <si>
+    <t>Android sensors prototype</t>
+  </si>
+  <si>
+    <t>Concept introduction &amp; user needs</t>
+  </si>
+  <si>
+    <t>Stakeholder requirements</t>
+  </si>
+  <si>
+    <t>Prior knowledge</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Functional specification</t>
+  </si>
+  <si>
+    <t>Ethical audit</t>
+  </si>
+  <si>
+    <t>Technical architecture</t>
+  </si>
+  <si>
+    <t>Evaluation plan</t>
+  </si>
+  <si>
+    <t>Project management</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Refine UI &amp; UX prototype</t>
+  </si>
+  <si>
+    <t>Answer open questions</t>
+  </si>
+  <si>
+    <t>Validate proposed solution with users</t>
+  </si>
+  <si>
+    <t>Technical architecture and specification</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Review current project state</t>
+  </si>
+  <si>
+    <t>User stories and acceptane stories</t>
   </si>
 </sst>
 </file>
@@ -2594,24 +2645,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2619,9 +2652,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2673,7 +2724,357 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="66">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -3102,7 +3503,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="8"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3125,7 +3526,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3189,7 +3590,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3239,7 +3640,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,7 +3724,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3779,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3433,7 +3834,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3758,19 +4159,19 @@
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN56"/>
+  <dimension ref="A1:BN71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="158" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
@@ -3790,27 +4191,27 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="I1" s="129"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
@@ -3855,196 +4256,196 @@
       <c r="B4" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="170">
+      <c r="C4" s="167">
         <v>43374</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
       <c r="F4" s="110"/>
       <c r="G4" s="113" t="s">
         <v>73</v>
       </c>
       <c r="H4" s="126">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="162" t="str">
+      <c r="K4" s="164" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 1</v>
-      </c>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="162" t="str">
+        <v>Week 8</v>
+      </c>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="164" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="164"/>
-      <c r="Y4" s="162" t="str">
+        <v>Week 9</v>
+      </c>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="164" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="164"/>
-      <c r="AF4" s="162" t="str">
+        <v>Week 10</v>
+      </c>
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="166"/>
+      <c r="AF4" s="164" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
-      </c>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
-      <c r="AK4" s="163"/>
-      <c r="AL4" s="164"/>
-      <c r="AM4" s="162" t="str">
+        <v>Week 11</v>
+      </c>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
+      <c r="AK4" s="165"/>
+      <c r="AL4" s="166"/>
+      <c r="AM4" s="164" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
-      </c>
-      <c r="AN4" s="163"/>
-      <c r="AO4" s="163"/>
-      <c r="AP4" s="163"/>
-      <c r="AQ4" s="163"/>
-      <c r="AR4" s="163"/>
-      <c r="AS4" s="164"/>
-      <c r="AT4" s="162" t="str">
+        <v>Week 12</v>
+      </c>
+      <c r="AN4" s="165"/>
+      <c r="AO4" s="165"/>
+      <c r="AP4" s="165"/>
+      <c r="AQ4" s="165"/>
+      <c r="AR4" s="165"/>
+      <c r="AS4" s="166"/>
+      <c r="AT4" s="164" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
-      </c>
-      <c r="AU4" s="163"/>
-      <c r="AV4" s="163"/>
-      <c r="AW4" s="163"/>
-      <c r="AX4" s="163"/>
-      <c r="AY4" s="163"/>
-      <c r="AZ4" s="164"/>
-      <c r="BA4" s="162" t="str">
+        <v>Week 13</v>
+      </c>
+      <c r="AU4" s="165"/>
+      <c r="AV4" s="165"/>
+      <c r="AW4" s="165"/>
+      <c r="AX4" s="165"/>
+      <c r="AY4" s="165"/>
+      <c r="AZ4" s="166"/>
+      <c r="BA4" s="164" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
-      </c>
-      <c r="BB4" s="163"/>
-      <c r="BC4" s="163"/>
-      <c r="BD4" s="163"/>
-      <c r="BE4" s="163"/>
-      <c r="BF4" s="163"/>
-      <c r="BG4" s="164"/>
-      <c r="BH4" s="162" t="str">
+        <v>Week 14</v>
+      </c>
+      <c r="BB4" s="165"/>
+      <c r="BC4" s="165"/>
+      <c r="BD4" s="165"/>
+      <c r="BE4" s="165"/>
+      <c r="BF4" s="165"/>
+      <c r="BG4" s="166"/>
+      <c r="BH4" s="164" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
-      </c>
-      <c r="BI4" s="163"/>
-      <c r="BJ4" s="163"/>
-      <c r="BK4" s="163"/>
-      <c r="BL4" s="163"/>
-      <c r="BM4" s="163"/>
-      <c r="BN4" s="164"/>
+        <v>Week 15</v>
+      </c>
+      <c r="BI4" s="165"/>
+      <c r="BJ4" s="165"/>
+      <c r="BK4" s="165"/>
+      <c r="BL4" s="165"/>
+      <c r="BM4" s="165"/>
+      <c r="BN4" s="166"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="109"/>
       <c r="B5" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="169">
+      <c r="C5" s="163">
         <v>43612</v>
       </c>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="165">
+      <c r="K5" s="168">
         <f>K6</f>
-        <v>43374</v>
-      </c>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="165">
+        <v>43423</v>
+      </c>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="170"/>
+      <c r="R5" s="168">
         <f>R6</f>
-        <v>43381</v>
-      </c>
-      <c r="S5" s="166"/>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="166"/>
-      <c r="W5" s="166"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="165">
+        <v>43430</v>
+      </c>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="169"/>
+      <c r="W5" s="169"/>
+      <c r="X5" s="170"/>
+      <c r="Y5" s="168">
         <f>Y6</f>
-        <v>43388</v>
-      </c>
-      <c r="Z5" s="166"/>
-      <c r="AA5" s="166"/>
-      <c r="AB5" s="166"/>
-      <c r="AC5" s="166"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="165">
+        <v>43437</v>
+      </c>
+      <c r="Z5" s="169"/>
+      <c r="AA5" s="169"/>
+      <c r="AB5" s="169"/>
+      <c r="AC5" s="169"/>
+      <c r="AD5" s="169"/>
+      <c r="AE5" s="170"/>
+      <c r="AF5" s="168">
         <f>AF6</f>
-        <v>43395</v>
-      </c>
-      <c r="AG5" s="166"/>
-      <c r="AH5" s="166"/>
-      <c r="AI5" s="166"/>
-      <c r="AJ5" s="166"/>
-      <c r="AK5" s="166"/>
-      <c r="AL5" s="167"/>
-      <c r="AM5" s="165">
+        <v>43444</v>
+      </c>
+      <c r="AG5" s="169"/>
+      <c r="AH5" s="169"/>
+      <c r="AI5" s="169"/>
+      <c r="AJ5" s="169"/>
+      <c r="AK5" s="169"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="168">
         <f>AM6</f>
-        <v>43402</v>
-      </c>
-      <c r="AN5" s="166"/>
-      <c r="AO5" s="166"/>
-      <c r="AP5" s="166"/>
-      <c r="AQ5" s="166"/>
-      <c r="AR5" s="166"/>
-      <c r="AS5" s="167"/>
-      <c r="AT5" s="165">
+        <v>43451</v>
+      </c>
+      <c r="AN5" s="169"/>
+      <c r="AO5" s="169"/>
+      <c r="AP5" s="169"/>
+      <c r="AQ5" s="169"/>
+      <c r="AR5" s="169"/>
+      <c r="AS5" s="170"/>
+      <c r="AT5" s="168">
         <f>AT6</f>
-        <v>43409</v>
-      </c>
-      <c r="AU5" s="166"/>
-      <c r="AV5" s="166"/>
-      <c r="AW5" s="166"/>
-      <c r="AX5" s="166"/>
-      <c r="AY5" s="166"/>
-      <c r="AZ5" s="167"/>
-      <c r="BA5" s="165">
+        <v>43458</v>
+      </c>
+      <c r="AU5" s="169"/>
+      <c r="AV5" s="169"/>
+      <c r="AW5" s="169"/>
+      <c r="AX5" s="169"/>
+      <c r="AY5" s="169"/>
+      <c r="AZ5" s="170"/>
+      <c r="BA5" s="168">
         <f>BA6</f>
-        <v>43416</v>
-      </c>
-      <c r="BB5" s="166"/>
-      <c r="BC5" s="166"/>
-      <c r="BD5" s="166"/>
-      <c r="BE5" s="166"/>
-      <c r="BF5" s="166"/>
-      <c r="BG5" s="167"/>
-      <c r="BH5" s="165">
+        <v>43465</v>
+      </c>
+      <c r="BB5" s="169"/>
+      <c r="BC5" s="169"/>
+      <c r="BD5" s="169"/>
+      <c r="BE5" s="169"/>
+      <c r="BF5" s="169"/>
+      <c r="BG5" s="170"/>
+      <c r="BH5" s="168">
         <f>BH6</f>
-        <v>43423</v>
-      </c>
-      <c r="BI5" s="166"/>
-      <c r="BJ5" s="166"/>
-      <c r="BK5" s="166"/>
-      <c r="BL5" s="166"/>
-      <c r="BM5" s="166"/>
-      <c r="BN5" s="167"/>
+        <v>43472</v>
+      </c>
+      <c r="BI5" s="169"/>
+      <c r="BJ5" s="169"/>
+      <c r="BK5" s="169"/>
+      <c r="BL5" s="169"/>
+      <c r="BM5" s="169"/>
+      <c r="BN5" s="170"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
@@ -4059,227 +4460,227 @@
       <c r="J6" s="50"/>
       <c r="K6" s="92">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>43374</v>
+        <v>43423</v>
       </c>
       <c r="L6" s="83">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>43375</v>
+        <v>43424</v>
       </c>
       <c r="M6" s="83">
         <f t="shared" si="0"/>
-        <v>43376</v>
+        <v>43425</v>
       </c>
       <c r="N6" s="83">
         <f t="shared" si="0"/>
-        <v>43377</v>
+        <v>43426</v>
       </c>
       <c r="O6" s="83">
         <f t="shared" si="0"/>
-        <v>43378</v>
+        <v>43427</v>
       </c>
       <c r="P6" s="83">
         <f t="shared" si="0"/>
-        <v>43379</v>
+        <v>43428</v>
       </c>
       <c r="Q6" s="93">
         <f t="shared" si="0"/>
-        <v>43380</v>
+        <v>43429</v>
       </c>
       <c r="R6" s="92">
         <f t="shared" si="0"/>
-        <v>43381</v>
+        <v>43430</v>
       </c>
       <c r="S6" s="83">
         <f t="shared" si="0"/>
-        <v>43382</v>
+        <v>43431</v>
       </c>
       <c r="T6" s="83">
         <f t="shared" si="0"/>
-        <v>43383</v>
+        <v>43432</v>
       </c>
       <c r="U6" s="83">
         <f t="shared" si="0"/>
-        <v>43384</v>
+        <v>43433</v>
       </c>
       <c r="V6" s="83">
         <f t="shared" si="0"/>
-        <v>43385</v>
+        <v>43434</v>
       </c>
       <c r="W6" s="83">
         <f t="shared" si="0"/>
-        <v>43386</v>
+        <v>43435</v>
       </c>
       <c r="X6" s="93">
         <f t="shared" si="0"/>
-        <v>43387</v>
+        <v>43436</v>
       </c>
       <c r="Y6" s="92">
         <f t="shared" si="0"/>
-        <v>43388</v>
+        <v>43437</v>
       </c>
       <c r="Z6" s="83">
         <f t="shared" si="0"/>
-        <v>43389</v>
+        <v>43438</v>
       </c>
       <c r="AA6" s="83">
         <f t="shared" si="0"/>
-        <v>43390</v>
+        <v>43439</v>
       </c>
       <c r="AB6" s="83">
         <f t="shared" si="0"/>
-        <v>43391</v>
+        <v>43440</v>
       </c>
       <c r="AC6" s="83">
         <f t="shared" si="0"/>
-        <v>43392</v>
+        <v>43441</v>
       </c>
       <c r="AD6" s="83">
         <f t="shared" si="0"/>
-        <v>43393</v>
+        <v>43442</v>
       </c>
       <c r="AE6" s="93">
         <f t="shared" si="0"/>
-        <v>43394</v>
+        <v>43443</v>
       </c>
       <c r="AF6" s="92">
         <f t="shared" si="0"/>
-        <v>43395</v>
+        <v>43444</v>
       </c>
       <c r="AG6" s="83">
         <f t="shared" si="0"/>
-        <v>43396</v>
+        <v>43445</v>
       </c>
       <c r="AH6" s="83">
         <f t="shared" si="0"/>
-        <v>43397</v>
+        <v>43446</v>
       </c>
       <c r="AI6" s="83">
         <f t="shared" si="0"/>
-        <v>43398</v>
+        <v>43447</v>
       </c>
       <c r="AJ6" s="83">
         <f t="shared" si="0"/>
-        <v>43399</v>
+        <v>43448</v>
       </c>
       <c r="AK6" s="83">
         <f t="shared" si="0"/>
-        <v>43400</v>
+        <v>43449</v>
       </c>
       <c r="AL6" s="93">
         <f t="shared" si="0"/>
-        <v>43401</v>
+        <v>43450</v>
       </c>
       <c r="AM6" s="92">
         <f t="shared" si="0"/>
-        <v>43402</v>
+        <v>43451</v>
       </c>
       <c r="AN6" s="83">
         <f t="shared" si="0"/>
-        <v>43403</v>
+        <v>43452</v>
       </c>
       <c r="AO6" s="83">
         <f t="shared" si="0"/>
-        <v>43404</v>
+        <v>43453</v>
       </c>
       <c r="AP6" s="83">
         <f t="shared" si="0"/>
-        <v>43405</v>
+        <v>43454</v>
       </c>
       <c r="AQ6" s="83">
         <f t="shared" si="0"/>
-        <v>43406</v>
+        <v>43455</v>
       </c>
       <c r="AR6" s="83">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>43407</v>
+        <v>43456</v>
       </c>
       <c r="AS6" s="93">
         <f t="shared" si="1"/>
-        <v>43408</v>
+        <v>43457</v>
       </c>
       <c r="AT6" s="92">
         <f t="shared" si="1"/>
-        <v>43409</v>
+        <v>43458</v>
       </c>
       <c r="AU6" s="83">
         <f t="shared" si="1"/>
-        <v>43410</v>
+        <v>43459</v>
       </c>
       <c r="AV6" s="83">
         <f t="shared" si="1"/>
-        <v>43411</v>
+        <v>43460</v>
       </c>
       <c r="AW6" s="83">
         <f t="shared" si="1"/>
-        <v>43412</v>
+        <v>43461</v>
       </c>
       <c r="AX6" s="83">
         <f t="shared" si="1"/>
-        <v>43413</v>
+        <v>43462</v>
       </c>
       <c r="AY6" s="83">
         <f t="shared" si="1"/>
-        <v>43414</v>
+        <v>43463</v>
       </c>
       <c r="AZ6" s="93">
         <f t="shared" si="1"/>
-        <v>43415</v>
+        <v>43464</v>
       </c>
       <c r="BA6" s="92">
         <f t="shared" si="1"/>
-        <v>43416</v>
+        <v>43465</v>
       </c>
       <c r="BB6" s="83">
         <f t="shared" si="1"/>
-        <v>43417</v>
+        <v>43466</v>
       </c>
       <c r="BC6" s="83">
         <f t="shared" si="1"/>
-        <v>43418</v>
+        <v>43467</v>
       </c>
       <c r="BD6" s="83">
         <f t="shared" si="1"/>
-        <v>43419</v>
+        <v>43468</v>
       </c>
       <c r="BE6" s="83">
         <f t="shared" si="1"/>
-        <v>43420</v>
+        <v>43469</v>
       </c>
       <c r="BF6" s="83">
         <f t="shared" si="1"/>
-        <v>43421</v>
+        <v>43470</v>
       </c>
       <c r="BG6" s="93">
         <f t="shared" si="1"/>
-        <v>43422</v>
+        <v>43471</v>
       </c>
       <c r="BH6" s="92">
         <f t="shared" si="1"/>
-        <v>43423</v>
+        <v>43472</v>
       </c>
       <c r="BI6" s="83">
         <f t="shared" si="1"/>
-        <v>43424</v>
+        <v>43473</v>
       </c>
       <c r="BJ6" s="83">
         <f t="shared" si="1"/>
-        <v>43425</v>
+        <v>43474</v>
       </c>
       <c r="BK6" s="83">
         <f t="shared" si="1"/>
-        <v>43426</v>
+        <v>43475</v>
       </c>
       <c r="BL6" s="83">
         <f t="shared" si="1"/>
-        <v>43427</v>
+        <v>43476</v>
       </c>
       <c r="BM6" s="83">
         <f t="shared" si="1"/>
-        <v>43428</v>
+        <v>43477</v>
       </c>
       <c r="BN6" s="93">
         <f t="shared" si="1"/>
-        <v>43429</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="7" spans="1:66" s="160" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4554,7 +4955,7 @@
       <c r="G8" s="89"/>
       <c r="H8" s="90"/>
       <c r="I8" s="91" t="str">
-        <f t="shared" ref="I8:I49" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I64" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="94"/>
@@ -4710,7 +5111,7 @@
       <c r="D10" s="56"/>
       <c r="E10" s="102"/>
       <c r="F10" s="102" t="str">
-        <f t="shared" ref="F10:F30" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <f t="shared" ref="F10:F31" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G10" s="57"/>
@@ -4867,7 +5268,7 @@
         <v>2.1.1</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="81"/>
       <c r="D12" s="79"/>
@@ -5621,7 +6022,7 @@
         <v>3.1</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="125"/>
       <c r="E21" s="100">
@@ -5705,7 +6106,7 @@
         <v>3.2</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="125"/>
       <c r="E22" s="100">
@@ -5789,7 +6190,7 @@
         <v>3.3</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="125"/>
       <c r="E23" s="100">
@@ -5951,7 +6352,7 @@
         <v>4.1</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D25" s="125"/>
       <c r="E25" s="100">
@@ -6035,7 +6436,7 @@
         <v>4.2</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" s="125"/>
       <c r="E26" s="100">
@@ -6119,7 +6520,7 @@
         <v>4.3</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27" s="125"/>
       <c r="E27" s="100">
@@ -6203,7 +6604,7 @@
         <v>4.4</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D28" s="125"/>
       <c r="E28" s="100">
@@ -6287,7 +6688,7 @@
         <v>4.5</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D29" s="125"/>
       <c r="E29" s="100">
@@ -6371,7 +6772,7 @@
         <v>4.6</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D30" s="125"/>
       <c r="E30" s="100">
@@ -6449,102 +6850,117 @@
       <c r="BM30" s="107"/>
       <c r="BN30" s="107"/>
     </row>
-    <row r="31" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A31" s="53" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+    <row r="31" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A31" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.7</v>
+      </c>
+      <c r="B31" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="81"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="100">
+        <v>43423</v>
+      </c>
+      <c r="F31" s="101">
+        <f t="shared" si="6"/>
+        <v>43429</v>
+      </c>
+      <c r="G31" s="62">
+        <v>7</v>
+      </c>
+      <c r="H31" s="63">
+        <v>1</v>
+      </c>
+      <c r="I31" s="80">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B31" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102" t="str">
-        <f t="shared" ref="F31:F32" si="14">IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59" t="str">
-        <f t="shared" ref="I31:I32" si="15">IF(OR(F31=0,E31=0)," - ",NETWORKDAYS(E31,F31))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J31" s="96"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="108"/>
-      <c r="S31" s="108"/>
-      <c r="T31" s="108"/>
-      <c r="U31" s="108"/>
-      <c r="V31" s="108"/>
-      <c r="W31" s="108"/>
-      <c r="X31" s="108"/>
-      <c r="Y31" s="108"/>
-      <c r="Z31" s="108"/>
-      <c r="AA31" s="108"/>
-      <c r="AB31" s="108"/>
-      <c r="AC31" s="108"/>
-      <c r="AD31" s="108"/>
-      <c r="AE31" s="108"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="108"/>
-      <c r="AH31" s="108"/>
-      <c r="AI31" s="108"/>
-      <c r="AJ31" s="108"/>
-      <c r="AK31" s="108"/>
-      <c r="AL31" s="108"/>
-      <c r="AM31" s="108"/>
-      <c r="AN31" s="108"/>
-      <c r="AO31" s="108"/>
-      <c r="AP31" s="108"/>
-      <c r="AQ31" s="108"/>
-      <c r="AR31" s="108"/>
-      <c r="AS31" s="108"/>
-      <c r="AT31" s="108"/>
-      <c r="AU31" s="108"/>
-      <c r="AV31" s="108"/>
-      <c r="AW31" s="108"/>
-      <c r="AX31" s="108"/>
-      <c r="AY31" s="108"/>
-      <c r="AZ31" s="108"/>
-      <c r="BA31" s="108"/>
-      <c r="BB31" s="108"/>
-      <c r="BC31" s="108"/>
-      <c r="BD31" s="108"/>
-      <c r="BE31" s="108"/>
-      <c r="BF31" s="108"/>
-      <c r="BG31" s="108"/>
-      <c r="BH31" s="108"/>
-      <c r="BI31" s="108"/>
-      <c r="BJ31" s="108"/>
-      <c r="BK31" s="108"/>
-      <c r="BL31" s="108"/>
-      <c r="BM31" s="108"/>
-      <c r="BN31" s="108"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="107"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="107"/>
+      <c r="W31" s="107"/>
+      <c r="X31" s="107"/>
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="107"/>
+      <c r="AA31" s="107"/>
+      <c r="AB31" s="107"/>
+      <c r="AC31" s="107"/>
+      <c r="AD31" s="107"/>
+      <c r="AE31" s="107"/>
+      <c r="AF31" s="107"/>
+      <c r="AG31" s="107"/>
+      <c r="AH31" s="107"/>
+      <c r="AI31" s="107"/>
+      <c r="AJ31" s="107"/>
+      <c r="AK31" s="107"/>
+      <c r="AL31" s="107"/>
+      <c r="AM31" s="107"/>
+      <c r="AN31" s="107"/>
+      <c r="AO31" s="107"/>
+      <c r="AP31" s="107"/>
+      <c r="AQ31" s="107"/>
+      <c r="AR31" s="107"/>
+      <c r="AS31" s="107"/>
+      <c r="AT31" s="107"/>
+      <c r="AU31" s="107"/>
+      <c r="AV31" s="107"/>
+      <c r="AW31" s="107"/>
+      <c r="AX31" s="107"/>
+      <c r="AY31" s="107"/>
+      <c r="AZ31" s="107"/>
+      <c r="BA31" s="107"/>
+      <c r="BB31" s="107"/>
+      <c r="BC31" s="107"/>
+      <c r="BD31" s="107"/>
+      <c r="BE31" s="107"/>
+      <c r="BF31" s="107"/>
+      <c r="BG31" s="107"/>
+      <c r="BH31" s="107"/>
+      <c r="BI31" s="107"/>
+      <c r="BJ31" s="107"/>
+      <c r="BK31" s="107"/>
+      <c r="BL31" s="107"/>
+      <c r="BM31" s="107"/>
+      <c r="BN31" s="107"/>
     </row>
     <row r="32" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A32" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B32" s="81"/>
+        <v>4.8</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>179</v>
+      </c>
       <c r="C32" s="81"/>
       <c r="D32" s="79"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="101" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="80" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E32" s="100">
+        <v>43423</v>
+      </c>
+      <c r="F32" s="101">
+        <f t="shared" ref="F32" si="14">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
+        <v>43429</v>
+      </c>
+      <c r="G32" s="62">
+        <v>7</v>
+      </c>
+      <c r="H32" s="63">
+        <v>1</v>
+      </c>
+      <c r="I32" s="80">
+        <f t="shared" ref="I32" si="15">IF(OR(F32=0,E32=0)," - ",NETWORKDAYS(E32,F32))</f>
+        <v>5</v>
       </c>
       <c r="J32" s="99"/>
       <c r="K32" s="107"/>
@@ -6607,10 +7023,10 @@
     <row r="33" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A33" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D33" s="56"/>
       <c r="E33" s="102"/>
@@ -6684,22 +7100,28 @@
     </row>
     <row r="34" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A34" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>6.1</v>
-      </c>
-      <c r="B34" s="81"/>
+        <f t="shared" ref="A34:A39" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B34" s="81" t="s">
+        <v>180</v>
+      </c>
       <c r="C34" s="81"/>
       <c r="D34" s="79"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="101" t="str">
+      <c r="E34" s="100">
+        <v>43430</v>
+      </c>
+      <c r="F34" s="101">
         <f t="shared" si="16"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G34" s="62"/>
+        <v>43436</v>
+      </c>
+      <c r="G34" s="62">
+        <v>7</v>
+      </c>
       <c r="H34" s="63"/>
-      <c r="I34" s="80" t="str">
+      <c r="I34" s="80">
         <f t="shared" si="17"/>
-        <v xml:space="preserve"> - </v>
+        <v>5</v>
       </c>
       <c r="J34" s="99"/>
       <c r="K34" s="107"/>
@@ -6759,102 +7181,113 @@
       <c r="BM34" s="107"/>
       <c r="BN34" s="107"/>
     </row>
-    <row r="35" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A35" s="53" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>7</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102" t="str">
-        <f t="shared" ref="F35:F46" si="18">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59" t="str">
-        <f t="shared" ref="I35:I46" si="19">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J35" s="96"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="108"/>
-      <c r="U35" s="108"/>
-      <c r="V35" s="108"/>
-      <c r="W35" s="108"/>
-      <c r="X35" s="108"/>
-      <c r="Y35" s="108"/>
-      <c r="Z35" s="108"/>
-      <c r="AA35" s="108"/>
-      <c r="AB35" s="108"/>
-      <c r="AC35" s="108"/>
-      <c r="AD35" s="108"/>
-      <c r="AE35" s="108"/>
-      <c r="AF35" s="108"/>
-      <c r="AG35" s="108"/>
-      <c r="AH35" s="108"/>
-      <c r="AI35" s="108"/>
-      <c r="AJ35" s="108"/>
-      <c r="AK35" s="108"/>
-      <c r="AL35" s="108"/>
-      <c r="AM35" s="108"/>
-      <c r="AN35" s="108"/>
-      <c r="AO35" s="108"/>
-      <c r="AP35" s="108"/>
-      <c r="AQ35" s="108"/>
-      <c r="AR35" s="108"/>
-      <c r="AS35" s="108"/>
-      <c r="AT35" s="108"/>
-      <c r="AU35" s="108"/>
-      <c r="AV35" s="108"/>
-      <c r="AW35" s="108"/>
-      <c r="AX35" s="108"/>
-      <c r="AY35" s="108"/>
-      <c r="AZ35" s="108"/>
-      <c r="BA35" s="108"/>
-      <c r="BB35" s="108"/>
-      <c r="BC35" s="108"/>
-      <c r="BD35" s="108"/>
-      <c r="BE35" s="108"/>
-      <c r="BF35" s="108"/>
-      <c r="BG35" s="108"/>
-      <c r="BH35" s="108"/>
-      <c r="BI35" s="108"/>
-      <c r="BJ35" s="108"/>
-      <c r="BK35" s="108"/>
-      <c r="BL35" s="108"/>
-      <c r="BM35" s="108"/>
-      <c r="BN35" s="108"/>
+    <row r="35" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A35" s="60" t="str">
+        <f t="shared" si="18"/>
+        <v>5.2</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="81"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="100">
+        <v>43430</v>
+      </c>
+      <c r="F35" s="101">
+        <f t="shared" ref="F35:F36" si="19">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
+        <v>43433</v>
+      </c>
+      <c r="G35" s="62">
+        <v>4</v>
+      </c>
+      <c r="H35" s="63"/>
+      <c r="I35" s="80">
+        <f t="shared" ref="I35:I36" si="20">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
+        <v>4</v>
+      </c>
+      <c r="J35" s="99"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="107"/>
+      <c r="U35" s="107"/>
+      <c r="V35" s="107"/>
+      <c r="W35" s="107"/>
+      <c r="X35" s="107"/>
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="107"/>
+      <c r="AA35" s="107"/>
+      <c r="AB35" s="107"/>
+      <c r="AC35" s="107"/>
+      <c r="AD35" s="107"/>
+      <c r="AE35" s="107"/>
+      <c r="AF35" s="107"/>
+      <c r="AG35" s="107"/>
+      <c r="AH35" s="107"/>
+      <c r="AI35" s="107"/>
+      <c r="AJ35" s="107"/>
+      <c r="AK35" s="107"/>
+      <c r="AL35" s="107"/>
+      <c r="AM35" s="107"/>
+      <c r="AN35" s="107"/>
+      <c r="AO35" s="107"/>
+      <c r="AP35" s="107"/>
+      <c r="AQ35" s="107"/>
+      <c r="AR35" s="107"/>
+      <c r="AS35" s="107"/>
+      <c r="AT35" s="107"/>
+      <c r="AU35" s="107"/>
+      <c r="AV35" s="107"/>
+      <c r="AW35" s="107"/>
+      <c r="AX35" s="107"/>
+      <c r="AY35" s="107"/>
+      <c r="AZ35" s="107"/>
+      <c r="BA35" s="107"/>
+      <c r="BB35" s="107"/>
+      <c r="BC35" s="107"/>
+      <c r="BD35" s="107"/>
+      <c r="BE35" s="107"/>
+      <c r="BF35" s="107"/>
+      <c r="BG35" s="107"/>
+      <c r="BH35" s="107"/>
+      <c r="BI35" s="107"/>
+      <c r="BJ35" s="107"/>
+      <c r="BK35" s="107"/>
+      <c r="BL35" s="107"/>
+      <c r="BM35" s="107"/>
+      <c r="BN35" s="107"/>
     </row>
     <row r="36" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A36" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.1</v>
-      </c>
-      <c r="B36" s="81"/>
+        <f t="shared" si="18"/>
+        <v>5.3</v>
+      </c>
+      <c r="B36" s="81" t="s">
+        <v>181</v>
+      </c>
       <c r="C36" s="81"/>
       <c r="D36" s="79"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="101" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G36" s="62"/>
+      <c r="E36" s="100">
+        <v>43430</v>
+      </c>
+      <c r="F36" s="101">
+        <f t="shared" si="19"/>
+        <v>43436</v>
+      </c>
+      <c r="G36" s="62">
+        <v>7</v>
+      </c>
       <c r="H36" s="63"/>
-      <c r="I36" s="80" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve"> - </v>
+      <c r="I36" s="80">
+        <f t="shared" si="20"/>
+        <v>5</v>
       </c>
       <c r="J36" s="99"/>
       <c r="K36" s="107"/>
@@ -6914,102 +7347,113 @@
       <c r="BM36" s="107"/>
       <c r="BN36" s="107"/>
     </row>
-    <row r="37" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A37" s="53" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>8</v>
-      </c>
-      <c r="B37" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102" t="str">
-        <f t="shared" ref="F37:F38" si="20">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59" t="str">
-        <f t="shared" ref="I37:I38" si="21">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J37" s="96"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="108"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="108"/>
-      <c r="P37" s="108"/>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="108"/>
-      <c r="S37" s="108"/>
-      <c r="T37" s="108"/>
-      <c r="U37" s="108"/>
-      <c r="V37" s="108"/>
-      <c r="W37" s="108"/>
-      <c r="X37" s="108"/>
-      <c r="Y37" s="108"/>
-      <c r="Z37" s="108"/>
-      <c r="AA37" s="108"/>
-      <c r="AB37" s="108"/>
-      <c r="AC37" s="108"/>
-      <c r="AD37" s="108"/>
-      <c r="AE37" s="108"/>
-      <c r="AF37" s="108"/>
-      <c r="AG37" s="108"/>
-      <c r="AH37" s="108"/>
-      <c r="AI37" s="108"/>
-      <c r="AJ37" s="108"/>
-      <c r="AK37" s="108"/>
-      <c r="AL37" s="108"/>
-      <c r="AM37" s="108"/>
-      <c r="AN37" s="108"/>
-      <c r="AO37" s="108"/>
-      <c r="AP37" s="108"/>
-      <c r="AQ37" s="108"/>
-      <c r="AR37" s="108"/>
-      <c r="AS37" s="108"/>
-      <c r="AT37" s="108"/>
-      <c r="AU37" s="108"/>
-      <c r="AV37" s="108"/>
-      <c r="AW37" s="108"/>
-      <c r="AX37" s="108"/>
-      <c r="AY37" s="108"/>
-      <c r="AZ37" s="108"/>
-      <c r="BA37" s="108"/>
-      <c r="BB37" s="108"/>
-      <c r="BC37" s="108"/>
-      <c r="BD37" s="108"/>
-      <c r="BE37" s="108"/>
-      <c r="BF37" s="108"/>
-      <c r="BG37" s="108"/>
-      <c r="BH37" s="108"/>
-      <c r="BI37" s="108"/>
-      <c r="BJ37" s="108"/>
-      <c r="BK37" s="108"/>
-      <c r="BL37" s="108"/>
-      <c r="BM37" s="108"/>
-      <c r="BN37" s="108"/>
+    <row r="37" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A37" s="60" t="str">
+        <f t="shared" si="18"/>
+        <v>5.4</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="100">
+        <v>43430</v>
+      </c>
+      <c r="F37" s="101">
+        <f t="shared" ref="F37:F39" si="21">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
+        <v>43433</v>
+      </c>
+      <c r="G37" s="62">
+        <v>4</v>
+      </c>
+      <c r="H37" s="63"/>
+      <c r="I37" s="80">
+        <f t="shared" ref="I37:I39" si="22">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
+        <v>4</v>
+      </c>
+      <c r="J37" s="99"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="107"/>
+      <c r="W37" s="107"/>
+      <c r="X37" s="107"/>
+      <c r="Y37" s="107"/>
+      <c r="Z37" s="107"/>
+      <c r="AA37" s="107"/>
+      <c r="AB37" s="107"/>
+      <c r="AC37" s="107"/>
+      <c r="AD37" s="107"/>
+      <c r="AE37" s="107"/>
+      <c r="AF37" s="107"/>
+      <c r="AG37" s="107"/>
+      <c r="AH37" s="107"/>
+      <c r="AI37" s="107"/>
+      <c r="AJ37" s="107"/>
+      <c r="AK37" s="107"/>
+      <c r="AL37" s="107"/>
+      <c r="AM37" s="107"/>
+      <c r="AN37" s="107"/>
+      <c r="AO37" s="107"/>
+      <c r="AP37" s="107"/>
+      <c r="AQ37" s="107"/>
+      <c r="AR37" s="107"/>
+      <c r="AS37" s="107"/>
+      <c r="AT37" s="107"/>
+      <c r="AU37" s="107"/>
+      <c r="AV37" s="107"/>
+      <c r="AW37" s="107"/>
+      <c r="AX37" s="107"/>
+      <c r="AY37" s="107"/>
+      <c r="AZ37" s="107"/>
+      <c r="BA37" s="107"/>
+      <c r="BB37" s="107"/>
+      <c r="BC37" s="107"/>
+      <c r="BD37" s="107"/>
+      <c r="BE37" s="107"/>
+      <c r="BF37" s="107"/>
+      <c r="BG37" s="107"/>
+      <c r="BH37" s="107"/>
+      <c r="BI37" s="107"/>
+      <c r="BJ37" s="107"/>
+      <c r="BK37" s="107"/>
+      <c r="BL37" s="107"/>
+      <c r="BM37" s="107"/>
+      <c r="BN37" s="107"/>
     </row>
     <row r="38" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A38" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>8.1</v>
-      </c>
-      <c r="B38" s="81"/>
+        <f t="shared" si="18"/>
+        <v>5.5</v>
+      </c>
+      <c r="B38" s="81" t="s">
+        <v>182</v>
+      </c>
       <c r="C38" s="81"/>
       <c r="D38" s="79"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="101" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G38" s="62"/>
+      <c r="E38" s="100">
+        <v>43430</v>
+      </c>
+      <c r="F38" s="101">
+        <f t="shared" si="21"/>
+        <v>43439</v>
+      </c>
+      <c r="G38" s="62">
+        <v>10</v>
+      </c>
       <c r="H38" s="63"/>
-      <c r="I38" s="80" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve"> - </v>
+      <c r="I38" s="80">
+        <f t="shared" si="22"/>
+        <v>8</v>
       </c>
       <c r="J38" s="99"/>
       <c r="K38" s="107"/>
@@ -7069,412 +7513,433 @@
       <c r="BM38" s="107"/>
       <c r="BN38" s="107"/>
     </row>
-    <row r="39" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A39" s="53" t="str">
+    <row r="39" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A39" s="60" t="str">
+        <f t="shared" si="18"/>
+        <v>5.6</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="81"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="100">
+        <v>43430</v>
+      </c>
+      <c r="F39" s="101">
+        <f t="shared" si="21"/>
+        <v>43438</v>
+      </c>
+      <c r="G39" s="62">
+        <v>9</v>
+      </c>
+      <c r="H39" s="63"/>
+      <c r="I39" s="80">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="J39" s="99"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+      <c r="V39" s="107"/>
+      <c r="W39" s="107"/>
+      <c r="X39" s="107"/>
+      <c r="Y39" s="107"/>
+      <c r="Z39" s="107"/>
+      <c r="AA39" s="107"/>
+      <c r="AB39" s="107"/>
+      <c r="AC39" s="107"/>
+      <c r="AD39" s="107"/>
+      <c r="AE39" s="107"/>
+      <c r="AF39" s="107"/>
+      <c r="AG39" s="107"/>
+      <c r="AH39" s="107"/>
+      <c r="AI39" s="107"/>
+      <c r="AJ39" s="107"/>
+      <c r="AK39" s="107"/>
+      <c r="AL39" s="107"/>
+      <c r="AM39" s="107"/>
+      <c r="AN39" s="107"/>
+      <c r="AO39" s="107"/>
+      <c r="AP39" s="107"/>
+      <c r="AQ39" s="107"/>
+      <c r="AR39" s="107"/>
+      <c r="AS39" s="107"/>
+      <c r="AT39" s="107"/>
+      <c r="AU39" s="107"/>
+      <c r="AV39" s="107"/>
+      <c r="AW39" s="107"/>
+      <c r="AX39" s="107"/>
+      <c r="AY39" s="107"/>
+      <c r="AZ39" s="107"/>
+      <c r="BA39" s="107"/>
+      <c r="BB39" s="107"/>
+      <c r="BC39" s="107"/>
+      <c r="BD39" s="107"/>
+      <c r="BE39" s="107"/>
+      <c r="BF39" s="107"/>
+      <c r="BG39" s="107"/>
+      <c r="BH39" s="107"/>
+      <c r="BI39" s="107"/>
+      <c r="BJ39" s="107"/>
+      <c r="BK39" s="107"/>
+      <c r="BL39" s="107"/>
+      <c r="BM39" s="107"/>
+      <c r="BN39" s="107"/>
+    </row>
+    <row r="40" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A40" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>9</v>
-      </c>
-      <c r="B39" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102" t="str">
-        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="56"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102" t="str">
+        <f t="shared" ref="F40:F41" si="23">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G39" s="57"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59" t="str">
-        <f t="shared" si="19"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59" t="str">
+        <f t="shared" ref="I40:I41" si="24">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J39" s="96"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="108"/>
-      <c r="U39" s="108"/>
-      <c r="V39" s="108"/>
-      <c r="W39" s="108"/>
-      <c r="X39" s="108"/>
-      <c r="Y39" s="108"/>
-      <c r="Z39" s="108"/>
-      <c r="AA39" s="108"/>
-      <c r="AB39" s="108"/>
-      <c r="AC39" s="108"/>
-      <c r="AD39" s="108"/>
-      <c r="AE39" s="108"/>
-      <c r="AF39" s="108"/>
-      <c r="AG39" s="108"/>
-      <c r="AH39" s="108"/>
-      <c r="AI39" s="108"/>
-      <c r="AJ39" s="108"/>
-      <c r="AK39" s="108"/>
-      <c r="AL39" s="108"/>
-      <c r="AM39" s="108"/>
-      <c r="AN39" s="108"/>
-      <c r="AO39" s="108"/>
-      <c r="AP39" s="108"/>
-      <c r="AQ39" s="108"/>
-      <c r="AR39" s="108"/>
-      <c r="AS39" s="108"/>
-      <c r="AT39" s="108"/>
-      <c r="AU39" s="108"/>
-      <c r="AV39" s="108"/>
-      <c r="AW39" s="108"/>
-      <c r="AX39" s="108"/>
-      <c r="AY39" s="108"/>
-      <c r="AZ39" s="108"/>
-      <c r="BA39" s="108"/>
-      <c r="BB39" s="108"/>
-      <c r="BC39" s="108"/>
-      <c r="BD39" s="108"/>
-      <c r="BE39" s="108"/>
-      <c r="BF39" s="108"/>
-      <c r="BG39" s="108"/>
-      <c r="BH39" s="108"/>
-      <c r="BI39" s="108"/>
-      <c r="BJ39" s="108"/>
-      <c r="BK39" s="108"/>
-      <c r="BL39" s="108"/>
-      <c r="BM39" s="108"/>
-      <c r="BN39" s="108"/>
-    </row>
-    <row r="40" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A40" s="60" t="str">
+      <c r="J40" s="96"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="108"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="108"/>
+      <c r="X40" s="108"/>
+      <c r="Y40" s="108"/>
+      <c r="Z40" s="108"/>
+      <c r="AA40" s="108"/>
+      <c r="AB40" s="108"/>
+      <c r="AC40" s="108"/>
+      <c r="AD40" s="108"/>
+      <c r="AE40" s="108"/>
+      <c r="AF40" s="108"/>
+      <c r="AG40" s="108"/>
+      <c r="AH40" s="108"/>
+      <c r="AI40" s="108"/>
+      <c r="AJ40" s="108"/>
+      <c r="AK40" s="108"/>
+      <c r="AL40" s="108"/>
+      <c r="AM40" s="108"/>
+      <c r="AN40" s="108"/>
+      <c r="AO40" s="108"/>
+      <c r="AP40" s="108"/>
+      <c r="AQ40" s="108"/>
+      <c r="AR40" s="108"/>
+      <c r="AS40" s="108"/>
+      <c r="AT40" s="108"/>
+      <c r="AU40" s="108"/>
+      <c r="AV40" s="108"/>
+      <c r="AW40" s="108"/>
+      <c r="AX40" s="108"/>
+      <c r="AY40" s="108"/>
+      <c r="AZ40" s="108"/>
+      <c r="BA40" s="108"/>
+      <c r="BB40" s="108"/>
+      <c r="BC40" s="108"/>
+      <c r="BD40" s="108"/>
+      <c r="BE40" s="108"/>
+      <c r="BF40" s="108"/>
+      <c r="BG40" s="108"/>
+      <c r="BH40" s="108"/>
+      <c r="BI40" s="108"/>
+      <c r="BJ40" s="108"/>
+      <c r="BK40" s="108"/>
+      <c r="BL40" s="108"/>
+      <c r="BM40" s="108"/>
+      <c r="BN40" s="108"/>
+    </row>
+    <row r="41" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A41" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>9.1</v>
-      </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="101" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G40" s="62"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="80" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J40" s="99"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="107"/>
-      <c r="O40" s="107"/>
-      <c r="P40" s="107"/>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="107"/>
-      <c r="S40" s="107"/>
-      <c r="T40" s="107"/>
-      <c r="U40" s="107"/>
-      <c r="V40" s="107"/>
-      <c r="W40" s="107"/>
-      <c r="X40" s="107"/>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="107"/>
-      <c r="AA40" s="107"/>
-      <c r="AB40" s="107"/>
-      <c r="AC40" s="107"/>
-      <c r="AD40" s="107"/>
-      <c r="AE40" s="107"/>
-      <c r="AF40" s="107"/>
-      <c r="AG40" s="107"/>
-      <c r="AH40" s="107"/>
-      <c r="AI40" s="107"/>
-      <c r="AJ40" s="107"/>
-      <c r="AK40" s="107"/>
-      <c r="AL40" s="107"/>
-      <c r="AM40" s="107"/>
-      <c r="AN40" s="107"/>
-      <c r="AO40" s="107"/>
-      <c r="AP40" s="107"/>
-      <c r="AQ40" s="107"/>
-      <c r="AR40" s="107"/>
-      <c r="AS40" s="107"/>
-      <c r="AT40" s="107"/>
-      <c r="AU40" s="107"/>
-      <c r="AV40" s="107"/>
-      <c r="AW40" s="107"/>
-      <c r="AX40" s="107"/>
-      <c r="AY40" s="107"/>
-      <c r="AZ40" s="107"/>
-      <c r="BA40" s="107"/>
-      <c r="BB40" s="107"/>
-      <c r="BC40" s="107"/>
-      <c r="BD40" s="107"/>
-      <c r="BE40" s="107"/>
-      <c r="BF40" s="107"/>
-      <c r="BG40" s="107"/>
-      <c r="BH40" s="107"/>
-      <c r="BI40" s="107"/>
-      <c r="BJ40" s="107"/>
-      <c r="BK40" s="107"/>
-      <c r="BL40" s="107"/>
-      <c r="BM40" s="107"/>
-      <c r="BN40" s="107"/>
-    </row>
-    <row r="41" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A41" s="53" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>10</v>
-      </c>
-      <c r="B41" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102" t="str">
-        <f t="shared" ref="F41:F42" si="22">IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G41" s="57"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="59" t="str">
-        <f t="shared" ref="I41:I42" si="23">IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J41" s="96"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="108"/>
-      <c r="U41" s="108"/>
-      <c r="V41" s="108"/>
-      <c r="W41" s="108"/>
-      <c r="X41" s="108"/>
-      <c r="Y41" s="108"/>
-      <c r="Z41" s="108"/>
-      <c r="AA41" s="108"/>
-      <c r="AB41" s="108"/>
-      <c r="AC41" s="108"/>
-      <c r="AD41" s="108"/>
-      <c r="AE41" s="108"/>
-      <c r="AF41" s="108"/>
-      <c r="AG41" s="108"/>
-      <c r="AH41" s="108"/>
-      <c r="AI41" s="108"/>
-      <c r="AJ41" s="108"/>
-      <c r="AK41" s="108"/>
-      <c r="AL41" s="108"/>
-      <c r="AM41" s="108"/>
-      <c r="AN41" s="108"/>
-      <c r="AO41" s="108"/>
-      <c r="AP41" s="108"/>
-      <c r="AQ41" s="108"/>
-      <c r="AR41" s="108"/>
-      <c r="AS41" s="108"/>
-      <c r="AT41" s="108"/>
-      <c r="AU41" s="108"/>
-      <c r="AV41" s="108"/>
-      <c r="AW41" s="108"/>
-      <c r="AX41" s="108"/>
-      <c r="AY41" s="108"/>
-      <c r="AZ41" s="108"/>
-      <c r="BA41" s="108"/>
-      <c r="BB41" s="108"/>
-      <c r="BC41" s="108"/>
-      <c r="BD41" s="108"/>
-      <c r="BE41" s="108"/>
-      <c r="BF41" s="108"/>
-      <c r="BG41" s="108"/>
-      <c r="BH41" s="108"/>
-      <c r="BI41" s="108"/>
-      <c r="BJ41" s="108"/>
-      <c r="BK41" s="108"/>
-      <c r="BL41" s="108"/>
-      <c r="BM41" s="108"/>
-      <c r="BN41" s="108"/>
-    </row>
-    <row r="42" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A42" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>10.1</v>
-      </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="101" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="80" t="str">
+        <v>6.1</v>
+      </c>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="101" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J42" s="99"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="107"/>
-      <c r="O42" s="107"/>
-      <c r="P42" s="107"/>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="107"/>
-      <c r="S42" s="107"/>
-      <c r="T42" s="107"/>
-      <c r="U42" s="107"/>
-      <c r="V42" s="107"/>
-      <c r="W42" s="107"/>
-      <c r="X42" s="107"/>
-      <c r="Y42" s="107"/>
-      <c r="Z42" s="107"/>
-      <c r="AA42" s="107"/>
-      <c r="AB42" s="107"/>
-      <c r="AC42" s="107"/>
-      <c r="AD42" s="107"/>
-      <c r="AE42" s="107"/>
-      <c r="AF42" s="107"/>
-      <c r="AG42" s="107"/>
-      <c r="AH42" s="107"/>
-      <c r="AI42" s="107"/>
-      <c r="AJ42" s="107"/>
-      <c r="AK42" s="107"/>
-      <c r="AL42" s="107"/>
-      <c r="AM42" s="107"/>
-      <c r="AN42" s="107"/>
-      <c r="AO42" s="107"/>
-      <c r="AP42" s="107"/>
-      <c r="AQ42" s="107"/>
-      <c r="AR42" s="107"/>
-      <c r="AS42" s="107"/>
-      <c r="AT42" s="107"/>
-      <c r="AU42" s="107"/>
-      <c r="AV42" s="107"/>
-      <c r="AW42" s="107"/>
-      <c r="AX42" s="107"/>
-      <c r="AY42" s="107"/>
-      <c r="AZ42" s="107"/>
-      <c r="BA42" s="107"/>
-      <c r="BB42" s="107"/>
-      <c r="BC42" s="107"/>
-      <c r="BD42" s="107"/>
-      <c r="BE42" s="107"/>
-      <c r="BF42" s="107"/>
-      <c r="BG42" s="107"/>
-      <c r="BH42" s="107"/>
-      <c r="BI42" s="107"/>
-      <c r="BJ42" s="107"/>
-      <c r="BK42" s="107"/>
-      <c r="BL42" s="107"/>
-      <c r="BM42" s="107"/>
-      <c r="BN42" s="107"/>
-    </row>
-    <row r="43" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A43" s="53" t="str">
+      <c r="G41" s="62"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="80" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J41" s="99"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="107"/>
+      <c r="V41" s="107"/>
+      <c r="W41" s="107"/>
+      <c r="X41" s="107"/>
+      <c r="Y41" s="107"/>
+      <c r="Z41" s="107"/>
+      <c r="AA41" s="107"/>
+      <c r="AB41" s="107"/>
+      <c r="AC41" s="107"/>
+      <c r="AD41" s="107"/>
+      <c r="AE41" s="107"/>
+      <c r="AF41" s="107"/>
+      <c r="AG41" s="107"/>
+      <c r="AH41" s="107"/>
+      <c r="AI41" s="107"/>
+      <c r="AJ41" s="107"/>
+      <c r="AK41" s="107"/>
+      <c r="AL41" s="107"/>
+      <c r="AM41" s="107"/>
+      <c r="AN41" s="107"/>
+      <c r="AO41" s="107"/>
+      <c r="AP41" s="107"/>
+      <c r="AQ41" s="107"/>
+      <c r="AR41" s="107"/>
+      <c r="AS41" s="107"/>
+      <c r="AT41" s="107"/>
+      <c r="AU41" s="107"/>
+      <c r="AV41" s="107"/>
+      <c r="AW41" s="107"/>
+      <c r="AX41" s="107"/>
+      <c r="AY41" s="107"/>
+      <c r="AZ41" s="107"/>
+      <c r="BA41" s="107"/>
+      <c r="BB41" s="107"/>
+      <c r="BC41" s="107"/>
+      <c r="BD41" s="107"/>
+      <c r="BE41" s="107"/>
+      <c r="BF41" s="107"/>
+      <c r="BG41" s="107"/>
+      <c r="BH41" s="107"/>
+      <c r="BI41" s="107"/>
+      <c r="BJ41" s="107"/>
+      <c r="BK41" s="107"/>
+      <c r="BL41" s="107"/>
+      <c r="BM41" s="107"/>
+      <c r="BN41" s="107"/>
+    </row>
+    <row r="42" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A42" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>11</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102" t="str">
-        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="56"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102" t="str">
+        <f t="shared" ref="F42:F43" si="25">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G43" s="57"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="59" t="str">
-        <f t="shared" si="19"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="59" t="str">
+        <f t="shared" ref="I42:I43" si="26">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J43" s="96"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="108"/>
-      <c r="N43" s="108"/>
-      <c r="O43" s="108"/>
-      <c r="P43" s="108"/>
-      <c r="Q43" s="108"/>
-      <c r="R43" s="108"/>
-      <c r="S43" s="108"/>
-      <c r="T43" s="108"/>
-      <c r="U43" s="108"/>
-      <c r="V43" s="108"/>
-      <c r="W43" s="108"/>
-      <c r="X43" s="108"/>
-      <c r="Y43" s="108"/>
-      <c r="Z43" s="108"/>
-      <c r="AA43" s="108"/>
-      <c r="AB43" s="108"/>
-      <c r="AC43" s="108"/>
-      <c r="AD43" s="108"/>
-      <c r="AE43" s="108"/>
-      <c r="AF43" s="108"/>
-      <c r="AG43" s="108"/>
-      <c r="AH43" s="108"/>
-      <c r="AI43" s="108"/>
-      <c r="AJ43" s="108"/>
-      <c r="AK43" s="108"/>
-      <c r="AL43" s="108"/>
-      <c r="AM43" s="108"/>
-      <c r="AN43" s="108"/>
-      <c r="AO43" s="108"/>
-      <c r="AP43" s="108"/>
-      <c r="AQ43" s="108"/>
-      <c r="AR43" s="108"/>
-      <c r="AS43" s="108"/>
-      <c r="AT43" s="108"/>
-      <c r="AU43" s="108"/>
-      <c r="AV43" s="108"/>
-      <c r="AW43" s="108"/>
-      <c r="AX43" s="108"/>
-      <c r="AY43" s="108"/>
-      <c r="AZ43" s="108"/>
-      <c r="BA43" s="108"/>
-      <c r="BB43" s="108"/>
-      <c r="BC43" s="108"/>
-      <c r="BD43" s="108"/>
-      <c r="BE43" s="108"/>
-      <c r="BF43" s="108"/>
-      <c r="BG43" s="108"/>
-      <c r="BH43" s="108"/>
-      <c r="BI43" s="108"/>
-      <c r="BJ43" s="108"/>
-      <c r="BK43" s="108"/>
-      <c r="BL43" s="108"/>
-      <c r="BM43" s="108"/>
-      <c r="BN43" s="108"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="108"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="108"/>
+      <c r="N42" s="108"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="108"/>
+      <c r="Q42" s="108"/>
+      <c r="R42" s="108"/>
+      <c r="S42" s="108"/>
+      <c r="T42" s="108"/>
+      <c r="U42" s="108"/>
+      <c r="V42" s="108"/>
+      <c r="W42" s="108"/>
+      <c r="X42" s="108"/>
+      <c r="Y42" s="108"/>
+      <c r="Z42" s="108"/>
+      <c r="AA42" s="108"/>
+      <c r="AB42" s="108"/>
+      <c r="AC42" s="108"/>
+      <c r="AD42" s="108"/>
+      <c r="AE42" s="108"/>
+      <c r="AF42" s="108"/>
+      <c r="AG42" s="108"/>
+      <c r="AH42" s="108"/>
+      <c r="AI42" s="108"/>
+      <c r="AJ42" s="108"/>
+      <c r="AK42" s="108"/>
+      <c r="AL42" s="108"/>
+      <c r="AM42" s="108"/>
+      <c r="AN42" s="108"/>
+      <c r="AO42" s="108"/>
+      <c r="AP42" s="108"/>
+      <c r="AQ42" s="108"/>
+      <c r="AR42" s="108"/>
+      <c r="AS42" s="108"/>
+      <c r="AT42" s="108"/>
+      <c r="AU42" s="108"/>
+      <c r="AV42" s="108"/>
+      <c r="AW42" s="108"/>
+      <c r="AX42" s="108"/>
+      <c r="AY42" s="108"/>
+      <c r="AZ42" s="108"/>
+      <c r="BA42" s="108"/>
+      <c r="BB42" s="108"/>
+      <c r="BC42" s="108"/>
+      <c r="BD42" s="108"/>
+      <c r="BE42" s="108"/>
+      <c r="BF42" s="108"/>
+      <c r="BG42" s="108"/>
+      <c r="BH42" s="108"/>
+      <c r="BI42" s="108"/>
+      <c r="BJ42" s="108"/>
+      <c r="BK42" s="108"/>
+      <c r="BL42" s="108"/>
+      <c r="BM42" s="108"/>
+      <c r="BN42" s="108"/>
+    </row>
+    <row r="43" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A43" s="60" t="str">
+        <f t="shared" ref="A43:A53" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.1</v>
+      </c>
+      <c r="B43" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="81"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="100">
+        <v>43381</v>
+      </c>
+      <c r="F43" s="101">
+        <f t="shared" si="25"/>
+        <v>43384</v>
+      </c>
+      <c r="G43" s="62">
+        <v>4</v>
+      </c>
+      <c r="H43" s="63">
+        <v>1</v>
+      </c>
+      <c r="I43" s="80">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="J43" s="99"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="107"/>
+      <c r="V43" s="107"/>
+      <c r="W43" s="107"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="107"/>
+      <c r="Z43" s="107"/>
+      <c r="AA43" s="107"/>
+      <c r="AB43" s="107"/>
+      <c r="AC43" s="107"/>
+      <c r="AD43" s="107"/>
+      <c r="AE43" s="107"/>
+      <c r="AF43" s="107"/>
+      <c r="AG43" s="107"/>
+      <c r="AH43" s="107"/>
+      <c r="AI43" s="107"/>
+      <c r="AJ43" s="107"/>
+      <c r="AK43" s="107"/>
+      <c r="AL43" s="107"/>
+      <c r="AM43" s="107"/>
+      <c r="AN43" s="107"/>
+      <c r="AO43" s="107"/>
+      <c r="AP43" s="107"/>
+      <c r="AQ43" s="107"/>
+      <c r="AR43" s="107"/>
+      <c r="AS43" s="107"/>
+      <c r="AT43" s="107"/>
+      <c r="AU43" s="107"/>
+      <c r="AV43" s="107"/>
+      <c r="AW43" s="107"/>
+      <c r="AX43" s="107"/>
+      <c r="AY43" s="107"/>
+      <c r="AZ43" s="107"/>
+      <c r="BA43" s="107"/>
+      <c r="BB43" s="107"/>
+      <c r="BC43" s="107"/>
+      <c r="BD43" s="107"/>
+      <c r="BE43" s="107"/>
+      <c r="BF43" s="107"/>
+      <c r="BG43" s="107"/>
+      <c r="BH43" s="107"/>
+      <c r="BI43" s="107"/>
+      <c r="BJ43" s="107"/>
+      <c r="BK43" s="107"/>
+      <c r="BL43" s="107"/>
+      <c r="BM43" s="107"/>
+      <c r="BN43" s="107"/>
     </row>
     <row r="44" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A44" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>11.1</v>
-      </c>
-      <c r="B44" s="81"/>
+        <f t="shared" si="27"/>
+        <v>7.2</v>
+      </c>
+      <c r="B44" s="81" t="s">
+        <v>170</v>
+      </c>
       <c r="C44" s="81"/>
       <c r="D44" s="79"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="101" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G44" s="62"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="80" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E44" s="100">
+        <v>43388</v>
+      </c>
+      <c r="F44" s="101">
+        <f t="shared" ref="F44:F61" si="28">IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
+        <v>43391</v>
+      </c>
+      <c r="G44" s="62">
+        <v>4</v>
+      </c>
+      <c r="H44" s="63">
+        <v>1</v>
+      </c>
+      <c r="I44" s="80">
+        <f t="shared" ref="I44:I61" si="29">IF(OR(F44=0,E44=0)," - ",NETWORKDAYS(E44,F44))</f>
+        <v>4</v>
       </c>
       <c r="J44" s="99"/>
       <c r="K44" s="107"/>
@@ -7534,102 +7999,115 @@
       <c r="BM44" s="107"/>
       <c r="BN44" s="107"/>
     </row>
-    <row r="45" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A45" s="53" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>12</v>
-      </c>
-      <c r="B45" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G45" s="57"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="59" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J45" s="96"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="108"/>
-      <c r="N45" s="108"/>
-      <c r="O45" s="108"/>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="108"/>
-      <c r="R45" s="108"/>
-      <c r="S45" s="108"/>
-      <c r="T45" s="108"/>
-      <c r="U45" s="108"/>
-      <c r="V45" s="108"/>
-      <c r="W45" s="108"/>
-      <c r="X45" s="108"/>
-      <c r="Y45" s="108"/>
-      <c r="Z45" s="108"/>
-      <c r="AA45" s="108"/>
-      <c r="AB45" s="108"/>
-      <c r="AC45" s="108"/>
-      <c r="AD45" s="108"/>
-      <c r="AE45" s="108"/>
-      <c r="AF45" s="108"/>
-      <c r="AG45" s="108"/>
-      <c r="AH45" s="108"/>
-      <c r="AI45" s="108"/>
-      <c r="AJ45" s="108"/>
-      <c r="AK45" s="108"/>
-      <c r="AL45" s="108"/>
-      <c r="AM45" s="108"/>
-      <c r="AN45" s="108"/>
-      <c r="AO45" s="108"/>
-      <c r="AP45" s="108"/>
-      <c r="AQ45" s="108"/>
-      <c r="AR45" s="108"/>
-      <c r="AS45" s="108"/>
-      <c r="AT45" s="108"/>
-      <c r="AU45" s="108"/>
-      <c r="AV45" s="108"/>
-      <c r="AW45" s="108"/>
-      <c r="AX45" s="108"/>
-      <c r="AY45" s="108"/>
-      <c r="AZ45" s="108"/>
-      <c r="BA45" s="108"/>
-      <c r="BB45" s="108"/>
-      <c r="BC45" s="108"/>
-      <c r="BD45" s="108"/>
-      <c r="BE45" s="108"/>
-      <c r="BF45" s="108"/>
-      <c r="BG45" s="108"/>
-      <c r="BH45" s="108"/>
-      <c r="BI45" s="108"/>
-      <c r="BJ45" s="108"/>
-      <c r="BK45" s="108"/>
-      <c r="BL45" s="108"/>
-      <c r="BM45" s="108"/>
-      <c r="BN45" s="108"/>
+    <row r="45" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A45" s="60" t="str">
+        <f t="shared" si="27"/>
+        <v>7.3</v>
+      </c>
+      <c r="B45" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="81"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="100">
+        <v>43388</v>
+      </c>
+      <c r="F45" s="101">
+        <f t="shared" si="28"/>
+        <v>43391</v>
+      </c>
+      <c r="G45" s="62">
+        <v>4</v>
+      </c>
+      <c r="H45" s="63"/>
+      <c r="I45" s="80">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="J45" s="99"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="107"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="107"/>
+      <c r="P45" s="107"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="107"/>
+      <c r="S45" s="107"/>
+      <c r="T45" s="107"/>
+      <c r="U45" s="107"/>
+      <c r="V45" s="107"/>
+      <c r="W45" s="107"/>
+      <c r="X45" s="107"/>
+      <c r="Y45" s="107"/>
+      <c r="Z45" s="107"/>
+      <c r="AA45" s="107"/>
+      <c r="AB45" s="107"/>
+      <c r="AC45" s="107"/>
+      <c r="AD45" s="107"/>
+      <c r="AE45" s="107"/>
+      <c r="AF45" s="107"/>
+      <c r="AG45" s="107"/>
+      <c r="AH45" s="107"/>
+      <c r="AI45" s="107"/>
+      <c r="AJ45" s="107"/>
+      <c r="AK45" s="107"/>
+      <c r="AL45" s="107"/>
+      <c r="AM45" s="107"/>
+      <c r="AN45" s="107"/>
+      <c r="AO45" s="107"/>
+      <c r="AP45" s="107"/>
+      <c r="AQ45" s="107"/>
+      <c r="AR45" s="107"/>
+      <c r="AS45" s="107"/>
+      <c r="AT45" s="107"/>
+      <c r="AU45" s="107"/>
+      <c r="AV45" s="107"/>
+      <c r="AW45" s="107"/>
+      <c r="AX45" s="107"/>
+      <c r="AY45" s="107"/>
+      <c r="AZ45" s="107"/>
+      <c r="BA45" s="107"/>
+      <c r="BB45" s="107"/>
+      <c r="BC45" s="107"/>
+      <c r="BD45" s="107"/>
+      <c r="BE45" s="107"/>
+      <c r="BF45" s="107"/>
+      <c r="BG45" s="107"/>
+      <c r="BH45" s="107"/>
+      <c r="BI45" s="107"/>
+      <c r="BJ45" s="107"/>
+      <c r="BK45" s="107"/>
+      <c r="BL45" s="107"/>
+      <c r="BM45" s="107"/>
+      <c r="BN45" s="107"/>
     </row>
     <row r="46" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A46" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>12.1</v>
-      </c>
-      <c r="B46" s="81"/>
+        <f t="shared" si="27"/>
+        <v>7.4</v>
+      </c>
+      <c r="B46" s="81" t="s">
+        <v>172</v>
+      </c>
       <c r="C46" s="81"/>
       <c r="D46" s="79"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="101" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G46" s="62"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="80" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E46" s="100">
+        <v>43423</v>
+      </c>
+      <c r="F46" s="101">
+        <f t="shared" si="28"/>
+        <v>43429</v>
+      </c>
+      <c r="G46" s="62">
+        <v>7</v>
+      </c>
+      <c r="H46" s="63">
+        <v>0.8</v>
+      </c>
+      <c r="I46" s="80">
+        <f t="shared" si="29"/>
+        <v>5</v>
       </c>
       <c r="J46" s="99"/>
       <c r="K46" s="107"/>
@@ -7689,104 +8167,117 @@
       <c r="BM46" s="107"/>
       <c r="BN46" s="107"/>
     </row>
-    <row r="47" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A47" s="53" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>13</v>
-      </c>
-      <c r="B47" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102" t="str">
-        <f t="shared" ref="F47:F48" si="24">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G47" s="57"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="59" t="str">
-        <f t="shared" ref="I47:I48" si="25">IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J47" s="96"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="108"/>
-      <c r="M47" s="108"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="108"/>
-      <c r="P47" s="108"/>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="108"/>
-      <c r="S47" s="108"/>
-      <c r="T47" s="108"/>
-      <c r="U47" s="108"/>
-      <c r="V47" s="108"/>
-      <c r="W47" s="108"/>
-      <c r="X47" s="108"/>
-      <c r="Y47" s="108"/>
-      <c r="Z47" s="108"/>
-      <c r="AA47" s="108"/>
-      <c r="AB47" s="108"/>
-      <c r="AC47" s="108"/>
-      <c r="AD47" s="108"/>
-      <c r="AE47" s="108"/>
-      <c r="AF47" s="108"/>
-      <c r="AG47" s="108"/>
-      <c r="AH47" s="108"/>
-      <c r="AI47" s="108"/>
-      <c r="AJ47" s="108"/>
-      <c r="AK47" s="108"/>
-      <c r="AL47" s="108"/>
-      <c r="AM47" s="108"/>
-      <c r="AN47" s="108"/>
-      <c r="AO47" s="108"/>
-      <c r="AP47" s="108"/>
-      <c r="AQ47" s="108"/>
-      <c r="AR47" s="108"/>
-      <c r="AS47" s="108"/>
-      <c r="AT47" s="108"/>
-      <c r="AU47" s="108"/>
-      <c r="AV47" s="108"/>
-      <c r="AW47" s="108"/>
-      <c r="AX47" s="108"/>
-      <c r="AY47" s="108"/>
-      <c r="AZ47" s="108"/>
-      <c r="BA47" s="108"/>
-      <c r="BB47" s="108"/>
-      <c r="BC47" s="108"/>
-      <c r="BD47" s="108"/>
-      <c r="BE47" s="108"/>
-      <c r="BF47" s="108"/>
-      <c r="BG47" s="108"/>
-      <c r="BH47" s="108"/>
-      <c r="BI47" s="108"/>
-      <c r="BJ47" s="108"/>
-      <c r="BK47" s="108"/>
-      <c r="BL47" s="108"/>
-      <c r="BM47" s="108"/>
-      <c r="BN47" s="108"/>
+    <row r="47" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A47" s="60" t="str">
+        <f t="shared" si="27"/>
+        <v>7.5</v>
+      </c>
+      <c r="B47" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="81"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="100">
+        <v>43430</v>
+      </c>
+      <c r="F47" s="101">
+        <f t="shared" si="28"/>
+        <v>43436</v>
+      </c>
+      <c r="G47" s="62">
+        <v>7</v>
+      </c>
+      <c r="H47" s="63">
+        <v>0.4</v>
+      </c>
+      <c r="I47" s="80">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="J47" s="99"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="107"/>
+      <c r="M47" s="107"/>
+      <c r="N47" s="107"/>
+      <c r="O47" s="107"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="107"/>
+      <c r="R47" s="107"/>
+      <c r="S47" s="107"/>
+      <c r="T47" s="107"/>
+      <c r="U47" s="107"/>
+      <c r="V47" s="107"/>
+      <c r="W47" s="107"/>
+      <c r="X47" s="107"/>
+      <c r="Y47" s="107"/>
+      <c r="Z47" s="107"/>
+      <c r="AA47" s="107"/>
+      <c r="AB47" s="107"/>
+      <c r="AC47" s="107"/>
+      <c r="AD47" s="107"/>
+      <c r="AE47" s="107"/>
+      <c r="AF47" s="107"/>
+      <c r="AG47" s="107"/>
+      <c r="AH47" s="107"/>
+      <c r="AI47" s="107"/>
+      <c r="AJ47" s="107"/>
+      <c r="AK47" s="107"/>
+      <c r="AL47" s="107"/>
+      <c r="AM47" s="107"/>
+      <c r="AN47" s="107"/>
+      <c r="AO47" s="107"/>
+      <c r="AP47" s="107"/>
+      <c r="AQ47" s="107"/>
+      <c r="AR47" s="107"/>
+      <c r="AS47" s="107"/>
+      <c r="AT47" s="107"/>
+      <c r="AU47" s="107"/>
+      <c r="AV47" s="107"/>
+      <c r="AW47" s="107"/>
+      <c r="AX47" s="107"/>
+      <c r="AY47" s="107"/>
+      <c r="AZ47" s="107"/>
+      <c r="BA47" s="107"/>
+      <c r="BB47" s="107"/>
+      <c r="BC47" s="107"/>
+      <c r="BD47" s="107"/>
+      <c r="BE47" s="107"/>
+      <c r="BF47" s="107"/>
+      <c r="BG47" s="107"/>
+      <c r="BH47" s="107"/>
+      <c r="BI47" s="107"/>
+      <c r="BJ47" s="107"/>
+      <c r="BK47" s="107"/>
+      <c r="BL47" s="107"/>
+      <c r="BM47" s="107"/>
+      <c r="BN47" s="107"/>
     </row>
     <row r="48" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A48" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>13.1</v>
+        <f t="shared" si="27"/>
+        <v>7.6</v>
       </c>
       <c r="B48" s="81" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="C48" s="81"/>
       <c r="D48" s="79"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="101" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G48" s="62"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="80" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E48" s="100">
+        <v>43423</v>
+      </c>
+      <c r="F48" s="101">
+        <f t="shared" ref="F48:F53" si="30">IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
+        <v>43429</v>
+      </c>
+      <c r="G48" s="62">
+        <v>7</v>
+      </c>
+      <c r="H48" s="63">
+        <v>0.75</v>
+      </c>
+      <c r="I48" s="80">
+        <f t="shared" ref="I48:I53" si="31">IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
+        <v>5</v>
       </c>
       <c r="J48" s="99"/>
       <c r="K48" s="107"/>
@@ -7847,19 +8338,33 @@
       <c r="BN48" s="107"/>
     </row>
     <row r="49" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A49" s="60"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="69" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J49" s="97"/>
+      <c r="A49" s="60" t="str">
+        <f t="shared" si="27"/>
+        <v>7.7</v>
+      </c>
+      <c r="B49" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="81"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="100">
+        <v>43388</v>
+      </c>
+      <c r="F49" s="101">
+        <f>IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
+        <v>43391</v>
+      </c>
+      <c r="G49" s="62">
+        <v>4</v>
+      </c>
+      <c r="H49" s="63">
+        <v>0.95</v>
+      </c>
+      <c r="I49" s="80">
+        <f>IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
+        <v>4</v>
+      </c>
+      <c r="J49" s="99"/>
       <c r="K49" s="107"/>
       <c r="L49" s="107"/>
       <c r="M49" s="107"/>
@@ -7917,19 +8422,34 @@
       <c r="BM49" s="107"/>
       <c r="BN49" s="107"/>
     </row>
-    <row r="50" spans="1:66" s="75" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A50" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="72"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="98"/>
+    <row r="50" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A50" s="60" t="str">
+        <f t="shared" si="27"/>
+        <v>7.8</v>
+      </c>
+      <c r="B50" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="81"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="100">
+        <v>43437</v>
+      </c>
+      <c r="F50" s="101">
+        <f>IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
+        <v>43442</v>
+      </c>
+      <c r="G50" s="62">
+        <v>6</v>
+      </c>
+      <c r="H50" s="63">
+        <v>0.05</v>
+      </c>
+      <c r="I50" s="80">
+        <f>IF(OR(F50=0,E50=0)," - ",NETWORKDAYS(E50,F50))</f>
+        <v>5</v>
+      </c>
+      <c r="J50" s="99"/>
       <c r="K50" s="107"/>
       <c r="L50" s="107"/>
       <c r="M50" s="107"/>
@@ -7988,18 +8508,31 @@
       <c r="BN50" s="107"/>
     </row>
     <row r="51" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A51" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="98"/>
+      <c r="A51" s="60" t="str">
+        <f t="shared" si="27"/>
+        <v>7.9</v>
+      </c>
+      <c r="B51" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="81"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="100">
+        <v>43437</v>
+      </c>
+      <c r="F51" s="101">
+        <f t="shared" si="30"/>
+        <v>43442</v>
+      </c>
+      <c r="G51" s="62">
+        <v>6</v>
+      </c>
+      <c r="H51" s="63"/>
+      <c r="I51" s="80">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="J51" s="99"/>
       <c r="K51" s="107"/>
       <c r="L51" s="107"/>
       <c r="M51" s="107"/>
@@ -8058,25 +8591,29 @@
       <c r="BN51" s="107"/>
     </row>
     <row r="52" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A52" s="127" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B52" s="128" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="78"/>
+      <c r="A52" s="60" t="str">
+        <f t="shared" si="27"/>
+        <v>7.10</v>
+      </c>
+      <c r="B52" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="81"/>
       <c r="D52" s="79"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="101" t="str">
-        <f t="shared" ref="F52:F55" si="26">IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G52" s="62"/>
+      <c r="E52" s="100">
+        <v>43437</v>
+      </c>
+      <c r="F52" s="101">
+        <f t="shared" si="30"/>
+        <v>43442</v>
+      </c>
+      <c r="G52" s="62">
+        <v>6</v>
+      </c>
       <c r="H52" s="63"/>
-      <c r="I52" s="80" t="str">
-        <f>IF(OR(F52=0,E52=0)," - ",NETWORKDAYS(E52,F52))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="I52" s="80">
+        <f t="shared" si="31"/>
+        <v>5</v>
       </c>
       <c r="J52" s="99"/>
       <c r="K52" s="107"/>
@@ -8138,24 +8675,28 @@
     </row>
     <row r="53" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A53" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
+        <f t="shared" si="27"/>
+        <v>7.11</v>
       </c>
       <c r="B53" s="81" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="C53" s="81"/>
       <c r="D53" s="79"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="101" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G53" s="62"/>
+      <c r="E53" s="100">
+        <v>43443</v>
+      </c>
+      <c r="F53" s="101">
+        <f t="shared" si="30"/>
+        <v>43445</v>
+      </c>
+      <c r="G53" s="62">
+        <v>3</v>
+      </c>
       <c r="H53" s="63"/>
-      <c r="I53" s="80" t="str">
-        <f t="shared" ref="I53:I55" si="27">IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="I53" s="80">
+        <f t="shared" si="31"/>
+        <v>2</v>
       </c>
       <c r="J53" s="99"/>
       <c r="K53" s="107"/>
@@ -8215,104 +8756,101 @@
       <c r="BM53" s="107"/>
       <c r="BN53" s="107"/>
     </row>
-    <row r="54" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A54" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B54" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="81"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="101" t="str">
-        <f t="shared" si="26"/>
+    <row r="54" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A54" s="53" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>8</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="56"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102" t="str">
+        <f>IF(ISBLANK(E54)," - ",IF(G54=0,E54,E54+G54-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G54" s="62"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="80" t="str">
-        <f t="shared" si="27"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="59" t="str">
+        <f>IF(OR(F54=0,E54=0)," - ",NETWORKDAYS(E54,F54))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J54" s="99"/>
-      <c r="K54" s="107"/>
-      <c r="L54" s="107"/>
-      <c r="M54" s="107"/>
-      <c r="N54" s="107"/>
-      <c r="O54" s="107"/>
-      <c r="P54" s="107"/>
-      <c r="Q54" s="107"/>
-      <c r="R54" s="107"/>
-      <c r="S54" s="107"/>
-      <c r="T54" s="107"/>
-      <c r="U54" s="107"/>
-      <c r="V54" s="107"/>
-      <c r="W54" s="107"/>
-      <c r="X54" s="107"/>
-      <c r="Y54" s="107"/>
-      <c r="Z54" s="107"/>
-      <c r="AA54" s="107"/>
-      <c r="AB54" s="107"/>
-      <c r="AC54" s="107"/>
-      <c r="AD54" s="107"/>
-      <c r="AE54" s="107"/>
-      <c r="AF54" s="107"/>
-      <c r="AG54" s="107"/>
-      <c r="AH54" s="107"/>
-      <c r="AI54" s="107"/>
-      <c r="AJ54" s="107"/>
-      <c r="AK54" s="107"/>
-      <c r="AL54" s="107"/>
-      <c r="AM54" s="107"/>
-      <c r="AN54" s="107"/>
-      <c r="AO54" s="107"/>
-      <c r="AP54" s="107"/>
-      <c r="AQ54" s="107"/>
-      <c r="AR54" s="107"/>
-      <c r="AS54" s="107"/>
-      <c r="AT54" s="107"/>
-      <c r="AU54" s="107"/>
-      <c r="AV54" s="107"/>
-      <c r="AW54" s="107"/>
-      <c r="AX54" s="107"/>
-      <c r="AY54" s="107"/>
-      <c r="AZ54" s="107"/>
-      <c r="BA54" s="107"/>
-      <c r="BB54" s="107"/>
-      <c r="BC54" s="107"/>
-      <c r="BD54" s="107"/>
-      <c r="BE54" s="107"/>
-      <c r="BF54" s="107"/>
-      <c r="BG54" s="107"/>
-      <c r="BH54" s="107"/>
-      <c r="BI54" s="107"/>
-      <c r="BJ54" s="107"/>
-      <c r="BK54" s="107"/>
-      <c r="BL54" s="107"/>
-      <c r="BM54" s="107"/>
-      <c r="BN54" s="107"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="108"/>
+      <c r="L54" s="108"/>
+      <c r="M54" s="108"/>
+      <c r="N54" s="108"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="108"/>
+      <c r="Q54" s="108"/>
+      <c r="R54" s="108"/>
+      <c r="S54" s="108"/>
+      <c r="T54" s="108"/>
+      <c r="U54" s="108"/>
+      <c r="V54" s="108"/>
+      <c r="W54" s="108"/>
+      <c r="X54" s="108"/>
+      <c r="Y54" s="108"/>
+      <c r="Z54" s="108"/>
+      <c r="AA54" s="108"/>
+      <c r="AB54" s="108"/>
+      <c r="AC54" s="108"/>
+      <c r="AD54" s="108"/>
+      <c r="AE54" s="108"/>
+      <c r="AF54" s="108"/>
+      <c r="AG54" s="108"/>
+      <c r="AH54" s="108"/>
+      <c r="AI54" s="108"/>
+      <c r="AJ54" s="108"/>
+      <c r="AK54" s="108"/>
+      <c r="AL54" s="108"/>
+      <c r="AM54" s="108"/>
+      <c r="AN54" s="108"/>
+      <c r="AO54" s="108"/>
+      <c r="AP54" s="108"/>
+      <c r="AQ54" s="108"/>
+      <c r="AR54" s="108"/>
+      <c r="AS54" s="108"/>
+      <c r="AT54" s="108"/>
+      <c r="AU54" s="108"/>
+      <c r="AV54" s="108"/>
+      <c r="AW54" s="108"/>
+      <c r="AX54" s="108"/>
+      <c r="AY54" s="108"/>
+      <c r="AZ54" s="108"/>
+      <c r="BA54" s="108"/>
+      <c r="BB54" s="108"/>
+      <c r="BC54" s="108"/>
+      <c r="BD54" s="108"/>
+      <c r="BE54" s="108"/>
+      <c r="BF54" s="108"/>
+      <c r="BG54" s="108"/>
+      <c r="BH54" s="108"/>
+      <c r="BI54" s="108"/>
+      <c r="BJ54" s="108"/>
+      <c r="BK54" s="108"/>
+      <c r="BL54" s="108"/>
+      <c r="BM54" s="108"/>
+      <c r="BN54" s="108"/>
     </row>
     <row r="55" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A55" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B55" s="82" t="s">
-        <v>64</v>
-      </c>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>8.1</v>
+      </c>
+      <c r="B55" s="81"/>
       <c r="C55" s="81"/>
       <c r="D55" s="79"/>
       <c r="E55" s="100"/>
       <c r="F55" s="101" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G55" s="62"/>
       <c r="H55" s="63"/>
       <c r="I55" s="80" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J55" s="99"/>
@@ -8373,86 +8911,1224 @@
       <c r="BM55" s="107"/>
       <c r="BN55" s="107"/>
     </row>
-    <row r="56" spans="1:66" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="30"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="31"/>
-      <c r="AC56" s="31"/>
-      <c r="AD56" s="31"/>
-      <c r="AE56" s="31"/>
-      <c r="AF56" s="31"/>
-      <c r="AG56" s="31"/>
-      <c r="AH56" s="31"/>
-      <c r="AI56" s="31"/>
-      <c r="AJ56" s="31"/>
-      <c r="AK56" s="31"/>
-      <c r="AL56" s="31"/>
-      <c r="AM56" s="31"/>
-      <c r="AN56" s="31"/>
-      <c r="AO56" s="31"/>
-      <c r="AP56" s="31"/>
-      <c r="AQ56" s="31"/>
-      <c r="AR56" s="31"/>
-      <c r="AS56" s="31"/>
-      <c r="AT56" s="31"/>
-      <c r="AU56" s="31"/>
-      <c r="AV56" s="31"/>
-      <c r="AW56" s="31"/>
-      <c r="AX56" s="31"/>
-      <c r="AY56" s="31"/>
-      <c r="AZ56" s="31"/>
-      <c r="BA56" s="31"/>
-      <c r="BB56" s="31"/>
-      <c r="BC56" s="31"/>
-      <c r="BD56" s="31"/>
-      <c r="BE56" s="31"/>
-      <c r="BF56" s="31"/>
-      <c r="BG56" s="31"/>
-      <c r="BH56" s="31"/>
-      <c r="BI56" s="31"/>
-      <c r="BJ56" s="31"/>
-      <c r="BK56" s="31"/>
-      <c r="BL56" s="31"/>
-      <c r="BM56" s="31"/>
-      <c r="BN56" s="31"/>
+    <row r="56" spans="1:66" s="55" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="53" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>9</v>
+      </c>
+      <c r="B56" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="56"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102" t="str">
+        <f t="shared" ref="F56:F57" si="32">IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G56" s="57"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="59" t="str">
+        <f t="shared" ref="I56:I57" si="33">IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J56" s="96"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="108"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="108"/>
+      <c r="Q56" s="108"/>
+      <c r="R56" s="108"/>
+      <c r="S56" s="108"/>
+      <c r="T56" s="108"/>
+      <c r="U56" s="108"/>
+      <c r="V56" s="108"/>
+      <c r="W56" s="108"/>
+      <c r="X56" s="108"/>
+      <c r="Y56" s="108"/>
+      <c r="Z56" s="108"/>
+      <c r="AA56" s="108"/>
+      <c r="AB56" s="108"/>
+      <c r="AC56" s="108"/>
+      <c r="AD56" s="108"/>
+      <c r="AE56" s="108"/>
+      <c r="AF56" s="108"/>
+      <c r="AG56" s="108"/>
+      <c r="AH56" s="108"/>
+      <c r="AI56" s="108"/>
+      <c r="AJ56" s="108"/>
+      <c r="AK56" s="108"/>
+      <c r="AL56" s="108"/>
+      <c r="AM56" s="108"/>
+      <c r="AN56" s="108"/>
+      <c r="AO56" s="108"/>
+      <c r="AP56" s="108"/>
+      <c r="AQ56" s="108"/>
+      <c r="AR56" s="108"/>
+      <c r="AS56" s="108"/>
+      <c r="AT56" s="108"/>
+      <c r="AU56" s="108"/>
+      <c r="AV56" s="108"/>
+      <c r="AW56" s="108"/>
+      <c r="AX56" s="108"/>
+      <c r="AY56" s="108"/>
+      <c r="AZ56" s="108"/>
+      <c r="BA56" s="108"/>
+      <c r="BB56" s="108"/>
+      <c r="BC56" s="108"/>
+      <c r="BD56" s="108"/>
+      <c r="BE56" s="108"/>
+      <c r="BF56" s="108"/>
+      <c r="BG56" s="108"/>
+      <c r="BH56" s="108"/>
+      <c r="BI56" s="108"/>
+      <c r="BJ56" s="108"/>
+      <c r="BK56" s="108"/>
+      <c r="BL56" s="108"/>
+      <c r="BM56" s="108"/>
+      <c r="BN56" s="108"/>
+    </row>
+    <row r="57" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A57" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>9.1</v>
+      </c>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="101" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G57" s="62"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="80" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J57" s="99"/>
+      <c r="K57" s="107"/>
+      <c r="L57" s="107"/>
+      <c r="M57" s="107"/>
+      <c r="N57" s="107"/>
+      <c r="O57" s="107"/>
+      <c r="P57" s="107"/>
+      <c r="Q57" s="107"/>
+      <c r="R57" s="107"/>
+      <c r="S57" s="107"/>
+      <c r="T57" s="107"/>
+      <c r="U57" s="107"/>
+      <c r="V57" s="107"/>
+      <c r="W57" s="107"/>
+      <c r="X57" s="107"/>
+      <c r="Y57" s="107"/>
+      <c r="Z57" s="107"/>
+      <c r="AA57" s="107"/>
+      <c r="AB57" s="107"/>
+      <c r="AC57" s="107"/>
+      <c r="AD57" s="107"/>
+      <c r="AE57" s="107"/>
+      <c r="AF57" s="107"/>
+      <c r="AG57" s="107"/>
+      <c r="AH57" s="107"/>
+      <c r="AI57" s="107"/>
+      <c r="AJ57" s="107"/>
+      <c r="AK57" s="107"/>
+      <c r="AL57" s="107"/>
+      <c r="AM57" s="107"/>
+      <c r="AN57" s="107"/>
+      <c r="AO57" s="107"/>
+      <c r="AP57" s="107"/>
+      <c r="AQ57" s="107"/>
+      <c r="AR57" s="107"/>
+      <c r="AS57" s="107"/>
+      <c r="AT57" s="107"/>
+      <c r="AU57" s="107"/>
+      <c r="AV57" s="107"/>
+      <c r="AW57" s="107"/>
+      <c r="AX57" s="107"/>
+      <c r="AY57" s="107"/>
+      <c r="AZ57" s="107"/>
+      <c r="BA57" s="107"/>
+      <c r="BB57" s="107"/>
+      <c r="BC57" s="107"/>
+      <c r="BD57" s="107"/>
+      <c r="BE57" s="107"/>
+      <c r="BF57" s="107"/>
+      <c r="BG57" s="107"/>
+      <c r="BH57" s="107"/>
+      <c r="BI57" s="107"/>
+      <c r="BJ57" s="107"/>
+      <c r="BK57" s="107"/>
+      <c r="BL57" s="107"/>
+      <c r="BM57" s="107"/>
+      <c r="BN57" s="107"/>
+    </row>
+    <row r="58" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A58" s="53" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>10</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="56"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G58" s="57"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="59" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J58" s="96"/>
+      <c r="K58" s="108"/>
+      <c r="L58" s="108"/>
+      <c r="M58" s="108"/>
+      <c r="N58" s="108"/>
+      <c r="O58" s="108"/>
+      <c r="P58" s="108"/>
+      <c r="Q58" s="108"/>
+      <c r="R58" s="108"/>
+      <c r="S58" s="108"/>
+      <c r="T58" s="108"/>
+      <c r="U58" s="108"/>
+      <c r="V58" s="108"/>
+      <c r="W58" s="108"/>
+      <c r="X58" s="108"/>
+      <c r="Y58" s="108"/>
+      <c r="Z58" s="108"/>
+      <c r="AA58" s="108"/>
+      <c r="AB58" s="108"/>
+      <c r="AC58" s="108"/>
+      <c r="AD58" s="108"/>
+      <c r="AE58" s="108"/>
+      <c r="AF58" s="108"/>
+      <c r="AG58" s="108"/>
+      <c r="AH58" s="108"/>
+      <c r="AI58" s="108"/>
+      <c r="AJ58" s="108"/>
+      <c r="AK58" s="108"/>
+      <c r="AL58" s="108"/>
+      <c r="AM58" s="108"/>
+      <c r="AN58" s="108"/>
+      <c r="AO58" s="108"/>
+      <c r="AP58" s="108"/>
+      <c r="AQ58" s="108"/>
+      <c r="AR58" s="108"/>
+      <c r="AS58" s="108"/>
+      <c r="AT58" s="108"/>
+      <c r="AU58" s="108"/>
+      <c r="AV58" s="108"/>
+      <c r="AW58" s="108"/>
+      <c r="AX58" s="108"/>
+      <c r="AY58" s="108"/>
+      <c r="AZ58" s="108"/>
+      <c r="BA58" s="108"/>
+      <c r="BB58" s="108"/>
+      <c r="BC58" s="108"/>
+      <c r="BD58" s="108"/>
+      <c r="BE58" s="108"/>
+      <c r="BF58" s="108"/>
+      <c r="BG58" s="108"/>
+      <c r="BH58" s="108"/>
+      <c r="BI58" s="108"/>
+      <c r="BJ58" s="108"/>
+      <c r="BK58" s="108"/>
+      <c r="BL58" s="108"/>
+      <c r="BM58" s="108"/>
+      <c r="BN58" s="108"/>
+    </row>
+    <row r="59" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A59" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>10.1</v>
+      </c>
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="101" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G59" s="62"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="80" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J59" s="99"/>
+      <c r="K59" s="107"/>
+      <c r="L59" s="107"/>
+      <c r="M59" s="107"/>
+      <c r="N59" s="107"/>
+      <c r="O59" s="107"/>
+      <c r="P59" s="107"/>
+      <c r="Q59" s="107"/>
+      <c r="R59" s="107"/>
+      <c r="S59" s="107"/>
+      <c r="T59" s="107"/>
+      <c r="U59" s="107"/>
+      <c r="V59" s="107"/>
+      <c r="W59" s="107"/>
+      <c r="X59" s="107"/>
+      <c r="Y59" s="107"/>
+      <c r="Z59" s="107"/>
+      <c r="AA59" s="107"/>
+      <c r="AB59" s="107"/>
+      <c r="AC59" s="107"/>
+      <c r="AD59" s="107"/>
+      <c r="AE59" s="107"/>
+      <c r="AF59" s="107"/>
+      <c r="AG59" s="107"/>
+      <c r="AH59" s="107"/>
+      <c r="AI59" s="107"/>
+      <c r="AJ59" s="107"/>
+      <c r="AK59" s="107"/>
+      <c r="AL59" s="107"/>
+      <c r="AM59" s="107"/>
+      <c r="AN59" s="107"/>
+      <c r="AO59" s="107"/>
+      <c r="AP59" s="107"/>
+      <c r="AQ59" s="107"/>
+      <c r="AR59" s="107"/>
+      <c r="AS59" s="107"/>
+      <c r="AT59" s="107"/>
+      <c r="AU59" s="107"/>
+      <c r="AV59" s="107"/>
+      <c r="AW59" s="107"/>
+      <c r="AX59" s="107"/>
+      <c r="AY59" s="107"/>
+      <c r="AZ59" s="107"/>
+      <c r="BA59" s="107"/>
+      <c r="BB59" s="107"/>
+      <c r="BC59" s="107"/>
+      <c r="BD59" s="107"/>
+      <c r="BE59" s="107"/>
+      <c r="BF59" s="107"/>
+      <c r="BG59" s="107"/>
+      <c r="BH59" s="107"/>
+      <c r="BI59" s="107"/>
+      <c r="BJ59" s="107"/>
+      <c r="BK59" s="107"/>
+      <c r="BL59" s="107"/>
+      <c r="BM59" s="107"/>
+      <c r="BN59" s="107"/>
+    </row>
+    <row r="60" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A60" s="53" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>11</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="56"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G60" s="57"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="59" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J60" s="96"/>
+      <c r="K60" s="108"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="108"/>
+      <c r="N60" s="108"/>
+      <c r="O60" s="108"/>
+      <c r="P60" s="108"/>
+      <c r="Q60" s="108"/>
+      <c r="R60" s="108"/>
+      <c r="S60" s="108"/>
+      <c r="T60" s="108"/>
+      <c r="U60" s="108"/>
+      <c r="V60" s="108"/>
+      <c r="W60" s="108"/>
+      <c r="X60" s="108"/>
+      <c r="Y60" s="108"/>
+      <c r="Z60" s="108"/>
+      <c r="AA60" s="108"/>
+      <c r="AB60" s="108"/>
+      <c r="AC60" s="108"/>
+      <c r="AD60" s="108"/>
+      <c r="AE60" s="108"/>
+      <c r="AF60" s="108"/>
+      <c r="AG60" s="108"/>
+      <c r="AH60" s="108"/>
+      <c r="AI60" s="108"/>
+      <c r="AJ60" s="108"/>
+      <c r="AK60" s="108"/>
+      <c r="AL60" s="108"/>
+      <c r="AM60" s="108"/>
+      <c r="AN60" s="108"/>
+      <c r="AO60" s="108"/>
+      <c r="AP60" s="108"/>
+      <c r="AQ60" s="108"/>
+      <c r="AR60" s="108"/>
+      <c r="AS60" s="108"/>
+      <c r="AT60" s="108"/>
+      <c r="AU60" s="108"/>
+      <c r="AV60" s="108"/>
+      <c r="AW60" s="108"/>
+      <c r="AX60" s="108"/>
+      <c r="AY60" s="108"/>
+      <c r="AZ60" s="108"/>
+      <c r="BA60" s="108"/>
+      <c r="BB60" s="108"/>
+      <c r="BC60" s="108"/>
+      <c r="BD60" s="108"/>
+      <c r="BE60" s="108"/>
+      <c r="BF60" s="108"/>
+      <c r="BG60" s="108"/>
+      <c r="BH60" s="108"/>
+      <c r="BI60" s="108"/>
+      <c r="BJ60" s="108"/>
+      <c r="BK60" s="108"/>
+      <c r="BL60" s="108"/>
+      <c r="BM60" s="108"/>
+      <c r="BN60" s="108"/>
+    </row>
+    <row r="61" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A61" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>11.1</v>
+      </c>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="101" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G61" s="62"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="80" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J61" s="99"/>
+      <c r="K61" s="107"/>
+      <c r="L61" s="107"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="107"/>
+      <c r="O61" s="107"/>
+      <c r="P61" s="107"/>
+      <c r="Q61" s="107"/>
+      <c r="R61" s="107"/>
+      <c r="S61" s="107"/>
+      <c r="T61" s="107"/>
+      <c r="U61" s="107"/>
+      <c r="V61" s="107"/>
+      <c r="W61" s="107"/>
+      <c r="X61" s="107"/>
+      <c r="Y61" s="107"/>
+      <c r="Z61" s="107"/>
+      <c r="AA61" s="107"/>
+      <c r="AB61" s="107"/>
+      <c r="AC61" s="107"/>
+      <c r="AD61" s="107"/>
+      <c r="AE61" s="107"/>
+      <c r="AF61" s="107"/>
+      <c r="AG61" s="107"/>
+      <c r="AH61" s="107"/>
+      <c r="AI61" s="107"/>
+      <c r="AJ61" s="107"/>
+      <c r="AK61" s="107"/>
+      <c r="AL61" s="107"/>
+      <c r="AM61" s="107"/>
+      <c r="AN61" s="107"/>
+      <c r="AO61" s="107"/>
+      <c r="AP61" s="107"/>
+      <c r="AQ61" s="107"/>
+      <c r="AR61" s="107"/>
+      <c r="AS61" s="107"/>
+      <c r="AT61" s="107"/>
+      <c r="AU61" s="107"/>
+      <c r="AV61" s="107"/>
+      <c r="AW61" s="107"/>
+      <c r="AX61" s="107"/>
+      <c r="AY61" s="107"/>
+      <c r="AZ61" s="107"/>
+      <c r="BA61" s="107"/>
+      <c r="BB61" s="107"/>
+      <c r="BC61" s="107"/>
+      <c r="BD61" s="107"/>
+      <c r="BE61" s="107"/>
+      <c r="BF61" s="107"/>
+      <c r="BG61" s="107"/>
+      <c r="BH61" s="107"/>
+      <c r="BI61" s="107"/>
+      <c r="BJ61" s="107"/>
+      <c r="BK61" s="107"/>
+      <c r="BL61" s="107"/>
+      <c r="BM61" s="107"/>
+      <c r="BN61" s="107"/>
+    </row>
+    <row r="62" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A62" s="53" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>12</v>
+      </c>
+      <c r="B62" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="56"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102" t="str">
+        <f t="shared" ref="F62:F63" si="34">IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G62" s="57"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="59" t="str">
+        <f t="shared" ref="I62:I63" si="35">IF(OR(F62=0,E62=0)," - ",NETWORKDAYS(E62,F62))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J62" s="96"/>
+      <c r="K62" s="108"/>
+      <c r="L62" s="108"/>
+      <c r="M62" s="108"/>
+      <c r="N62" s="108"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="108"/>
+      <c r="Q62" s="108"/>
+      <c r="R62" s="108"/>
+      <c r="S62" s="108"/>
+      <c r="T62" s="108"/>
+      <c r="U62" s="108"/>
+      <c r="V62" s="108"/>
+      <c r="W62" s="108"/>
+      <c r="X62" s="108"/>
+      <c r="Y62" s="108"/>
+      <c r="Z62" s="108"/>
+      <c r="AA62" s="108"/>
+      <c r="AB62" s="108"/>
+      <c r="AC62" s="108"/>
+      <c r="AD62" s="108"/>
+      <c r="AE62" s="108"/>
+      <c r="AF62" s="108"/>
+      <c r="AG62" s="108"/>
+      <c r="AH62" s="108"/>
+      <c r="AI62" s="108"/>
+      <c r="AJ62" s="108"/>
+      <c r="AK62" s="108"/>
+      <c r="AL62" s="108"/>
+      <c r="AM62" s="108"/>
+      <c r="AN62" s="108"/>
+      <c r="AO62" s="108"/>
+      <c r="AP62" s="108"/>
+      <c r="AQ62" s="108"/>
+      <c r="AR62" s="108"/>
+      <c r="AS62" s="108"/>
+      <c r="AT62" s="108"/>
+      <c r="AU62" s="108"/>
+      <c r="AV62" s="108"/>
+      <c r="AW62" s="108"/>
+      <c r="AX62" s="108"/>
+      <c r="AY62" s="108"/>
+      <c r="AZ62" s="108"/>
+      <c r="BA62" s="108"/>
+      <c r="BB62" s="108"/>
+      <c r="BC62" s="108"/>
+      <c r="BD62" s="108"/>
+      <c r="BE62" s="108"/>
+      <c r="BF62" s="108"/>
+      <c r="BG62" s="108"/>
+      <c r="BH62" s="108"/>
+      <c r="BI62" s="108"/>
+      <c r="BJ62" s="108"/>
+      <c r="BK62" s="108"/>
+      <c r="BL62" s="108"/>
+      <c r="BM62" s="108"/>
+      <c r="BN62" s="108"/>
+    </row>
+    <row r="63" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A63" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>12.1</v>
+      </c>
+      <c r="B63" s="81"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="101" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G63" s="62"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="80" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J63" s="99"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="107"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="107"/>
+      <c r="R63" s="107"/>
+      <c r="S63" s="107"/>
+      <c r="T63" s="107"/>
+      <c r="U63" s="107"/>
+      <c r="V63" s="107"/>
+      <c r="W63" s="107"/>
+      <c r="X63" s="107"/>
+      <c r="Y63" s="107"/>
+      <c r="Z63" s="107"/>
+      <c r="AA63" s="107"/>
+      <c r="AB63" s="107"/>
+      <c r="AC63" s="107"/>
+      <c r="AD63" s="107"/>
+      <c r="AE63" s="107"/>
+      <c r="AF63" s="107"/>
+      <c r="AG63" s="107"/>
+      <c r="AH63" s="107"/>
+      <c r="AI63" s="107"/>
+      <c r="AJ63" s="107"/>
+      <c r="AK63" s="107"/>
+      <c r="AL63" s="107"/>
+      <c r="AM63" s="107"/>
+      <c r="AN63" s="107"/>
+      <c r="AO63" s="107"/>
+      <c r="AP63" s="107"/>
+      <c r="AQ63" s="107"/>
+      <c r="AR63" s="107"/>
+      <c r="AS63" s="107"/>
+      <c r="AT63" s="107"/>
+      <c r="AU63" s="107"/>
+      <c r="AV63" s="107"/>
+      <c r="AW63" s="107"/>
+      <c r="AX63" s="107"/>
+      <c r="AY63" s="107"/>
+      <c r="AZ63" s="107"/>
+      <c r="BA63" s="107"/>
+      <c r="BB63" s="107"/>
+      <c r="BC63" s="107"/>
+      <c r="BD63" s="107"/>
+      <c r="BE63" s="107"/>
+      <c r="BF63" s="107"/>
+      <c r="BG63" s="107"/>
+      <c r="BH63" s="107"/>
+      <c r="BI63" s="107"/>
+      <c r="BJ63" s="107"/>
+      <c r="BK63" s="107"/>
+      <c r="BL63" s="107"/>
+      <c r="BM63" s="107"/>
+      <c r="BN63" s="107"/>
+    </row>
+    <row r="64" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A64" s="60"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J64" s="97"/>
+      <c r="K64" s="107"/>
+      <c r="L64" s="107"/>
+      <c r="M64" s="107"/>
+      <c r="N64" s="107"/>
+      <c r="O64" s="107"/>
+      <c r="P64" s="107"/>
+      <c r="Q64" s="107"/>
+      <c r="R64" s="107"/>
+      <c r="S64" s="107"/>
+      <c r="T64" s="107"/>
+      <c r="U64" s="107"/>
+      <c r="V64" s="107"/>
+      <c r="W64" s="107"/>
+      <c r="X64" s="107"/>
+      <c r="Y64" s="107"/>
+      <c r="Z64" s="107"/>
+      <c r="AA64" s="107"/>
+      <c r="AB64" s="107"/>
+      <c r="AC64" s="107"/>
+      <c r="AD64" s="107"/>
+      <c r="AE64" s="107"/>
+      <c r="AF64" s="107"/>
+      <c r="AG64" s="107"/>
+      <c r="AH64" s="107"/>
+      <c r="AI64" s="107"/>
+      <c r="AJ64" s="107"/>
+      <c r="AK64" s="107"/>
+      <c r="AL64" s="107"/>
+      <c r="AM64" s="107"/>
+      <c r="AN64" s="107"/>
+      <c r="AO64" s="107"/>
+      <c r="AP64" s="107"/>
+      <c r="AQ64" s="107"/>
+      <c r="AR64" s="107"/>
+      <c r="AS64" s="107"/>
+      <c r="AT64" s="107"/>
+      <c r="AU64" s="107"/>
+      <c r="AV64" s="107"/>
+      <c r="AW64" s="107"/>
+      <c r="AX64" s="107"/>
+      <c r="AY64" s="107"/>
+      <c r="AZ64" s="107"/>
+      <c r="BA64" s="107"/>
+      <c r="BB64" s="107"/>
+      <c r="BC64" s="107"/>
+      <c r="BD64" s="107"/>
+      <c r="BE64" s="107"/>
+      <c r="BF64" s="107"/>
+      <c r="BG64" s="107"/>
+      <c r="BH64" s="107"/>
+      <c r="BI64" s="107"/>
+      <c r="BJ64" s="107"/>
+      <c r="BK64" s="107"/>
+      <c r="BL64" s="107"/>
+      <c r="BM64" s="107"/>
+      <c r="BN64" s="107"/>
+    </row>
+    <row r="65" spans="1:66" s="75" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A65" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="72"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="98"/>
+      <c r="K65" s="107"/>
+      <c r="L65" s="107"/>
+      <c r="M65" s="107"/>
+      <c r="N65" s="107"/>
+      <c r="O65" s="107"/>
+      <c r="P65" s="107"/>
+      <c r="Q65" s="107"/>
+      <c r="R65" s="107"/>
+      <c r="S65" s="107"/>
+      <c r="T65" s="107"/>
+      <c r="U65" s="107"/>
+      <c r="V65" s="107"/>
+      <c r="W65" s="107"/>
+      <c r="X65" s="107"/>
+      <c r="Y65" s="107"/>
+      <c r="Z65" s="107"/>
+      <c r="AA65" s="107"/>
+      <c r="AB65" s="107"/>
+      <c r="AC65" s="107"/>
+      <c r="AD65" s="107"/>
+      <c r="AE65" s="107"/>
+      <c r="AF65" s="107"/>
+      <c r="AG65" s="107"/>
+      <c r="AH65" s="107"/>
+      <c r="AI65" s="107"/>
+      <c r="AJ65" s="107"/>
+      <c r="AK65" s="107"/>
+      <c r="AL65" s="107"/>
+      <c r="AM65" s="107"/>
+      <c r="AN65" s="107"/>
+      <c r="AO65" s="107"/>
+      <c r="AP65" s="107"/>
+      <c r="AQ65" s="107"/>
+      <c r="AR65" s="107"/>
+      <c r="AS65" s="107"/>
+      <c r="AT65" s="107"/>
+      <c r="AU65" s="107"/>
+      <c r="AV65" s="107"/>
+      <c r="AW65" s="107"/>
+      <c r="AX65" s="107"/>
+      <c r="AY65" s="107"/>
+      <c r="AZ65" s="107"/>
+      <c r="BA65" s="107"/>
+      <c r="BB65" s="107"/>
+      <c r="BC65" s="107"/>
+      <c r="BD65" s="107"/>
+      <c r="BE65" s="107"/>
+      <c r="BF65" s="107"/>
+      <c r="BG65" s="107"/>
+      <c r="BH65" s="107"/>
+      <c r="BI65" s="107"/>
+      <c r="BJ65" s="107"/>
+      <c r="BK65" s="107"/>
+      <c r="BL65" s="107"/>
+      <c r="BM65" s="107"/>
+      <c r="BN65" s="107"/>
+    </row>
+    <row r="66" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A66" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="77"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="105"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="107"/>
+      <c r="L66" s="107"/>
+      <c r="M66" s="107"/>
+      <c r="N66" s="107"/>
+      <c r="O66" s="107"/>
+      <c r="P66" s="107"/>
+      <c r="Q66" s="107"/>
+      <c r="R66" s="107"/>
+      <c r="S66" s="107"/>
+      <c r="T66" s="107"/>
+      <c r="U66" s="107"/>
+      <c r="V66" s="107"/>
+      <c r="W66" s="107"/>
+      <c r="X66" s="107"/>
+      <c r="Y66" s="107"/>
+      <c r="Z66" s="107"/>
+      <c r="AA66" s="107"/>
+      <c r="AB66" s="107"/>
+      <c r="AC66" s="107"/>
+      <c r="AD66" s="107"/>
+      <c r="AE66" s="107"/>
+      <c r="AF66" s="107"/>
+      <c r="AG66" s="107"/>
+      <c r="AH66" s="107"/>
+      <c r="AI66" s="107"/>
+      <c r="AJ66" s="107"/>
+      <c r="AK66" s="107"/>
+      <c r="AL66" s="107"/>
+      <c r="AM66" s="107"/>
+      <c r="AN66" s="107"/>
+      <c r="AO66" s="107"/>
+      <c r="AP66" s="107"/>
+      <c r="AQ66" s="107"/>
+      <c r="AR66" s="107"/>
+      <c r="AS66" s="107"/>
+      <c r="AT66" s="107"/>
+      <c r="AU66" s="107"/>
+      <c r="AV66" s="107"/>
+      <c r="AW66" s="107"/>
+      <c r="AX66" s="107"/>
+      <c r="AY66" s="107"/>
+      <c r="AZ66" s="107"/>
+      <c r="BA66" s="107"/>
+      <c r="BB66" s="107"/>
+      <c r="BC66" s="107"/>
+      <c r="BD66" s="107"/>
+      <c r="BE66" s="107"/>
+      <c r="BF66" s="107"/>
+      <c r="BG66" s="107"/>
+      <c r="BH66" s="107"/>
+      <c r="BI66" s="107"/>
+      <c r="BJ66" s="107"/>
+      <c r="BK66" s="107"/>
+      <c r="BL66" s="107"/>
+      <c r="BM66" s="107"/>
+      <c r="BN66" s="107"/>
+    </row>
+    <row r="67" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A67" s="127" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B67" s="128" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="78"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="101" t="str">
+        <f t="shared" ref="F67:F70" si="36">IF(ISBLANK(E67)," - ",IF(G67=0,E67,E67+G67-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G67" s="62"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="80" t="str">
+        <f>IF(OR(F67=0,E67=0)," - ",NETWORKDAYS(E67,F67))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J67" s="99"/>
+      <c r="K67" s="107"/>
+      <c r="L67" s="107"/>
+      <c r="M67" s="107"/>
+      <c r="N67" s="107"/>
+      <c r="O67" s="107"/>
+      <c r="P67" s="107"/>
+      <c r="Q67" s="107"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="107"/>
+      <c r="T67" s="107"/>
+      <c r="U67" s="107"/>
+      <c r="V67" s="107"/>
+      <c r="W67" s="107"/>
+      <c r="X67" s="107"/>
+      <c r="Y67" s="107"/>
+      <c r="Z67" s="107"/>
+      <c r="AA67" s="107"/>
+      <c r="AB67" s="107"/>
+      <c r="AC67" s="107"/>
+      <c r="AD67" s="107"/>
+      <c r="AE67" s="107"/>
+      <c r="AF67" s="107"/>
+      <c r="AG67" s="107"/>
+      <c r="AH67" s="107"/>
+      <c r="AI67" s="107"/>
+      <c r="AJ67" s="107"/>
+      <c r="AK67" s="107"/>
+      <c r="AL67" s="107"/>
+      <c r="AM67" s="107"/>
+      <c r="AN67" s="107"/>
+      <c r="AO67" s="107"/>
+      <c r="AP67" s="107"/>
+      <c r="AQ67" s="107"/>
+      <c r="AR67" s="107"/>
+      <c r="AS67" s="107"/>
+      <c r="AT67" s="107"/>
+      <c r="AU67" s="107"/>
+      <c r="AV67" s="107"/>
+      <c r="AW67" s="107"/>
+      <c r="AX67" s="107"/>
+      <c r="AY67" s="107"/>
+      <c r="AZ67" s="107"/>
+      <c r="BA67" s="107"/>
+      <c r="BB67" s="107"/>
+      <c r="BC67" s="107"/>
+      <c r="BD67" s="107"/>
+      <c r="BE67" s="107"/>
+      <c r="BF67" s="107"/>
+      <c r="BG67" s="107"/>
+      <c r="BH67" s="107"/>
+      <c r="BI67" s="107"/>
+      <c r="BJ67" s="107"/>
+      <c r="BK67" s="107"/>
+      <c r="BL67" s="107"/>
+      <c r="BM67" s="107"/>
+      <c r="BN67" s="107"/>
+    </row>
+    <row r="68" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A68" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B68" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="81"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="101" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G68" s="62"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="80" t="str">
+        <f t="shared" ref="I68:I70" si="37">IF(OR(F68=0,E68=0)," - ",NETWORKDAYS(E68,F68))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J68" s="99"/>
+      <c r="K68" s="107"/>
+      <c r="L68" s="107"/>
+      <c r="M68" s="107"/>
+      <c r="N68" s="107"/>
+      <c r="O68" s="107"/>
+      <c r="P68" s="107"/>
+      <c r="Q68" s="107"/>
+      <c r="R68" s="107"/>
+      <c r="S68" s="107"/>
+      <c r="T68" s="107"/>
+      <c r="U68" s="107"/>
+      <c r="V68" s="107"/>
+      <c r="W68" s="107"/>
+      <c r="X68" s="107"/>
+      <c r="Y68" s="107"/>
+      <c r="Z68" s="107"/>
+      <c r="AA68" s="107"/>
+      <c r="AB68" s="107"/>
+      <c r="AC68" s="107"/>
+      <c r="AD68" s="107"/>
+      <c r="AE68" s="107"/>
+      <c r="AF68" s="107"/>
+      <c r="AG68" s="107"/>
+      <c r="AH68" s="107"/>
+      <c r="AI68" s="107"/>
+      <c r="AJ68" s="107"/>
+      <c r="AK68" s="107"/>
+      <c r="AL68" s="107"/>
+      <c r="AM68" s="107"/>
+      <c r="AN68" s="107"/>
+      <c r="AO68" s="107"/>
+      <c r="AP68" s="107"/>
+      <c r="AQ68" s="107"/>
+      <c r="AR68" s="107"/>
+      <c r="AS68" s="107"/>
+      <c r="AT68" s="107"/>
+      <c r="AU68" s="107"/>
+      <c r="AV68" s="107"/>
+      <c r="AW68" s="107"/>
+      <c r="AX68" s="107"/>
+      <c r="AY68" s="107"/>
+      <c r="AZ68" s="107"/>
+      <c r="BA68" s="107"/>
+      <c r="BB68" s="107"/>
+      <c r="BC68" s="107"/>
+      <c r="BD68" s="107"/>
+      <c r="BE68" s="107"/>
+      <c r="BF68" s="107"/>
+      <c r="BG68" s="107"/>
+      <c r="BH68" s="107"/>
+      <c r="BI68" s="107"/>
+      <c r="BJ68" s="107"/>
+      <c r="BK68" s="107"/>
+      <c r="BL68" s="107"/>
+      <c r="BM68" s="107"/>
+      <c r="BN68" s="107"/>
+    </row>
+    <row r="69" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A69" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B69" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="81"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="101" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G69" s="62"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="80" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J69" s="99"/>
+      <c r="K69" s="107"/>
+      <c r="L69" s="107"/>
+      <c r="M69" s="107"/>
+      <c r="N69" s="107"/>
+      <c r="O69" s="107"/>
+      <c r="P69" s="107"/>
+      <c r="Q69" s="107"/>
+      <c r="R69" s="107"/>
+      <c r="S69" s="107"/>
+      <c r="T69" s="107"/>
+      <c r="U69" s="107"/>
+      <c r="V69" s="107"/>
+      <c r="W69" s="107"/>
+      <c r="X69" s="107"/>
+      <c r="Y69" s="107"/>
+      <c r="Z69" s="107"/>
+      <c r="AA69" s="107"/>
+      <c r="AB69" s="107"/>
+      <c r="AC69" s="107"/>
+      <c r="AD69" s="107"/>
+      <c r="AE69" s="107"/>
+      <c r="AF69" s="107"/>
+      <c r="AG69" s="107"/>
+      <c r="AH69" s="107"/>
+      <c r="AI69" s="107"/>
+      <c r="AJ69" s="107"/>
+      <c r="AK69" s="107"/>
+      <c r="AL69" s="107"/>
+      <c r="AM69" s="107"/>
+      <c r="AN69" s="107"/>
+      <c r="AO69" s="107"/>
+      <c r="AP69" s="107"/>
+      <c r="AQ69" s="107"/>
+      <c r="AR69" s="107"/>
+      <c r="AS69" s="107"/>
+      <c r="AT69" s="107"/>
+      <c r="AU69" s="107"/>
+      <c r="AV69" s="107"/>
+      <c r="AW69" s="107"/>
+      <c r="AX69" s="107"/>
+      <c r="AY69" s="107"/>
+      <c r="AZ69" s="107"/>
+      <c r="BA69" s="107"/>
+      <c r="BB69" s="107"/>
+      <c r="BC69" s="107"/>
+      <c r="BD69" s="107"/>
+      <c r="BE69" s="107"/>
+      <c r="BF69" s="107"/>
+      <c r="BG69" s="107"/>
+      <c r="BH69" s="107"/>
+      <c r="BI69" s="107"/>
+      <c r="BJ69" s="107"/>
+      <c r="BK69" s="107"/>
+      <c r="BL69" s="107"/>
+      <c r="BM69" s="107"/>
+      <c r="BN69" s="107"/>
+    </row>
+    <row r="70" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A70" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B70" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="81"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="101" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G70" s="62"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="80" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J70" s="99"/>
+      <c r="K70" s="107"/>
+      <c r="L70" s="107"/>
+      <c r="M70" s="107"/>
+      <c r="N70" s="107"/>
+      <c r="O70" s="107"/>
+      <c r="P70" s="107"/>
+      <c r="Q70" s="107"/>
+      <c r="R70" s="107"/>
+      <c r="S70" s="107"/>
+      <c r="T70" s="107"/>
+      <c r="U70" s="107"/>
+      <c r="V70" s="107"/>
+      <c r="W70" s="107"/>
+      <c r="X70" s="107"/>
+      <c r="Y70" s="107"/>
+      <c r="Z70" s="107"/>
+      <c r="AA70" s="107"/>
+      <c r="AB70" s="107"/>
+      <c r="AC70" s="107"/>
+      <c r="AD70" s="107"/>
+      <c r="AE70" s="107"/>
+      <c r="AF70" s="107"/>
+      <c r="AG70" s="107"/>
+      <c r="AH70" s="107"/>
+      <c r="AI70" s="107"/>
+      <c r="AJ70" s="107"/>
+      <c r="AK70" s="107"/>
+      <c r="AL70" s="107"/>
+      <c r="AM70" s="107"/>
+      <c r="AN70" s="107"/>
+      <c r="AO70" s="107"/>
+      <c r="AP70" s="107"/>
+      <c r="AQ70" s="107"/>
+      <c r="AR70" s="107"/>
+      <c r="AS70" s="107"/>
+      <c r="AT70" s="107"/>
+      <c r="AU70" s="107"/>
+      <c r="AV70" s="107"/>
+      <c r="AW70" s="107"/>
+      <c r="AX70" s="107"/>
+      <c r="AY70" s="107"/>
+      <c r="AZ70" s="107"/>
+      <c r="BA70" s="107"/>
+      <c r="BB70" s="107"/>
+      <c r="BC70" s="107"/>
+      <c r="BD70" s="107"/>
+      <c r="BE70" s="107"/>
+      <c r="BF70" s="107"/>
+      <c r="BG70" s="107"/>
+      <c r="BH70" s="107"/>
+      <c r="BI70" s="107"/>
+      <c r="BJ70" s="107"/>
+      <c r="BK70" s="107"/>
+      <c r="BL70" s="107"/>
+      <c r="BM70" s="107"/>
+      <c r="BN70" s="107"/>
+    </row>
+    <row r="71" spans="1:66" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="31"/>
+      <c r="S71" s="31"/>
+      <c r="T71" s="31"/>
+      <c r="U71" s="31"/>
+      <c r="V71" s="31"/>
+      <c r="W71" s="31"/>
+      <c r="X71" s="31"/>
+      <c r="Y71" s="31"/>
+      <c r="Z71" s="31"/>
+      <c r="AA71" s="31"/>
+      <c r="AB71" s="31"/>
+      <c r="AC71" s="31"/>
+      <c r="AD71" s="31"/>
+      <c r="AE71" s="31"/>
+      <c r="AF71" s="31"/>
+      <c r="AG71" s="31"/>
+      <c r="AH71" s="31"/>
+      <c r="AI71" s="31"/>
+      <c r="AJ71" s="31"/>
+      <c r="AK71" s="31"/>
+      <c r="AL71" s="31"/>
+      <c r="AM71" s="31"/>
+      <c r="AN71" s="31"/>
+      <c r="AO71" s="31"/>
+      <c r="AP71" s="31"/>
+      <c r="AQ71" s="31"/>
+      <c r="AR71" s="31"/>
+      <c r="AS71" s="31"/>
+      <c r="AT71" s="31"/>
+      <c r="AU71" s="31"/>
+      <c r="AV71" s="31"/>
+      <c r="AW71" s="31"/>
+      <c r="AX71" s="31"/>
+      <c r="AY71" s="31"/>
+      <c r="AZ71" s="31"/>
+      <c r="BA71" s="31"/>
+      <c r="BB71" s="31"/>
+      <c r="BC71" s="31"/>
+      <c r="BD71" s="31"/>
+      <c r="BE71" s="31"/>
+      <c r="BF71" s="31"/>
+      <c r="BG71" s="31"/>
+      <c r="BH71" s="31"/>
+      <c r="BI71" s="31"/>
+      <c r="BJ71" s="31"/>
+      <c r="BK71" s="31"/>
+      <c r="BL71" s="31"/>
+      <c r="BM71" s="31"/>
+      <c r="BN71" s="31"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -8463,10 +10139,19 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H11 H16:H18 H49:H55 H30 H20:H28 H13">
-    <cfRule type="dataBar" priority="122">
+  <conditionalFormatting sqref="H8:H11 H16:H18 H64:H70 H30 H20:H28 H13">
+    <cfRule type="dataBar" priority="194">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8480,25 +10165,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="30" priority="165">
+    <cfRule type="expression" dxfId="65" priority="237">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN11 K13:BN18 K20:BN55">
-    <cfRule type="expression" dxfId="29" priority="168">
+  <conditionalFormatting sqref="K8:BN11 K13:BN18 K20:BN30 K33:BN34 K40:BN70">
+    <cfRule type="expression" dxfId="64" priority="240">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="169">
+    <cfRule type="expression" dxfId="63" priority="241">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN11 K16:BN18 K49:BN55 K30:BN30 K20:BN28 K13:BN13">
-    <cfRule type="expression" dxfId="27" priority="128">
+  <conditionalFormatting sqref="K6:BN11 K16:BN18 K64:BN70 K30:BN30 K20:BN28 K13:BN13">
+    <cfRule type="expression" dxfId="62" priority="200">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="dataBar" priority="106">
+    <cfRule type="dataBar" priority="178">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8512,17 +10197,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="26" priority="113">
+    <cfRule type="expression" dxfId="61" priority="185">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="25" priority="109">
+    <cfRule type="expression" dxfId="60" priority="181">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="107">
+    <cfRule type="dataBar" priority="179">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8535,8 +10220,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="99">
+  <conditionalFormatting sqref="H33">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8549,13 +10234,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="24" priority="100">
+  <conditionalFormatting sqref="K33:BN33">
+    <cfRule type="expression" dxfId="59" priority="172">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="91">
+  <conditionalFormatting sqref="H34">
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8568,8 +10253,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="83">
+  <conditionalFormatting sqref="H41">
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8582,13 +10267,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="23" priority="92">
+  <conditionalFormatting sqref="K34:BN34">
+    <cfRule type="expression" dxfId="58" priority="164">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="75">
+  <conditionalFormatting sqref="H55">
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8601,13 +10286,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="22" priority="84">
+  <conditionalFormatting sqref="K41:BN41">
+    <cfRule type="expression" dxfId="57" priority="156">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="87">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8620,13 +10305,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="21" priority="88">
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="56" priority="160">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="dataBar" priority="67">
+  <conditionalFormatting sqref="H63">
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8639,13 +10324,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="20" priority="76">
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="55" priority="148">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="59">
+  <conditionalFormatting sqref="H59">
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8658,13 +10343,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="19" priority="68">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="54" priority="140">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="79">
+  <conditionalFormatting sqref="H54">
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8677,13 +10362,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="18" priority="80">
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="53" priority="152">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="51">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8696,13 +10381,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="17" priority="60">
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="52" priority="132">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="dataBar" priority="71">
+  <conditionalFormatting sqref="H62">
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8715,13 +10400,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="16" priority="72">
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="51" priority="144">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="43">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8734,13 +10419,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="15" priority="52">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="50" priority="124">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="63">
+  <conditionalFormatting sqref="H58">
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8753,13 +10438,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="14" priority="64">
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="49" priority="136">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="35">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8772,13 +10457,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="13" priority="44">
+  <conditionalFormatting sqref="K46:BN46">
+    <cfRule type="expression" dxfId="48" priority="116">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="dataBar" priority="55">
+  <conditionalFormatting sqref="H56">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8791,13 +10476,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="12" priority="56">
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="47" priority="128">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="dataBar" priority="27">
+  <conditionalFormatting sqref="H61">
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8810,13 +10495,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="11" priority="36">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="46" priority="108">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="47">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8829,13 +10514,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="10" priority="48">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="45" priority="120">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8848,13 +10533,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="9" priority="28">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="44" priority="100">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="dataBar" priority="39">
+  <conditionalFormatting sqref="H42">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8867,18 +10552,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="8" priority="40">
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="43" priority="112">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="7" priority="24">
+    <cfRule type="expression" dxfId="42" priority="96">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="31">
+  <conditionalFormatting sqref="H60">
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8891,13 +10576,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="6" priority="32">
+  <conditionalFormatting sqref="K60:BN60">
+    <cfRule type="expression" dxfId="41" priority="104">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8911,20 +10596,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="40" priority="79">
       <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="39" priority="80">
       <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="38" priority="78">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8938,14 +10623,469 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="37" priority="75">
       <formula>AND($E19&lt;=K$6,ROUNDDOWN(($F19-$E19+1)*$H19,0)+$E19-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="36" priority="76">
       <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$6,$F19&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
+    <cfRule type="expression" dxfId="35" priority="74">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="dataBar" priority="69">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F31070D4-D4DA-C640-87F5-2362BD3F88D3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:BN31">
+    <cfRule type="expression" dxfId="34" priority="71">
+      <formula>AND($E31&lt;=K$6,ROUNDDOWN(($F31-$E31+1)*$H31,0)+$E31-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="72">
+      <formula>AND(NOT(ISBLANK($E31)),$E31&lt;=K$6,$F31&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:BN31">
+    <cfRule type="expression" dxfId="32" priority="70">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="dataBar" priority="65">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2D8C7FF9-E83B-DA4C-B96F-187FC4004B6E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="31" priority="66">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="dataBar" priority="63">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EC734CD8-B493-2444-A426-183D6898AB8B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="30" priority="64">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="dataBar" priority="59">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E43E317B-FDC6-884D-80FD-6FE886865D02}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="29" priority="60">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{55EA0FDE-0D3E-4745-A36E-0B1D4AFCA0B3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="dataBar" priority="51">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6197F1EF-B118-6948-9F03-A07AD16BA4B0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="28" priority="54">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="27" priority="52">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="dataBar" priority="55">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{62B782CE-B4EE-3248-8062-C7B6136695B8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="26" priority="56">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B20BAABC-5D33-C841-9D14-5FFD8FE222EB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="25" priority="48">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="dataBar" priority="45">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1D3271B6-B451-8B40-8A00-8FC357E3FBCB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="24" priority="46">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="dataBar" priority="41">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EEA9B63F-7FAE-E843-9C9B-383F4A834582}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="23" priority="42">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{45DBF916-A8A9-7242-A073-3F7A0C031371}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="22" priority="36">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{892E8868-478E-5D49-B9E6-1D987C0BEC52}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="21" priority="38">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F0001EAE-A348-374E-B4FF-F2EF90A886A7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="20" priority="32">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5461E562-5FD8-DA4A-96D3-8D62012F23CC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="19" priority="30">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{93341AD5-A9C0-8C4C-9660-AABB50FC5903}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="18" priority="26">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4E682BF2-C32E-1F48-8563-FE8672133400}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:BN32">
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:BN32">
+    <cfRule type="expression" dxfId="15" priority="22">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:BN35">
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>AND($E35&lt;=K$6,ROUNDDOWN(($F35-$E35+1)*$H35,0)+$E35-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="20">
+      <formula>AND(NOT(ISBLANK($E35)),$E35&lt;=K$6,$F35&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6303DE5C-0625-734E-AA23-40A33BD4C47E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:BN35">
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:BN36">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>AND($E36&lt;=K$6,ROUNDDOWN(($F36-$E36+1)*$H36,0)+$E36-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="16">
+      <formula>AND(NOT(ISBLANK($E36)),$E36&lt;=K$6,$F36&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F97BC70F-D553-B54D-957F-13D55D53D419}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:BN36">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:BN37">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>AND($E37&lt;=K$6,ROUNDDOWN(($F37-$E37+1)*$H37,0)+$E37-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>AND(NOT(ISBLANK($E37)),$E37&lt;=K$6,$F37&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6E1B22DB-86C9-5E4B-83EB-94BCBA19F8C9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:BN37">
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>AND($E38&lt;=K$6,ROUNDDOWN(($F38-$E38+1)*$H38,0)+$E38-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>AND(NOT(ISBLANK($E38)),$E38&lt;=K$6,$F38&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2DDD3C4E-133F-AC49-8DE6-A405AE85BB52}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($E39&lt;=K$6,ROUNDDOWN(($F39-$E39+1)*$H39,0)+$E39-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT(ISBLANK($E39)),$E39&lt;=K$6,$F39&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0F2BADBA-FA87-2743-BAA3-5CA3C34E9D99}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:BN39">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -8957,7 +11097,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A49:B49 A51:B51 B50 E10 E20 E24 E49:H51 G10:H10 G20:H20 G24:H24 G52 G53:G54 G55 G25" unlockedFormula="1"/>
+    <ignoredError sqref="A64:B64 A66:B66 B65 E10 E20 E24 E64:H66 G10:H10 G20:H20 G24:H24 G67 G68:G69 G70 G25" unlockedFormula="1"/>
     <ignoredError sqref="A24 A20 A10 A16" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
@@ -9008,7 +11148,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H11 H16:H18 H49:H55 H30 H20:H28 H13</xm:sqref>
+          <xm:sqref>H8:H11 H16:H18 H64:H70 H30 H20:H28 H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C1E55C9C-328E-7F42-B324-A31B3CE69B6E}">
@@ -9053,7 +11193,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H31</xm:sqref>
+          <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E0177765-3EC5-9140-882D-8D70C69CF8DC}">
@@ -9068,7 +11208,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H32</xm:sqref>
+          <xm:sqref>H34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{940BBC8F-7EC0-0642-8746-9249EB8859FD}">
@@ -9083,7 +11223,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H34</xm:sqref>
+          <xm:sqref>H41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DCE5909F-1F84-B443-A941-98EE3155C9AB}">
@@ -9098,7 +11238,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H36</xm:sqref>
+          <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D0208E98-1C87-F945-B7BA-D5E81A01579A}">
@@ -9113,7 +11253,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H33</xm:sqref>
+          <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F79A7199-BB91-4A40-BF69-CC8C783C7011}">
@@ -9128,7 +11268,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H48</xm:sqref>
+          <xm:sqref>H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F222E3D4-7513-264C-968B-0292F382CD5D}">
@@ -9143,7 +11283,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
+          <xm:sqref>H59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{526828FD-A928-6E46-95F8-D74ACD1E339B}">
@@ -9158,7 +11298,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H35</xm:sqref>
+          <xm:sqref>H54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{730B0F02-39AB-BD42-BB2A-405EFC6279DF}">
@@ -9173,7 +11313,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
+          <xm:sqref>H57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1C2DB213-53A8-4946-B60A-C01681F15068}">
@@ -9188,7 +11328,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H47</xm:sqref>
+          <xm:sqref>H62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D8388F22-1F90-F24E-9C6B-625491BBF15E}">
@@ -9203,7 +11343,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
+          <xm:sqref>H46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3CDA81EE-B6E8-9342-8A31-FAA578F3FBDA}">
@@ -9218,7 +11358,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
+          <xm:sqref>H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6CC7F112-D4C4-2647-8F58-25080F8D0653}">
@@ -9233,7 +11373,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H38</xm:sqref>
+          <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{51803FA7-1B88-B64E-915D-B792FB43FF62}">
@@ -9248,7 +11388,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
+          <xm:sqref>H56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A44EC134-680C-6943-A530-937463E3A665}">
@@ -9263,7 +11403,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H46</xm:sqref>
+          <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6900B624-12B9-8C44-99D7-233CE13C7600}">
@@ -9278,7 +11418,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
+          <xm:sqref>H45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{74F8D3DF-6F10-DE48-8073-38A8F97D520C}">
@@ -9308,7 +11448,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H37</xm:sqref>
+          <xm:sqref>H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5124A7FC-6C88-7F45-B594-A5EB10C74185}">
@@ -9323,7 +11463,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
+          <xm:sqref>H60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B72F9582-8103-A840-9EC3-CEB5270C8B2A}">
@@ -9354,6 +11494,321 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F31070D4-D4DA-C640-87F5-2362BD3F88D3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2D8C7FF9-E83B-DA4C-B96F-187FC4004B6E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EC734CD8-B493-2444-A426-183D6898AB8B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E43E317B-FDC6-884D-80FD-6FE886865D02}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55EA0FDE-0D3E-4745-A36E-0B1D4AFCA0B3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6197F1EF-B118-6948-9F03-A07AD16BA4B0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{62B782CE-B4EE-3248-8062-C7B6136695B8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B20BAABC-5D33-C841-9D14-5FFD8FE222EB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1D3271B6-B451-8B40-8A00-8FC357E3FBCB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EEA9B63F-7FAE-E843-9C9B-383F4A834582}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{45DBF916-A8A9-7242-A073-3F7A0C031371}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{892E8868-478E-5D49-B9E6-1D987C0BEC52}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F0001EAE-A348-374E-B4FF-F2EF90A886A7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5461E562-5FD8-DA4A-96D3-8D62012F23CC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{93341AD5-A9C0-8C4C-9660-AABB50FC5903}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4E682BF2-C32E-1F48-8563-FE8672133400}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6303DE5C-0625-734E-AA23-40A33BD4C47E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F97BC70F-D553-B54D-957F-13D55D53D419}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6E1B22DB-86C9-5E4B-83EB-94BCBA19F8C9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2DDD3C4E-133F-AC49-8DE6-A405AE85BB52}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0F2BADBA-FA87-2743-BAA3-5CA3C34E9D99}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/0b_forms/gantt_chart.xlsx
+++ b/0b_forms/gantt_chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="33600" windowHeight="20540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="187">
   <si>
     <t>WBS</t>
   </si>
@@ -1291,9 +1291,6 @@
     <t>Evaluation plan</t>
   </si>
   <si>
-    <t>Project management</t>
-  </si>
-  <si>
     <t>Conclusion</t>
   </si>
   <si>
@@ -1316,6 +1313,12 @@
   </si>
   <si>
     <t>User stories and acceptane stories</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Systems Requirements Specification</t>
   </si>
 </sst>
 </file>
@@ -2645,13 +2648,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2661,10 +2657,6 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2673,6 +2665,17 @@
     </xf>
     <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2724,7 +2727,59 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="75">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -3415,6 +3470,32 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3503,7 +3584,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="8"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="6"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3526,7 +3607,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3590,7 +3671,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E200000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3640,7 +3721,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3724,7 +3805,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3779,7 +3860,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3834,7 +3915,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4159,11 +4240,11 @@
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN71"/>
+  <dimension ref="A1:BN72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="7" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4191,27 +4272,27 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="I1" s="129"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
@@ -4256,196 +4337,196 @@
       <c r="B4" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="167">
+      <c r="C4" s="170">
         <v>43374</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
       <c r="F4" s="110"/>
       <c r="G4" s="113" t="s">
         <v>73</v>
       </c>
       <c r="H4" s="126">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="164" t="str">
+      <c r="K4" s="162" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 6</v>
+      </c>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="162" t="str">
+        <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 7</v>
+      </c>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="164"/>
+      <c r="Y4" s="162" t="str">
+        <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="164" t="str">
-        <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="164"/>
+      <c r="AF4" s="162" t="str">
+        <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="164" t="str">
-        <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="164"/>
+      <c r="AM4" s="162" t="str">
+        <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="Z4" s="165"/>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="165"/>
-      <c r="AE4" s="166"/>
-      <c r="AF4" s="164" t="str">
-        <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="164"/>
+      <c r="AT4" s="162" t="str">
+        <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="AG4" s="165"/>
-      <c r="AH4" s="165"/>
-      <c r="AI4" s="165"/>
-      <c r="AJ4" s="165"/>
-      <c r="AK4" s="165"/>
-      <c r="AL4" s="166"/>
-      <c r="AM4" s="164" t="str">
-        <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
+      <c r="AX4" s="163"/>
+      <c r="AY4" s="163"/>
+      <c r="AZ4" s="164"/>
+      <c r="BA4" s="162" t="str">
+        <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="AN4" s="165"/>
-      <c r="AO4" s="165"/>
-      <c r="AP4" s="165"/>
-      <c r="AQ4" s="165"/>
-      <c r="AR4" s="165"/>
-      <c r="AS4" s="166"/>
-      <c r="AT4" s="164" t="str">
-        <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="BB4" s="163"/>
+      <c r="BC4" s="163"/>
+      <c r="BD4" s="163"/>
+      <c r="BE4" s="163"/>
+      <c r="BF4" s="163"/>
+      <c r="BG4" s="164"/>
+      <c r="BH4" s="162" t="str">
+        <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="AU4" s="165"/>
-      <c r="AV4" s="165"/>
-      <c r="AW4" s="165"/>
-      <c r="AX4" s="165"/>
-      <c r="AY4" s="165"/>
-      <c r="AZ4" s="166"/>
-      <c r="BA4" s="164" t="str">
-        <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 14</v>
-      </c>
-      <c r="BB4" s="165"/>
-      <c r="BC4" s="165"/>
-      <c r="BD4" s="165"/>
-      <c r="BE4" s="165"/>
-      <c r="BF4" s="165"/>
-      <c r="BG4" s="166"/>
-      <c r="BH4" s="164" t="str">
-        <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 15</v>
-      </c>
-      <c r="BI4" s="165"/>
-      <c r="BJ4" s="165"/>
-      <c r="BK4" s="165"/>
-      <c r="BL4" s="165"/>
-      <c r="BM4" s="165"/>
-      <c r="BN4" s="166"/>
+      <c r="BI4" s="163"/>
+      <c r="BJ4" s="163"/>
+      <c r="BK4" s="163"/>
+      <c r="BL4" s="163"/>
+      <c r="BM4" s="163"/>
+      <c r="BN4" s="164"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="109"/>
       <c r="B5" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="163">
+      <c r="C5" s="169">
         <v>43612</v>
       </c>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="168">
+      <c r="K5" s="165">
         <f>K6</f>
+        <v>43409</v>
+      </c>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="165">
+        <f>R6</f>
+        <v>43416</v>
+      </c>
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="166"/>
+      <c r="X5" s="167"/>
+      <c r="Y5" s="165">
+        <f>Y6</f>
         <v>43423</v>
       </c>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="168">
-        <f>R6</f>
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="166"/>
+      <c r="AB5" s="166"/>
+      <c r="AC5" s="166"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="167"/>
+      <c r="AF5" s="165">
+        <f>AF6</f>
         <v>43430</v>
       </c>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="169"/>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="168">
-        <f>Y6</f>
+      <c r="AG5" s="166"/>
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="166"/>
+      <c r="AL5" s="167"/>
+      <c r="AM5" s="165">
+        <f>AM6</f>
         <v>43437</v>
       </c>
-      <c r="Z5" s="169"/>
-      <c r="AA5" s="169"/>
-      <c r="AB5" s="169"/>
-      <c r="AC5" s="169"/>
-      <c r="AD5" s="169"/>
-      <c r="AE5" s="170"/>
-      <c r="AF5" s="168">
-        <f>AF6</f>
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="166"/>
+      <c r="AP5" s="166"/>
+      <c r="AQ5" s="166"/>
+      <c r="AR5" s="166"/>
+      <c r="AS5" s="167"/>
+      <c r="AT5" s="165">
+        <f>AT6</f>
         <v>43444</v>
       </c>
-      <c r="AG5" s="169"/>
-      <c r="AH5" s="169"/>
-      <c r="AI5" s="169"/>
-      <c r="AJ5" s="169"/>
-      <c r="AK5" s="169"/>
-      <c r="AL5" s="170"/>
-      <c r="AM5" s="168">
-        <f>AM6</f>
+      <c r="AU5" s="166"/>
+      <c r="AV5" s="166"/>
+      <c r="AW5" s="166"/>
+      <c r="AX5" s="166"/>
+      <c r="AY5" s="166"/>
+      <c r="AZ5" s="167"/>
+      <c r="BA5" s="165">
+        <f>BA6</f>
         <v>43451</v>
       </c>
-      <c r="AN5" s="169"/>
-      <c r="AO5" s="169"/>
-      <c r="AP5" s="169"/>
-      <c r="AQ5" s="169"/>
-      <c r="AR5" s="169"/>
-      <c r="AS5" s="170"/>
-      <c r="AT5" s="168">
-        <f>AT6</f>
+      <c r="BB5" s="166"/>
+      <c r="BC5" s="166"/>
+      <c r="BD5" s="166"/>
+      <c r="BE5" s="166"/>
+      <c r="BF5" s="166"/>
+      <c r="BG5" s="167"/>
+      <c r="BH5" s="165">
+        <f>BH6</f>
         <v>43458</v>
       </c>
-      <c r="AU5" s="169"/>
-      <c r="AV5" s="169"/>
-      <c r="AW5" s="169"/>
-      <c r="AX5" s="169"/>
-      <c r="AY5" s="169"/>
-      <c r="AZ5" s="170"/>
-      <c r="BA5" s="168">
-        <f>BA6</f>
-        <v>43465</v>
-      </c>
-      <c r="BB5" s="169"/>
-      <c r="BC5" s="169"/>
-      <c r="BD5" s="169"/>
-      <c r="BE5" s="169"/>
-      <c r="BF5" s="169"/>
-      <c r="BG5" s="170"/>
-      <c r="BH5" s="168">
-        <f>BH6</f>
-        <v>43472</v>
-      </c>
-      <c r="BI5" s="169"/>
-      <c r="BJ5" s="169"/>
-      <c r="BK5" s="169"/>
-      <c r="BL5" s="169"/>
-      <c r="BM5" s="169"/>
-      <c r="BN5" s="170"/>
+      <c r="BI5" s="166"/>
+      <c r="BJ5" s="166"/>
+      <c r="BK5" s="166"/>
+      <c r="BL5" s="166"/>
+      <c r="BM5" s="166"/>
+      <c r="BN5" s="167"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
@@ -4460,227 +4541,227 @@
       <c r="J6" s="50"/>
       <c r="K6" s="92">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>43423</v>
+        <v>43409</v>
       </c>
       <c r="L6" s="83">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>43424</v>
+        <v>43410</v>
       </c>
       <c r="M6" s="83">
         <f t="shared" si="0"/>
-        <v>43425</v>
+        <v>43411</v>
       </c>
       <c r="N6" s="83">
         <f t="shared" si="0"/>
-        <v>43426</v>
+        <v>43412</v>
       </c>
       <c r="O6" s="83">
         <f t="shared" si="0"/>
-        <v>43427</v>
+        <v>43413</v>
       </c>
       <c r="P6" s="83">
         <f t="shared" si="0"/>
-        <v>43428</v>
+        <v>43414</v>
       </c>
       <c r="Q6" s="93">
         <f t="shared" si="0"/>
-        <v>43429</v>
+        <v>43415</v>
       </c>
       <c r="R6" s="92">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>43416</v>
       </c>
       <c r="S6" s="83">
         <f t="shared" si="0"/>
-        <v>43431</v>
+        <v>43417</v>
       </c>
       <c r="T6" s="83">
         <f t="shared" si="0"/>
-        <v>43432</v>
+        <v>43418</v>
       </c>
       <c r="U6" s="83">
         <f t="shared" si="0"/>
-        <v>43433</v>
+        <v>43419</v>
       </c>
       <c r="V6" s="83">
         <f t="shared" si="0"/>
-        <v>43434</v>
+        <v>43420</v>
       </c>
       <c r="W6" s="83">
         <f t="shared" si="0"/>
-        <v>43435</v>
+        <v>43421</v>
       </c>
       <c r="X6" s="93">
         <f t="shared" si="0"/>
-        <v>43436</v>
+        <v>43422</v>
       </c>
       <c r="Y6" s="92">
         <f t="shared" si="0"/>
-        <v>43437</v>
+        <v>43423</v>
       </c>
       <c r="Z6" s="83">
         <f t="shared" si="0"/>
-        <v>43438</v>
+        <v>43424</v>
       </c>
       <c r="AA6" s="83">
         <f t="shared" si="0"/>
-        <v>43439</v>
+        <v>43425</v>
       </c>
       <c r="AB6" s="83">
         <f t="shared" si="0"/>
-        <v>43440</v>
+        <v>43426</v>
       </c>
       <c r="AC6" s="83">
         <f t="shared" si="0"/>
-        <v>43441</v>
+        <v>43427</v>
       </c>
       <c r="AD6" s="83">
         <f t="shared" si="0"/>
-        <v>43442</v>
+        <v>43428</v>
       </c>
       <c r="AE6" s="93">
         <f t="shared" si="0"/>
-        <v>43443</v>
+        <v>43429</v>
       </c>
       <c r="AF6" s="92">
         <f t="shared" si="0"/>
-        <v>43444</v>
+        <v>43430</v>
       </c>
       <c r="AG6" s="83">
         <f t="shared" si="0"/>
-        <v>43445</v>
+        <v>43431</v>
       </c>
       <c r="AH6" s="83">
         <f t="shared" si="0"/>
-        <v>43446</v>
+        <v>43432</v>
       </c>
       <c r="AI6" s="83">
         <f t="shared" si="0"/>
-        <v>43447</v>
+        <v>43433</v>
       </c>
       <c r="AJ6" s="83">
         <f t="shared" si="0"/>
-        <v>43448</v>
+        <v>43434</v>
       </c>
       <c r="AK6" s="83">
         <f t="shared" si="0"/>
-        <v>43449</v>
+        <v>43435</v>
       </c>
       <c r="AL6" s="93">
         <f t="shared" si="0"/>
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="AM6" s="92">
         <f t="shared" si="0"/>
-        <v>43451</v>
+        <v>43437</v>
       </c>
       <c r="AN6" s="83">
         <f t="shared" si="0"/>
-        <v>43452</v>
+        <v>43438</v>
       </c>
       <c r="AO6" s="83">
         <f t="shared" si="0"/>
-        <v>43453</v>
+        <v>43439</v>
       </c>
       <c r="AP6" s="83">
         <f t="shared" si="0"/>
-        <v>43454</v>
+        <v>43440</v>
       </c>
       <c r="AQ6" s="83">
         <f t="shared" si="0"/>
-        <v>43455</v>
+        <v>43441</v>
       </c>
       <c r="AR6" s="83">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>43456</v>
+        <v>43442</v>
       </c>
       <c r="AS6" s="93">
         <f t="shared" si="1"/>
-        <v>43457</v>
+        <v>43443</v>
       </c>
       <c r="AT6" s="92">
         <f t="shared" si="1"/>
-        <v>43458</v>
+        <v>43444</v>
       </c>
       <c r="AU6" s="83">
         <f t="shared" si="1"/>
-        <v>43459</v>
+        <v>43445</v>
       </c>
       <c r="AV6" s="83">
         <f t="shared" si="1"/>
-        <v>43460</v>
+        <v>43446</v>
       </c>
       <c r="AW6" s="83">
         <f t="shared" si="1"/>
-        <v>43461</v>
+        <v>43447</v>
       </c>
       <c r="AX6" s="83">
         <f t="shared" si="1"/>
-        <v>43462</v>
+        <v>43448</v>
       </c>
       <c r="AY6" s="83">
         <f t="shared" si="1"/>
-        <v>43463</v>
+        <v>43449</v>
       </c>
       <c r="AZ6" s="93">
         <f t="shared" si="1"/>
-        <v>43464</v>
+        <v>43450</v>
       </c>
       <c r="BA6" s="92">
         <f t="shared" si="1"/>
-        <v>43465</v>
+        <v>43451</v>
       </c>
       <c r="BB6" s="83">
         <f t="shared" si="1"/>
-        <v>43466</v>
+        <v>43452</v>
       </c>
       <c r="BC6" s="83">
         <f t="shared" si="1"/>
-        <v>43467</v>
+        <v>43453</v>
       </c>
       <c r="BD6" s="83">
         <f t="shared" si="1"/>
-        <v>43468</v>
+        <v>43454</v>
       </c>
       <c r="BE6" s="83">
         <f t="shared" si="1"/>
-        <v>43469</v>
+        <v>43455</v>
       </c>
       <c r="BF6" s="83">
         <f t="shared" si="1"/>
-        <v>43470</v>
+        <v>43456</v>
       </c>
       <c r="BG6" s="93">
         <f t="shared" si="1"/>
-        <v>43471</v>
+        <v>43457</v>
       </c>
       <c r="BH6" s="92">
         <f t="shared" si="1"/>
-        <v>43472</v>
+        <v>43458</v>
       </c>
       <c r="BI6" s="83">
         <f t="shared" si="1"/>
-        <v>43473</v>
+        <v>43459</v>
       </c>
       <c r="BJ6" s="83">
         <f t="shared" si="1"/>
-        <v>43474</v>
+        <v>43460</v>
       </c>
       <c r="BK6" s="83">
         <f t="shared" si="1"/>
-        <v>43475</v>
+        <v>43461</v>
       </c>
       <c r="BL6" s="83">
         <f t="shared" si="1"/>
-        <v>43476</v>
+        <v>43462</v>
       </c>
       <c r="BM6" s="83">
         <f t="shared" si="1"/>
-        <v>43477</v>
+        <v>43463</v>
       </c>
       <c r="BN6" s="93">
         <f t="shared" si="1"/>
-        <v>43478</v>
+        <v>43464</v>
       </c>
     </row>
     <row r="7" spans="1:66" s="160" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4955,7 +5036,7 @@
       <c r="G8" s="89"/>
       <c r="H8" s="90"/>
       <c r="I8" s="91" t="str">
-        <f t="shared" ref="I8:I64" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I65" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="94"/>
@@ -6941,7 +7022,7 @@
         <v>4.8</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C32" s="81"/>
       <c r="D32" s="79"/>
@@ -7104,7 +7185,7 @@
         <v>5.1</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="79"/>
@@ -7118,7 +7199,9 @@
       <c r="G34" s="62">
         <v>7</v>
       </c>
-      <c r="H34" s="63"/>
+      <c r="H34" s="63">
+        <v>1</v>
+      </c>
       <c r="I34" s="80">
         <f t="shared" si="17"/>
         <v>5</v>
@@ -7187,7 +7270,7 @@
         <v>5.2</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C35" s="81"/>
       <c r="D35" s="79"/>
@@ -7201,7 +7284,9 @@
       <c r="G35" s="62">
         <v>4</v>
       </c>
-      <c r="H35" s="63"/>
+      <c r="H35" s="63">
+        <v>1</v>
+      </c>
       <c r="I35" s="80">
         <f t="shared" ref="I35:I36" si="20">IF(OR(F35=0,E35=0)," - ",NETWORKDAYS(E35,F35))</f>
         <v>4</v>
@@ -7270,7 +7355,7 @@
         <v>5.3</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C36" s="81"/>
       <c r="D36" s="79"/>
@@ -7284,7 +7369,9 @@
       <c r="G36" s="62">
         <v>7</v>
       </c>
-      <c r="H36" s="63"/>
+      <c r="H36" s="63">
+        <v>0.5</v>
+      </c>
       <c r="I36" s="80">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -7353,7 +7440,7 @@
         <v>5.4</v>
       </c>
       <c r="B37" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C37" s="81"/>
       <c r="D37" s="79"/>
@@ -7367,7 +7454,9 @@
       <c r="G37" s="62">
         <v>4</v>
       </c>
-      <c r="H37" s="63"/>
+      <c r="H37" s="63">
+        <v>0</v>
+      </c>
       <c r="I37" s="80">
         <f t="shared" ref="I37:I39" si="22">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
         <v>4</v>
@@ -7436,7 +7525,7 @@
         <v>5.5</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C38" s="81"/>
       <c r="D38" s="79"/>
@@ -7519,7 +7608,7 @@
         <v>5.6</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C39" s="81"/>
       <c r="D39" s="79"/>
@@ -7533,7 +7622,9 @@
       <c r="G39" s="62">
         <v>9</v>
       </c>
-      <c r="H39" s="63"/>
+      <c r="H39" s="63">
+        <v>0.25</v>
+      </c>
       <c r="I39" s="80">
         <f t="shared" si="22"/>
         <v>7</v>
@@ -7831,7 +7922,7 @@
     </row>
     <row r="43" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A43" s="60" t="str">
-        <f t="shared" ref="A43:A53" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A43:A54" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>7.1</v>
       </c>
       <c r="B43" s="81" t="s">
@@ -7928,7 +8019,7 @@
         <v>43388</v>
       </c>
       <c r="F44" s="101">
-        <f t="shared" ref="F44:F61" si="28">IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
+        <f t="shared" ref="F44:F62" si="28">IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
         <v>43391</v>
       </c>
       <c r="G44" s="62">
@@ -7938,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="80">
-        <f t="shared" ref="I44:I61" si="29">IF(OR(F44=0,E44=0)," - ",NETWORKDAYS(E44,F44))</f>
+        <f t="shared" ref="I44:I62" si="29">IF(OR(F44=0,E44=0)," - ",NETWORKDAYS(E44,F44))</f>
         <v>4</v>
       </c>
       <c r="J44" s="99"/>
@@ -8103,7 +8194,7 @@
         <v>7</v>
       </c>
       <c r="H46" s="63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I46" s="80">
         <f t="shared" si="29"/>
@@ -8188,7 +8279,7 @@
         <v>7</v>
       </c>
       <c r="H47" s="63">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I47" s="80">
         <f t="shared" si="29"/>
@@ -8266,7 +8357,7 @@
         <v>43423</v>
       </c>
       <c r="F48" s="101">
-        <f t="shared" ref="F48:F53" si="30">IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
+        <f t="shared" ref="F48:F52" si="30">IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
         <v>43429</v>
       </c>
       <c r="G48" s="62">
@@ -8276,7 +8367,7 @@
         <v>0.75</v>
       </c>
       <c r="I48" s="80">
-        <f t="shared" ref="I48:I53" si="31">IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
+        <f t="shared" ref="I48:I52" si="31">IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
         <v>5</v>
       </c>
       <c r="J48" s="99"/>
@@ -8343,26 +8434,24 @@
         <v>7.7</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C49" s="81"/>
       <c r="D49" s="79"/>
       <c r="E49" s="100">
-        <v>43388</v>
+        <v>43437</v>
       </c>
       <c r="F49" s="101">
         <f>IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
-        <v>43391</v>
+        <v>43442</v>
       </c>
       <c r="G49" s="62">
-        <v>4</v>
-      </c>
-      <c r="H49" s="63">
-        <v>0.95</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H49" s="63"/>
       <c r="I49" s="80">
         <f>IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49" s="99"/>
       <c r="K49" s="107"/>
@@ -8428,7 +8517,7 @@
         <v>7.8</v>
       </c>
       <c r="B50" s="81" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C50" s="81"/>
       <c r="D50" s="79"/>
@@ -8442,9 +8531,7 @@
       <c r="G50" s="62">
         <v>6</v>
       </c>
-      <c r="H50" s="63">
-        <v>0.05</v>
-      </c>
+      <c r="H50" s="63"/>
       <c r="I50" s="80">
         <f>IF(OR(F50=0,E50=0)," - ",NETWORKDAYS(E50,F50))</f>
         <v>5</v>
@@ -8513,24 +8600,26 @@
         <v>7.9</v>
       </c>
       <c r="B51" s="81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C51" s="81"/>
       <c r="D51" s="79"/>
       <c r="E51" s="100">
-        <v>43437</v>
+        <v>43388</v>
       </c>
       <c r="F51" s="101">
         <f t="shared" si="30"/>
-        <v>43442</v>
+        <v>43391</v>
       </c>
       <c r="G51" s="62">
-        <v>6</v>
-      </c>
-      <c r="H51" s="63"/>
+        <v>4</v>
+      </c>
+      <c r="H51" s="63">
+        <v>1</v>
+      </c>
       <c r="I51" s="80">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J51" s="99"/>
       <c r="K51" s="107"/>
@@ -8596,7 +8685,7 @@
         <v>7.10</v>
       </c>
       <c r="B52" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52" s="81"/>
       <c r="D52" s="79"/>
@@ -8679,24 +8768,24 @@
         <v>7.11</v>
       </c>
       <c r="B53" s="81" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C53" s="81"/>
       <c r="D53" s="79"/>
       <c r="E53" s="100">
-        <v>43443</v>
+        <v>43437</v>
       </c>
       <c r="F53" s="101">
-        <f t="shared" si="30"/>
-        <v>43445</v>
+        <f>IF(ISBLANK(E53)," - ",IF(G53=0,E53,E53+G53-1))</f>
+        <v>43442</v>
       </c>
       <c r="G53" s="62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H53" s="63"/>
       <c r="I53" s="80">
-        <f t="shared" si="31"/>
-        <v>2</v>
+        <f>IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
+        <v>5</v>
       </c>
       <c r="J53" s="99"/>
       <c r="K53" s="107"/>
@@ -8756,795 +8845,807 @@
       <c r="BM53" s="107"/>
       <c r="BN53" s="107"/>
     </row>
-    <row r="54" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A54" s="53" t="str">
+    <row r="54" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A54" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.12</v>
+      </c>
+      <c r="B54" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="81"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="100">
+        <v>43446</v>
+      </c>
+      <c r="F54" s="101">
+        <f>IF(ISBLANK(E54)," - ",IF(G54=0,E54,E54+G54-1))</f>
+        <v>43446</v>
+      </c>
+      <c r="G54" s="62">
+        <v>1</v>
+      </c>
+      <c r="H54" s="63"/>
+      <c r="I54" s="80">
+        <f>IF(OR(F54=0,E54=0)," - ",NETWORKDAYS(E54,F54))</f>
+        <v>1</v>
+      </c>
+      <c r="J54" s="99"/>
+      <c r="K54" s="107"/>
+      <c r="L54" s="107"/>
+      <c r="M54" s="107"/>
+      <c r="N54" s="107"/>
+      <c r="O54" s="107"/>
+      <c r="P54" s="107"/>
+      <c r="Q54" s="107"/>
+      <c r="R54" s="107"/>
+      <c r="S54" s="107"/>
+      <c r="T54" s="107"/>
+      <c r="U54" s="107"/>
+      <c r="V54" s="107"/>
+      <c r="W54" s="107"/>
+      <c r="X54" s="107"/>
+      <c r="Y54" s="107"/>
+      <c r="Z54" s="107"/>
+      <c r="AA54" s="107"/>
+      <c r="AB54" s="107"/>
+      <c r="AC54" s="107"/>
+      <c r="AD54" s="107"/>
+      <c r="AE54" s="107"/>
+      <c r="AF54" s="107"/>
+      <c r="AG54" s="107"/>
+      <c r="AH54" s="107"/>
+      <c r="AI54" s="107"/>
+      <c r="AJ54" s="107"/>
+      <c r="AK54" s="107"/>
+      <c r="AL54" s="107"/>
+      <c r="AM54" s="107"/>
+      <c r="AN54" s="107"/>
+      <c r="AO54" s="107"/>
+      <c r="AP54" s="107"/>
+      <c r="AQ54" s="107"/>
+      <c r="AR54" s="107"/>
+      <c r="AS54" s="107"/>
+      <c r="AT54" s="107"/>
+      <c r="AU54" s="107"/>
+      <c r="AV54" s="107"/>
+      <c r="AW54" s="107"/>
+      <c r="AX54" s="107"/>
+      <c r="AY54" s="107"/>
+      <c r="AZ54" s="107"/>
+      <c r="BA54" s="107"/>
+      <c r="BB54" s="107"/>
+      <c r="BC54" s="107"/>
+      <c r="BD54" s="107"/>
+      <c r="BE54" s="107"/>
+      <c r="BF54" s="107"/>
+      <c r="BG54" s="107"/>
+      <c r="BH54" s="107"/>
+      <c r="BI54" s="107"/>
+      <c r="BJ54" s="107"/>
+      <c r="BK54" s="107"/>
+      <c r="BL54" s="107"/>
+      <c r="BM54" s="107"/>
+      <c r="BN54" s="107"/>
+    </row>
+    <row r="55" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A55" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>8</v>
       </c>
-      <c r="B54" s="54" t="s">
+      <c r="B55" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102" t="str">
-        <f>IF(ISBLANK(E54)," - ",IF(G54=0,E54,E54+G54-1))</f>
+      <c r="D55" s="56"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102" t="str">
+        <f>IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G54" s="57"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="59" t="str">
-        <f>IF(OR(F54=0,E54=0)," - ",NETWORKDAYS(E54,F54))</f>
+      <c r="G55" s="57"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="59" t="str">
+        <f>IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J54" s="96"/>
-      <c r="K54" s="108"/>
-      <c r="L54" s="108"/>
-      <c r="M54" s="108"/>
-      <c r="N54" s="108"/>
-      <c r="O54" s="108"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="108"/>
-      <c r="R54" s="108"/>
-      <c r="S54" s="108"/>
-      <c r="T54" s="108"/>
-      <c r="U54" s="108"/>
-      <c r="V54" s="108"/>
-      <c r="W54" s="108"/>
-      <c r="X54" s="108"/>
-      <c r="Y54" s="108"/>
-      <c r="Z54" s="108"/>
-      <c r="AA54" s="108"/>
-      <c r="AB54" s="108"/>
-      <c r="AC54" s="108"/>
-      <c r="AD54" s="108"/>
-      <c r="AE54" s="108"/>
-      <c r="AF54" s="108"/>
-      <c r="AG54" s="108"/>
-      <c r="AH54" s="108"/>
-      <c r="AI54" s="108"/>
-      <c r="AJ54" s="108"/>
-      <c r="AK54" s="108"/>
-      <c r="AL54" s="108"/>
-      <c r="AM54" s="108"/>
-      <c r="AN54" s="108"/>
-      <c r="AO54" s="108"/>
-      <c r="AP54" s="108"/>
-      <c r="AQ54" s="108"/>
-      <c r="AR54" s="108"/>
-      <c r="AS54" s="108"/>
-      <c r="AT54" s="108"/>
-      <c r="AU54" s="108"/>
-      <c r="AV54" s="108"/>
-      <c r="AW54" s="108"/>
-      <c r="AX54" s="108"/>
-      <c r="AY54" s="108"/>
-      <c r="AZ54" s="108"/>
-      <c r="BA54" s="108"/>
-      <c r="BB54" s="108"/>
-      <c r="BC54" s="108"/>
-      <c r="BD54" s="108"/>
-      <c r="BE54" s="108"/>
-      <c r="BF54" s="108"/>
-      <c r="BG54" s="108"/>
-      <c r="BH54" s="108"/>
-      <c r="BI54" s="108"/>
-      <c r="BJ54" s="108"/>
-      <c r="BK54" s="108"/>
-      <c r="BL54" s="108"/>
-      <c r="BM54" s="108"/>
-      <c r="BN54" s="108"/>
-    </row>
-    <row r="55" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A55" s="60" t="str">
+      <c r="J55" s="96"/>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108"/>
+      <c r="M55" s="108"/>
+      <c r="N55" s="108"/>
+      <c r="O55" s="108"/>
+      <c r="P55" s="108"/>
+      <c r="Q55" s="108"/>
+      <c r="R55" s="108"/>
+      <c r="S55" s="108"/>
+      <c r="T55" s="108"/>
+      <c r="U55" s="108"/>
+      <c r="V55" s="108"/>
+      <c r="W55" s="108"/>
+      <c r="X55" s="108"/>
+      <c r="Y55" s="108"/>
+      <c r="Z55" s="108"/>
+      <c r="AA55" s="108"/>
+      <c r="AB55" s="108"/>
+      <c r="AC55" s="108"/>
+      <c r="AD55" s="108"/>
+      <c r="AE55" s="108"/>
+      <c r="AF55" s="108"/>
+      <c r="AG55" s="108"/>
+      <c r="AH55" s="108"/>
+      <c r="AI55" s="108"/>
+      <c r="AJ55" s="108"/>
+      <c r="AK55" s="108"/>
+      <c r="AL55" s="108"/>
+      <c r="AM55" s="108"/>
+      <c r="AN55" s="108"/>
+      <c r="AO55" s="108"/>
+      <c r="AP55" s="108"/>
+      <c r="AQ55" s="108"/>
+      <c r="AR55" s="108"/>
+      <c r="AS55" s="108"/>
+      <c r="AT55" s="108"/>
+      <c r="AU55" s="108"/>
+      <c r="AV55" s="108"/>
+      <c r="AW55" s="108"/>
+      <c r="AX55" s="108"/>
+      <c r="AY55" s="108"/>
+      <c r="AZ55" s="108"/>
+      <c r="BA55" s="108"/>
+      <c r="BB55" s="108"/>
+      <c r="BC55" s="108"/>
+      <c r="BD55" s="108"/>
+      <c r="BE55" s="108"/>
+      <c r="BF55" s="108"/>
+      <c r="BG55" s="108"/>
+      <c r="BH55" s="108"/>
+      <c r="BI55" s="108"/>
+      <c r="BJ55" s="108"/>
+      <c r="BK55" s="108"/>
+      <c r="BL55" s="108"/>
+      <c r="BM55" s="108"/>
+      <c r="BN55" s="108"/>
+    </row>
+    <row r="56" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A56" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>8.1</v>
       </c>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="101" t="str">
-        <f>IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
+      <c r="B56" s="81"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="101" t="str">
+        <f>IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G55" s="62"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="80" t="str">
-        <f>IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
+      <c r="G56" s="62"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="80" t="str">
+        <f>IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J55" s="99"/>
-      <c r="K55" s="107"/>
-      <c r="L55" s="107"/>
-      <c r="M55" s="107"/>
-      <c r="N55" s="107"/>
-      <c r="O55" s="107"/>
-      <c r="P55" s="107"/>
-      <c r="Q55" s="107"/>
-      <c r="R55" s="107"/>
-      <c r="S55" s="107"/>
-      <c r="T55" s="107"/>
-      <c r="U55" s="107"/>
-      <c r="V55" s="107"/>
-      <c r="W55" s="107"/>
-      <c r="X55" s="107"/>
-      <c r="Y55" s="107"/>
-      <c r="Z55" s="107"/>
-      <c r="AA55" s="107"/>
-      <c r="AB55" s="107"/>
-      <c r="AC55" s="107"/>
-      <c r="AD55" s="107"/>
-      <c r="AE55" s="107"/>
-      <c r="AF55" s="107"/>
-      <c r="AG55" s="107"/>
-      <c r="AH55" s="107"/>
-      <c r="AI55" s="107"/>
-      <c r="AJ55" s="107"/>
-      <c r="AK55" s="107"/>
-      <c r="AL55" s="107"/>
-      <c r="AM55" s="107"/>
-      <c r="AN55" s="107"/>
-      <c r="AO55" s="107"/>
-      <c r="AP55" s="107"/>
-      <c r="AQ55" s="107"/>
-      <c r="AR55" s="107"/>
-      <c r="AS55" s="107"/>
-      <c r="AT55" s="107"/>
-      <c r="AU55" s="107"/>
-      <c r="AV55" s="107"/>
-      <c r="AW55" s="107"/>
-      <c r="AX55" s="107"/>
-      <c r="AY55" s="107"/>
-      <c r="AZ55" s="107"/>
-      <c r="BA55" s="107"/>
-      <c r="BB55" s="107"/>
-      <c r="BC55" s="107"/>
-      <c r="BD55" s="107"/>
-      <c r="BE55" s="107"/>
-      <c r="BF55" s="107"/>
-      <c r="BG55" s="107"/>
-      <c r="BH55" s="107"/>
-      <c r="BI55" s="107"/>
-      <c r="BJ55" s="107"/>
-      <c r="BK55" s="107"/>
-      <c r="BL55" s="107"/>
-      <c r="BM55" s="107"/>
-      <c r="BN55" s="107"/>
-    </row>
-    <row r="56" spans="1:66" s="55" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="53" t="str">
+      <c r="J56" s="99"/>
+      <c r="K56" s="107"/>
+      <c r="L56" s="107"/>
+      <c r="M56" s="107"/>
+      <c r="N56" s="107"/>
+      <c r="O56" s="107"/>
+      <c r="P56" s="107"/>
+      <c r="Q56" s="107"/>
+      <c r="R56" s="107"/>
+      <c r="S56" s="107"/>
+      <c r="T56" s="107"/>
+      <c r="U56" s="107"/>
+      <c r="V56" s="107"/>
+      <c r="W56" s="107"/>
+      <c r="X56" s="107"/>
+      <c r="Y56" s="107"/>
+      <c r="Z56" s="107"/>
+      <c r="AA56" s="107"/>
+      <c r="AB56" s="107"/>
+      <c r="AC56" s="107"/>
+      <c r="AD56" s="107"/>
+      <c r="AE56" s="107"/>
+      <c r="AF56" s="107"/>
+      <c r="AG56" s="107"/>
+      <c r="AH56" s="107"/>
+      <c r="AI56" s="107"/>
+      <c r="AJ56" s="107"/>
+      <c r="AK56" s="107"/>
+      <c r="AL56" s="107"/>
+      <c r="AM56" s="107"/>
+      <c r="AN56" s="107"/>
+      <c r="AO56" s="107"/>
+      <c r="AP56" s="107"/>
+      <c r="AQ56" s="107"/>
+      <c r="AR56" s="107"/>
+      <c r="AS56" s="107"/>
+      <c r="AT56" s="107"/>
+      <c r="AU56" s="107"/>
+      <c r="AV56" s="107"/>
+      <c r="AW56" s="107"/>
+      <c r="AX56" s="107"/>
+      <c r="AY56" s="107"/>
+      <c r="AZ56" s="107"/>
+      <c r="BA56" s="107"/>
+      <c r="BB56" s="107"/>
+      <c r="BC56" s="107"/>
+      <c r="BD56" s="107"/>
+      <c r="BE56" s="107"/>
+      <c r="BF56" s="107"/>
+      <c r="BG56" s="107"/>
+      <c r="BH56" s="107"/>
+      <c r="BI56" s="107"/>
+      <c r="BJ56" s="107"/>
+      <c r="BK56" s="107"/>
+      <c r="BL56" s="107"/>
+      <c r="BM56" s="107"/>
+      <c r="BN56" s="107"/>
+    </row>
+    <row r="57" spans="1:66" s="55" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>9</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B57" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="56"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102" t="str">
-        <f t="shared" ref="F56:F57" si="32">IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
+      <c r="D57" s="56"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102" t="str">
+        <f t="shared" ref="F57:F58" si="32">IF(ISBLANK(E57)," - ",IF(G57=0,E57,E57+G57-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G56" s="57"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="59" t="str">
-        <f t="shared" ref="I56:I57" si="33">IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
+      <c r="G57" s="57"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="59" t="str">
+        <f t="shared" ref="I57:I58" si="33">IF(OR(F57=0,E57=0)," - ",NETWORKDAYS(E57,F57))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J56" s="96"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="108"/>
-      <c r="M56" s="108"/>
-      <c r="N56" s="108"/>
-      <c r="O56" s="108"/>
-      <c r="P56" s="108"/>
-      <c r="Q56" s="108"/>
-      <c r="R56" s="108"/>
-      <c r="S56" s="108"/>
-      <c r="T56" s="108"/>
-      <c r="U56" s="108"/>
-      <c r="V56" s="108"/>
-      <c r="W56" s="108"/>
-      <c r="X56" s="108"/>
-      <c r="Y56" s="108"/>
-      <c r="Z56" s="108"/>
-      <c r="AA56" s="108"/>
-      <c r="AB56" s="108"/>
-      <c r="AC56" s="108"/>
-      <c r="AD56" s="108"/>
-      <c r="AE56" s="108"/>
-      <c r="AF56" s="108"/>
-      <c r="AG56" s="108"/>
-      <c r="AH56" s="108"/>
-      <c r="AI56" s="108"/>
-      <c r="AJ56" s="108"/>
-      <c r="AK56" s="108"/>
-      <c r="AL56" s="108"/>
-      <c r="AM56" s="108"/>
-      <c r="AN56" s="108"/>
-      <c r="AO56" s="108"/>
-      <c r="AP56" s="108"/>
-      <c r="AQ56" s="108"/>
-      <c r="AR56" s="108"/>
-      <c r="AS56" s="108"/>
-      <c r="AT56" s="108"/>
-      <c r="AU56" s="108"/>
-      <c r="AV56" s="108"/>
-      <c r="AW56" s="108"/>
-      <c r="AX56" s="108"/>
-      <c r="AY56" s="108"/>
-      <c r="AZ56" s="108"/>
-      <c r="BA56" s="108"/>
-      <c r="BB56" s="108"/>
-      <c r="BC56" s="108"/>
-      <c r="BD56" s="108"/>
-      <c r="BE56" s="108"/>
-      <c r="BF56" s="108"/>
-      <c r="BG56" s="108"/>
-      <c r="BH56" s="108"/>
-      <c r="BI56" s="108"/>
-      <c r="BJ56" s="108"/>
-      <c r="BK56" s="108"/>
-      <c r="BL56" s="108"/>
-      <c r="BM56" s="108"/>
-      <c r="BN56" s="108"/>
-    </row>
-    <row r="57" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A57" s="60" t="str">
+      <c r="J57" s="96"/>
+      <c r="K57" s="108"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="108"/>
+      <c r="N57" s="108"/>
+      <c r="O57" s="108"/>
+      <c r="P57" s="108"/>
+      <c r="Q57" s="108"/>
+      <c r="R57" s="108"/>
+      <c r="S57" s="108"/>
+      <c r="T57" s="108"/>
+      <c r="U57" s="108"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="108"/>
+      <c r="X57" s="108"/>
+      <c r="Y57" s="108"/>
+      <c r="Z57" s="108"/>
+      <c r="AA57" s="108"/>
+      <c r="AB57" s="108"/>
+      <c r="AC57" s="108"/>
+      <c r="AD57" s="108"/>
+      <c r="AE57" s="108"/>
+      <c r="AF57" s="108"/>
+      <c r="AG57" s="108"/>
+      <c r="AH57" s="108"/>
+      <c r="AI57" s="108"/>
+      <c r="AJ57" s="108"/>
+      <c r="AK57" s="108"/>
+      <c r="AL57" s="108"/>
+      <c r="AM57" s="108"/>
+      <c r="AN57" s="108"/>
+      <c r="AO57" s="108"/>
+      <c r="AP57" s="108"/>
+      <c r="AQ57" s="108"/>
+      <c r="AR57" s="108"/>
+      <c r="AS57" s="108"/>
+      <c r="AT57" s="108"/>
+      <c r="AU57" s="108"/>
+      <c r="AV57" s="108"/>
+      <c r="AW57" s="108"/>
+      <c r="AX57" s="108"/>
+      <c r="AY57" s="108"/>
+      <c r="AZ57" s="108"/>
+      <c r="BA57" s="108"/>
+      <c r="BB57" s="108"/>
+      <c r="BC57" s="108"/>
+      <c r="BD57" s="108"/>
+      <c r="BE57" s="108"/>
+      <c r="BF57" s="108"/>
+      <c r="BG57" s="108"/>
+      <c r="BH57" s="108"/>
+      <c r="BI57" s="108"/>
+      <c r="BJ57" s="108"/>
+      <c r="BK57" s="108"/>
+      <c r="BL57" s="108"/>
+      <c r="BM57" s="108"/>
+      <c r="BN57" s="108"/>
+    </row>
+    <row r="58" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A58" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>9.1</v>
       </c>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="101" t="str">
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="101" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G57" s="62"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="80" t="str">
+      <c r="G58" s="62"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="80" t="str">
         <f t="shared" si="33"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J57" s="99"/>
-      <c r="K57" s="107"/>
-      <c r="L57" s="107"/>
-      <c r="M57" s="107"/>
-      <c r="N57" s="107"/>
-      <c r="O57" s="107"/>
-      <c r="P57" s="107"/>
-      <c r="Q57" s="107"/>
-      <c r="R57" s="107"/>
-      <c r="S57" s="107"/>
-      <c r="T57" s="107"/>
-      <c r="U57" s="107"/>
-      <c r="V57" s="107"/>
-      <c r="W57" s="107"/>
-      <c r="X57" s="107"/>
-      <c r="Y57" s="107"/>
-      <c r="Z57" s="107"/>
-      <c r="AA57" s="107"/>
-      <c r="AB57" s="107"/>
-      <c r="AC57" s="107"/>
-      <c r="AD57" s="107"/>
-      <c r="AE57" s="107"/>
-      <c r="AF57" s="107"/>
-      <c r="AG57" s="107"/>
-      <c r="AH57" s="107"/>
-      <c r="AI57" s="107"/>
-      <c r="AJ57" s="107"/>
-      <c r="AK57" s="107"/>
-      <c r="AL57" s="107"/>
-      <c r="AM57" s="107"/>
-      <c r="AN57" s="107"/>
-      <c r="AO57" s="107"/>
-      <c r="AP57" s="107"/>
-      <c r="AQ57" s="107"/>
-      <c r="AR57" s="107"/>
-      <c r="AS57" s="107"/>
-      <c r="AT57" s="107"/>
-      <c r="AU57" s="107"/>
-      <c r="AV57" s="107"/>
-      <c r="AW57" s="107"/>
-      <c r="AX57" s="107"/>
-      <c r="AY57" s="107"/>
-      <c r="AZ57" s="107"/>
-      <c r="BA57" s="107"/>
-      <c r="BB57" s="107"/>
-      <c r="BC57" s="107"/>
-      <c r="BD57" s="107"/>
-      <c r="BE57" s="107"/>
-      <c r="BF57" s="107"/>
-      <c r="BG57" s="107"/>
-      <c r="BH57" s="107"/>
-      <c r="BI57" s="107"/>
-      <c r="BJ57" s="107"/>
-      <c r="BK57" s="107"/>
-      <c r="BL57" s="107"/>
-      <c r="BM57" s="107"/>
-      <c r="BN57" s="107"/>
-    </row>
-    <row r="58" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A58" s="53" t="str">
+      <c r="J58" s="99"/>
+      <c r="K58" s="107"/>
+      <c r="L58" s="107"/>
+      <c r="M58" s="107"/>
+      <c r="N58" s="107"/>
+      <c r="O58" s="107"/>
+      <c r="P58" s="107"/>
+      <c r="Q58" s="107"/>
+      <c r="R58" s="107"/>
+      <c r="S58" s="107"/>
+      <c r="T58" s="107"/>
+      <c r="U58" s="107"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
+      <c r="X58" s="107"/>
+      <c r="Y58" s="107"/>
+      <c r="Z58" s="107"/>
+      <c r="AA58" s="107"/>
+      <c r="AB58" s="107"/>
+      <c r="AC58" s="107"/>
+      <c r="AD58" s="107"/>
+      <c r="AE58" s="107"/>
+      <c r="AF58" s="107"/>
+      <c r="AG58" s="107"/>
+      <c r="AH58" s="107"/>
+      <c r="AI58" s="107"/>
+      <c r="AJ58" s="107"/>
+      <c r="AK58" s="107"/>
+      <c r="AL58" s="107"/>
+      <c r="AM58" s="107"/>
+      <c r="AN58" s="107"/>
+      <c r="AO58" s="107"/>
+      <c r="AP58" s="107"/>
+      <c r="AQ58" s="107"/>
+      <c r="AR58" s="107"/>
+      <c r="AS58" s="107"/>
+      <c r="AT58" s="107"/>
+      <c r="AU58" s="107"/>
+      <c r="AV58" s="107"/>
+      <c r="AW58" s="107"/>
+      <c r="AX58" s="107"/>
+      <c r="AY58" s="107"/>
+      <c r="AZ58" s="107"/>
+      <c r="BA58" s="107"/>
+      <c r="BB58" s="107"/>
+      <c r="BC58" s="107"/>
+      <c r="BD58" s="107"/>
+      <c r="BE58" s="107"/>
+      <c r="BF58" s="107"/>
+      <c r="BG58" s="107"/>
+      <c r="BH58" s="107"/>
+      <c r="BI58" s="107"/>
+      <c r="BJ58" s="107"/>
+      <c r="BK58" s="107"/>
+      <c r="BL58" s="107"/>
+      <c r="BM58" s="107"/>
+      <c r="BN58" s="107"/>
+    </row>
+    <row r="59" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A59" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>10</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B59" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102" t="str">
+      <c r="D59" s="56"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G58" s="57"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="59" t="str">
+      <c r="G59" s="57"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="59" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J58" s="96"/>
-      <c r="K58" s="108"/>
-      <c r="L58" s="108"/>
-      <c r="M58" s="108"/>
-      <c r="N58" s="108"/>
-      <c r="O58" s="108"/>
-      <c r="P58" s="108"/>
-      <c r="Q58" s="108"/>
-      <c r="R58" s="108"/>
-      <c r="S58" s="108"/>
-      <c r="T58" s="108"/>
-      <c r="U58" s="108"/>
-      <c r="V58" s="108"/>
-      <c r="W58" s="108"/>
-      <c r="X58" s="108"/>
-      <c r="Y58" s="108"/>
-      <c r="Z58" s="108"/>
-      <c r="AA58" s="108"/>
-      <c r="AB58" s="108"/>
-      <c r="AC58" s="108"/>
-      <c r="AD58" s="108"/>
-      <c r="AE58" s="108"/>
-      <c r="AF58" s="108"/>
-      <c r="AG58" s="108"/>
-      <c r="AH58" s="108"/>
-      <c r="AI58" s="108"/>
-      <c r="AJ58" s="108"/>
-      <c r="AK58" s="108"/>
-      <c r="AL58" s="108"/>
-      <c r="AM58" s="108"/>
-      <c r="AN58" s="108"/>
-      <c r="AO58" s="108"/>
-      <c r="AP58" s="108"/>
-      <c r="AQ58" s="108"/>
-      <c r="AR58" s="108"/>
-      <c r="AS58" s="108"/>
-      <c r="AT58" s="108"/>
-      <c r="AU58" s="108"/>
-      <c r="AV58" s="108"/>
-      <c r="AW58" s="108"/>
-      <c r="AX58" s="108"/>
-      <c r="AY58" s="108"/>
-      <c r="AZ58" s="108"/>
-      <c r="BA58" s="108"/>
-      <c r="BB58" s="108"/>
-      <c r="BC58" s="108"/>
-      <c r="BD58" s="108"/>
-      <c r="BE58" s="108"/>
-      <c r="BF58" s="108"/>
-      <c r="BG58" s="108"/>
-      <c r="BH58" s="108"/>
-      <c r="BI58" s="108"/>
-      <c r="BJ58" s="108"/>
-      <c r="BK58" s="108"/>
-      <c r="BL58" s="108"/>
-      <c r="BM58" s="108"/>
-      <c r="BN58" s="108"/>
-    </row>
-    <row r="59" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A59" s="60" t="str">
+      <c r="J59" s="96"/>
+      <c r="K59" s="108"/>
+      <c r="L59" s="108"/>
+      <c r="M59" s="108"/>
+      <c r="N59" s="108"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="108"/>
+      <c r="R59" s="108"/>
+      <c r="S59" s="108"/>
+      <c r="T59" s="108"/>
+      <c r="U59" s="108"/>
+      <c r="V59" s="108"/>
+      <c r="W59" s="108"/>
+      <c r="X59" s="108"/>
+      <c r="Y59" s="108"/>
+      <c r="Z59" s="108"/>
+      <c r="AA59" s="108"/>
+      <c r="AB59" s="108"/>
+      <c r="AC59" s="108"/>
+      <c r="AD59" s="108"/>
+      <c r="AE59" s="108"/>
+      <c r="AF59" s="108"/>
+      <c r="AG59" s="108"/>
+      <c r="AH59" s="108"/>
+      <c r="AI59" s="108"/>
+      <c r="AJ59" s="108"/>
+      <c r="AK59" s="108"/>
+      <c r="AL59" s="108"/>
+      <c r="AM59" s="108"/>
+      <c r="AN59" s="108"/>
+      <c r="AO59" s="108"/>
+      <c r="AP59" s="108"/>
+      <c r="AQ59" s="108"/>
+      <c r="AR59" s="108"/>
+      <c r="AS59" s="108"/>
+      <c r="AT59" s="108"/>
+      <c r="AU59" s="108"/>
+      <c r="AV59" s="108"/>
+      <c r="AW59" s="108"/>
+      <c r="AX59" s="108"/>
+      <c r="AY59" s="108"/>
+      <c r="AZ59" s="108"/>
+      <c r="BA59" s="108"/>
+      <c r="BB59" s="108"/>
+      <c r="BC59" s="108"/>
+      <c r="BD59" s="108"/>
+      <c r="BE59" s="108"/>
+      <c r="BF59" s="108"/>
+      <c r="BG59" s="108"/>
+      <c r="BH59" s="108"/>
+      <c r="BI59" s="108"/>
+      <c r="BJ59" s="108"/>
+      <c r="BK59" s="108"/>
+      <c r="BL59" s="108"/>
+      <c r="BM59" s="108"/>
+      <c r="BN59" s="108"/>
+    </row>
+    <row r="60" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A60" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>10.1</v>
       </c>
-      <c r="B59" s="81"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="101" t="str">
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="101" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G59" s="62"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="80" t="str">
+      <c r="G60" s="62"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="80" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J59" s="99"/>
-      <c r="K59" s="107"/>
-      <c r="L59" s="107"/>
-      <c r="M59" s="107"/>
-      <c r="N59" s="107"/>
-      <c r="O59" s="107"/>
-      <c r="P59" s="107"/>
-      <c r="Q59" s="107"/>
-      <c r="R59" s="107"/>
-      <c r="S59" s="107"/>
-      <c r="T59" s="107"/>
-      <c r="U59" s="107"/>
-      <c r="V59" s="107"/>
-      <c r="W59" s="107"/>
-      <c r="X59" s="107"/>
-      <c r="Y59" s="107"/>
-      <c r="Z59" s="107"/>
-      <c r="AA59" s="107"/>
-      <c r="AB59" s="107"/>
-      <c r="AC59" s="107"/>
-      <c r="AD59" s="107"/>
-      <c r="AE59" s="107"/>
-      <c r="AF59" s="107"/>
-      <c r="AG59" s="107"/>
-      <c r="AH59" s="107"/>
-      <c r="AI59" s="107"/>
-      <c r="AJ59" s="107"/>
-      <c r="AK59" s="107"/>
-      <c r="AL59" s="107"/>
-      <c r="AM59" s="107"/>
-      <c r="AN59" s="107"/>
-      <c r="AO59" s="107"/>
-      <c r="AP59" s="107"/>
-      <c r="AQ59" s="107"/>
-      <c r="AR59" s="107"/>
-      <c r="AS59" s="107"/>
-      <c r="AT59" s="107"/>
-      <c r="AU59" s="107"/>
-      <c r="AV59" s="107"/>
-      <c r="AW59" s="107"/>
-      <c r="AX59" s="107"/>
-      <c r="AY59" s="107"/>
-      <c r="AZ59" s="107"/>
-      <c r="BA59" s="107"/>
-      <c r="BB59" s="107"/>
-      <c r="BC59" s="107"/>
-      <c r="BD59" s="107"/>
-      <c r="BE59" s="107"/>
-      <c r="BF59" s="107"/>
-      <c r="BG59" s="107"/>
-      <c r="BH59" s="107"/>
-      <c r="BI59" s="107"/>
-      <c r="BJ59" s="107"/>
-      <c r="BK59" s="107"/>
-      <c r="BL59" s="107"/>
-      <c r="BM59" s="107"/>
-      <c r="BN59" s="107"/>
-    </row>
-    <row r="60" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A60" s="53" t="str">
+      <c r="J60" s="99"/>
+      <c r="K60" s="107"/>
+      <c r="L60" s="107"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="107"/>
+      <c r="O60" s="107"/>
+      <c r="P60" s="107"/>
+      <c r="Q60" s="107"/>
+      <c r="R60" s="107"/>
+      <c r="S60" s="107"/>
+      <c r="T60" s="107"/>
+      <c r="U60" s="107"/>
+      <c r="V60" s="107"/>
+      <c r="W60" s="107"/>
+      <c r="X60" s="107"/>
+      <c r="Y60" s="107"/>
+      <c r="Z60" s="107"/>
+      <c r="AA60" s="107"/>
+      <c r="AB60" s="107"/>
+      <c r="AC60" s="107"/>
+      <c r="AD60" s="107"/>
+      <c r="AE60" s="107"/>
+      <c r="AF60" s="107"/>
+      <c r="AG60" s="107"/>
+      <c r="AH60" s="107"/>
+      <c r="AI60" s="107"/>
+      <c r="AJ60" s="107"/>
+      <c r="AK60" s="107"/>
+      <c r="AL60" s="107"/>
+      <c r="AM60" s="107"/>
+      <c r="AN60" s="107"/>
+      <c r="AO60" s="107"/>
+      <c r="AP60" s="107"/>
+      <c r="AQ60" s="107"/>
+      <c r="AR60" s="107"/>
+      <c r="AS60" s="107"/>
+      <c r="AT60" s="107"/>
+      <c r="AU60" s="107"/>
+      <c r="AV60" s="107"/>
+      <c r="AW60" s="107"/>
+      <c r="AX60" s="107"/>
+      <c r="AY60" s="107"/>
+      <c r="AZ60" s="107"/>
+      <c r="BA60" s="107"/>
+      <c r="BB60" s="107"/>
+      <c r="BC60" s="107"/>
+      <c r="BD60" s="107"/>
+      <c r="BE60" s="107"/>
+      <c r="BF60" s="107"/>
+      <c r="BG60" s="107"/>
+      <c r="BH60" s="107"/>
+      <c r="BI60" s="107"/>
+      <c r="BJ60" s="107"/>
+      <c r="BK60" s="107"/>
+      <c r="BL60" s="107"/>
+      <c r="BM60" s="107"/>
+      <c r="BN60" s="107"/>
+    </row>
+    <row r="61" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A61" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>11</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B61" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="D60" s="56"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102" t="str">
+      <c r="D61" s="56"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G60" s="57"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="59" t="str">
+      <c r="G61" s="57"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="59" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J60" s="96"/>
-      <c r="K60" s="108"/>
-      <c r="L60" s="108"/>
-      <c r="M60" s="108"/>
-      <c r="N60" s="108"/>
-      <c r="O60" s="108"/>
-      <c r="P60" s="108"/>
-      <c r="Q60" s="108"/>
-      <c r="R60" s="108"/>
-      <c r="S60" s="108"/>
-      <c r="T60" s="108"/>
-      <c r="U60" s="108"/>
-      <c r="V60" s="108"/>
-      <c r="W60" s="108"/>
-      <c r="X60" s="108"/>
-      <c r="Y60" s="108"/>
-      <c r="Z60" s="108"/>
-      <c r="AA60" s="108"/>
-      <c r="AB60" s="108"/>
-      <c r="AC60" s="108"/>
-      <c r="AD60" s="108"/>
-      <c r="AE60" s="108"/>
-      <c r="AF60" s="108"/>
-      <c r="AG60" s="108"/>
-      <c r="AH60" s="108"/>
-      <c r="AI60" s="108"/>
-      <c r="AJ60" s="108"/>
-      <c r="AK60" s="108"/>
-      <c r="AL60" s="108"/>
-      <c r="AM60" s="108"/>
-      <c r="AN60" s="108"/>
-      <c r="AO60" s="108"/>
-      <c r="AP60" s="108"/>
-      <c r="AQ60" s="108"/>
-      <c r="AR60" s="108"/>
-      <c r="AS60" s="108"/>
-      <c r="AT60" s="108"/>
-      <c r="AU60" s="108"/>
-      <c r="AV60" s="108"/>
-      <c r="AW60" s="108"/>
-      <c r="AX60" s="108"/>
-      <c r="AY60" s="108"/>
-      <c r="AZ60" s="108"/>
-      <c r="BA60" s="108"/>
-      <c r="BB60" s="108"/>
-      <c r="BC60" s="108"/>
-      <c r="BD60" s="108"/>
-      <c r="BE60" s="108"/>
-      <c r="BF60" s="108"/>
-      <c r="BG60" s="108"/>
-      <c r="BH60" s="108"/>
-      <c r="BI60" s="108"/>
-      <c r="BJ60" s="108"/>
-      <c r="BK60" s="108"/>
-      <c r="BL60" s="108"/>
-      <c r="BM60" s="108"/>
-      <c r="BN60" s="108"/>
-    </row>
-    <row r="61" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A61" s="60" t="str">
+      <c r="J61" s="96"/>
+      <c r="K61" s="108"/>
+      <c r="L61" s="108"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="108"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="108"/>
+      <c r="S61" s="108"/>
+      <c r="T61" s="108"/>
+      <c r="U61" s="108"/>
+      <c r="V61" s="108"/>
+      <c r="W61" s="108"/>
+      <c r="X61" s="108"/>
+      <c r="Y61" s="108"/>
+      <c r="Z61" s="108"/>
+      <c r="AA61" s="108"/>
+      <c r="AB61" s="108"/>
+      <c r="AC61" s="108"/>
+      <c r="AD61" s="108"/>
+      <c r="AE61" s="108"/>
+      <c r="AF61" s="108"/>
+      <c r="AG61" s="108"/>
+      <c r="AH61" s="108"/>
+      <c r="AI61" s="108"/>
+      <c r="AJ61" s="108"/>
+      <c r="AK61" s="108"/>
+      <c r="AL61" s="108"/>
+      <c r="AM61" s="108"/>
+      <c r="AN61" s="108"/>
+      <c r="AO61" s="108"/>
+      <c r="AP61" s="108"/>
+      <c r="AQ61" s="108"/>
+      <c r="AR61" s="108"/>
+      <c r="AS61" s="108"/>
+      <c r="AT61" s="108"/>
+      <c r="AU61" s="108"/>
+      <c r="AV61" s="108"/>
+      <c r="AW61" s="108"/>
+      <c r="AX61" s="108"/>
+      <c r="AY61" s="108"/>
+      <c r="AZ61" s="108"/>
+      <c r="BA61" s="108"/>
+      <c r="BB61" s="108"/>
+      <c r="BC61" s="108"/>
+      <c r="BD61" s="108"/>
+      <c r="BE61" s="108"/>
+      <c r="BF61" s="108"/>
+      <c r="BG61" s="108"/>
+      <c r="BH61" s="108"/>
+      <c r="BI61" s="108"/>
+      <c r="BJ61" s="108"/>
+      <c r="BK61" s="108"/>
+      <c r="BL61" s="108"/>
+      <c r="BM61" s="108"/>
+      <c r="BN61" s="108"/>
+    </row>
+    <row r="62" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A62" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>11.1</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="101" t="str">
+      <c r="B62" s="81"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="101" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G61" s="62"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="80" t="str">
+      <c r="G62" s="62"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="80" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J61" s="99"/>
-      <c r="K61" s="107"/>
-      <c r="L61" s="107"/>
-      <c r="M61" s="107"/>
-      <c r="N61" s="107"/>
-      <c r="O61" s="107"/>
-      <c r="P61" s="107"/>
-      <c r="Q61" s="107"/>
-      <c r="R61" s="107"/>
-      <c r="S61" s="107"/>
-      <c r="T61" s="107"/>
-      <c r="U61" s="107"/>
-      <c r="V61" s="107"/>
-      <c r="W61" s="107"/>
-      <c r="X61" s="107"/>
-      <c r="Y61" s="107"/>
-      <c r="Z61" s="107"/>
-      <c r="AA61" s="107"/>
-      <c r="AB61" s="107"/>
-      <c r="AC61" s="107"/>
-      <c r="AD61" s="107"/>
-      <c r="AE61" s="107"/>
-      <c r="AF61" s="107"/>
-      <c r="AG61" s="107"/>
-      <c r="AH61" s="107"/>
-      <c r="AI61" s="107"/>
-      <c r="AJ61" s="107"/>
-      <c r="AK61" s="107"/>
-      <c r="AL61" s="107"/>
-      <c r="AM61" s="107"/>
-      <c r="AN61" s="107"/>
-      <c r="AO61" s="107"/>
-      <c r="AP61" s="107"/>
-      <c r="AQ61" s="107"/>
-      <c r="AR61" s="107"/>
-      <c r="AS61" s="107"/>
-      <c r="AT61" s="107"/>
-      <c r="AU61" s="107"/>
-      <c r="AV61" s="107"/>
-      <c r="AW61" s="107"/>
-      <c r="AX61" s="107"/>
-      <c r="AY61" s="107"/>
-      <c r="AZ61" s="107"/>
-      <c r="BA61" s="107"/>
-      <c r="BB61" s="107"/>
-      <c r="BC61" s="107"/>
-      <c r="BD61" s="107"/>
-      <c r="BE61" s="107"/>
-      <c r="BF61" s="107"/>
-      <c r="BG61" s="107"/>
-      <c r="BH61" s="107"/>
-      <c r="BI61" s="107"/>
-      <c r="BJ61" s="107"/>
-      <c r="BK61" s="107"/>
-      <c r="BL61" s="107"/>
-      <c r="BM61" s="107"/>
-      <c r="BN61" s="107"/>
-    </row>
-    <row r="62" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A62" s="53" t="str">
+      <c r="J62" s="99"/>
+      <c r="K62" s="107"/>
+      <c r="L62" s="107"/>
+      <c r="M62" s="107"/>
+      <c r="N62" s="107"/>
+      <c r="O62" s="107"/>
+      <c r="P62" s="107"/>
+      <c r="Q62" s="107"/>
+      <c r="R62" s="107"/>
+      <c r="S62" s="107"/>
+      <c r="T62" s="107"/>
+      <c r="U62" s="107"/>
+      <c r="V62" s="107"/>
+      <c r="W62" s="107"/>
+      <c r="X62" s="107"/>
+      <c r="Y62" s="107"/>
+      <c r="Z62" s="107"/>
+      <c r="AA62" s="107"/>
+      <c r="AB62" s="107"/>
+      <c r="AC62" s="107"/>
+      <c r="AD62" s="107"/>
+      <c r="AE62" s="107"/>
+      <c r="AF62" s="107"/>
+      <c r="AG62" s="107"/>
+      <c r="AH62" s="107"/>
+      <c r="AI62" s="107"/>
+      <c r="AJ62" s="107"/>
+      <c r="AK62" s="107"/>
+      <c r="AL62" s="107"/>
+      <c r="AM62" s="107"/>
+      <c r="AN62" s="107"/>
+      <c r="AO62" s="107"/>
+      <c r="AP62" s="107"/>
+      <c r="AQ62" s="107"/>
+      <c r="AR62" s="107"/>
+      <c r="AS62" s="107"/>
+      <c r="AT62" s="107"/>
+      <c r="AU62" s="107"/>
+      <c r="AV62" s="107"/>
+      <c r="AW62" s="107"/>
+      <c r="AX62" s="107"/>
+      <c r="AY62" s="107"/>
+      <c r="AZ62" s="107"/>
+      <c r="BA62" s="107"/>
+      <c r="BB62" s="107"/>
+      <c r="BC62" s="107"/>
+      <c r="BD62" s="107"/>
+      <c r="BE62" s="107"/>
+      <c r="BF62" s="107"/>
+      <c r="BG62" s="107"/>
+      <c r="BH62" s="107"/>
+      <c r="BI62" s="107"/>
+      <c r="BJ62" s="107"/>
+      <c r="BK62" s="107"/>
+      <c r="BL62" s="107"/>
+      <c r="BM62" s="107"/>
+      <c r="BN62" s="107"/>
+    </row>
+    <row r="63" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A63" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>12</v>
       </c>
-      <c r="B62" s="54" t="s">
+      <c r="B63" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102" t="str">
-        <f t="shared" ref="F62:F63" si="34">IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
+      <c r="D63" s="56"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="102" t="str">
+        <f t="shared" ref="F63:F64" si="34">IF(ISBLANK(E63)," - ",IF(G63=0,E63,E63+G63-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G62" s="57"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="59" t="str">
-        <f t="shared" ref="I62:I63" si="35">IF(OR(F62=0,E62=0)," - ",NETWORKDAYS(E62,F62))</f>
+      <c r="G63" s="57"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="59" t="str">
+        <f t="shared" ref="I63:I64" si="35">IF(OR(F63=0,E63=0)," - ",NETWORKDAYS(E63,F63))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J62" s="96"/>
-      <c r="K62" s="108"/>
-      <c r="L62" s="108"/>
-      <c r="M62" s="108"/>
-      <c r="N62" s="108"/>
-      <c r="O62" s="108"/>
-      <c r="P62" s="108"/>
-      <c r="Q62" s="108"/>
-      <c r="R62" s="108"/>
-      <c r="S62" s="108"/>
-      <c r="T62" s="108"/>
-      <c r="U62" s="108"/>
-      <c r="V62" s="108"/>
-      <c r="W62" s="108"/>
-      <c r="X62" s="108"/>
-      <c r="Y62" s="108"/>
-      <c r="Z62" s="108"/>
-      <c r="AA62" s="108"/>
-      <c r="AB62" s="108"/>
-      <c r="AC62" s="108"/>
-      <c r="AD62" s="108"/>
-      <c r="AE62" s="108"/>
-      <c r="AF62" s="108"/>
-      <c r="AG62" s="108"/>
-      <c r="AH62" s="108"/>
-      <c r="AI62" s="108"/>
-      <c r="AJ62" s="108"/>
-      <c r="AK62" s="108"/>
-      <c r="AL62" s="108"/>
-      <c r="AM62" s="108"/>
-      <c r="AN62" s="108"/>
-      <c r="AO62" s="108"/>
-      <c r="AP62" s="108"/>
-      <c r="AQ62" s="108"/>
-      <c r="AR62" s="108"/>
-      <c r="AS62" s="108"/>
-      <c r="AT62" s="108"/>
-      <c r="AU62" s="108"/>
-      <c r="AV62" s="108"/>
-      <c r="AW62" s="108"/>
-      <c r="AX62" s="108"/>
-      <c r="AY62" s="108"/>
-      <c r="AZ62" s="108"/>
-      <c r="BA62" s="108"/>
-      <c r="BB62" s="108"/>
-      <c r="BC62" s="108"/>
-      <c r="BD62" s="108"/>
-      <c r="BE62" s="108"/>
-      <c r="BF62" s="108"/>
-      <c r="BG62" s="108"/>
-      <c r="BH62" s="108"/>
-      <c r="BI62" s="108"/>
-      <c r="BJ62" s="108"/>
-      <c r="BK62" s="108"/>
-      <c r="BL62" s="108"/>
-      <c r="BM62" s="108"/>
-      <c r="BN62" s="108"/>
-    </row>
-    <row r="63" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A63" s="60" t="str">
+      <c r="J63" s="96"/>
+      <c r="K63" s="108"/>
+      <c r="L63" s="108"/>
+      <c r="M63" s="108"/>
+      <c r="N63" s="108"/>
+      <c r="O63" s="108"/>
+      <c r="P63" s="108"/>
+      <c r="Q63" s="108"/>
+      <c r="R63" s="108"/>
+      <c r="S63" s="108"/>
+      <c r="T63" s="108"/>
+      <c r="U63" s="108"/>
+      <c r="V63" s="108"/>
+      <c r="W63" s="108"/>
+      <c r="X63" s="108"/>
+      <c r="Y63" s="108"/>
+      <c r="Z63" s="108"/>
+      <c r="AA63" s="108"/>
+      <c r="AB63" s="108"/>
+      <c r="AC63" s="108"/>
+      <c r="AD63" s="108"/>
+      <c r="AE63" s="108"/>
+      <c r="AF63" s="108"/>
+      <c r="AG63" s="108"/>
+      <c r="AH63" s="108"/>
+      <c r="AI63" s="108"/>
+      <c r="AJ63" s="108"/>
+      <c r="AK63" s="108"/>
+      <c r="AL63" s="108"/>
+      <c r="AM63" s="108"/>
+      <c r="AN63" s="108"/>
+      <c r="AO63" s="108"/>
+      <c r="AP63" s="108"/>
+      <c r="AQ63" s="108"/>
+      <c r="AR63" s="108"/>
+      <c r="AS63" s="108"/>
+      <c r="AT63" s="108"/>
+      <c r="AU63" s="108"/>
+      <c r="AV63" s="108"/>
+      <c r="AW63" s="108"/>
+      <c r="AX63" s="108"/>
+      <c r="AY63" s="108"/>
+      <c r="AZ63" s="108"/>
+      <c r="BA63" s="108"/>
+      <c r="BB63" s="108"/>
+      <c r="BC63" s="108"/>
+      <c r="BD63" s="108"/>
+      <c r="BE63" s="108"/>
+      <c r="BF63" s="108"/>
+      <c r="BG63" s="108"/>
+      <c r="BH63" s="108"/>
+      <c r="BI63" s="108"/>
+      <c r="BJ63" s="108"/>
+      <c r="BK63" s="108"/>
+      <c r="BL63" s="108"/>
+      <c r="BM63" s="108"/>
+      <c r="BN63" s="108"/>
+    </row>
+    <row r="64" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A64" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>12.1</v>
       </c>
-      <c r="B63" s="81"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="101" t="str">
+      <c r="B64" s="81"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="101" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G63" s="62"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="80" t="str">
+      <c r="G64" s="62"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="80" t="str">
         <f t="shared" si="35"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J63" s="99"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="107"/>
-      <c r="M63" s="107"/>
-      <c r="N63" s="107"/>
-      <c r="O63" s="107"/>
-      <c r="P63" s="107"/>
-      <c r="Q63" s="107"/>
-      <c r="R63" s="107"/>
-      <c r="S63" s="107"/>
-      <c r="T63" s="107"/>
-      <c r="U63" s="107"/>
-      <c r="V63" s="107"/>
-      <c r="W63" s="107"/>
-      <c r="X63" s="107"/>
-      <c r="Y63" s="107"/>
-      <c r="Z63" s="107"/>
-      <c r="AA63" s="107"/>
-      <c r="AB63" s="107"/>
-      <c r="AC63" s="107"/>
-      <c r="AD63" s="107"/>
-      <c r="AE63" s="107"/>
-      <c r="AF63" s="107"/>
-      <c r="AG63" s="107"/>
-      <c r="AH63" s="107"/>
-      <c r="AI63" s="107"/>
-      <c r="AJ63" s="107"/>
-      <c r="AK63" s="107"/>
-      <c r="AL63" s="107"/>
-      <c r="AM63" s="107"/>
-      <c r="AN63" s="107"/>
-      <c r="AO63" s="107"/>
-      <c r="AP63" s="107"/>
-      <c r="AQ63" s="107"/>
-      <c r="AR63" s="107"/>
-      <c r="AS63" s="107"/>
-      <c r="AT63" s="107"/>
-      <c r="AU63" s="107"/>
-      <c r="AV63" s="107"/>
-      <c r="AW63" s="107"/>
-      <c r="AX63" s="107"/>
-      <c r="AY63" s="107"/>
-      <c r="AZ63" s="107"/>
-      <c r="BA63" s="107"/>
-      <c r="BB63" s="107"/>
-      <c r="BC63" s="107"/>
-      <c r="BD63" s="107"/>
-      <c r="BE63" s="107"/>
-      <c r="BF63" s="107"/>
-      <c r="BG63" s="107"/>
-      <c r="BH63" s="107"/>
-      <c r="BI63" s="107"/>
-      <c r="BJ63" s="107"/>
-      <c r="BK63" s="107"/>
-      <c r="BL63" s="107"/>
-      <c r="BM63" s="107"/>
-      <c r="BN63" s="107"/>
-    </row>
-    <row r="64" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A64" s="60"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="69" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J64" s="97"/>
+      <c r="J64" s="99"/>
       <c r="K64" s="107"/>
       <c r="L64" s="107"/>
       <c r="M64" s="107"/>
@@ -9602,19 +9703,20 @@
       <c r="BM64" s="107"/>
       <c r="BN64" s="107"/>
     </row>
-    <row r="65" spans="1:66" s="75" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A65" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="72"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="104"/>
-      <c r="F65" s="104"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="98"/>
+    <row r="65" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A65" s="60"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="68"/>
+      <c r="I65" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J65" s="97"/>
       <c r="K65" s="107"/>
       <c r="L65" s="107"/>
       <c r="M65" s="107"/>
@@ -9672,18 +9774,18 @@
       <c r="BM65" s="107"/>
       <c r="BN65" s="107"/>
     </row>
-    <row r="66" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A66" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="77"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="105"/>
-      <c r="F66" s="105"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77"/>
+    <row r="66" spans="1:66" s="75" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A66" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="72"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
       <c r="J66" s="98"/>
       <c r="K66" s="107"/>
       <c r="L66" s="107"/>
@@ -9743,27 +9845,18 @@
       <c r="BN66" s="107"/>
     </row>
     <row r="67" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A67" s="127" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B67" s="128" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="78"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="100"/>
-      <c r="F67" s="101" t="str">
-        <f t="shared" ref="F67:F70" si="36">IF(ISBLANK(E67)," - ",IF(G67=0,E67,E67+G67-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G67" s="62"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="80" t="str">
-        <f>IF(OR(F67=0,E67=0)," - ",NETWORKDAYS(E67,F67))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J67" s="99"/>
+      <c r="A67" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="77"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77"/>
+      <c r="J67" s="98"/>
       <c r="K67" s="107"/>
       <c r="L67" s="107"/>
       <c r="M67" s="107"/>
@@ -9822,24 +9915,24 @@
       <c r="BN67" s="107"/>
     </row>
     <row r="68" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A68" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B68" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="81"/>
+      <c r="A68" s="127" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B68" s="128" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="78"/>
       <c r="D68" s="79"/>
       <c r="E68" s="100"/>
       <c r="F68" s="101" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="F68:F71" si="36">IF(ISBLANK(E68)," - ",IF(G68=0,E68,E68+G68-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G68" s="62"/>
       <c r="H68" s="63"/>
       <c r="I68" s="80" t="str">
-        <f t="shared" ref="I68:I70" si="37">IF(OR(F68=0,E68=0)," - ",NETWORKDAYS(E68,F68))</f>
+        <f>IF(OR(F68=0,E68=0)," - ",NETWORKDAYS(E68,F68))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J68" s="99"/>
@@ -9902,11 +9995,11 @@
     </row>
     <row r="69" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A69" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B69" s="82" t="s">
-        <v>63</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B69" s="81" t="s">
+        <v>62</v>
       </c>
       <c r="C69" s="81"/>
       <c r="D69" s="79"/>
@@ -9918,7 +10011,7 @@
       <c r="G69" s="62"/>
       <c r="H69" s="63"/>
       <c r="I69" s="80" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="I69:I71" si="37">IF(OR(F69=0,E69=0)," - ",NETWORKDAYS(E69,F69))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J69" s="99"/>
@@ -9981,11 +10074,11 @@
     </row>
     <row r="70" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A70" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
       </c>
       <c r="B70" s="82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="81"/>
       <c r="D70" s="79"/>
@@ -10058,77 +10151,165 @@
       <c r="BM70" s="107"/>
       <c r="BN70" s="107"/>
     </row>
-    <row r="71" spans="1:66" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="30"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="31"/>
-      <c r="P71" s="31"/>
-      <c r="Q71" s="31"/>
-      <c r="R71" s="31"/>
-      <c r="S71" s="31"/>
-      <c r="T71" s="31"/>
-      <c r="U71" s="31"/>
-      <c r="V71" s="31"/>
-      <c r="W71" s="31"/>
-      <c r="X71" s="31"/>
-      <c r="Y71" s="31"/>
-      <c r="Z71" s="31"/>
-      <c r="AA71" s="31"/>
-      <c r="AB71" s="31"/>
-      <c r="AC71" s="31"/>
-      <c r="AD71" s="31"/>
-      <c r="AE71" s="31"/>
-      <c r="AF71" s="31"/>
-      <c r="AG71" s="31"/>
-      <c r="AH71" s="31"/>
-      <c r="AI71" s="31"/>
-      <c r="AJ71" s="31"/>
-      <c r="AK71" s="31"/>
-      <c r="AL71" s="31"/>
-      <c r="AM71" s="31"/>
-      <c r="AN71" s="31"/>
-      <c r="AO71" s="31"/>
-      <c r="AP71" s="31"/>
-      <c r="AQ71" s="31"/>
-      <c r="AR71" s="31"/>
-      <c r="AS71" s="31"/>
-      <c r="AT71" s="31"/>
-      <c r="AU71" s="31"/>
-      <c r="AV71" s="31"/>
-      <c r="AW71" s="31"/>
-      <c r="AX71" s="31"/>
-      <c r="AY71" s="31"/>
-      <c r="AZ71" s="31"/>
-      <c r="BA71" s="31"/>
-      <c r="BB71" s="31"/>
-      <c r="BC71" s="31"/>
-      <c r="BD71" s="31"/>
-      <c r="BE71" s="31"/>
-      <c r="BF71" s="31"/>
-      <c r="BG71" s="31"/>
-      <c r="BH71" s="31"/>
-      <c r="BI71" s="31"/>
-      <c r="BJ71" s="31"/>
-      <c r="BK71" s="31"/>
-      <c r="BL71" s="31"/>
-      <c r="BM71" s="31"/>
-      <c r="BN71" s="31"/>
+    <row r="71" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A71" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B71" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="81"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="101" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G71" s="62"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="80" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J71" s="99"/>
+      <c r="K71" s="107"/>
+      <c r="L71" s="107"/>
+      <c r="M71" s="107"/>
+      <c r="N71" s="107"/>
+      <c r="O71" s="107"/>
+      <c r="P71" s="107"/>
+      <c r="Q71" s="107"/>
+      <c r="R71" s="107"/>
+      <c r="S71" s="107"/>
+      <c r="T71" s="107"/>
+      <c r="U71" s="107"/>
+      <c r="V71" s="107"/>
+      <c r="W71" s="107"/>
+      <c r="X71" s="107"/>
+      <c r="Y71" s="107"/>
+      <c r="Z71" s="107"/>
+      <c r="AA71" s="107"/>
+      <c r="AB71" s="107"/>
+      <c r="AC71" s="107"/>
+      <c r="AD71" s="107"/>
+      <c r="AE71" s="107"/>
+      <c r="AF71" s="107"/>
+      <c r="AG71" s="107"/>
+      <c r="AH71" s="107"/>
+      <c r="AI71" s="107"/>
+      <c r="AJ71" s="107"/>
+      <c r="AK71" s="107"/>
+      <c r="AL71" s="107"/>
+      <c r="AM71" s="107"/>
+      <c r="AN71" s="107"/>
+      <c r="AO71" s="107"/>
+      <c r="AP71" s="107"/>
+      <c r="AQ71" s="107"/>
+      <c r="AR71" s="107"/>
+      <c r="AS71" s="107"/>
+      <c r="AT71" s="107"/>
+      <c r="AU71" s="107"/>
+      <c r="AV71" s="107"/>
+      <c r="AW71" s="107"/>
+      <c r="AX71" s="107"/>
+      <c r="AY71" s="107"/>
+      <c r="AZ71" s="107"/>
+      <c r="BA71" s="107"/>
+      <c r="BB71" s="107"/>
+      <c r="BC71" s="107"/>
+      <c r="BD71" s="107"/>
+      <c r="BE71" s="107"/>
+      <c r="BF71" s="107"/>
+      <c r="BG71" s="107"/>
+      <c r="BH71" s="107"/>
+      <c r="BI71" s="107"/>
+      <c r="BJ71" s="107"/>
+      <c r="BK71" s="107"/>
+      <c r="BL71" s="107"/>
+      <c r="BM71" s="107"/>
+      <c r="BN71" s="107"/>
+    </row>
+    <row r="72" spans="1:66" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="30"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="31"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="31"/>
+      <c r="W72" s="31"/>
+      <c r="X72" s="31"/>
+      <c r="Y72" s="31"/>
+      <c r="Z72" s="31"/>
+      <c r="AA72" s="31"/>
+      <c r="AB72" s="31"/>
+      <c r="AC72" s="31"/>
+      <c r="AD72" s="31"/>
+      <c r="AE72" s="31"/>
+      <c r="AF72" s="31"/>
+      <c r="AG72" s="31"/>
+      <c r="AH72" s="31"/>
+      <c r="AI72" s="31"/>
+      <c r="AJ72" s="31"/>
+      <c r="AK72" s="31"/>
+      <c r="AL72" s="31"/>
+      <c r="AM72" s="31"/>
+      <c r="AN72" s="31"/>
+      <c r="AO72" s="31"/>
+      <c r="AP72" s="31"/>
+      <c r="AQ72" s="31"/>
+      <c r="AR72" s="31"/>
+      <c r="AS72" s="31"/>
+      <c r="AT72" s="31"/>
+      <c r="AU72" s="31"/>
+      <c r="AV72" s="31"/>
+      <c r="AW72" s="31"/>
+      <c r="AX72" s="31"/>
+      <c r="AY72" s="31"/>
+      <c r="AZ72" s="31"/>
+      <c r="BA72" s="31"/>
+      <c r="BB72" s="31"/>
+      <c r="BC72" s="31"/>
+      <c r="BD72" s="31"/>
+      <c r="BE72" s="31"/>
+      <c r="BF72" s="31"/>
+      <c r="BG72" s="31"/>
+      <c r="BH72" s="31"/>
+      <c r="BI72" s="31"/>
+      <c r="BJ72" s="31"/>
+      <c r="BK72" s="31"/>
+      <c r="BL72" s="31"/>
+      <c r="BM72" s="31"/>
+      <c r="BN72" s="31"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -10139,19 +10320,10 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H11 H16:H18 H64:H70 H30 H20:H28 H13">
-    <cfRule type="dataBar" priority="194">
+  <conditionalFormatting sqref="H8:H11 H16:H18 H65:H71 H30 H20:H28 H13">
+    <cfRule type="dataBar" priority="198">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10165,25 +10337,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="65" priority="237">
+    <cfRule type="expression" dxfId="71" priority="241">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN11 K13:BN18 K20:BN30 K33:BN34 K40:BN70">
-    <cfRule type="expression" dxfId="64" priority="240">
+  <conditionalFormatting sqref="K8:BN11 K13:BN18 K20:BN30 K33:BN34 K40:BN53 K55:BN71">
+    <cfRule type="expression" dxfId="70" priority="244">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="241">
+    <cfRule type="expression" dxfId="69" priority="245">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN11 K16:BN18 K64:BN70 K30:BN30 K20:BN28 K13:BN13">
-    <cfRule type="expression" dxfId="62" priority="200">
+  <conditionalFormatting sqref="K6:BN11 K16:BN18 K65:BN71 K30:BN30 K20:BN28 K13:BN13">
+    <cfRule type="expression" dxfId="68" priority="204">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="dataBar" priority="178">
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10197,17 +10369,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="61" priority="185">
+    <cfRule type="expression" dxfId="67" priority="189">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="60" priority="181">
+    <cfRule type="expression" dxfId="66" priority="185">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="179">
+    <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10221,7 +10393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="171">
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10235,12 +10407,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="59" priority="172">
+    <cfRule type="expression" dxfId="65" priority="176">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="163">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10254,7 +10426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="dataBar" priority="155">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10268,12 +10440,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="58" priority="164">
+    <cfRule type="expression" dxfId="64" priority="168">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="dataBar" priority="147">
+  <conditionalFormatting sqref="H56">
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10287,12 +10459,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="57" priority="156">
+    <cfRule type="expression" dxfId="63" priority="160">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="159">
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10306,12 +10478,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="56" priority="160">
+    <cfRule type="expression" dxfId="62" priority="164">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="dataBar" priority="139">
+  <conditionalFormatting sqref="H64">
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10324,13 +10496,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="55" priority="148">
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="61" priority="152">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="dataBar" priority="131">
+  <conditionalFormatting sqref="H60">
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10343,13 +10515,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="54" priority="140">
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="60" priority="144">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="dataBar" priority="151">
+  <conditionalFormatting sqref="H55">
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10362,13 +10534,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="53" priority="152">
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="59" priority="156">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="dataBar" priority="123">
+  <conditionalFormatting sqref="H58">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10381,13 +10553,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="52" priority="132">
+  <conditionalFormatting sqref="K60:BN60">
+    <cfRule type="expression" dxfId="58" priority="136">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="dataBar" priority="143">
+  <conditionalFormatting sqref="H63">
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10400,13 +10572,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="51" priority="144">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="57" priority="148">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="dataBar" priority="115">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10419,13 +10591,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="50" priority="124">
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="56" priority="128">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="dataBar" priority="135">
+  <conditionalFormatting sqref="H59">
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10438,13 +10610,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="49" priority="136">
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="55" priority="140">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="107">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10458,12 +10630,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="48" priority="116">
+    <cfRule type="expression" dxfId="54" priority="120">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="dataBar" priority="127">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10476,13 +10648,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="47" priority="128">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="53" priority="132">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="dataBar" priority="99">
+  <conditionalFormatting sqref="H62">
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10496,12 +10668,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="46" priority="108">
+    <cfRule type="expression" dxfId="52" priority="112">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="119">
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10515,12 +10687,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="45" priority="120">
+    <cfRule type="expression" dxfId="51" priority="124">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="95">
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10533,13 +10705,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="44" priority="100">
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="50" priority="104">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="111">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10553,17 +10725,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="43" priority="112">
+    <cfRule type="expression" dxfId="49" priority="116">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="42" priority="96">
+    <cfRule type="expression" dxfId="48" priority="100">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="dataBar" priority="103">
+  <conditionalFormatting sqref="H61">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10576,13 +10748,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="41" priority="104">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="47" priority="108">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="77">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10596,20 +10768,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="40" priority="79">
+    <cfRule type="expression" dxfId="46" priority="83">
       <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="80">
+    <cfRule type="expression" dxfId="45" priority="84">
       <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="38" priority="78">
+    <cfRule type="expression" dxfId="44" priority="82">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10623,20 +10795,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="37" priority="75">
+    <cfRule type="expression" dxfId="43" priority="79">
       <formula>AND($E19&lt;=K$6,ROUNDDOWN(($F19-$E19+1)*$H19,0)+$E19-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="76">
+    <cfRule type="expression" dxfId="42" priority="80">
       <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$6,$F19&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="35" priority="74">
+    <cfRule type="expression" dxfId="41" priority="78">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="69">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10650,20 +10822,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="34" priority="71">
+    <cfRule type="expression" dxfId="40" priority="75">
       <formula>AND($E31&lt;=K$6,ROUNDDOWN(($F31-$E31+1)*$H31,0)+$E31-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="72">
+    <cfRule type="expression" dxfId="39" priority="76">
       <formula>AND(NOT(ISBLANK($E31)),$E31&lt;=K$6,$F31&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="32" priority="70">
+    <cfRule type="expression" dxfId="38" priority="74">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="65">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10677,12 +10849,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="31" priority="66">
+    <cfRule type="expression" dxfId="37" priority="70">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="63">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10696,12 +10868,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="30" priority="64">
+    <cfRule type="expression" dxfId="36" priority="68">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="59">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10715,12 +10887,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="29" priority="60">
+    <cfRule type="expression" dxfId="35" priority="64">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10734,7 +10906,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="dataBar" priority="51">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10748,17 +10920,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="28" priority="54">
+    <cfRule type="expression" dxfId="34" priority="58">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="27" priority="52">
+    <cfRule type="expression" dxfId="33" priority="56">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="55">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10772,12 +10944,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="26" priority="56">
+    <cfRule type="expression" dxfId="32" priority="60">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="dataBar" priority="47">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10791,12 +10963,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="25" priority="48">
+    <cfRule type="expression" dxfId="31" priority="52">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10810,12 +10982,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="24" priority="46">
+    <cfRule type="expression" dxfId="30" priority="50">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10829,12 +11001,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="23" priority="42">
+    <cfRule type="expression" dxfId="29" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10848,12 +11020,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="22" priority="36">
+    <cfRule type="expression" dxfId="28" priority="40">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10867,12 +11039,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="21" priority="38">
+    <cfRule type="expression" dxfId="27" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10886,12 +11058,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="20" priority="32">
+    <cfRule type="expression" dxfId="26" priority="36">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10905,12 +11077,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="19" priority="30">
+    <cfRule type="expression" dxfId="25" priority="34">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10924,12 +11096,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="18" priority="26">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10943,28 +11115,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="21" priority="26">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>AND($E35&lt;=K$6,ROUNDDOWN(($F35-$E35+1)*$H35,0)+$E35-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="19" priority="24">
       <formula>AND(NOT(ISBLANK($E35)),$E35&lt;=K$6,$F35&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10978,20 +11150,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>AND($E36&lt;=K$6,ROUNDDOWN(($F36-$E36+1)*$H36,0)+$E36-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>AND(NOT(ISBLANK($E36)),$E36&lt;=K$6,$F36&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11005,20 +11177,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>AND($E37&lt;=K$6,ROUNDDOWN(($F37-$E37+1)*$H37,0)+$E37-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>AND(NOT(ISBLANK($E37)),$E37&lt;=K$6,$F37&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11032,20 +11204,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>AND($E38&lt;=K$6,ROUNDDOWN(($F38-$E38+1)*$H38,0)+$E38-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>AND(NOT(ISBLANK($E38)),$E38&lt;=K$6,$F38&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11059,20 +11231,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>AND($E39&lt;=K$6,ROUNDDOWN(($F39-$E39+1)*$H39,0)+$E39-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>AND(NOT(ISBLANK($E39)),$E39&lt;=K$6,$F39&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11086,18 +11258,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DEC8A02F-80BB-FF4A-8656-257DA44E514E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($E54&lt;=K$6,ROUNDDOWN(($F54-$E54+1)*$H54,0)+$E54-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT(ISBLANK($E54)),$E54&lt;=K$6,$F54&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:BN54">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="H4"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A64:B64 A66:B66 B65 E10 E20 E24 E64:H66 G10:H10 G20:H20 G24:H24 G67 G68:G69 G70 G25" unlockedFormula="1"/>
+    <ignoredError sqref="A65:B65 A67:B67 B66 E10 E20 E24 E65:H67 G10:H10 G20:H20 G24:H24 G68 G69:G70 G71 G25" unlockedFormula="1"/>
     <ignoredError sqref="A24 A20 A10 A16" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
@@ -11148,7 +11347,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H11 H16:H18 H64:H70 H30 H20:H28 H13</xm:sqref>
+          <xm:sqref>H8:H11 H16:H18 H65:H71 H30 H20:H28 H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C1E55C9C-328E-7F42-B324-A31B3CE69B6E}">
@@ -11238,7 +11437,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
+          <xm:sqref>H56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D0208E98-1C87-F945-B7BA-D5E81A01579A}">
@@ -11268,7 +11467,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H63</xm:sqref>
+          <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F222E3D4-7513-264C-968B-0292F382CD5D}">
@@ -11283,7 +11482,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
+          <xm:sqref>H60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{526828FD-A928-6E46-95F8-D74ACD1E339B}">
@@ -11298,7 +11497,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
+          <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{730B0F02-39AB-BD42-BB2A-405EFC6279DF}">
@@ -11313,7 +11512,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
+          <xm:sqref>H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1C2DB213-53A8-4946-B60A-C01681F15068}">
@@ -11328,7 +11527,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
+          <xm:sqref>H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D8388F22-1F90-F24E-9C6B-625491BBF15E}">
@@ -11358,7 +11557,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
+          <xm:sqref>H59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6CC7F112-D4C4-2647-8F58-25080F8D0653}">
@@ -11388,7 +11587,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
+          <xm:sqref>H57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A44EC134-680C-6943-A530-937463E3A665}">
@@ -11403,7 +11602,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
+          <xm:sqref>H62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6900B624-12B9-8C44-99D7-233CE13C7600}">
@@ -11463,7 +11662,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
+          <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B72F9582-8103-A840-9EC3-CEB5270C8B2A}">
@@ -11810,6 +12009,21 @@
           </x14:cfRule>
           <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DEC8A02F-80BB-FF4A-8656-257DA44E514E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H54</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/0b_forms/gantt_chart.xlsx
+++ b/0b_forms/gantt_chart.xlsx
@@ -2640,22 +2640,19 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="40" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="45" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="40" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="40" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2665,27 +2662,30 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="40" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="45" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="40" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="40" fillId="24" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2734,33 +2734,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="69">
     <dxf>
       <border>
         <left style="thin">
@@ -3477,32 +3451,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3614,7 +3562,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3678,7 +3626,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3728,7 +3676,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3812,7 +3760,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3867,7 +3815,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3922,7 +3870,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4250,8 +4198,8 @@
   <dimension ref="A1:BN72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F8:F64"/>
+      <pane ySplit="7" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4279,27 +4227,27 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="I1" s="126"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
@@ -4344,11 +4292,11 @@
       <c r="B4" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="167">
+      <c r="C4" s="169">
         <v>43374</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
       <c r="F4" s="108"/>
       <c r="G4" s="111" t="s">
         <v>73</v>
@@ -4358,182 +4306,182 @@
       </c>
       <c r="I4" s="109"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="159" t="str">
+      <c r="K4" s="166" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="159" t="str">
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="166" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="159" t="str">
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="168"/>
+      <c r="Y4" s="166" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="160"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="159" t="str">
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="167"/>
+      <c r="AE4" s="168"/>
+      <c r="AF4" s="166" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="AG4" s="160"/>
-      <c r="AH4" s="160"/>
-      <c r="AI4" s="160"/>
-      <c r="AJ4" s="160"/>
-      <c r="AK4" s="160"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="159" t="str">
+      <c r="AG4" s="167"/>
+      <c r="AH4" s="167"/>
+      <c r="AI4" s="167"/>
+      <c r="AJ4" s="167"/>
+      <c r="AK4" s="167"/>
+      <c r="AL4" s="168"/>
+      <c r="AM4" s="166" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="AN4" s="160"/>
-      <c r="AO4" s="160"/>
-      <c r="AP4" s="160"/>
-      <c r="AQ4" s="160"/>
-      <c r="AR4" s="160"/>
-      <c r="AS4" s="161"/>
-      <c r="AT4" s="159" t="str">
+      <c r="AN4" s="167"/>
+      <c r="AO4" s="167"/>
+      <c r="AP4" s="167"/>
+      <c r="AQ4" s="167"/>
+      <c r="AR4" s="167"/>
+      <c r="AS4" s="168"/>
+      <c r="AT4" s="166" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="AU4" s="160"/>
-      <c r="AV4" s="160"/>
-      <c r="AW4" s="160"/>
-      <c r="AX4" s="160"/>
-      <c r="AY4" s="160"/>
-      <c r="AZ4" s="161"/>
-      <c r="BA4" s="159" t="str">
+      <c r="AU4" s="167"/>
+      <c r="AV4" s="167"/>
+      <c r="AW4" s="167"/>
+      <c r="AX4" s="167"/>
+      <c r="AY4" s="167"/>
+      <c r="AZ4" s="168"/>
+      <c r="BA4" s="166" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="BB4" s="160"/>
-      <c r="BC4" s="160"/>
-      <c r="BD4" s="160"/>
-      <c r="BE4" s="160"/>
-      <c r="BF4" s="160"/>
-      <c r="BG4" s="161"/>
-      <c r="BH4" s="159" t="str">
+      <c r="BB4" s="167"/>
+      <c r="BC4" s="167"/>
+      <c r="BD4" s="167"/>
+      <c r="BE4" s="167"/>
+      <c r="BF4" s="167"/>
+      <c r="BG4" s="168"/>
+      <c r="BH4" s="166" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="BI4" s="160"/>
-      <c r="BJ4" s="160"/>
-      <c r="BK4" s="160"/>
-      <c r="BL4" s="160"/>
-      <c r="BM4" s="160"/>
-      <c r="BN4" s="161"/>
+      <c r="BI4" s="167"/>
+      <c r="BJ4" s="167"/>
+      <c r="BK4" s="167"/>
+      <c r="BL4" s="167"/>
+      <c r="BM4" s="167"/>
+      <c r="BN4" s="168"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="107"/>
       <c r="B5" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="166">
+      <c r="C5" s="165">
         <v>43612</v>
       </c>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
       <c r="F5" s="110"/>
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
       <c r="I5" s="110"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="162">
+      <c r="K5" s="170">
         <f>K6</f>
         <v>43409</v>
       </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="162">
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="170">
         <f>R6</f>
         <v>43416</v>
       </c>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="162">
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="172"/>
+      <c r="Y5" s="170">
         <f>Y6</f>
         <v>43423</v>
       </c>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="163"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="162">
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="171"/>
+      <c r="AC5" s="171"/>
+      <c r="AD5" s="171"/>
+      <c r="AE5" s="172"/>
+      <c r="AF5" s="170">
         <f>AF6</f>
         <v>43430</v>
       </c>
-      <c r="AG5" s="163"/>
-      <c r="AH5" s="163"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="163"/>
-      <c r="AK5" s="163"/>
-      <c r="AL5" s="164"/>
-      <c r="AM5" s="162">
+      <c r="AG5" s="171"/>
+      <c r="AH5" s="171"/>
+      <c r="AI5" s="171"/>
+      <c r="AJ5" s="171"/>
+      <c r="AK5" s="171"/>
+      <c r="AL5" s="172"/>
+      <c r="AM5" s="170">
         <f>AM6</f>
         <v>43437</v>
       </c>
-      <c r="AN5" s="163"/>
-      <c r="AO5" s="163"/>
-      <c r="AP5" s="163"/>
-      <c r="AQ5" s="163"/>
-      <c r="AR5" s="163"/>
-      <c r="AS5" s="164"/>
-      <c r="AT5" s="162">
+      <c r="AN5" s="171"/>
+      <c r="AO5" s="171"/>
+      <c r="AP5" s="171"/>
+      <c r="AQ5" s="171"/>
+      <c r="AR5" s="171"/>
+      <c r="AS5" s="172"/>
+      <c r="AT5" s="170">
         <f>AT6</f>
         <v>43444</v>
       </c>
-      <c r="AU5" s="163"/>
-      <c r="AV5" s="163"/>
-      <c r="AW5" s="163"/>
-      <c r="AX5" s="163"/>
-      <c r="AY5" s="163"/>
-      <c r="AZ5" s="164"/>
-      <c r="BA5" s="162">
+      <c r="AU5" s="171"/>
+      <c r="AV5" s="171"/>
+      <c r="AW5" s="171"/>
+      <c r="AX5" s="171"/>
+      <c r="AY5" s="171"/>
+      <c r="AZ5" s="172"/>
+      <c r="BA5" s="170">
         <f>BA6</f>
         <v>43451</v>
       </c>
-      <c r="BB5" s="163"/>
-      <c r="BC5" s="163"/>
-      <c r="BD5" s="163"/>
-      <c r="BE5" s="163"/>
-      <c r="BF5" s="163"/>
-      <c r="BG5" s="164"/>
-      <c r="BH5" s="162">
+      <c r="BB5" s="171"/>
+      <c r="BC5" s="171"/>
+      <c r="BD5" s="171"/>
+      <c r="BE5" s="171"/>
+      <c r="BF5" s="171"/>
+      <c r="BG5" s="172"/>
+      <c r="BH5" s="170">
         <f>BH6</f>
         <v>43458</v>
       </c>
-      <c r="BI5" s="163"/>
-      <c r="BJ5" s="163"/>
-      <c r="BK5" s="163"/>
-      <c r="BL5" s="163"/>
-      <c r="BM5" s="163"/>
-      <c r="BN5" s="164"/>
+      <c r="BI5" s="171"/>
+      <c r="BJ5" s="171"/>
+      <c r="BK5" s="171"/>
+      <c r="BL5" s="171"/>
+      <c r="BM5" s="171"/>
+      <c r="BN5" s="172"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
@@ -5035,8 +4983,8 @@
       </c>
       <c r="C8" s="86"/>
       <c r="D8" s="87"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="172" t="str">
+      <c r="E8" s="159"/>
+      <c r="F8" s="162" t="str">
         <f>IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
@@ -5113,10 +5061,10 @@
         <v>138</v>
       </c>
       <c r="D9" s="122"/>
-      <c r="E9" s="170">
+      <c r="E9" s="160">
         <v>43374</v>
       </c>
-      <c r="F9" s="173">
+      <c r="F9" s="163">
         <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
         <v>43385</v>
       </c>
@@ -5197,8 +5145,8 @@
         <v>139</v>
       </c>
       <c r="D10" s="56"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171" t="str">
+      <c r="E10" s="161"/>
+      <c r="F10" s="161" t="str">
         <f t="shared" ref="F10:F31" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
@@ -5275,10 +5223,10 @@
         <v>140</v>
       </c>
       <c r="D11" s="122"/>
-      <c r="E11" s="170">
+      <c r="E11" s="160">
         <v>43388</v>
       </c>
-      <c r="F11" s="173">
+      <c r="F11" s="163">
         <f t="shared" si="6"/>
         <v>43391</v>
       </c>
@@ -5360,10 +5308,10 @@
       </c>
       <c r="C12" s="81"/>
       <c r="D12" s="79"/>
-      <c r="E12" s="170">
+      <c r="E12" s="160">
         <v>43410</v>
       </c>
-      <c r="F12" s="173">
+      <c r="F12" s="163">
         <f t="shared" si="6"/>
         <v>43411</v>
       </c>
@@ -5444,10 +5392,10 @@
         <v>148</v>
       </c>
       <c r="D13" s="122"/>
-      <c r="E13" s="170">
+      <c r="E13" s="160">
         <v>43386</v>
       </c>
-      <c r="F13" s="173">
+      <c r="F13" s="163">
         <f t="shared" si="6"/>
         <v>43391</v>
       </c>
@@ -5529,10 +5477,10 @@
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="79"/>
-      <c r="E14" s="170">
+      <c r="E14" s="160">
         <v>43386</v>
       </c>
-      <c r="F14" s="173">
+      <c r="F14" s="163">
         <f t="shared" ref="F14:F15" si="7">IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
         <v>43387</v>
       </c>
@@ -5614,10 +5562,10 @@
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="79"/>
-      <c r="E15" s="170">
+      <c r="E15" s="160">
         <v>43388</v>
       </c>
-      <c r="F15" s="173">
+      <c r="F15" s="163">
         <f t="shared" si="7"/>
         <v>43391</v>
       </c>
@@ -5698,10 +5646,10 @@
         <v>149</v>
       </c>
       <c r="D16" s="122"/>
-      <c r="E16" s="170">
+      <c r="E16" s="160">
         <v>43386</v>
       </c>
-      <c r="F16" s="173">
+      <c r="F16" s="163">
         <f t="shared" si="6"/>
         <v>43391</v>
       </c>
@@ -5782,10 +5730,10 @@
         <v>143</v>
       </c>
       <c r="D17" s="122"/>
-      <c r="E17" s="170">
+      <c r="E17" s="160">
         <v>43388</v>
       </c>
-      <c r="F17" s="173">
+      <c r="F17" s="163">
         <f t="shared" si="6"/>
         <v>43391</v>
       </c>
@@ -5866,10 +5814,10 @@
         <v>144</v>
       </c>
       <c r="D18" s="122"/>
-      <c r="E18" s="170">
+      <c r="E18" s="160">
         <v>43388</v>
       </c>
-      <c r="F18" s="173">
+      <c r="F18" s="163">
         <f>IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
         <v>43391</v>
       </c>
@@ -5951,10 +5899,10 @@
       </c>
       <c r="C19" s="81"/>
       <c r="D19" s="79"/>
-      <c r="E19" s="170">
+      <c r="E19" s="160">
         <v>43388</v>
       </c>
-      <c r="F19" s="173">
+      <c r="F19" s="163">
         <f t="shared" ref="F19" si="9">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
         <v>43391</v>
       </c>
@@ -6035,8 +5983,8 @@
         <v>146</v>
       </c>
       <c r="D20" s="56"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171" t="str">
+      <c r="E20" s="161"/>
+      <c r="F20" s="161" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -6113,10 +6061,10 @@
         <v>158</v>
       </c>
       <c r="D21" s="122"/>
-      <c r="E21" s="170">
+      <c r="E21" s="160">
         <v>43395</v>
       </c>
-      <c r="F21" s="173">
+      <c r="F21" s="163">
         <f t="shared" si="6"/>
         <v>43398</v>
       </c>
@@ -6197,10 +6145,10 @@
         <v>159</v>
       </c>
       <c r="D22" s="122"/>
-      <c r="E22" s="170">
+      <c r="E22" s="160">
         <v>43395</v>
       </c>
-      <c r="F22" s="173">
+      <c r="F22" s="163">
         <f t="shared" si="6"/>
         <v>43398</v>
       </c>
@@ -6281,10 +6229,10 @@
         <v>160</v>
       </c>
       <c r="D23" s="122"/>
-      <c r="E23" s="170">
+      <c r="E23" s="160">
         <v>43395</v>
       </c>
-      <c r="F23" s="173">
+      <c r="F23" s="163">
         <f t="shared" si="6"/>
         <v>43398</v>
       </c>
@@ -6365,8 +6313,8 @@
         <v>147</v>
       </c>
       <c r="D24" s="56"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171" t="str">
+      <c r="E24" s="161"/>
+      <c r="F24" s="161" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -6443,10 +6391,10 @@
         <v>167</v>
       </c>
       <c r="D25" s="122"/>
-      <c r="E25" s="170">
+      <c r="E25" s="160">
         <v>43402</v>
       </c>
-      <c r="F25" s="173">
+      <c r="F25" s="163">
         <f t="shared" si="6"/>
         <v>43402</v>
       </c>
@@ -6527,10 +6475,10 @@
         <v>161</v>
       </c>
       <c r="D26" s="122"/>
-      <c r="E26" s="170">
+      <c r="E26" s="160">
         <v>43402</v>
       </c>
-      <c r="F26" s="173">
+      <c r="F26" s="163">
         <f t="shared" si="6"/>
         <v>43406</v>
       </c>
@@ -6611,10 +6559,10 @@
         <v>162</v>
       </c>
       <c r="D27" s="122"/>
-      <c r="E27" s="170">
+      <c r="E27" s="160">
         <v>43409</v>
       </c>
-      <c r="F27" s="173">
+      <c r="F27" s="163">
         <f t="shared" si="6"/>
         <v>43420</v>
       </c>
@@ -6695,10 +6643,10 @@
         <v>163</v>
       </c>
       <c r="D28" s="122"/>
-      <c r="E28" s="170">
+      <c r="E28" s="160">
         <v>43416</v>
       </c>
-      <c r="F28" s="173">
+      <c r="F28" s="163">
         <f t="shared" si="6"/>
         <v>43422</v>
       </c>
@@ -6779,10 +6727,10 @@
         <v>165</v>
       </c>
       <c r="D29" s="122"/>
-      <c r="E29" s="170">
+      <c r="E29" s="160">
         <v>43416</v>
       </c>
-      <c r="F29" s="173">
+      <c r="F29" s="163">
         <f t="shared" ref="F29" si="12">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
         <v>43422</v>
       </c>
@@ -6863,10 +6811,10 @@
         <v>164</v>
       </c>
       <c r="D30" s="122"/>
-      <c r="E30" s="170">
+      <c r="E30" s="160">
         <v>43416</v>
       </c>
-      <c r="F30" s="173">
+      <c r="F30" s="163">
         <f t="shared" si="6"/>
         <v>43422</v>
       </c>
@@ -6948,10 +6896,10 @@
       </c>
       <c r="C31" s="81"/>
       <c r="D31" s="79"/>
-      <c r="E31" s="170">
+      <c r="E31" s="160">
         <v>43423</v>
       </c>
-      <c r="F31" s="173">
+      <c r="F31" s="163">
         <f t="shared" si="6"/>
         <v>43429</v>
       </c>
@@ -7033,10 +6981,10 @@
       </c>
       <c r="C32" s="81"/>
       <c r="D32" s="79"/>
-      <c r="E32" s="170">
+      <c r="E32" s="160">
         <v>43423</v>
       </c>
-      <c r="F32" s="173">
+      <c r="F32" s="163">
         <f t="shared" ref="F32" si="14">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
         <v>43429</v>
       </c>
@@ -7117,8 +7065,8 @@
         <v>150</v>
       </c>
       <c r="D33" s="56"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171" t="str">
+      <c r="E33" s="161"/>
+      <c r="F33" s="161" t="str">
         <f t="shared" ref="F33:F34" si="16">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
@@ -7196,10 +7144,10 @@
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="79"/>
-      <c r="E34" s="170">
+      <c r="E34" s="160">
         <v>43430</v>
       </c>
-      <c r="F34" s="173">
+      <c r="F34" s="163">
         <f t="shared" si="16"/>
         <v>43436</v>
       </c>
@@ -7281,10 +7229,10 @@
       </c>
       <c r="C35" s="81"/>
       <c r="D35" s="79"/>
-      <c r="E35" s="170">
+      <c r="E35" s="160">
         <v>43430</v>
       </c>
-      <c r="F35" s="173">
+      <c r="F35" s="163">
         <f t="shared" ref="F35:F36" si="19">IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
         <v>43433</v>
       </c>
@@ -7366,10 +7314,10 @@
       </c>
       <c r="C36" s="81"/>
       <c r="D36" s="79"/>
-      <c r="E36" s="170">
+      <c r="E36" s="160">
         <v>43430</v>
       </c>
-      <c r="F36" s="173">
+      <c r="F36" s="163">
         <f t="shared" si="19"/>
         <v>43436</v>
       </c>
@@ -7451,10 +7399,10 @@
       </c>
       <c r="C37" s="81"/>
       <c r="D37" s="79"/>
-      <c r="E37" s="170">
+      <c r="E37" s="160">
         <v>43430</v>
       </c>
-      <c r="F37" s="173">
+      <c r="F37" s="163">
         <f t="shared" ref="F37:F39" si="21">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
         <v>43433</v>
       </c>
@@ -7536,10 +7484,10 @@
       </c>
       <c r="C38" s="81"/>
       <c r="D38" s="79"/>
-      <c r="E38" s="170">
+      <c r="E38" s="160">
         <v>43430</v>
       </c>
-      <c r="F38" s="173">
+      <c r="F38" s="163">
         <f t="shared" si="21"/>
         <v>43439</v>
       </c>
@@ -7619,10 +7567,10 @@
       </c>
       <c r="C39" s="81"/>
       <c r="D39" s="79"/>
-      <c r="E39" s="170">
+      <c r="E39" s="160">
         <v>43430</v>
       </c>
-      <c r="F39" s="173">
+      <c r="F39" s="163">
         <f t="shared" si="21"/>
         <v>43438</v>
       </c>
@@ -7703,8 +7651,8 @@
         <v>151</v>
       </c>
       <c r="D40" s="56"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171" t="str">
+      <c r="E40" s="161"/>
+      <c r="F40" s="161" t="str">
         <f t="shared" ref="F40:F41" si="23">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
@@ -7780,8 +7728,8 @@
       <c r="B41" s="81"/>
       <c r="C41" s="81"/>
       <c r="D41" s="79"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="173" t="str">
+      <c r="E41" s="160"/>
+      <c r="F41" s="163" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -7858,8 +7806,8 @@
         <v>153</v>
       </c>
       <c r="D42" s="56"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171" t="str">
+      <c r="E42" s="161"/>
+      <c r="F42" s="161" t="str">
         <f t="shared" ref="F42:F43" si="25">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
@@ -7929,7 +7877,7 @@
     </row>
     <row r="43" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A43" s="60" t="str">
-        <f t="shared" ref="A43:A54" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A43:A53" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>7.1</v>
       </c>
       <c r="B43" s="81" t="s">
@@ -7937,10 +7885,10 @@
       </c>
       <c r="C43" s="81"/>
       <c r="D43" s="79"/>
-      <c r="E43" s="170">
+      <c r="E43" s="160">
         <v>43381</v>
       </c>
-      <c r="F43" s="173">
+      <c r="F43" s="163">
         <f t="shared" si="25"/>
         <v>43384</v>
       </c>
@@ -8022,10 +7970,10 @@
       </c>
       <c r="C44" s="81"/>
       <c r="D44" s="79"/>
-      <c r="E44" s="170">
+      <c r="E44" s="160">
         <v>43388</v>
       </c>
-      <c r="F44" s="173">
+      <c r="F44" s="163">
         <f t="shared" ref="F44:F62" si="28">IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
         <v>43391</v>
       </c>
@@ -8107,10 +8055,10 @@
       </c>
       <c r="C45" s="81"/>
       <c r="D45" s="79"/>
-      <c r="E45" s="170">
+      <c r="E45" s="160">
         <v>43388</v>
       </c>
-      <c r="F45" s="173">
+      <c r="F45" s="163">
         <f t="shared" si="28"/>
         <v>43391</v>
       </c>
@@ -8190,10 +8138,10 @@
       </c>
       <c r="C46" s="81"/>
       <c r="D46" s="79"/>
-      <c r="E46" s="170">
+      <c r="E46" s="160">
         <v>43423</v>
       </c>
-      <c r="F46" s="173">
+      <c r="F46" s="163">
         <f t="shared" si="28"/>
         <v>43429</v>
       </c>
@@ -8275,10 +8223,10 @@
       </c>
       <c r="C47" s="81"/>
       <c r="D47" s="79"/>
-      <c r="E47" s="170">
+      <c r="E47" s="160">
         <v>43430</v>
       </c>
-      <c r="F47" s="173">
+      <c r="F47" s="163">
         <f t="shared" si="28"/>
         <v>43436</v>
       </c>
@@ -8360,10 +8308,10 @@
       </c>
       <c r="C48" s="81"/>
       <c r="D48" s="79"/>
-      <c r="E48" s="170">
+      <c r="E48" s="160">
         <v>43423</v>
       </c>
-      <c r="F48" s="173">
+      <c r="F48" s="163">
         <f t="shared" ref="F48:F52" si="30">IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
         <v>43429</v>
       </c>
@@ -8371,7 +8319,7 @@
         <v>7</v>
       </c>
       <c r="H48" s="63">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I48" s="80">
         <f t="shared" ref="I48:I52" si="31">IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
@@ -8445,17 +8393,19 @@
       </c>
       <c r="C49" s="81"/>
       <c r="D49" s="79"/>
-      <c r="E49" s="170">
+      <c r="E49" s="160">
         <v>43437</v>
       </c>
-      <c r="F49" s="173">
+      <c r="F49" s="163">
         <f>IF(ISBLANK(E49)," - ",IF(G49=0,E49,E49+G49-1))</f>
         <v>43442</v>
       </c>
       <c r="G49" s="62">
         <v>6</v>
       </c>
-      <c r="H49" s="63"/>
+      <c r="H49" s="63">
+        <v>1</v>
+      </c>
       <c r="I49" s="80">
         <f>IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
         <v>5</v>
@@ -8528,10 +8478,10 @@
       </c>
       <c r="C50" s="81"/>
       <c r="D50" s="79"/>
-      <c r="E50" s="170">
+      <c r="E50" s="160">
         <v>43437</v>
       </c>
-      <c r="F50" s="173">
+      <c r="F50" s="163">
         <f>IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
         <v>43442</v>
       </c>
@@ -8611,10 +8561,10 @@
       </c>
       <c r="C51" s="81"/>
       <c r="D51" s="79"/>
-      <c r="E51" s="170">
+      <c r="E51" s="160">
         <v>43388</v>
       </c>
-      <c r="F51" s="173">
+      <c r="F51" s="163">
         <f t="shared" si="30"/>
         <v>43391</v>
       </c>
@@ -8696,10 +8646,10 @@
       </c>
       <c r="C52" s="81"/>
       <c r="D52" s="79"/>
-      <c r="E52" s="170">
+      <c r="E52" s="160">
         <v>43437</v>
       </c>
-      <c r="F52" s="173">
+      <c r="F52" s="163">
         <f t="shared" si="30"/>
         <v>43442</v>
       </c>
@@ -8779,17 +8729,19 @@
       </c>
       <c r="C53" s="81"/>
       <c r="D53" s="79"/>
-      <c r="E53" s="170">
+      <c r="E53" s="160">
         <v>43437</v>
       </c>
-      <c r="F53" s="173">
+      <c r="F53" s="163">
         <f>IF(ISBLANK(E53)," - ",IF(G53=0,E53,E53+G53-1))</f>
         <v>43442</v>
       </c>
       <c r="G53" s="62">
         <v>6</v>
       </c>
-      <c r="H53" s="63"/>
+      <c r="H53" s="63">
+        <v>1</v>
+      </c>
       <c r="I53" s="80">
         <f>IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
         <v>5</v>
@@ -8862,10 +8814,10 @@
       </c>
       <c r="C54" s="81"/>
       <c r="D54" s="79"/>
-      <c r="E54" s="170">
+      <c r="E54" s="160">
         <v>43446</v>
       </c>
-      <c r="F54" s="173">
+      <c r="F54" s="163">
         <f>IF(ISBLANK(E54)," - ",IF(G54=0,E54,E54+G54-1))</f>
         <v>43446</v>
       </c>
@@ -8944,8 +8896,8 @@
         <v>152</v>
       </c>
       <c r="D55" s="56"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171" t="str">
+      <c r="E55" s="161"/>
+      <c r="F55" s="161" t="str">
         <f>IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
@@ -9021,8 +8973,8 @@
       <c r="B56" s="81"/>
       <c r="C56" s="81"/>
       <c r="D56" s="79"/>
-      <c r="E56" s="170"/>
-      <c r="F56" s="173" t="str">
+      <c r="E56" s="160"/>
+      <c r="F56" s="163" t="str">
         <f>IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
@@ -9099,8 +9051,8 @@
         <v>154</v>
       </c>
       <c r="D57" s="56"/>
-      <c r="E57" s="171"/>
-      <c r="F57" s="171" t="str">
+      <c r="E57" s="161"/>
+      <c r="F57" s="161" t="str">
         <f t="shared" ref="F57:F58" si="32">IF(ISBLANK(E57)," - ",IF(G57=0,E57,E57+G57-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
@@ -9176,8 +9128,8 @@
       <c r="B58" s="81"/>
       <c r="C58" s="81"/>
       <c r="D58" s="79"/>
-      <c r="E58" s="170"/>
-      <c r="F58" s="173" t="str">
+      <c r="E58" s="160"/>
+      <c r="F58" s="163" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -9254,8 +9206,8 @@
         <v>155</v>
       </c>
       <c r="D59" s="56"/>
-      <c r="E59" s="171"/>
-      <c r="F59" s="171" t="str">
+      <c r="E59" s="161"/>
+      <c r="F59" s="161" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -9331,8 +9283,8 @@
       <c r="B60" s="81"/>
       <c r="C60" s="81"/>
       <c r="D60" s="79"/>
-      <c r="E60" s="170"/>
-      <c r="F60" s="173" t="str">
+      <c r="E60" s="160"/>
+      <c r="F60" s="163" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -9409,8 +9361,8 @@
         <v>156</v>
       </c>
       <c r="D61" s="56"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171" t="str">
+      <c r="E61" s="161"/>
+      <c r="F61" s="161" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -9486,8 +9438,8 @@
       <c r="B62" s="81"/>
       <c r="C62" s="81"/>
       <c r="D62" s="79"/>
-      <c r="E62" s="170"/>
-      <c r="F62" s="173" t="str">
+      <c r="E62" s="160"/>
+      <c r="F62" s="163" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -9564,8 +9516,8 @@
         <v>157</v>
       </c>
       <c r="D63" s="56"/>
-      <c r="E63" s="171"/>
-      <c r="F63" s="171" t="str">
+      <c r="E63" s="161"/>
+      <c r="F63" s="161" t="str">
         <f t="shared" ref="F63:F64" si="34">IF(ISBLANK(E63)," - ",IF(G63=0,E63,E63+G63-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
@@ -9641,8 +9593,8 @@
       <c r="B64" s="81"/>
       <c r="C64" s="81"/>
       <c r="D64" s="79"/>
-      <c r="E64" s="170"/>
-      <c r="F64" s="173" t="str">
+      <c r="E64" s="160"/>
+      <c r="F64" s="163" t="str">
         <f t="shared" si="34"/>
         <v xml:space="preserve"> - </v>
       </c>
@@ -10308,15 +10260,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -10327,6 +10270,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H11 H16:H18 H65:H71 H30 H20:H28 H13">
@@ -10344,20 +10296,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="71" priority="241">
+    <cfRule type="expression" dxfId="68" priority="241">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:BN11 K13:BN18 K20:BN30 K33:BN34 K40:BN53 K55:BN71">
-    <cfRule type="expression" dxfId="70" priority="244">
+    <cfRule type="expression" dxfId="67" priority="244">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="245">
+    <cfRule type="expression" dxfId="66" priority="245">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN11 K16:BN18 K65:BN71 K30:BN30 K20:BN28 K13:BN13">
-    <cfRule type="expression" dxfId="68" priority="204">
+    <cfRule type="expression" dxfId="65" priority="204">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10376,12 +10328,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="67" priority="189">
+    <cfRule type="expression" dxfId="64" priority="189">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="66" priority="185">
+    <cfRule type="expression" dxfId="63" priority="185">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10414,7 +10366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="65" priority="176">
+    <cfRule type="expression" dxfId="62" priority="176">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10447,7 +10399,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="64" priority="168">
+    <cfRule type="expression" dxfId="61" priority="168">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10466,7 +10418,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="63" priority="160">
+    <cfRule type="expression" dxfId="60" priority="160">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10485,7 +10437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="62" priority="164">
+    <cfRule type="expression" dxfId="59" priority="164">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10504,7 +10456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="61" priority="152">
+    <cfRule type="expression" dxfId="58" priority="152">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10523,7 +10475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="60" priority="144">
+    <cfRule type="expression" dxfId="57" priority="144">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10542,7 +10494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="59" priority="156">
+    <cfRule type="expression" dxfId="56" priority="156">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10561,7 +10513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="58" priority="136">
+    <cfRule type="expression" dxfId="55" priority="136">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10580,7 +10532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="57" priority="148">
+    <cfRule type="expression" dxfId="54" priority="148">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10599,7 +10551,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="56" priority="128">
+    <cfRule type="expression" dxfId="53" priority="128">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10618,7 +10570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="55" priority="140">
+    <cfRule type="expression" dxfId="52" priority="140">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10637,7 +10589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="54" priority="120">
+    <cfRule type="expression" dxfId="51" priority="120">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10656,7 +10608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="53" priority="132">
+    <cfRule type="expression" dxfId="50" priority="132">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10675,7 +10627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="52" priority="112">
+    <cfRule type="expression" dxfId="49" priority="112">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10694,7 +10646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="51" priority="124">
+    <cfRule type="expression" dxfId="48" priority="124">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10713,7 +10665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="50" priority="104">
+    <cfRule type="expression" dxfId="47" priority="104">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10732,12 +10684,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="49" priority="116">
+    <cfRule type="expression" dxfId="46" priority="116">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="48" priority="100">
+    <cfRule type="expression" dxfId="45" priority="100">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10756,7 +10708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="47" priority="108">
+    <cfRule type="expression" dxfId="44" priority="108">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10775,15 +10727,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="46" priority="83">
+    <cfRule type="expression" dxfId="43" priority="83">
       <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="84">
+    <cfRule type="expression" dxfId="42" priority="84">
       <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="44" priority="82">
+    <cfRule type="expression" dxfId="41" priority="82">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10802,15 +10754,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="43" priority="79">
+    <cfRule type="expression" dxfId="40" priority="79">
       <formula>AND($E19&lt;=K$6,ROUNDDOWN(($F19-$E19+1)*$H19,0)+$E19-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="80">
+    <cfRule type="expression" dxfId="39" priority="80">
       <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$6,$F19&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="41" priority="78">
+    <cfRule type="expression" dxfId="38" priority="78">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10829,15 +10781,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="40" priority="75">
+    <cfRule type="expression" dxfId="37" priority="75">
       <formula>AND($E31&lt;=K$6,ROUNDDOWN(($F31-$E31+1)*$H31,0)+$E31-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="76">
+    <cfRule type="expression" dxfId="36" priority="76">
       <formula>AND(NOT(ISBLANK($E31)),$E31&lt;=K$6,$F31&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="38" priority="74">
+    <cfRule type="expression" dxfId="35" priority="74">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10856,7 +10808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="37" priority="70">
+    <cfRule type="expression" dxfId="34" priority="70">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10875,7 +10827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="36" priority="68">
+    <cfRule type="expression" dxfId="33" priority="68">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10894,7 +10846,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="35" priority="64">
+    <cfRule type="expression" dxfId="32" priority="64">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10927,12 +10879,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="34" priority="58">
+    <cfRule type="expression" dxfId="31" priority="58">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="33" priority="56">
+    <cfRule type="expression" dxfId="30" priority="56">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10951,7 +10903,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="32" priority="60">
+    <cfRule type="expression" dxfId="29" priority="60">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10970,7 +10922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="31" priority="52">
+    <cfRule type="expression" dxfId="28" priority="52">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10989,7 +10941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="30" priority="50">
+    <cfRule type="expression" dxfId="27" priority="50">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11008,7 +10960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="29" priority="46">
+    <cfRule type="expression" dxfId="26" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11027,7 +10979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="28" priority="40">
+    <cfRule type="expression" dxfId="25" priority="40">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11046,7 +10998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="27" priority="42">
+    <cfRule type="expression" dxfId="24" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11065,7 +11017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="26" priority="36">
+    <cfRule type="expression" dxfId="23" priority="36">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11084,7 +11036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="25" priority="34">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11103,7 +11055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="24" priority="30">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11122,23 +11074,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="20" priority="27">
       <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="21" priority="26">
+    <cfRule type="expression" dxfId="18" priority="26">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>AND($E35&lt;=K$6,ROUNDDOWN(($F35-$E35+1)*$H35,0)+$E35-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="24">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>AND(NOT(ISBLANK($E35)),$E35&lt;=K$6,$F35&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11157,15 +11109,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="15" priority="22">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>AND($E36&lt;=K$6,ROUNDDOWN(($F36-$E36+1)*$H36,0)+$E36-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>AND(NOT(ISBLANK($E36)),$E36&lt;=K$6,$F36&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11184,15 +11136,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND($E37&lt;=K$6,ROUNDDOWN(($F37-$E37+1)*$H37,0)+$E37-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>AND(NOT(ISBLANK($E37)),$E37&lt;=K$6,$F37&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11211,15 +11163,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>AND($E38&lt;=K$6,ROUNDDOWN(($F38-$E38+1)*$H38,0)+$E38-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>AND(NOT(ISBLANK($E38)),$E38&lt;=K$6,$F38&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11238,15 +11190,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>AND($E39&lt;=K$6,ROUNDDOWN(($F39-$E39+1)*$H39,0)+$E39-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(NOT(ISBLANK($E39)),$E39&lt;=K$6,$F39&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11265,7 +11217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12296,10 +12248,10 @@
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="168" t="s">
+      <c r="A13" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="168"/>
+      <c r="B13" s="173"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:3" s="128" customFormat="1" ht="18" x14ac:dyDescent="0.15">
@@ -12361,10 +12313,10 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="168" t="s">
+      <c r="A24" s="173" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="168"/>
+      <c r="B24" s="173"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A25" s="138"/>
@@ -12437,10 +12389,10 @@
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="168" t="s">
+      <c r="A38" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="168"/>
+      <c r="B38" s="173"/>
     </row>
     <row r="39" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B39" s="135" t="s">
@@ -12477,10 +12429,10 @@
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="168" t="s">
+      <c r="A49" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="168"/>
+      <c r="B49" s="173"/>
     </row>
     <row r="50" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B50" s="135" t="s">
@@ -12578,10 +12530,10 @@
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="168" t="s">
+      <c r="A65" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="168"/>
+      <c r="B65" s="173"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="B66" s="135" t="s">
@@ -12592,10 +12544,10 @@
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="168" t="s">
+      <c r="A68" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="168"/>
+      <c r="B68" s="173"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="150" t="s">

--- a/0b_forms/gantt_chart.xlsx
+++ b/0b_forms/gantt_chart.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="189">
   <si>
     <t>WBS</t>
   </si>
@@ -1213,9 +1213,6 @@
     <t xml:space="preserve">Technical Specification </t>
   </si>
   <si>
-    <t>Kanban</t>
-  </si>
-  <si>
     <t>Testing Plan</t>
   </si>
   <si>
@@ -1309,16 +1306,25 @@
     <t>Backlog</t>
   </si>
   <si>
-    <t>Review current project state</t>
-  </si>
-  <si>
-    <t>User stories and acceptane stories</t>
-  </si>
-  <si>
     <t>Project Management</t>
   </si>
   <si>
     <t>Systems Requirements Specification</t>
+  </si>
+  <si>
+    <t>Scrum Board</t>
+  </si>
+  <si>
+    <t>Define scrum board</t>
+  </si>
+  <si>
+    <t>User stories and acceptance stories</t>
+  </si>
+  <si>
+    <t>Project Presentation</t>
+  </si>
+  <si>
+    <t>Preparation</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1777,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1908,6 +1914,18 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFD6F4D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -2245,7 +2263,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2655,6 +2673,24 @@
     <xf numFmtId="168" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2662,30 +2698,39 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="45" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="45" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="45" fillId="24" borderId="12" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2734,7 +2779,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="66">
     <dxf>
       <border>
         <left style="thin">
@@ -2800,18 +2845,16 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -2824,20 +2867,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -3539,7 +3568,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="6"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="4"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3562,7 +3591,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3626,7 +3655,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E200000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3676,7 +3705,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,7 +3789,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3815,7 +3844,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3870,7 +3899,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4195,11 +4224,11 @@
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN72"/>
+  <dimension ref="A1:BN73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+      <pane ySplit="7" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4227,27 +4256,27 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="I1" s="126"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="164"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="170"/>
+      <c r="AD1" s="170"/>
+      <c r="AE1" s="170"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
@@ -4292,196 +4321,196 @@
       <c r="B4" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="169">
+      <c r="C4" s="172">
         <v>43374</v>
       </c>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
       <c r="F4" s="108"/>
       <c r="G4" s="111" t="s">
         <v>73</v>
       </c>
       <c r="H4" s="123">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="109"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="166" t="str">
+      <c r="K4" s="164" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 4</v>
+      </c>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="164" t="str">
+        <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 5</v>
+      </c>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="164" t="str">
+        <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="166" t="str">
-        <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="166"/>
+      <c r="AF4" s="164" t="str">
+        <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="167"/>
-      <c r="W4" s="167"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="166" t="str">
-        <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
+      <c r="AK4" s="165"/>
+      <c r="AL4" s="166"/>
+      <c r="AM4" s="164" t="str">
+        <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="Z4" s="167"/>
-      <c r="AA4" s="167"/>
-      <c r="AB4" s="167"/>
-      <c r="AC4" s="167"/>
-      <c r="AD4" s="167"/>
-      <c r="AE4" s="168"/>
-      <c r="AF4" s="166" t="str">
-        <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="AN4" s="165"/>
+      <c r="AO4" s="165"/>
+      <c r="AP4" s="165"/>
+      <c r="AQ4" s="165"/>
+      <c r="AR4" s="165"/>
+      <c r="AS4" s="166"/>
+      <c r="AT4" s="164" t="str">
+        <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="AG4" s="167"/>
-      <c r="AH4" s="167"/>
-      <c r="AI4" s="167"/>
-      <c r="AJ4" s="167"/>
-      <c r="AK4" s="167"/>
-      <c r="AL4" s="168"/>
-      <c r="AM4" s="166" t="str">
-        <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="AU4" s="165"/>
+      <c r="AV4" s="165"/>
+      <c r="AW4" s="165"/>
+      <c r="AX4" s="165"/>
+      <c r="AY4" s="165"/>
+      <c r="AZ4" s="166"/>
+      <c r="BA4" s="164" t="str">
+        <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="AN4" s="167"/>
-      <c r="AO4" s="167"/>
-      <c r="AP4" s="167"/>
-      <c r="AQ4" s="167"/>
-      <c r="AR4" s="167"/>
-      <c r="AS4" s="168"/>
-      <c r="AT4" s="166" t="str">
-        <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+      <c r="BB4" s="165"/>
+      <c r="BC4" s="165"/>
+      <c r="BD4" s="165"/>
+      <c r="BE4" s="165"/>
+      <c r="BF4" s="165"/>
+      <c r="BG4" s="166"/>
+      <c r="BH4" s="164" t="str">
+        <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="AU4" s="167"/>
-      <c r="AV4" s="167"/>
-      <c r="AW4" s="167"/>
-      <c r="AX4" s="167"/>
-      <c r="AY4" s="167"/>
-      <c r="AZ4" s="168"/>
-      <c r="BA4" s="166" t="str">
-        <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 12</v>
-      </c>
-      <c r="BB4" s="167"/>
-      <c r="BC4" s="167"/>
-      <c r="BD4" s="167"/>
-      <c r="BE4" s="167"/>
-      <c r="BF4" s="167"/>
-      <c r="BG4" s="168"/>
-      <c r="BH4" s="166" t="str">
-        <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 13</v>
-      </c>
-      <c r="BI4" s="167"/>
-      <c r="BJ4" s="167"/>
-      <c r="BK4" s="167"/>
-      <c r="BL4" s="167"/>
-      <c r="BM4" s="167"/>
-      <c r="BN4" s="168"/>
+      <c r="BI4" s="165"/>
+      <c r="BJ4" s="165"/>
+      <c r="BK4" s="165"/>
+      <c r="BL4" s="165"/>
+      <c r="BM4" s="165"/>
+      <c r="BN4" s="166"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="107"/>
       <c r="B5" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="165">
+      <c r="C5" s="171">
         <v>43612</v>
       </c>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
       <c r="F5" s="110"/>
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
       <c r="I5" s="110"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="170">
+      <c r="K5" s="167">
         <f>K6</f>
+        <v>43395</v>
+      </c>
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="167">
+        <f>R6</f>
+        <v>43402</v>
+      </c>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="168"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="168"/>
+      <c r="X5" s="169"/>
+      <c r="Y5" s="167">
+        <f>Y6</f>
         <v>43409</v>
       </c>
-      <c r="L5" s="171"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="170">
-        <f>R6</f>
+      <c r="Z5" s="168"/>
+      <c r="AA5" s="168"/>
+      <c r="AB5" s="168"/>
+      <c r="AC5" s="168"/>
+      <c r="AD5" s="168"/>
+      <c r="AE5" s="169"/>
+      <c r="AF5" s="167">
+        <f>AF6</f>
         <v>43416</v>
       </c>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="170">
-        <f>Y6</f>
+      <c r="AG5" s="168"/>
+      <c r="AH5" s="168"/>
+      <c r="AI5" s="168"/>
+      <c r="AJ5" s="168"/>
+      <c r="AK5" s="168"/>
+      <c r="AL5" s="169"/>
+      <c r="AM5" s="167">
+        <f>AM6</f>
         <v>43423</v>
       </c>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="171"/>
-      <c r="AC5" s="171"/>
-      <c r="AD5" s="171"/>
-      <c r="AE5" s="172"/>
-      <c r="AF5" s="170">
-        <f>AF6</f>
+      <c r="AN5" s="168"/>
+      <c r="AO5" s="168"/>
+      <c r="AP5" s="168"/>
+      <c r="AQ5" s="168"/>
+      <c r="AR5" s="168"/>
+      <c r="AS5" s="169"/>
+      <c r="AT5" s="167">
+        <f>AT6</f>
         <v>43430</v>
       </c>
-      <c r="AG5" s="171"/>
-      <c r="AH5" s="171"/>
-      <c r="AI5" s="171"/>
-      <c r="AJ5" s="171"/>
-      <c r="AK5" s="171"/>
-      <c r="AL5" s="172"/>
-      <c r="AM5" s="170">
-        <f>AM6</f>
+      <c r="AU5" s="168"/>
+      <c r="AV5" s="168"/>
+      <c r="AW5" s="168"/>
+      <c r="AX5" s="168"/>
+      <c r="AY5" s="168"/>
+      <c r="AZ5" s="169"/>
+      <c r="BA5" s="167">
+        <f>BA6</f>
         <v>43437</v>
       </c>
-      <c r="AN5" s="171"/>
-      <c r="AO5" s="171"/>
-      <c r="AP5" s="171"/>
-      <c r="AQ5" s="171"/>
-      <c r="AR5" s="171"/>
-      <c r="AS5" s="172"/>
-      <c r="AT5" s="170">
-        <f>AT6</f>
+      <c r="BB5" s="168"/>
+      <c r="BC5" s="168"/>
+      <c r="BD5" s="168"/>
+      <c r="BE5" s="168"/>
+      <c r="BF5" s="168"/>
+      <c r="BG5" s="169"/>
+      <c r="BH5" s="167">
+        <f>BH6</f>
         <v>43444</v>
       </c>
-      <c r="AU5" s="171"/>
-      <c r="AV5" s="171"/>
-      <c r="AW5" s="171"/>
-      <c r="AX5" s="171"/>
-      <c r="AY5" s="171"/>
-      <c r="AZ5" s="172"/>
-      <c r="BA5" s="170">
-        <f>BA6</f>
-        <v>43451</v>
-      </c>
-      <c r="BB5" s="171"/>
-      <c r="BC5" s="171"/>
-      <c r="BD5" s="171"/>
-      <c r="BE5" s="171"/>
-      <c r="BF5" s="171"/>
-      <c r="BG5" s="172"/>
-      <c r="BH5" s="170">
-        <f>BH6</f>
-        <v>43458</v>
-      </c>
-      <c r="BI5" s="171"/>
-      <c r="BJ5" s="171"/>
-      <c r="BK5" s="171"/>
-      <c r="BL5" s="171"/>
-      <c r="BM5" s="171"/>
-      <c r="BN5" s="172"/>
+      <c r="BI5" s="168"/>
+      <c r="BJ5" s="168"/>
+      <c r="BK5" s="168"/>
+      <c r="BL5" s="168"/>
+      <c r="BM5" s="168"/>
+      <c r="BN5" s="169"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
@@ -4496,227 +4525,227 @@
       <c r="J6" s="50"/>
       <c r="K6" s="91">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>43409</v>
+        <v>43395</v>
       </c>
       <c r="L6" s="83">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>43410</v>
+        <v>43396</v>
       </c>
       <c r="M6" s="83">
         <f t="shared" si="0"/>
-        <v>43411</v>
+        <v>43397</v>
       </c>
       <c r="N6" s="83">
         <f t="shared" si="0"/>
-        <v>43412</v>
+        <v>43398</v>
       </c>
       <c r="O6" s="83">
         <f t="shared" si="0"/>
-        <v>43413</v>
+        <v>43399</v>
       </c>
       <c r="P6" s="83">
         <f t="shared" si="0"/>
-        <v>43414</v>
+        <v>43400</v>
       </c>
       <c r="Q6" s="92">
         <f t="shared" si="0"/>
-        <v>43415</v>
+        <v>43401</v>
       </c>
       <c r="R6" s="91">
         <f t="shared" si="0"/>
-        <v>43416</v>
+        <v>43402</v>
       </c>
       <c r="S6" s="83">
         <f t="shared" si="0"/>
-        <v>43417</v>
+        <v>43403</v>
       </c>
       <c r="T6" s="83">
         <f t="shared" si="0"/>
-        <v>43418</v>
+        <v>43404</v>
       </c>
       <c r="U6" s="83">
         <f t="shared" si="0"/>
-        <v>43419</v>
+        <v>43405</v>
       </c>
       <c r="V6" s="83">
         <f t="shared" si="0"/>
-        <v>43420</v>
+        <v>43406</v>
       </c>
       <c r="W6" s="83">
         <f t="shared" si="0"/>
-        <v>43421</v>
+        <v>43407</v>
       </c>
       <c r="X6" s="92">
         <f t="shared" si="0"/>
-        <v>43422</v>
+        <v>43408</v>
       </c>
       <c r="Y6" s="91">
         <f t="shared" si="0"/>
-        <v>43423</v>
+        <v>43409</v>
       </c>
       <c r="Z6" s="83">
         <f t="shared" si="0"/>
-        <v>43424</v>
+        <v>43410</v>
       </c>
       <c r="AA6" s="83">
         <f t="shared" si="0"/>
-        <v>43425</v>
+        <v>43411</v>
       </c>
       <c r="AB6" s="83">
         <f t="shared" si="0"/>
-        <v>43426</v>
+        <v>43412</v>
       </c>
       <c r="AC6" s="83">
         <f t="shared" si="0"/>
-        <v>43427</v>
+        <v>43413</v>
       </c>
       <c r="AD6" s="83">
         <f t="shared" si="0"/>
-        <v>43428</v>
+        <v>43414</v>
       </c>
       <c r="AE6" s="92">
         <f t="shared" si="0"/>
-        <v>43429</v>
+        <v>43415</v>
       </c>
       <c r="AF6" s="91">
         <f t="shared" si="0"/>
-        <v>43430</v>
+        <v>43416</v>
       </c>
       <c r="AG6" s="83">
         <f t="shared" si="0"/>
-        <v>43431</v>
+        <v>43417</v>
       </c>
       <c r="AH6" s="83">
         <f t="shared" si="0"/>
-        <v>43432</v>
+        <v>43418</v>
       </c>
       <c r="AI6" s="83">
         <f t="shared" si="0"/>
-        <v>43433</v>
+        <v>43419</v>
       </c>
       <c r="AJ6" s="83">
         <f t="shared" si="0"/>
-        <v>43434</v>
+        <v>43420</v>
       </c>
       <c r="AK6" s="83">
         <f t="shared" si="0"/>
-        <v>43435</v>
+        <v>43421</v>
       </c>
       <c r="AL6" s="92">
         <f t="shared" si="0"/>
-        <v>43436</v>
+        <v>43422</v>
       </c>
       <c r="AM6" s="91">
         <f t="shared" si="0"/>
-        <v>43437</v>
+        <v>43423</v>
       </c>
       <c r="AN6" s="83">
         <f t="shared" si="0"/>
-        <v>43438</v>
+        <v>43424</v>
       </c>
       <c r="AO6" s="83">
         <f t="shared" si="0"/>
-        <v>43439</v>
+        <v>43425</v>
       </c>
       <c r="AP6" s="83">
         <f t="shared" si="0"/>
-        <v>43440</v>
+        <v>43426</v>
       </c>
       <c r="AQ6" s="83">
         <f t="shared" si="0"/>
-        <v>43441</v>
+        <v>43427</v>
       </c>
       <c r="AR6" s="83">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>43442</v>
+        <v>43428</v>
       </c>
       <c r="AS6" s="92">
         <f t="shared" si="1"/>
-        <v>43443</v>
+        <v>43429</v>
       </c>
       <c r="AT6" s="91">
         <f t="shared" si="1"/>
-        <v>43444</v>
+        <v>43430</v>
       </c>
       <c r="AU6" s="83">
         <f t="shared" si="1"/>
-        <v>43445</v>
+        <v>43431</v>
       </c>
       <c r="AV6" s="83">
         <f t="shared" si="1"/>
-        <v>43446</v>
+        <v>43432</v>
       </c>
       <c r="AW6" s="83">
         <f t="shared" si="1"/>
-        <v>43447</v>
+        <v>43433</v>
       </c>
       <c r="AX6" s="83">
         <f t="shared" si="1"/>
-        <v>43448</v>
+        <v>43434</v>
       </c>
       <c r="AY6" s="83">
         <f t="shared" si="1"/>
-        <v>43449</v>
+        <v>43435</v>
       </c>
       <c r="AZ6" s="92">
         <f t="shared" si="1"/>
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="BA6" s="91">
         <f t="shared" si="1"/>
-        <v>43451</v>
+        <v>43437</v>
       </c>
       <c r="BB6" s="83">
         <f t="shared" si="1"/>
-        <v>43452</v>
+        <v>43438</v>
       </c>
       <c r="BC6" s="83">
         <f t="shared" si="1"/>
-        <v>43453</v>
+        <v>43439</v>
       </c>
       <c r="BD6" s="83">
         <f t="shared" si="1"/>
-        <v>43454</v>
+        <v>43440</v>
       </c>
       <c r="BE6" s="83">
         <f t="shared" si="1"/>
-        <v>43455</v>
+        <v>43441</v>
       </c>
       <c r="BF6" s="83">
         <f t="shared" si="1"/>
-        <v>43456</v>
+        <v>43442</v>
       </c>
       <c r="BG6" s="92">
         <f t="shared" si="1"/>
-        <v>43457</v>
+        <v>43443</v>
       </c>
       <c r="BH6" s="91">
         <f t="shared" si="1"/>
-        <v>43458</v>
+        <v>43444</v>
       </c>
       <c r="BI6" s="83">
         <f t="shared" si="1"/>
-        <v>43459</v>
+        <v>43445</v>
       </c>
       <c r="BJ6" s="83">
         <f t="shared" si="1"/>
-        <v>43460</v>
+        <v>43446</v>
       </c>
       <c r="BK6" s="83">
         <f t="shared" si="1"/>
-        <v>43461</v>
+        <v>43447</v>
       </c>
       <c r="BL6" s="83">
         <f t="shared" si="1"/>
-        <v>43462</v>
+        <v>43448</v>
       </c>
       <c r="BM6" s="83">
         <f t="shared" si="1"/>
-        <v>43463</v>
+        <v>43449</v>
       </c>
       <c r="BN6" s="92">
         <f t="shared" si="1"/>
-        <v>43464</v>
+        <v>43450</v>
       </c>
     </row>
     <row r="7" spans="1:66" s="157" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4991,7 +5020,7 @@
       <c r="G8" s="88"/>
       <c r="H8" s="89"/>
       <c r="I8" s="90" t="str">
-        <f t="shared" ref="I8:I65" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I66" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="93"/>
@@ -5304,7 +5333,7 @@
         <v>2.1.1</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="81"/>
       <c r="D12" s="79"/>
@@ -6058,7 +6087,7 @@
         <v>3.1</v>
       </c>
       <c r="B21" s="121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21" s="122"/>
       <c r="E21" s="160">
@@ -6142,7 +6171,7 @@
         <v>3.2</v>
       </c>
       <c r="B22" s="121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="122"/>
       <c r="E22" s="160">
@@ -6226,7 +6255,7 @@
         <v>3.3</v>
       </c>
       <c r="B23" s="121" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="122"/>
       <c r="E23" s="160">
@@ -6388,7 +6417,7 @@
         <v>4.1</v>
       </c>
       <c r="B25" s="121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D25" s="122"/>
       <c r="E25" s="160">
@@ -6472,7 +6501,7 @@
         <v>4.2</v>
       </c>
       <c r="B26" s="121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="122"/>
       <c r="E26" s="160">
@@ -6556,7 +6585,7 @@
         <v>4.3</v>
       </c>
       <c r="B27" s="121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="122"/>
       <c r="E27" s="160">
@@ -6640,7 +6669,7 @@
         <v>4.4</v>
       </c>
       <c r="B28" s="121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="122"/>
       <c r="E28" s="160">
@@ -6724,7 +6753,7 @@
         <v>4.5</v>
       </c>
       <c r="B29" s="121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" s="122"/>
       <c r="E29" s="160">
@@ -6808,7 +6837,7 @@
         <v>4.6</v>
       </c>
       <c r="B30" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D30" s="122"/>
       <c r="E30" s="160">
@@ -6892,7 +6921,7 @@
         <v>4.7</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" s="81"/>
       <c r="D31" s="79"/>
@@ -6977,7 +7006,7 @@
         <v>4.8</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" s="81"/>
       <c r="D32" s="79"/>
@@ -7136,11 +7165,11 @@
     </row>
     <row r="34" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A34" s="60" t="str">
-        <f t="shared" ref="A34:A39" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A34:A38" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.1</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="79"/>
@@ -7225,7 +7254,7 @@
         <v>5.2</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C35" s="81"/>
       <c r="D35" s="79"/>
@@ -7310,7 +7339,7 @@
         <v>5.3</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C36" s="81"/>
       <c r="D36" s="79"/>
@@ -7325,7 +7354,7 @@
         <v>7</v>
       </c>
       <c r="H36" s="63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I36" s="80">
         <f t="shared" si="20"/>
@@ -7395,7 +7424,7 @@
         <v>5.4</v>
       </c>
       <c r="B37" s="81" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C37" s="81"/>
       <c r="D37" s="79"/>
@@ -7403,18 +7432,18 @@
         <v>43430</v>
       </c>
       <c r="F37" s="163">
-        <f t="shared" ref="F37:F39" si="21">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
-        <v>43433</v>
+        <f t="shared" ref="F37:F38" si="21">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
+        <v>43439</v>
       </c>
       <c r="G37" s="62">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H37" s="63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="80">
-        <f t="shared" ref="I37:I39" si="22">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
-        <v>4</v>
+        <f t="shared" ref="I37:I38" si="22">IF(OR(F37=0,E37=0)," - ",NETWORKDAYS(E37,F37))</f>
+        <v>8</v>
       </c>
       <c r="J37" s="98"/>
       <c r="K37" s="105"/>
@@ -7480,7 +7509,7 @@
         <v>5.5</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C38" s="81"/>
       <c r="D38" s="79"/>
@@ -7489,15 +7518,17 @@
       </c>
       <c r="F38" s="163">
         <f t="shared" si="21"/>
-        <v>43439</v>
+        <v>43438</v>
       </c>
       <c r="G38" s="62">
-        <v>10</v>
-      </c>
-      <c r="H38" s="63"/>
+        <v>9</v>
+      </c>
+      <c r="H38" s="63">
+        <v>1</v>
+      </c>
       <c r="I38" s="80">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J38" s="98"/>
       <c r="K38" s="105"/>
@@ -7557,328 +7588,336 @@
       <c r="BM38" s="105"/>
       <c r="BN38" s="105"/>
     </row>
-    <row r="39" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A39" s="60" t="str">
-        <f t="shared" si="18"/>
-        <v>5.6</v>
-      </c>
-      <c r="B39" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="160">
-        <v>43430</v>
-      </c>
-      <c r="F39" s="163">
-        <f t="shared" si="21"/>
-        <v>43438</v>
-      </c>
-      <c r="G39" s="62">
-        <v>9</v>
-      </c>
-      <c r="H39" s="63">
-        <v>0.25</v>
-      </c>
-      <c r="I39" s="80">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="J39" s="98"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="105"/>
-      <c r="T39" s="105"/>
-      <c r="U39" s="105"/>
-      <c r="V39" s="105"/>
-      <c r="W39" s="105"/>
-      <c r="X39" s="105"/>
-      <c r="Y39" s="105"/>
-      <c r="Z39" s="105"/>
-      <c r="AA39" s="105"/>
-      <c r="AB39" s="105"/>
-      <c r="AC39" s="105"/>
-      <c r="AD39" s="105"/>
-      <c r="AE39" s="105"/>
-      <c r="AF39" s="105"/>
-      <c r="AG39" s="105"/>
-      <c r="AH39" s="105"/>
-      <c r="AI39" s="105"/>
-      <c r="AJ39" s="105"/>
-      <c r="AK39" s="105"/>
-      <c r="AL39" s="105"/>
-      <c r="AM39" s="105"/>
-      <c r="AN39" s="105"/>
-      <c r="AO39" s="105"/>
-      <c r="AP39" s="105"/>
-      <c r="AQ39" s="105"/>
-      <c r="AR39" s="105"/>
-      <c r="AS39" s="105"/>
-      <c r="AT39" s="105"/>
-      <c r="AU39" s="105"/>
-      <c r="AV39" s="105"/>
-      <c r="AW39" s="105"/>
-      <c r="AX39" s="105"/>
-      <c r="AY39" s="105"/>
-      <c r="AZ39" s="105"/>
-      <c r="BA39" s="105"/>
-      <c r="BB39" s="105"/>
-      <c r="BC39" s="105"/>
-      <c r="BD39" s="105"/>
-      <c r="BE39" s="105"/>
-      <c r="BF39" s="105"/>
-      <c r="BG39" s="105"/>
-      <c r="BH39" s="105"/>
-      <c r="BI39" s="105"/>
-      <c r="BJ39" s="105"/>
-      <c r="BK39" s="105"/>
-      <c r="BL39" s="105"/>
-      <c r="BM39" s="105"/>
-      <c r="BN39" s="105"/>
-    </row>
-    <row r="40" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A40" s="53" t="str">
+    <row r="39" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A39" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>6</v>
       </c>
-      <c r="B40" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161" t="str">
-        <f t="shared" ref="F40:F41" si="23">IF(ISBLANK(E40)," - ",IF(G40=0,E40,E40+G40-1))</f>
+      <c r="B39" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="56"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161" t="str">
+        <f t="shared" ref="F39:F40" si="23">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="59" t="str">
-        <f t="shared" ref="I40:I41" si="24">IF(OR(F40=0,E40=0)," - ",NETWORKDAYS(E40,F40))</f>
+      <c r="G39" s="57"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59" t="str">
+        <f t="shared" ref="I39:I40" si="24">IF(OR(F39=0,E39=0)," - ",NETWORKDAYS(E39,F39))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J40" s="95"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
-      <c r="O40" s="106"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="106"/>
-      <c r="S40" s="106"/>
-      <c r="T40" s="106"/>
-      <c r="U40" s="106"/>
-      <c r="V40" s="106"/>
-      <c r="W40" s="106"/>
-      <c r="X40" s="106"/>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="106"/>
-      <c r="AA40" s="106"/>
-      <c r="AB40" s="106"/>
-      <c r="AC40" s="106"/>
-      <c r="AD40" s="106"/>
-      <c r="AE40" s="106"/>
-      <c r="AF40" s="106"/>
-      <c r="AG40" s="106"/>
-      <c r="AH40" s="106"/>
-      <c r="AI40" s="106"/>
-      <c r="AJ40" s="106"/>
-      <c r="AK40" s="106"/>
-      <c r="AL40" s="106"/>
-      <c r="AM40" s="106"/>
-      <c r="AN40" s="106"/>
-      <c r="AO40" s="106"/>
-      <c r="AP40" s="106"/>
-      <c r="AQ40" s="106"/>
-      <c r="AR40" s="106"/>
-      <c r="AS40" s="106"/>
-      <c r="AT40" s="106"/>
-      <c r="AU40" s="106"/>
-      <c r="AV40" s="106"/>
-      <c r="AW40" s="106"/>
-      <c r="AX40" s="106"/>
-      <c r="AY40" s="106"/>
-      <c r="AZ40" s="106"/>
-      <c r="BA40" s="106"/>
-      <c r="BB40" s="106"/>
-      <c r="BC40" s="106"/>
-      <c r="BD40" s="106"/>
-      <c r="BE40" s="106"/>
-      <c r="BF40" s="106"/>
-      <c r="BG40" s="106"/>
-      <c r="BH40" s="106"/>
-      <c r="BI40" s="106"/>
-      <c r="BJ40" s="106"/>
-      <c r="BK40" s="106"/>
-      <c r="BL40" s="106"/>
-      <c r="BM40" s="106"/>
-      <c r="BN40" s="106"/>
-    </row>
-    <row r="41" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A41" s="60" t="str">
+      <c r="J39" s="95"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="106"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="106"/>
+      <c r="R39" s="106"/>
+      <c r="S39" s="106"/>
+      <c r="T39" s="106"/>
+      <c r="U39" s="106"/>
+      <c r="V39" s="106"/>
+      <c r="W39" s="106"/>
+      <c r="X39" s="106"/>
+      <c r="Y39" s="106"/>
+      <c r="Z39" s="106"/>
+      <c r="AA39" s="106"/>
+      <c r="AB39" s="106"/>
+      <c r="AC39" s="106"/>
+      <c r="AD39" s="106"/>
+      <c r="AE39" s="106"/>
+      <c r="AF39" s="106"/>
+      <c r="AG39" s="106"/>
+      <c r="AH39" s="106"/>
+      <c r="AI39" s="106"/>
+      <c r="AJ39" s="106"/>
+      <c r="AK39" s="106"/>
+      <c r="AL39" s="106"/>
+      <c r="AM39" s="106"/>
+      <c r="AN39" s="106"/>
+      <c r="AO39" s="106"/>
+      <c r="AP39" s="106"/>
+      <c r="AQ39" s="106"/>
+      <c r="AR39" s="106"/>
+      <c r="AS39" s="106"/>
+      <c r="AT39" s="106"/>
+      <c r="AU39" s="106"/>
+      <c r="AV39" s="106"/>
+      <c r="AW39" s="106"/>
+      <c r="AX39" s="106"/>
+      <c r="AY39" s="106"/>
+      <c r="AZ39" s="106"/>
+      <c r="BA39" s="106"/>
+      <c r="BB39" s="106"/>
+      <c r="BC39" s="106"/>
+      <c r="BD39" s="106"/>
+      <c r="BE39" s="106"/>
+      <c r="BF39" s="106"/>
+      <c r="BG39" s="106"/>
+      <c r="BH39" s="106"/>
+      <c r="BI39" s="106"/>
+      <c r="BJ39" s="106"/>
+      <c r="BK39" s="106"/>
+      <c r="BL39" s="106"/>
+      <c r="BM39" s="106"/>
+      <c r="BN39" s="106"/>
+    </row>
+    <row r="40" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A40" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>6.1</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="163" t="str">
+      <c r="B40" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="81"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="160">
+        <v>43381</v>
+      </c>
+      <c r="F40" s="163">
         <f t="shared" si="23"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G41" s="62"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="80" t="str">
+        <v>43381</v>
+      </c>
+      <c r="G40" s="62">
+        <v>1</v>
+      </c>
+      <c r="H40" s="63">
+        <v>1</v>
+      </c>
+      <c r="I40" s="80">
         <f t="shared" si="24"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J41" s="98"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="105"/>
-      <c r="R41" s="105"/>
-      <c r="S41" s="105"/>
-      <c r="T41" s="105"/>
-      <c r="U41" s="105"/>
-      <c r="V41" s="105"/>
-      <c r="W41" s="105"/>
-      <c r="X41" s="105"/>
-      <c r="Y41" s="105"/>
-      <c r="Z41" s="105"/>
-      <c r="AA41" s="105"/>
-      <c r="AB41" s="105"/>
-      <c r="AC41" s="105"/>
-      <c r="AD41" s="105"/>
-      <c r="AE41" s="105"/>
-      <c r="AF41" s="105"/>
-      <c r="AG41" s="105"/>
-      <c r="AH41" s="105"/>
-      <c r="AI41" s="105"/>
-      <c r="AJ41" s="105"/>
-      <c r="AK41" s="105"/>
-      <c r="AL41" s="105"/>
-      <c r="AM41" s="105"/>
-      <c r="AN41" s="105"/>
-      <c r="AO41" s="105"/>
-      <c r="AP41" s="105"/>
-      <c r="AQ41" s="105"/>
-      <c r="AR41" s="105"/>
-      <c r="AS41" s="105"/>
-      <c r="AT41" s="105"/>
-      <c r="AU41" s="105"/>
-      <c r="AV41" s="105"/>
-      <c r="AW41" s="105"/>
-      <c r="AX41" s="105"/>
-      <c r="AY41" s="105"/>
-      <c r="AZ41" s="105"/>
-      <c r="BA41" s="105"/>
-      <c r="BB41" s="105"/>
-      <c r="BC41" s="105"/>
-      <c r="BD41" s="105"/>
-      <c r="BE41" s="105"/>
-      <c r="BF41" s="105"/>
-      <c r="BG41" s="105"/>
-      <c r="BH41" s="105"/>
-      <c r="BI41" s="105"/>
-      <c r="BJ41" s="105"/>
-      <c r="BK41" s="105"/>
-      <c r="BL41" s="105"/>
-      <c r="BM41" s="105"/>
-      <c r="BN41" s="105"/>
-    </row>
-    <row r="42" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A42" s="53" t="str">
+        <v>1</v>
+      </c>
+      <c r="J40" s="98"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="105"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="105"/>
+      <c r="V40" s="105"/>
+      <c r="W40" s="105"/>
+      <c r="X40" s="105"/>
+      <c r="Y40" s="105"/>
+      <c r="Z40" s="105"/>
+      <c r="AA40" s="105"/>
+      <c r="AB40" s="105"/>
+      <c r="AC40" s="105"/>
+      <c r="AD40" s="105"/>
+      <c r="AE40" s="105"/>
+      <c r="AF40" s="105"/>
+      <c r="AG40" s="105"/>
+      <c r="AH40" s="105"/>
+      <c r="AI40" s="105"/>
+      <c r="AJ40" s="105"/>
+      <c r="AK40" s="105"/>
+      <c r="AL40" s="105"/>
+      <c r="AM40" s="105"/>
+      <c r="AN40" s="105"/>
+      <c r="AO40" s="105"/>
+      <c r="AP40" s="105"/>
+      <c r="AQ40" s="105"/>
+      <c r="AR40" s="105"/>
+      <c r="AS40" s="105"/>
+      <c r="AT40" s="105"/>
+      <c r="AU40" s="105"/>
+      <c r="AV40" s="105"/>
+      <c r="AW40" s="105"/>
+      <c r="AX40" s="105"/>
+      <c r="AY40" s="105"/>
+      <c r="AZ40" s="105"/>
+      <c r="BA40" s="105"/>
+      <c r="BB40" s="105"/>
+      <c r="BC40" s="105"/>
+      <c r="BD40" s="105"/>
+      <c r="BE40" s="105"/>
+      <c r="BF40" s="105"/>
+      <c r="BG40" s="105"/>
+      <c r="BH40" s="105"/>
+      <c r="BI40" s="105"/>
+      <c r="BJ40" s="105"/>
+      <c r="BK40" s="105"/>
+      <c r="BL40" s="105"/>
+      <c r="BM40" s="105"/>
+      <c r="BN40" s="105"/>
+    </row>
+    <row r="41" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A41" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>7</v>
       </c>
-      <c r="B42" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161" t="str">
-        <f t="shared" ref="F42:F43" si="25">IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
+      <c r="B41" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="56"/>
+      <c r="E41" s="161"/>
+      <c r="F41" s="161" t="str">
+        <f t="shared" ref="F41:F42" si="25">IF(ISBLANK(E41)," - ",IF(G41=0,E41,E41+G41-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G42" s="57"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="59" t="str">
-        <f t="shared" ref="I42:I43" si="26">IF(OR(F42=0,E42=0)," - ",NETWORKDAYS(E42,F42))</f>
+      <c r="G41" s="57"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59" t="str">
+        <f t="shared" ref="I41:I42" si="26">IF(OR(F41=0,E41=0)," - ",NETWORKDAYS(E41,F41))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J42" s="95"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="106"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="106"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="106"/>
-      <c r="W42" s="106"/>
-      <c r="X42" s="106"/>
-      <c r="Y42" s="106"/>
-      <c r="Z42" s="106"/>
-      <c r="AA42" s="106"/>
-      <c r="AB42" s="106"/>
-      <c r="AC42" s="106"/>
-      <c r="AD42" s="106"/>
-      <c r="AE42" s="106"/>
-      <c r="AF42" s="106"/>
-      <c r="AG42" s="106"/>
-      <c r="AH42" s="106"/>
-      <c r="AI42" s="106"/>
-      <c r="AJ42" s="106"/>
-      <c r="AK42" s="106"/>
-      <c r="AL42" s="106"/>
-      <c r="AM42" s="106"/>
-      <c r="AN42" s="106"/>
-      <c r="AO42" s="106"/>
-      <c r="AP42" s="106"/>
-      <c r="AQ42" s="106"/>
-      <c r="AR42" s="106"/>
-      <c r="AS42" s="106"/>
-      <c r="AT42" s="106"/>
-      <c r="AU42" s="106"/>
-      <c r="AV42" s="106"/>
-      <c r="AW42" s="106"/>
-      <c r="AX42" s="106"/>
-      <c r="AY42" s="106"/>
-      <c r="AZ42" s="106"/>
-      <c r="BA42" s="106"/>
-      <c r="BB42" s="106"/>
-      <c r="BC42" s="106"/>
-      <c r="BD42" s="106"/>
-      <c r="BE42" s="106"/>
-      <c r="BF42" s="106"/>
-      <c r="BG42" s="106"/>
-      <c r="BH42" s="106"/>
-      <c r="BI42" s="106"/>
-      <c r="BJ42" s="106"/>
-      <c r="BK42" s="106"/>
-      <c r="BL42" s="106"/>
-      <c r="BM42" s="106"/>
-      <c r="BN42" s="106"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="106"/>
+      <c r="M41" s="106"/>
+      <c r="N41" s="106"/>
+      <c r="O41" s="106"/>
+      <c r="P41" s="106"/>
+      <c r="Q41" s="106"/>
+      <c r="R41" s="106"/>
+      <c r="S41" s="106"/>
+      <c r="T41" s="106"/>
+      <c r="U41" s="106"/>
+      <c r="V41" s="106"/>
+      <c r="W41" s="106"/>
+      <c r="X41" s="106"/>
+      <c r="Y41" s="106"/>
+      <c r="Z41" s="106"/>
+      <c r="AA41" s="106"/>
+      <c r="AB41" s="106"/>
+      <c r="AC41" s="106"/>
+      <c r="AD41" s="106"/>
+      <c r="AE41" s="106"/>
+      <c r="AF41" s="106"/>
+      <c r="AG41" s="106"/>
+      <c r="AH41" s="106"/>
+      <c r="AI41" s="106"/>
+      <c r="AJ41" s="106"/>
+      <c r="AK41" s="106"/>
+      <c r="AL41" s="106"/>
+      <c r="AM41" s="106"/>
+      <c r="AN41" s="106"/>
+      <c r="AO41" s="106"/>
+      <c r="AP41" s="106"/>
+      <c r="AQ41" s="106"/>
+      <c r="AR41" s="106"/>
+      <c r="AS41" s="106"/>
+      <c r="AT41" s="106"/>
+      <c r="AU41" s="106"/>
+      <c r="AV41" s="106"/>
+      <c r="AW41" s="106"/>
+      <c r="AX41" s="106"/>
+      <c r="AY41" s="106"/>
+      <c r="AZ41" s="106"/>
+      <c r="BA41" s="106"/>
+      <c r="BB41" s="106"/>
+      <c r="BC41" s="106"/>
+      <c r="BD41" s="106"/>
+      <c r="BE41" s="106"/>
+      <c r="BF41" s="106"/>
+      <c r="BG41" s="106"/>
+      <c r="BH41" s="106"/>
+      <c r="BI41" s="106"/>
+      <c r="BJ41" s="106"/>
+      <c r="BK41" s="106"/>
+      <c r="BL41" s="106"/>
+      <c r="BM41" s="106"/>
+      <c r="BN41" s="106"/>
+    </row>
+    <row r="42" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A42" s="60" t="str">
+        <f t="shared" ref="A42:A52" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.1</v>
+      </c>
+      <c r="B42" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="81"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="160">
+        <v>43381</v>
+      </c>
+      <c r="F42" s="163">
+        <f t="shared" si="25"/>
+        <v>43384</v>
+      </c>
+      <c r="G42" s="62">
+        <v>4</v>
+      </c>
+      <c r="H42" s="63">
+        <v>1</v>
+      </c>
+      <c r="I42" s="80">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="J42" s="98"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="105"/>
+      <c r="S42" s="105"/>
+      <c r="T42" s="105"/>
+      <c r="U42" s="105"/>
+      <c r="V42" s="105"/>
+      <c r="W42" s="105"/>
+      <c r="X42" s="105"/>
+      <c r="Y42" s="105"/>
+      <c r="Z42" s="105"/>
+      <c r="AA42" s="105"/>
+      <c r="AB42" s="105"/>
+      <c r="AC42" s="105"/>
+      <c r="AD42" s="105"/>
+      <c r="AE42" s="105"/>
+      <c r="AF42" s="105"/>
+      <c r="AG42" s="105"/>
+      <c r="AH42" s="105"/>
+      <c r="AI42" s="105"/>
+      <c r="AJ42" s="105"/>
+      <c r="AK42" s="105"/>
+      <c r="AL42" s="105"/>
+      <c r="AM42" s="105"/>
+      <c r="AN42" s="105"/>
+      <c r="AO42" s="105"/>
+      <c r="AP42" s="105"/>
+      <c r="AQ42" s="105"/>
+      <c r="AR42" s="105"/>
+      <c r="AS42" s="105"/>
+      <c r="AT42" s="105"/>
+      <c r="AU42" s="105"/>
+      <c r="AV42" s="105"/>
+      <c r="AW42" s="105"/>
+      <c r="AX42" s="105"/>
+      <c r="AY42" s="105"/>
+      <c r="AZ42" s="105"/>
+      <c r="BA42" s="105"/>
+      <c r="BB42" s="105"/>
+      <c r="BC42" s="105"/>
+      <c r="BD42" s="105"/>
+      <c r="BE42" s="105"/>
+      <c r="BF42" s="105"/>
+      <c r="BG42" s="105"/>
+      <c r="BH42" s="105"/>
+      <c r="BI42" s="105"/>
+      <c r="BJ42" s="105"/>
+      <c r="BK42" s="105"/>
+      <c r="BL42" s="105"/>
+      <c r="BM42" s="105"/>
+      <c r="BN42" s="105"/>
     </row>
     <row r="43" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A43" s="60" t="str">
-        <f t="shared" ref="A43:A53" si="27">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.1</v>
+        <f t="shared" si="27"/>
+        <v>7.2</v>
       </c>
       <c r="B43" s="81" t="s">
         <v>169</v>
@@ -7886,11 +7925,11 @@
       <c r="C43" s="81"/>
       <c r="D43" s="79"/>
       <c r="E43" s="160">
-        <v>43381</v>
+        <v>43388</v>
       </c>
       <c r="F43" s="163">
-        <f t="shared" si="25"/>
-        <v>43384</v>
+        <f t="shared" ref="F43:F63" si="28">IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
+        <v>43391</v>
       </c>
       <c r="G43" s="62">
         <v>4</v>
@@ -7899,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="80">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="I43:I63" si="29">IF(OR(F43=0,E43=0)," - ",NETWORKDAYS(E43,F43))</f>
         <v>4</v>
       </c>
       <c r="J43" s="98"/>
@@ -7963,7 +8002,7 @@
     <row r="44" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A44" s="60" t="str">
         <f t="shared" si="27"/>
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="B44" s="81" t="s">
         <v>170</v>
@@ -7974,17 +8013,15 @@
         <v>43388</v>
       </c>
       <c r="F44" s="163">
-        <f t="shared" ref="F44:F62" si="28">IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
+        <f t="shared" si="28"/>
         <v>43391</v>
       </c>
       <c r="G44" s="62">
         <v>4</v>
       </c>
-      <c r="H44" s="63">
-        <v>1</v>
-      </c>
+      <c r="H44" s="63"/>
       <c r="I44" s="80">
-        <f t="shared" ref="I44:I62" si="29">IF(OR(F44=0,E44=0)," - ",NETWORKDAYS(E44,F44))</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="J44" s="98"/>
@@ -8048,7 +8085,7 @@
     <row r="45" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A45" s="60" t="str">
         <f t="shared" si="27"/>
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="B45" s="81" t="s">
         <v>171</v>
@@ -8056,19 +8093,21 @@
       <c r="C45" s="81"/>
       <c r="D45" s="79"/>
       <c r="E45" s="160">
-        <v>43388</v>
+        <v>43423</v>
       </c>
       <c r="F45" s="163">
         <f t="shared" si="28"/>
-        <v>43391</v>
+        <v>43429</v>
       </c>
       <c r="G45" s="62">
-        <v>4</v>
-      </c>
-      <c r="H45" s="63"/>
+        <v>7</v>
+      </c>
+      <c r="H45" s="63">
+        <v>1</v>
+      </c>
       <c r="I45" s="80">
         <f t="shared" si="29"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J45" s="98"/>
       <c r="K45" s="105"/>
@@ -8131,19 +8170,19 @@
     <row r="46" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A46" s="60" t="str">
         <f t="shared" si="27"/>
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="B46" s="81" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C46" s="81"/>
       <c r="D46" s="79"/>
       <c r="E46" s="160">
-        <v>43423</v>
+        <v>43430</v>
       </c>
       <c r="F46" s="163">
         <f t="shared" si="28"/>
-        <v>43429</v>
+        <v>43436</v>
       </c>
       <c r="G46" s="62">
         <v>7</v>
@@ -8216,28 +8255,28 @@
     <row r="47" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A47" s="60" t="str">
         <f t="shared" si="27"/>
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="B47" s="81" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C47" s="81"/>
       <c r="D47" s="79"/>
       <c r="E47" s="160">
-        <v>43430</v>
+        <v>43423</v>
       </c>
       <c r="F47" s="163">
-        <f t="shared" si="28"/>
-        <v>43436</v>
+        <f t="shared" ref="F47:F51" si="30">IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
+        <v>43429</v>
       </c>
       <c r="G47" s="62">
         <v>7</v>
       </c>
       <c r="H47" s="63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I47" s="80">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="I47:I51" si="31">IF(OR(F47=0,E47=0)," - ",NETWORKDAYS(E47,F47))</f>
         <v>5</v>
       </c>
       <c r="J47" s="98"/>
@@ -8301,28 +8340,28 @@
     <row r="48" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A48" s="60" t="str">
         <f t="shared" si="27"/>
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="B48" s="81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C48" s="81"/>
       <c r="D48" s="79"/>
       <c r="E48" s="160">
-        <v>43423</v>
+        <v>43437</v>
       </c>
       <c r="F48" s="163">
-        <f t="shared" ref="F48:F52" si="30">IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
-        <v>43429</v>
+        <f>IF(ISBLANK(E48)," - ",IF(G48=0,E48,E48+G48-1))</f>
+        <v>43442</v>
       </c>
       <c r="G48" s="62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H48" s="63">
         <v>1</v>
       </c>
       <c r="I48" s="80">
-        <f t="shared" ref="I48:I52" si="31">IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
+        <f>IF(OR(F48=0,E48=0)," - ",NETWORKDAYS(E48,F48))</f>
         <v>5</v>
       </c>
       <c r="J48" s="98"/>
@@ -8386,10 +8425,10 @@
     <row r="49" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A49" s="60" t="str">
         <f t="shared" si="27"/>
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="B49" s="81" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C49" s="81"/>
       <c r="D49" s="79"/>
@@ -8404,7 +8443,7 @@
         <v>6</v>
       </c>
       <c r="H49" s="63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I49" s="80">
         <f>IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
@@ -8471,27 +8510,29 @@
     <row r="50" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A50" s="60" t="str">
         <f t="shared" si="27"/>
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="B50" s="81" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C50" s="81"/>
       <c r="D50" s="79"/>
       <c r="E50" s="160">
-        <v>43437</v>
+        <v>43388</v>
       </c>
       <c r="F50" s="163">
-        <f>IF(ISBLANK(E50)," - ",IF(G50=0,E50,E50+G50-1))</f>
-        <v>43442</v>
+        <f t="shared" si="30"/>
+        <v>43391</v>
       </c>
       <c r="G50" s="62">
-        <v>6</v>
-      </c>
-      <c r="H50" s="63"/>
+        <v>4</v>
+      </c>
+      <c r="H50" s="63">
+        <v>1</v>
+      </c>
       <c r="I50" s="80">
-        <f>IF(OR(F50=0,E50=0)," - ",NETWORKDAYS(E50,F50))</f>
-        <v>5</v>
+        <f t="shared" si="31"/>
+        <v>4</v>
       </c>
       <c r="J50" s="98"/>
       <c r="K50" s="105"/>
@@ -8554,29 +8595,27 @@
     <row r="51" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A51" s="60" t="str">
         <f t="shared" si="27"/>
-        <v>7.9</v>
+        <v>7.10</v>
       </c>
       <c r="B51" s="81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C51" s="81"/>
       <c r="D51" s="79"/>
       <c r="E51" s="160">
-        <v>43388</v>
+        <v>43437</v>
       </c>
       <c r="F51" s="163">
         <f t="shared" si="30"/>
-        <v>43391</v>
+        <v>43442</v>
       </c>
       <c r="G51" s="62">
-        <v>4</v>
-      </c>
-      <c r="H51" s="63">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H51" s="63"/>
       <c r="I51" s="80">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J51" s="98"/>
       <c r="K51" s="105"/>
@@ -8639,10 +8678,10 @@
     <row r="52" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A52" s="60" t="str">
         <f t="shared" si="27"/>
-        <v>7.10</v>
+        <v>7.11</v>
       </c>
       <c r="B52" s="81" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C52" s="81"/>
       <c r="D52" s="79"/>
@@ -8650,15 +8689,17 @@
         <v>43437</v>
       </c>
       <c r="F52" s="163">
-        <f t="shared" si="30"/>
+        <f>IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
         <v>43442</v>
       </c>
       <c r="G52" s="62">
         <v>6</v>
       </c>
-      <c r="H52" s="63"/>
+      <c r="H52" s="63">
+        <v>1</v>
+      </c>
       <c r="I52" s="80">
-        <f t="shared" si="31"/>
+        <f>IF(OR(F52=0,E52=0)," - ",NETWORKDAYS(E52,F52))</f>
         <v>5</v>
       </c>
       <c r="J52" s="98"/>
@@ -8721,30 +8762,28 @@
     </row>
     <row r="53" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A53" s="60" t="str">
-        <f t="shared" si="27"/>
-        <v>7.11</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>7.12</v>
       </c>
       <c r="B53" s="81" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C53" s="81"/>
       <c r="D53" s="79"/>
       <c r="E53" s="160">
-        <v>43437</v>
+        <v>43446</v>
       </c>
       <c r="F53" s="163">
         <f>IF(ISBLANK(E53)," - ",IF(G53=0,E53,E53+G53-1))</f>
-        <v>43442</v>
+        <v>43446</v>
       </c>
       <c r="G53" s="62">
-        <v>6</v>
-      </c>
-      <c r="H53" s="63">
         <v>1</v>
       </c>
+      <c r="H53" s="63"/>
       <c r="I53" s="80">
         <f>IF(OR(F53=0,E53=0)," - ",NETWORKDAYS(E53,F53))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J53" s="98"/>
       <c r="K53" s="105"/>
@@ -8804,878 +8843,886 @@
       <c r="BM53" s="105"/>
       <c r="BN53" s="105"/>
     </row>
-    <row r="54" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A54" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>7.12</v>
-      </c>
-      <c r="B54" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="81"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="160">
-        <v>43446</v>
-      </c>
-      <c r="F54" s="163">
-        <f>IF(ISBLANK(E54)," - ",IF(G54=0,E54,E54+G54-1))</f>
-        <v>43446</v>
-      </c>
-      <c r="G54" s="62">
-        <v>1</v>
-      </c>
-      <c r="H54" s="63"/>
-      <c r="I54" s="80">
-        <f>IF(OR(F54=0,E54=0)," - ",NETWORKDAYS(E54,F54))</f>
-        <v>1</v>
-      </c>
-      <c r="J54" s="98"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="105"/>
-      <c r="N54" s="105"/>
-      <c r="O54" s="105"/>
-      <c r="P54" s="105"/>
-      <c r="Q54" s="105"/>
-      <c r="R54" s="105"/>
-      <c r="S54" s="105"/>
-      <c r="T54" s="105"/>
-      <c r="U54" s="105"/>
-      <c r="V54" s="105"/>
-      <c r="W54" s="105"/>
-      <c r="X54" s="105"/>
-      <c r="Y54" s="105"/>
-      <c r="Z54" s="105"/>
-      <c r="AA54" s="105"/>
-      <c r="AB54" s="105"/>
-      <c r="AC54" s="105"/>
-      <c r="AD54" s="105"/>
-      <c r="AE54" s="105"/>
-      <c r="AF54" s="105"/>
-      <c r="AG54" s="105"/>
-      <c r="AH54" s="105"/>
-      <c r="AI54" s="105"/>
-      <c r="AJ54" s="105"/>
-      <c r="AK54" s="105"/>
-      <c r="AL54" s="105"/>
-      <c r="AM54" s="105"/>
-      <c r="AN54" s="105"/>
-      <c r="AO54" s="105"/>
-      <c r="AP54" s="105"/>
-      <c r="AQ54" s="105"/>
-      <c r="AR54" s="105"/>
-      <c r="AS54" s="105"/>
-      <c r="AT54" s="105"/>
-      <c r="AU54" s="105"/>
-      <c r="AV54" s="105"/>
-      <c r="AW54" s="105"/>
-      <c r="AX54" s="105"/>
-      <c r="AY54" s="105"/>
-      <c r="AZ54" s="105"/>
-      <c r="BA54" s="105"/>
-      <c r="BB54" s="105"/>
-      <c r="BC54" s="105"/>
-      <c r="BD54" s="105"/>
-      <c r="BE54" s="105"/>
-      <c r="BF54" s="105"/>
-      <c r="BG54" s="105"/>
-      <c r="BH54" s="105"/>
-      <c r="BI54" s="105"/>
-      <c r="BJ54" s="105"/>
-      <c r="BK54" s="105"/>
-      <c r="BL54" s="105"/>
-      <c r="BM54" s="105"/>
-      <c r="BN54" s="105"/>
-    </row>
-    <row r="55" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A55" s="53" t="str">
+    <row r="54" spans="1:66" s="182" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A54" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>8</v>
       </c>
-      <c r="B55" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="161" t="str">
-        <f>IF(ISBLANK(E55)," - ",IF(G55=0,E55,E55+G55-1))</f>
+      <c r="B54" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="175"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="178" t="str">
+        <f t="shared" ref="F54:F55" si="32">IF(ISBLANK(E54)," - ",IF(G54=0,E54,E54+G54-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G55" s="57"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="59" t="str">
-        <f>IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
+      <c r="G54" s="179"/>
+      <c r="H54" s="180"/>
+      <c r="I54" s="179" t="str">
+        <f>IF(OR(F54=0,E54=0)," - ",NETWORKDAYS(E54,F54))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J55" s="95"/>
-      <c r="K55" s="106"/>
-      <c r="L55" s="106"/>
-      <c r="M55" s="106"/>
-      <c r="N55" s="106"/>
-      <c r="O55" s="106"/>
-      <c r="P55" s="106"/>
-      <c r="Q55" s="106"/>
-      <c r="R55" s="106"/>
-      <c r="S55" s="106"/>
-      <c r="T55" s="106"/>
-      <c r="U55" s="106"/>
-      <c r="V55" s="106"/>
-      <c r="W55" s="106"/>
-      <c r="X55" s="106"/>
-      <c r="Y55" s="106"/>
-      <c r="Z55" s="106"/>
-      <c r="AA55" s="106"/>
-      <c r="AB55" s="106"/>
-      <c r="AC55" s="106"/>
-      <c r="AD55" s="106"/>
-      <c r="AE55" s="106"/>
-      <c r="AF55" s="106"/>
-      <c r="AG55" s="106"/>
-      <c r="AH55" s="106"/>
-      <c r="AI55" s="106"/>
-      <c r="AJ55" s="106"/>
-      <c r="AK55" s="106"/>
-      <c r="AL55" s="106"/>
-      <c r="AM55" s="106"/>
-      <c r="AN55" s="106"/>
-      <c r="AO55" s="106"/>
-      <c r="AP55" s="106"/>
-      <c r="AQ55" s="106"/>
-      <c r="AR55" s="106"/>
-      <c r="AS55" s="106"/>
-      <c r="AT55" s="106"/>
-      <c r="AU55" s="106"/>
-      <c r="AV55" s="106"/>
-      <c r="AW55" s="106"/>
-      <c r="AX55" s="106"/>
-      <c r="AY55" s="106"/>
-      <c r="AZ55" s="106"/>
-      <c r="BA55" s="106"/>
-      <c r="BB55" s="106"/>
-      <c r="BC55" s="106"/>
-      <c r="BD55" s="106"/>
-      <c r="BE55" s="106"/>
-      <c r="BF55" s="106"/>
-      <c r="BG55" s="106"/>
-      <c r="BH55" s="106"/>
-      <c r="BI55" s="106"/>
-      <c r="BJ55" s="106"/>
-      <c r="BK55" s="106"/>
-      <c r="BL55" s="106"/>
-      <c r="BM55" s="106"/>
-      <c r="BN55" s="106"/>
-    </row>
-    <row r="56" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A56" s="60" t="str">
+      <c r="J54" s="181"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="106"/>
+      <c r="O54" s="106"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="106"/>
+      <c r="R54" s="106"/>
+      <c r="S54" s="106"/>
+      <c r="T54" s="106"/>
+      <c r="U54" s="106"/>
+      <c r="V54" s="106"/>
+      <c r="W54" s="106"/>
+      <c r="X54" s="106"/>
+      <c r="Y54" s="106"/>
+      <c r="Z54" s="106"/>
+      <c r="AA54" s="106"/>
+      <c r="AB54" s="106"/>
+      <c r="AC54" s="106"/>
+      <c r="AD54" s="106"/>
+      <c r="AE54" s="106"/>
+      <c r="AF54" s="106"/>
+      <c r="AG54" s="106"/>
+      <c r="AH54" s="106"/>
+      <c r="AI54" s="106"/>
+      <c r="AJ54" s="106"/>
+      <c r="AK54" s="106"/>
+      <c r="AL54" s="106"/>
+      <c r="AM54" s="106"/>
+      <c r="AN54" s="106"/>
+      <c r="AO54" s="106"/>
+      <c r="AP54" s="106"/>
+      <c r="AQ54" s="106"/>
+      <c r="AR54" s="106"/>
+      <c r="AS54" s="106"/>
+      <c r="AT54" s="106"/>
+      <c r="AU54" s="106"/>
+      <c r="AV54" s="106"/>
+      <c r="AW54" s="106"/>
+      <c r="AX54" s="106"/>
+      <c r="AY54" s="106"/>
+      <c r="AZ54" s="106"/>
+      <c r="BA54" s="106"/>
+      <c r="BB54" s="106"/>
+      <c r="BC54" s="106"/>
+      <c r="BD54" s="106"/>
+      <c r="BE54" s="106"/>
+      <c r="BF54" s="106"/>
+      <c r="BG54" s="106"/>
+      <c r="BH54" s="106"/>
+      <c r="BI54" s="106"/>
+      <c r="BJ54" s="106"/>
+      <c r="BK54" s="106"/>
+      <c r="BL54" s="106"/>
+      <c r="BM54" s="106"/>
+      <c r="BN54" s="106"/>
+    </row>
+    <row r="55" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A55" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>8.1</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="163" t="str">
+      <c r="B55" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" s="81"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="99">
+        <v>43437</v>
+      </c>
+      <c r="F55" s="100">
+        <f t="shared" si="32"/>
+        <v>43443</v>
+      </c>
+      <c r="G55" s="62">
+        <v>7</v>
+      </c>
+      <c r="H55" s="63"/>
+      <c r="I55" s="80">
+        <f t="shared" ref="I55" si="33">IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
+        <v>5</v>
+      </c>
+      <c r="J55" s="98"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="105"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
+      <c r="P55" s="105"/>
+      <c r="Q55" s="105"/>
+      <c r="R55" s="105"/>
+      <c r="S55" s="105"/>
+      <c r="T55" s="105"/>
+      <c r="U55" s="105"/>
+      <c r="V55" s="105"/>
+      <c r="W55" s="105"/>
+      <c r="X55" s="105"/>
+      <c r="Y55" s="105"/>
+      <c r="Z55" s="105"/>
+      <c r="AA55" s="105"/>
+      <c r="AB55" s="105"/>
+      <c r="AC55" s="105"/>
+      <c r="AD55" s="105"/>
+      <c r="AE55" s="105"/>
+      <c r="AF55" s="105"/>
+      <c r="AG55" s="105"/>
+      <c r="AH55" s="105"/>
+      <c r="AI55" s="105"/>
+      <c r="AJ55" s="105"/>
+      <c r="AK55" s="105"/>
+      <c r="AL55" s="105"/>
+      <c r="AM55" s="105"/>
+      <c r="AN55" s="105"/>
+      <c r="AO55" s="105"/>
+      <c r="AP55" s="105"/>
+      <c r="AQ55" s="105"/>
+      <c r="AR55" s="105"/>
+      <c r="AS55" s="105"/>
+      <c r="AT55" s="105"/>
+      <c r="AU55" s="105"/>
+      <c r="AV55" s="105"/>
+      <c r="AW55" s="105"/>
+      <c r="AX55" s="105"/>
+      <c r="AY55" s="105"/>
+      <c r="AZ55" s="105"/>
+      <c r="BA55" s="105"/>
+      <c r="BB55" s="105"/>
+      <c r="BC55" s="105"/>
+      <c r="BD55" s="105"/>
+      <c r="BE55" s="105"/>
+      <c r="BF55" s="105"/>
+      <c r="BG55" s="105"/>
+      <c r="BH55" s="105"/>
+      <c r="BI55" s="105"/>
+      <c r="BJ55" s="105"/>
+      <c r="BK55" s="105"/>
+      <c r="BL55" s="105"/>
+      <c r="BM55" s="105"/>
+      <c r="BN55" s="105"/>
+    </row>
+    <row r="56" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A56" s="53" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>9</v>
+      </c>
+      <c r="B56" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="56"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161" t="str">
         <f>IF(ISBLANK(E56)," - ",IF(G56=0,E56,E56+G56-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G56" s="62"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="80" t="str">
+      <c r="G56" s="57"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="59" t="str">
         <f>IF(OR(F56=0,E56=0)," - ",NETWORKDAYS(E56,F56))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J56" s="98"/>
-      <c r="K56" s="105"/>
-      <c r="L56" s="105"/>
-      <c r="M56" s="105"/>
-      <c r="N56" s="105"/>
-      <c r="O56" s="105"/>
-      <c r="P56" s="105"/>
-      <c r="Q56" s="105"/>
-      <c r="R56" s="105"/>
-      <c r="S56" s="105"/>
-      <c r="T56" s="105"/>
-      <c r="U56" s="105"/>
-      <c r="V56" s="105"/>
-      <c r="W56" s="105"/>
-      <c r="X56" s="105"/>
-      <c r="Y56" s="105"/>
-      <c r="Z56" s="105"/>
-      <c r="AA56" s="105"/>
-      <c r="AB56" s="105"/>
-      <c r="AC56" s="105"/>
-      <c r="AD56" s="105"/>
-      <c r="AE56" s="105"/>
-      <c r="AF56" s="105"/>
-      <c r="AG56" s="105"/>
-      <c r="AH56" s="105"/>
-      <c r="AI56" s="105"/>
-      <c r="AJ56" s="105"/>
-      <c r="AK56" s="105"/>
-      <c r="AL56" s="105"/>
-      <c r="AM56" s="105"/>
-      <c r="AN56" s="105"/>
-      <c r="AO56" s="105"/>
-      <c r="AP56" s="105"/>
-      <c r="AQ56" s="105"/>
-      <c r="AR56" s="105"/>
-      <c r="AS56" s="105"/>
-      <c r="AT56" s="105"/>
-      <c r="AU56" s="105"/>
-      <c r="AV56" s="105"/>
-      <c r="AW56" s="105"/>
-      <c r="AX56" s="105"/>
-      <c r="AY56" s="105"/>
-      <c r="AZ56" s="105"/>
-      <c r="BA56" s="105"/>
-      <c r="BB56" s="105"/>
-      <c r="BC56" s="105"/>
-      <c r="BD56" s="105"/>
-      <c r="BE56" s="105"/>
-      <c r="BF56" s="105"/>
-      <c r="BG56" s="105"/>
-      <c r="BH56" s="105"/>
-      <c r="BI56" s="105"/>
-      <c r="BJ56" s="105"/>
-      <c r="BK56" s="105"/>
-      <c r="BL56" s="105"/>
-      <c r="BM56" s="105"/>
-      <c r="BN56" s="105"/>
-    </row>
-    <row r="57" spans="1:66" s="55" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="53" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>9</v>
-      </c>
-      <c r="B57" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="161" t="str">
-        <f t="shared" ref="F57:F58" si="32">IF(ISBLANK(E57)," - ",IF(G57=0,E57,E57+G57-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G57" s="57"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="59" t="str">
-        <f t="shared" ref="I57:I58" si="33">IF(OR(F57=0,E57=0)," - ",NETWORKDAYS(E57,F57))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J57" s="95"/>
-      <c r="K57" s="106"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="106"/>
-      <c r="N57" s="106"/>
-      <c r="O57" s="106"/>
-      <c r="P57" s="106"/>
-      <c r="Q57" s="106"/>
-      <c r="R57" s="106"/>
-      <c r="S57" s="106"/>
-      <c r="T57" s="106"/>
-      <c r="U57" s="106"/>
-      <c r="V57" s="106"/>
-      <c r="W57" s="106"/>
-      <c r="X57" s="106"/>
-      <c r="Y57" s="106"/>
-      <c r="Z57" s="106"/>
-      <c r="AA57" s="106"/>
-      <c r="AB57" s="106"/>
-      <c r="AC57" s="106"/>
-      <c r="AD57" s="106"/>
-      <c r="AE57" s="106"/>
-      <c r="AF57" s="106"/>
-      <c r="AG57" s="106"/>
-      <c r="AH57" s="106"/>
-      <c r="AI57" s="106"/>
-      <c r="AJ57" s="106"/>
-      <c r="AK57" s="106"/>
-      <c r="AL57" s="106"/>
-      <c r="AM57" s="106"/>
-      <c r="AN57" s="106"/>
-      <c r="AO57" s="106"/>
-      <c r="AP57" s="106"/>
-      <c r="AQ57" s="106"/>
-      <c r="AR57" s="106"/>
-      <c r="AS57" s="106"/>
-      <c r="AT57" s="106"/>
-      <c r="AU57" s="106"/>
-      <c r="AV57" s="106"/>
-      <c r="AW57" s="106"/>
-      <c r="AX57" s="106"/>
-      <c r="AY57" s="106"/>
-      <c r="AZ57" s="106"/>
-      <c r="BA57" s="106"/>
-      <c r="BB57" s="106"/>
-      <c r="BC57" s="106"/>
-      <c r="BD57" s="106"/>
-      <c r="BE57" s="106"/>
-      <c r="BF57" s="106"/>
-      <c r="BG57" s="106"/>
-      <c r="BH57" s="106"/>
-      <c r="BI57" s="106"/>
-      <c r="BJ57" s="106"/>
-      <c r="BK57" s="106"/>
-      <c r="BL57" s="106"/>
-      <c r="BM57" s="106"/>
-      <c r="BN57" s="106"/>
-    </row>
-    <row r="58" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A58" s="60" t="str">
+      <c r="J56" s="95"/>
+      <c r="K56" s="106"/>
+      <c r="L56" s="106"/>
+      <c r="M56" s="106"/>
+      <c r="N56" s="106"/>
+      <c r="O56" s="106"/>
+      <c r="P56" s="106"/>
+      <c r="Q56" s="106"/>
+      <c r="R56" s="106"/>
+      <c r="S56" s="106"/>
+      <c r="T56" s="106"/>
+      <c r="U56" s="106"/>
+      <c r="V56" s="106"/>
+      <c r="W56" s="106"/>
+      <c r="X56" s="106"/>
+      <c r="Y56" s="106"/>
+      <c r="Z56" s="106"/>
+      <c r="AA56" s="106"/>
+      <c r="AB56" s="106"/>
+      <c r="AC56" s="106"/>
+      <c r="AD56" s="106"/>
+      <c r="AE56" s="106"/>
+      <c r="AF56" s="106"/>
+      <c r="AG56" s="106"/>
+      <c r="AH56" s="106"/>
+      <c r="AI56" s="106"/>
+      <c r="AJ56" s="106"/>
+      <c r="AK56" s="106"/>
+      <c r="AL56" s="106"/>
+      <c r="AM56" s="106"/>
+      <c r="AN56" s="106"/>
+      <c r="AO56" s="106"/>
+      <c r="AP56" s="106"/>
+      <c r="AQ56" s="106"/>
+      <c r="AR56" s="106"/>
+      <c r="AS56" s="106"/>
+      <c r="AT56" s="106"/>
+      <c r="AU56" s="106"/>
+      <c r="AV56" s="106"/>
+      <c r="AW56" s="106"/>
+      <c r="AX56" s="106"/>
+      <c r="AY56" s="106"/>
+      <c r="AZ56" s="106"/>
+      <c r="BA56" s="106"/>
+      <c r="BB56" s="106"/>
+      <c r="BC56" s="106"/>
+      <c r="BD56" s="106"/>
+      <c r="BE56" s="106"/>
+      <c r="BF56" s="106"/>
+      <c r="BG56" s="106"/>
+      <c r="BH56" s="106"/>
+      <c r="BI56" s="106"/>
+      <c r="BJ56" s="106"/>
+      <c r="BK56" s="106"/>
+      <c r="BL56" s="106"/>
+      <c r="BM56" s="106"/>
+      <c r="BN56" s="106"/>
+    </row>
+    <row r="57" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A57" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>9.1</v>
       </c>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="160"/>
-      <c r="F58" s="163" t="str">
-        <f t="shared" si="32"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="163" t="str">
+        <f>IF(ISBLANK(E57)," - ",IF(G57=0,E57,E57+G57-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G58" s="62"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="80" t="str">
-        <f t="shared" si="33"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="80" t="str">
+        <f>IF(OR(F57=0,E57=0)," - ",NETWORKDAYS(E57,F57))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J58" s="98"/>
-      <c r="K58" s="105"/>
-      <c r="L58" s="105"/>
-      <c r="M58" s="105"/>
-      <c r="N58" s="105"/>
-      <c r="O58" s="105"/>
-      <c r="P58" s="105"/>
-      <c r="Q58" s="105"/>
-      <c r="R58" s="105"/>
-      <c r="S58" s="105"/>
-      <c r="T58" s="105"/>
-      <c r="U58" s="105"/>
-      <c r="V58" s="105"/>
-      <c r="W58" s="105"/>
-      <c r="X58" s="105"/>
-      <c r="Y58" s="105"/>
-      <c r="Z58" s="105"/>
-      <c r="AA58" s="105"/>
-      <c r="AB58" s="105"/>
-      <c r="AC58" s="105"/>
-      <c r="AD58" s="105"/>
-      <c r="AE58" s="105"/>
-      <c r="AF58" s="105"/>
-      <c r="AG58" s="105"/>
-      <c r="AH58" s="105"/>
-      <c r="AI58" s="105"/>
-      <c r="AJ58" s="105"/>
-      <c r="AK58" s="105"/>
-      <c r="AL58" s="105"/>
-      <c r="AM58" s="105"/>
-      <c r="AN58" s="105"/>
-      <c r="AO58" s="105"/>
-      <c r="AP58" s="105"/>
-      <c r="AQ58" s="105"/>
-      <c r="AR58" s="105"/>
-      <c r="AS58" s="105"/>
-      <c r="AT58" s="105"/>
-      <c r="AU58" s="105"/>
-      <c r="AV58" s="105"/>
-      <c r="AW58" s="105"/>
-      <c r="AX58" s="105"/>
-      <c r="AY58" s="105"/>
-      <c r="AZ58" s="105"/>
-      <c r="BA58" s="105"/>
-      <c r="BB58" s="105"/>
-      <c r="BC58" s="105"/>
-      <c r="BD58" s="105"/>
-      <c r="BE58" s="105"/>
-      <c r="BF58" s="105"/>
-      <c r="BG58" s="105"/>
-      <c r="BH58" s="105"/>
-      <c r="BI58" s="105"/>
-      <c r="BJ58" s="105"/>
-      <c r="BK58" s="105"/>
-      <c r="BL58" s="105"/>
-      <c r="BM58" s="105"/>
-      <c r="BN58" s="105"/>
-    </row>
-    <row r="59" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A59" s="53" t="str">
+      <c r="J57" s="98"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="105"/>
+      <c r="O57" s="105"/>
+      <c r="P57" s="105"/>
+      <c r="Q57" s="105"/>
+      <c r="R57" s="105"/>
+      <c r="S57" s="105"/>
+      <c r="T57" s="105"/>
+      <c r="U57" s="105"/>
+      <c r="V57" s="105"/>
+      <c r="W57" s="105"/>
+      <c r="X57" s="105"/>
+      <c r="Y57" s="105"/>
+      <c r="Z57" s="105"/>
+      <c r="AA57" s="105"/>
+      <c r="AB57" s="105"/>
+      <c r="AC57" s="105"/>
+      <c r="AD57" s="105"/>
+      <c r="AE57" s="105"/>
+      <c r="AF57" s="105"/>
+      <c r="AG57" s="105"/>
+      <c r="AH57" s="105"/>
+      <c r="AI57" s="105"/>
+      <c r="AJ57" s="105"/>
+      <c r="AK57" s="105"/>
+      <c r="AL57" s="105"/>
+      <c r="AM57" s="105"/>
+      <c r="AN57" s="105"/>
+      <c r="AO57" s="105"/>
+      <c r="AP57" s="105"/>
+      <c r="AQ57" s="105"/>
+      <c r="AR57" s="105"/>
+      <c r="AS57" s="105"/>
+      <c r="AT57" s="105"/>
+      <c r="AU57" s="105"/>
+      <c r="AV57" s="105"/>
+      <c r="AW57" s="105"/>
+      <c r="AX57" s="105"/>
+      <c r="AY57" s="105"/>
+      <c r="AZ57" s="105"/>
+      <c r="BA57" s="105"/>
+      <c r="BB57" s="105"/>
+      <c r="BC57" s="105"/>
+      <c r="BD57" s="105"/>
+      <c r="BE57" s="105"/>
+      <c r="BF57" s="105"/>
+      <c r="BG57" s="105"/>
+      <c r="BH57" s="105"/>
+      <c r="BI57" s="105"/>
+      <c r="BJ57" s="105"/>
+      <c r="BK57" s="105"/>
+      <c r="BL57" s="105"/>
+      <c r="BM57" s="105"/>
+      <c r="BN57" s="105"/>
+    </row>
+    <row r="58" spans="1:66" s="55" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>10</v>
       </c>
-      <c r="B59" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="161" t="str">
+      <c r="B58" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="56"/>
+      <c r="E58" s="161"/>
+      <c r="F58" s="161" t="str">
+        <f t="shared" ref="F58:F59" si="34">IF(ISBLANK(E58)," - ",IF(G58=0,E58,E58+G58-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G58" s="57"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="59" t="str">
+        <f t="shared" ref="I58:I59" si="35">IF(OR(F58=0,E58=0)," - ",NETWORKDAYS(E58,F58))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J58" s="95"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="106"/>
+      <c r="O58" s="106"/>
+      <c r="P58" s="106"/>
+      <c r="Q58" s="106"/>
+      <c r="R58" s="106"/>
+      <c r="S58" s="106"/>
+      <c r="T58" s="106"/>
+      <c r="U58" s="106"/>
+      <c r="V58" s="106"/>
+      <c r="W58" s="106"/>
+      <c r="X58" s="106"/>
+      <c r="Y58" s="106"/>
+      <c r="Z58" s="106"/>
+      <c r="AA58" s="106"/>
+      <c r="AB58" s="106"/>
+      <c r="AC58" s="106"/>
+      <c r="AD58" s="106"/>
+      <c r="AE58" s="106"/>
+      <c r="AF58" s="106"/>
+      <c r="AG58" s="106"/>
+      <c r="AH58" s="106"/>
+      <c r="AI58" s="106"/>
+      <c r="AJ58" s="106"/>
+      <c r="AK58" s="106"/>
+      <c r="AL58" s="106"/>
+      <c r="AM58" s="106"/>
+      <c r="AN58" s="106"/>
+      <c r="AO58" s="106"/>
+      <c r="AP58" s="106"/>
+      <c r="AQ58" s="106"/>
+      <c r="AR58" s="106"/>
+      <c r="AS58" s="106"/>
+      <c r="AT58" s="106"/>
+      <c r="AU58" s="106"/>
+      <c r="AV58" s="106"/>
+      <c r="AW58" s="106"/>
+      <c r="AX58" s="106"/>
+      <c r="AY58" s="106"/>
+      <c r="AZ58" s="106"/>
+      <c r="BA58" s="106"/>
+      <c r="BB58" s="106"/>
+      <c r="BC58" s="106"/>
+      <c r="BD58" s="106"/>
+      <c r="BE58" s="106"/>
+      <c r="BF58" s="106"/>
+      <c r="BG58" s="106"/>
+      <c r="BH58" s="106"/>
+      <c r="BI58" s="106"/>
+      <c r="BJ58" s="106"/>
+      <c r="BK58" s="106"/>
+      <c r="BL58" s="106"/>
+      <c r="BM58" s="106"/>
+      <c r="BN58" s="106"/>
+    </row>
+    <row r="59" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A59" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>10.1</v>
+      </c>
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="160"/>
+      <c r="F59" s="163" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G59" s="62"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="80" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J59" s="98"/>
+      <c r="K59" s="105"/>
+      <c r="L59" s="105"/>
+      <c r="M59" s="105"/>
+      <c r="N59" s="105"/>
+      <c r="O59" s="105"/>
+      <c r="P59" s="105"/>
+      <c r="Q59" s="105"/>
+      <c r="R59" s="105"/>
+      <c r="S59" s="105"/>
+      <c r="T59" s="105"/>
+      <c r="U59" s="105"/>
+      <c r="V59" s="105"/>
+      <c r="W59" s="105"/>
+      <c r="X59" s="105"/>
+      <c r="Y59" s="105"/>
+      <c r="Z59" s="105"/>
+      <c r="AA59" s="105"/>
+      <c r="AB59" s="105"/>
+      <c r="AC59" s="105"/>
+      <c r="AD59" s="105"/>
+      <c r="AE59" s="105"/>
+      <c r="AF59" s="105"/>
+      <c r="AG59" s="105"/>
+      <c r="AH59" s="105"/>
+      <c r="AI59" s="105"/>
+      <c r="AJ59" s="105"/>
+      <c r="AK59" s="105"/>
+      <c r="AL59" s="105"/>
+      <c r="AM59" s="105"/>
+      <c r="AN59" s="105"/>
+      <c r="AO59" s="105"/>
+      <c r="AP59" s="105"/>
+      <c r="AQ59" s="105"/>
+      <c r="AR59" s="105"/>
+      <c r="AS59" s="105"/>
+      <c r="AT59" s="105"/>
+      <c r="AU59" s="105"/>
+      <c r="AV59" s="105"/>
+      <c r="AW59" s="105"/>
+      <c r="AX59" s="105"/>
+      <c r="AY59" s="105"/>
+      <c r="AZ59" s="105"/>
+      <c r="BA59" s="105"/>
+      <c r="BB59" s="105"/>
+      <c r="BC59" s="105"/>
+      <c r="BD59" s="105"/>
+      <c r="BE59" s="105"/>
+      <c r="BF59" s="105"/>
+      <c r="BG59" s="105"/>
+      <c r="BH59" s="105"/>
+      <c r="BI59" s="105"/>
+      <c r="BJ59" s="105"/>
+      <c r="BK59" s="105"/>
+      <c r="BL59" s="105"/>
+      <c r="BM59" s="105"/>
+      <c r="BN59" s="105"/>
+    </row>
+    <row r="60" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A60" s="53" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>11</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="56"/>
+      <c r="E60" s="161"/>
+      <c r="F60" s="161" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G59" s="57"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="59" t="str">
+      <c r="G60" s="57"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="59" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J59" s="95"/>
-      <c r="K59" s="106"/>
-      <c r="L59" s="106"/>
-      <c r="M59" s="106"/>
-      <c r="N59" s="106"/>
-      <c r="O59" s="106"/>
-      <c r="P59" s="106"/>
-      <c r="Q59" s="106"/>
-      <c r="R59" s="106"/>
-      <c r="S59" s="106"/>
-      <c r="T59" s="106"/>
-      <c r="U59" s="106"/>
-      <c r="V59" s="106"/>
-      <c r="W59" s="106"/>
-      <c r="X59" s="106"/>
-      <c r="Y59" s="106"/>
-      <c r="Z59" s="106"/>
-      <c r="AA59" s="106"/>
-      <c r="AB59" s="106"/>
-      <c r="AC59" s="106"/>
-      <c r="AD59" s="106"/>
-      <c r="AE59" s="106"/>
-      <c r="AF59" s="106"/>
-      <c r="AG59" s="106"/>
-      <c r="AH59" s="106"/>
-      <c r="AI59" s="106"/>
-      <c r="AJ59" s="106"/>
-      <c r="AK59" s="106"/>
-      <c r="AL59" s="106"/>
-      <c r="AM59" s="106"/>
-      <c r="AN59" s="106"/>
-      <c r="AO59" s="106"/>
-      <c r="AP59" s="106"/>
-      <c r="AQ59" s="106"/>
-      <c r="AR59" s="106"/>
-      <c r="AS59" s="106"/>
-      <c r="AT59" s="106"/>
-      <c r="AU59" s="106"/>
-      <c r="AV59" s="106"/>
-      <c r="AW59" s="106"/>
-      <c r="AX59" s="106"/>
-      <c r="AY59" s="106"/>
-      <c r="AZ59" s="106"/>
-      <c r="BA59" s="106"/>
-      <c r="BB59" s="106"/>
-      <c r="BC59" s="106"/>
-      <c r="BD59" s="106"/>
-      <c r="BE59" s="106"/>
-      <c r="BF59" s="106"/>
-      <c r="BG59" s="106"/>
-      <c r="BH59" s="106"/>
-      <c r="BI59" s="106"/>
-      <c r="BJ59" s="106"/>
-      <c r="BK59" s="106"/>
-      <c r="BL59" s="106"/>
-      <c r="BM59" s="106"/>
-      <c r="BN59" s="106"/>
-    </row>
-    <row r="60" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A60" s="60" t="str">
+      <c r="J60" s="95"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="106"/>
+      <c r="M60" s="106"/>
+      <c r="N60" s="106"/>
+      <c r="O60" s="106"/>
+      <c r="P60" s="106"/>
+      <c r="Q60" s="106"/>
+      <c r="R60" s="106"/>
+      <c r="S60" s="106"/>
+      <c r="T60" s="106"/>
+      <c r="U60" s="106"/>
+      <c r="V60" s="106"/>
+      <c r="W60" s="106"/>
+      <c r="X60" s="106"/>
+      <c r="Y60" s="106"/>
+      <c r="Z60" s="106"/>
+      <c r="AA60" s="106"/>
+      <c r="AB60" s="106"/>
+      <c r="AC60" s="106"/>
+      <c r="AD60" s="106"/>
+      <c r="AE60" s="106"/>
+      <c r="AF60" s="106"/>
+      <c r="AG60" s="106"/>
+      <c r="AH60" s="106"/>
+      <c r="AI60" s="106"/>
+      <c r="AJ60" s="106"/>
+      <c r="AK60" s="106"/>
+      <c r="AL60" s="106"/>
+      <c r="AM60" s="106"/>
+      <c r="AN60" s="106"/>
+      <c r="AO60" s="106"/>
+      <c r="AP60" s="106"/>
+      <c r="AQ60" s="106"/>
+      <c r="AR60" s="106"/>
+      <c r="AS60" s="106"/>
+      <c r="AT60" s="106"/>
+      <c r="AU60" s="106"/>
+      <c r="AV60" s="106"/>
+      <c r="AW60" s="106"/>
+      <c r="AX60" s="106"/>
+      <c r="AY60" s="106"/>
+      <c r="AZ60" s="106"/>
+      <c r="BA60" s="106"/>
+      <c r="BB60" s="106"/>
+      <c r="BC60" s="106"/>
+      <c r="BD60" s="106"/>
+      <c r="BE60" s="106"/>
+      <c r="BF60" s="106"/>
+      <c r="BG60" s="106"/>
+      <c r="BH60" s="106"/>
+      <c r="BI60" s="106"/>
+      <c r="BJ60" s="106"/>
+      <c r="BK60" s="106"/>
+      <c r="BL60" s="106"/>
+      <c r="BM60" s="106"/>
+      <c r="BN60" s="106"/>
+    </row>
+    <row r="61" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A61" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>10.1</v>
-      </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="160"/>
-      <c r="F60" s="163" t="str">
+        <v>11.1</v>
+      </c>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="160"/>
+      <c r="F61" s="163" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G60" s="62"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="80" t="str">
+      <c r="G61" s="62"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="80" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J60" s="98"/>
-      <c r="K60" s="105"/>
-      <c r="L60" s="105"/>
-      <c r="M60" s="105"/>
-      <c r="N60" s="105"/>
-      <c r="O60" s="105"/>
-      <c r="P60" s="105"/>
-      <c r="Q60" s="105"/>
-      <c r="R60" s="105"/>
-      <c r="S60" s="105"/>
-      <c r="T60" s="105"/>
-      <c r="U60" s="105"/>
-      <c r="V60" s="105"/>
-      <c r="W60" s="105"/>
-      <c r="X60" s="105"/>
-      <c r="Y60" s="105"/>
-      <c r="Z60" s="105"/>
-      <c r="AA60" s="105"/>
-      <c r="AB60" s="105"/>
-      <c r="AC60" s="105"/>
-      <c r="AD60" s="105"/>
-      <c r="AE60" s="105"/>
-      <c r="AF60" s="105"/>
-      <c r="AG60" s="105"/>
-      <c r="AH60" s="105"/>
-      <c r="AI60" s="105"/>
-      <c r="AJ60" s="105"/>
-      <c r="AK60" s="105"/>
-      <c r="AL60" s="105"/>
-      <c r="AM60" s="105"/>
-      <c r="AN60" s="105"/>
-      <c r="AO60" s="105"/>
-      <c r="AP60" s="105"/>
-      <c r="AQ60" s="105"/>
-      <c r="AR60" s="105"/>
-      <c r="AS60" s="105"/>
-      <c r="AT60" s="105"/>
-      <c r="AU60" s="105"/>
-      <c r="AV60" s="105"/>
-      <c r="AW60" s="105"/>
-      <c r="AX60" s="105"/>
-      <c r="AY60" s="105"/>
-      <c r="AZ60" s="105"/>
-      <c r="BA60" s="105"/>
-      <c r="BB60" s="105"/>
-      <c r="BC60" s="105"/>
-      <c r="BD60" s="105"/>
-      <c r="BE60" s="105"/>
-      <c r="BF60" s="105"/>
-      <c r="BG60" s="105"/>
-      <c r="BH60" s="105"/>
-      <c r="BI60" s="105"/>
-      <c r="BJ60" s="105"/>
-      <c r="BK60" s="105"/>
-      <c r="BL60" s="105"/>
-      <c r="BM60" s="105"/>
-      <c r="BN60" s="105"/>
-    </row>
-    <row r="61" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A61" s="53" t="str">
+      <c r="J61" s="98"/>
+      <c r="K61" s="105"/>
+      <c r="L61" s="105"/>
+      <c r="M61" s="105"/>
+      <c r="N61" s="105"/>
+      <c r="O61" s="105"/>
+      <c r="P61" s="105"/>
+      <c r="Q61" s="105"/>
+      <c r="R61" s="105"/>
+      <c r="S61" s="105"/>
+      <c r="T61" s="105"/>
+      <c r="U61" s="105"/>
+      <c r="V61" s="105"/>
+      <c r="W61" s="105"/>
+      <c r="X61" s="105"/>
+      <c r="Y61" s="105"/>
+      <c r="Z61" s="105"/>
+      <c r="AA61" s="105"/>
+      <c r="AB61" s="105"/>
+      <c r="AC61" s="105"/>
+      <c r="AD61" s="105"/>
+      <c r="AE61" s="105"/>
+      <c r="AF61" s="105"/>
+      <c r="AG61" s="105"/>
+      <c r="AH61" s="105"/>
+      <c r="AI61" s="105"/>
+      <c r="AJ61" s="105"/>
+      <c r="AK61" s="105"/>
+      <c r="AL61" s="105"/>
+      <c r="AM61" s="105"/>
+      <c r="AN61" s="105"/>
+      <c r="AO61" s="105"/>
+      <c r="AP61" s="105"/>
+      <c r="AQ61" s="105"/>
+      <c r="AR61" s="105"/>
+      <c r="AS61" s="105"/>
+      <c r="AT61" s="105"/>
+      <c r="AU61" s="105"/>
+      <c r="AV61" s="105"/>
+      <c r="AW61" s="105"/>
+      <c r="AX61" s="105"/>
+      <c r="AY61" s="105"/>
+      <c r="AZ61" s="105"/>
+      <c r="BA61" s="105"/>
+      <c r="BB61" s="105"/>
+      <c r="BC61" s="105"/>
+      <c r="BD61" s="105"/>
+      <c r="BE61" s="105"/>
+      <c r="BF61" s="105"/>
+      <c r="BG61" s="105"/>
+      <c r="BH61" s="105"/>
+      <c r="BI61" s="105"/>
+      <c r="BJ61" s="105"/>
+      <c r="BK61" s="105"/>
+      <c r="BL61" s="105"/>
+      <c r="BM61" s="105"/>
+      <c r="BN61" s="105"/>
+    </row>
+    <row r="62" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A62" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>11</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="161"/>
-      <c r="F61" s="161" t="str">
+        <v>12</v>
+      </c>
+      <c r="B62" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="56"/>
+      <c r="E62" s="161"/>
+      <c r="F62" s="161" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G61" s="57"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="59" t="str">
+      <c r="G62" s="57"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="59" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J61" s="95"/>
-      <c r="K61" s="106"/>
-      <c r="L61" s="106"/>
-      <c r="M61" s="106"/>
-      <c r="N61" s="106"/>
-      <c r="O61" s="106"/>
-      <c r="P61" s="106"/>
-      <c r="Q61" s="106"/>
-      <c r="R61" s="106"/>
-      <c r="S61" s="106"/>
-      <c r="T61" s="106"/>
-      <c r="U61" s="106"/>
-      <c r="V61" s="106"/>
-      <c r="W61" s="106"/>
-      <c r="X61" s="106"/>
-      <c r="Y61" s="106"/>
-      <c r="Z61" s="106"/>
-      <c r="AA61" s="106"/>
-      <c r="AB61" s="106"/>
-      <c r="AC61" s="106"/>
-      <c r="AD61" s="106"/>
-      <c r="AE61" s="106"/>
-      <c r="AF61" s="106"/>
-      <c r="AG61" s="106"/>
-      <c r="AH61" s="106"/>
-      <c r="AI61" s="106"/>
-      <c r="AJ61" s="106"/>
-      <c r="AK61" s="106"/>
-      <c r="AL61" s="106"/>
-      <c r="AM61" s="106"/>
-      <c r="AN61" s="106"/>
-      <c r="AO61" s="106"/>
-      <c r="AP61" s="106"/>
-      <c r="AQ61" s="106"/>
-      <c r="AR61" s="106"/>
-      <c r="AS61" s="106"/>
-      <c r="AT61" s="106"/>
-      <c r="AU61" s="106"/>
-      <c r="AV61" s="106"/>
-      <c r="AW61" s="106"/>
-      <c r="AX61" s="106"/>
-      <c r="AY61" s="106"/>
-      <c r="AZ61" s="106"/>
-      <c r="BA61" s="106"/>
-      <c r="BB61" s="106"/>
-      <c r="BC61" s="106"/>
-      <c r="BD61" s="106"/>
-      <c r="BE61" s="106"/>
-      <c r="BF61" s="106"/>
-      <c r="BG61" s="106"/>
-      <c r="BH61" s="106"/>
-      <c r="BI61" s="106"/>
-      <c r="BJ61" s="106"/>
-      <c r="BK61" s="106"/>
-      <c r="BL61" s="106"/>
-      <c r="BM61" s="106"/>
-      <c r="BN61" s="106"/>
-    </row>
-    <row r="62" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A62" s="60" t="str">
+      <c r="J62" s="95"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="106"/>
+      <c r="M62" s="106"/>
+      <c r="N62" s="106"/>
+      <c r="O62" s="106"/>
+      <c r="P62" s="106"/>
+      <c r="Q62" s="106"/>
+      <c r="R62" s="106"/>
+      <c r="S62" s="106"/>
+      <c r="T62" s="106"/>
+      <c r="U62" s="106"/>
+      <c r="V62" s="106"/>
+      <c r="W62" s="106"/>
+      <c r="X62" s="106"/>
+      <c r="Y62" s="106"/>
+      <c r="Z62" s="106"/>
+      <c r="AA62" s="106"/>
+      <c r="AB62" s="106"/>
+      <c r="AC62" s="106"/>
+      <c r="AD62" s="106"/>
+      <c r="AE62" s="106"/>
+      <c r="AF62" s="106"/>
+      <c r="AG62" s="106"/>
+      <c r="AH62" s="106"/>
+      <c r="AI62" s="106"/>
+      <c r="AJ62" s="106"/>
+      <c r="AK62" s="106"/>
+      <c r="AL62" s="106"/>
+      <c r="AM62" s="106"/>
+      <c r="AN62" s="106"/>
+      <c r="AO62" s="106"/>
+      <c r="AP62" s="106"/>
+      <c r="AQ62" s="106"/>
+      <c r="AR62" s="106"/>
+      <c r="AS62" s="106"/>
+      <c r="AT62" s="106"/>
+      <c r="AU62" s="106"/>
+      <c r="AV62" s="106"/>
+      <c r="AW62" s="106"/>
+      <c r="AX62" s="106"/>
+      <c r="AY62" s="106"/>
+      <c r="AZ62" s="106"/>
+      <c r="BA62" s="106"/>
+      <c r="BB62" s="106"/>
+      <c r="BC62" s="106"/>
+      <c r="BD62" s="106"/>
+      <c r="BE62" s="106"/>
+      <c r="BF62" s="106"/>
+      <c r="BG62" s="106"/>
+      <c r="BH62" s="106"/>
+      <c r="BI62" s="106"/>
+      <c r="BJ62" s="106"/>
+      <c r="BK62" s="106"/>
+      <c r="BL62" s="106"/>
+      <c r="BM62" s="106"/>
+      <c r="BN62" s="106"/>
+    </row>
+    <row r="63" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A63" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>11.1</v>
-      </c>
-      <c r="B62" s="81"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="160"/>
-      <c r="F62" s="163" t="str">
+        <v>12.1</v>
+      </c>
+      <c r="B63" s="81"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="160"/>
+      <c r="F63" s="163" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G62" s="62"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="80" t="str">
+      <c r="G63" s="62"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="80" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J62" s="98"/>
-      <c r="K62" s="105"/>
-      <c r="L62" s="105"/>
-      <c r="M62" s="105"/>
-      <c r="N62" s="105"/>
-      <c r="O62" s="105"/>
-      <c r="P62" s="105"/>
-      <c r="Q62" s="105"/>
-      <c r="R62" s="105"/>
-      <c r="S62" s="105"/>
-      <c r="T62" s="105"/>
-      <c r="U62" s="105"/>
-      <c r="V62" s="105"/>
-      <c r="W62" s="105"/>
-      <c r="X62" s="105"/>
-      <c r="Y62" s="105"/>
-      <c r="Z62" s="105"/>
-      <c r="AA62" s="105"/>
-      <c r="AB62" s="105"/>
-      <c r="AC62" s="105"/>
-      <c r="AD62" s="105"/>
-      <c r="AE62" s="105"/>
-      <c r="AF62" s="105"/>
-      <c r="AG62" s="105"/>
-      <c r="AH62" s="105"/>
-      <c r="AI62" s="105"/>
-      <c r="AJ62" s="105"/>
-      <c r="AK62" s="105"/>
-      <c r="AL62" s="105"/>
-      <c r="AM62" s="105"/>
-      <c r="AN62" s="105"/>
-      <c r="AO62" s="105"/>
-      <c r="AP62" s="105"/>
-      <c r="AQ62" s="105"/>
-      <c r="AR62" s="105"/>
-      <c r="AS62" s="105"/>
-      <c r="AT62" s="105"/>
-      <c r="AU62" s="105"/>
-      <c r="AV62" s="105"/>
-      <c r="AW62" s="105"/>
-      <c r="AX62" s="105"/>
-      <c r="AY62" s="105"/>
-      <c r="AZ62" s="105"/>
-      <c r="BA62" s="105"/>
-      <c r="BB62" s="105"/>
-      <c r="BC62" s="105"/>
-      <c r="BD62" s="105"/>
-      <c r="BE62" s="105"/>
-      <c r="BF62" s="105"/>
-      <c r="BG62" s="105"/>
-      <c r="BH62" s="105"/>
-      <c r="BI62" s="105"/>
-      <c r="BJ62" s="105"/>
-      <c r="BK62" s="105"/>
-      <c r="BL62" s="105"/>
-      <c r="BM62" s="105"/>
-      <c r="BN62" s="105"/>
-    </row>
-    <row r="63" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A63" s="53" t="str">
+      <c r="J63" s="98"/>
+      <c r="K63" s="105"/>
+      <c r="L63" s="105"/>
+      <c r="M63" s="105"/>
+      <c r="N63" s="105"/>
+      <c r="O63" s="105"/>
+      <c r="P63" s="105"/>
+      <c r="Q63" s="105"/>
+      <c r="R63" s="105"/>
+      <c r="S63" s="105"/>
+      <c r="T63" s="105"/>
+      <c r="U63" s="105"/>
+      <c r="V63" s="105"/>
+      <c r="W63" s="105"/>
+      <c r="X63" s="105"/>
+      <c r="Y63" s="105"/>
+      <c r="Z63" s="105"/>
+      <c r="AA63" s="105"/>
+      <c r="AB63" s="105"/>
+      <c r="AC63" s="105"/>
+      <c r="AD63" s="105"/>
+      <c r="AE63" s="105"/>
+      <c r="AF63" s="105"/>
+      <c r="AG63" s="105"/>
+      <c r="AH63" s="105"/>
+      <c r="AI63" s="105"/>
+      <c r="AJ63" s="105"/>
+      <c r="AK63" s="105"/>
+      <c r="AL63" s="105"/>
+      <c r="AM63" s="105"/>
+      <c r="AN63" s="105"/>
+      <c r="AO63" s="105"/>
+      <c r="AP63" s="105"/>
+      <c r="AQ63" s="105"/>
+      <c r="AR63" s="105"/>
+      <c r="AS63" s="105"/>
+      <c r="AT63" s="105"/>
+      <c r="AU63" s="105"/>
+      <c r="AV63" s="105"/>
+      <c r="AW63" s="105"/>
+      <c r="AX63" s="105"/>
+      <c r="AY63" s="105"/>
+      <c r="AZ63" s="105"/>
+      <c r="BA63" s="105"/>
+      <c r="BB63" s="105"/>
+      <c r="BC63" s="105"/>
+      <c r="BD63" s="105"/>
+      <c r="BE63" s="105"/>
+      <c r="BF63" s="105"/>
+      <c r="BG63" s="105"/>
+      <c r="BH63" s="105"/>
+      <c r="BI63" s="105"/>
+      <c r="BJ63" s="105"/>
+      <c r="BK63" s="105"/>
+      <c r="BL63" s="105"/>
+      <c r="BM63" s="105"/>
+      <c r="BN63" s="105"/>
+    </row>
+    <row r="64" spans="1:66" s="55" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A64" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>12</v>
-      </c>
-      <c r="B63" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="D63" s="56"/>
-      <c r="E63" s="161"/>
-      <c r="F63" s="161" t="str">
-        <f t="shared" ref="F63:F64" si="34">IF(ISBLANK(E63)," - ",IF(G63=0,E63,E63+G63-1))</f>
+        <v>13</v>
+      </c>
+      <c r="B64" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" s="56"/>
+      <c r="E64" s="161"/>
+      <c r="F64" s="161" t="str">
+        <f t="shared" ref="F64:F65" si="36">IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G63" s="57"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="59" t="str">
-        <f t="shared" ref="I63:I64" si="35">IF(OR(F63=0,E63=0)," - ",NETWORKDAYS(E63,F63))</f>
+      <c r="G64" s="57"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="59" t="str">
+        <f t="shared" ref="I64:I65" si="37">IF(OR(F64=0,E64=0)," - ",NETWORKDAYS(E64,F64))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J63" s="95"/>
-      <c r="K63" s="106"/>
-      <c r="L63" s="106"/>
-      <c r="M63" s="106"/>
-      <c r="N63" s="106"/>
-      <c r="O63" s="106"/>
-      <c r="P63" s="106"/>
-      <c r="Q63" s="106"/>
-      <c r="R63" s="106"/>
-      <c r="S63" s="106"/>
-      <c r="T63" s="106"/>
-      <c r="U63" s="106"/>
-      <c r="V63" s="106"/>
-      <c r="W63" s="106"/>
-      <c r="X63" s="106"/>
-      <c r="Y63" s="106"/>
-      <c r="Z63" s="106"/>
-      <c r="AA63" s="106"/>
-      <c r="AB63" s="106"/>
-      <c r="AC63" s="106"/>
-      <c r="AD63" s="106"/>
-      <c r="AE63" s="106"/>
-      <c r="AF63" s="106"/>
-      <c r="AG63" s="106"/>
-      <c r="AH63" s="106"/>
-      <c r="AI63" s="106"/>
-      <c r="AJ63" s="106"/>
-      <c r="AK63" s="106"/>
-      <c r="AL63" s="106"/>
-      <c r="AM63" s="106"/>
-      <c r="AN63" s="106"/>
-      <c r="AO63" s="106"/>
-      <c r="AP63" s="106"/>
-      <c r="AQ63" s="106"/>
-      <c r="AR63" s="106"/>
-      <c r="AS63" s="106"/>
-      <c r="AT63" s="106"/>
-      <c r="AU63" s="106"/>
-      <c r="AV63" s="106"/>
-      <c r="AW63" s="106"/>
-      <c r="AX63" s="106"/>
-      <c r="AY63" s="106"/>
-      <c r="AZ63" s="106"/>
-      <c r="BA63" s="106"/>
-      <c r="BB63" s="106"/>
-      <c r="BC63" s="106"/>
-      <c r="BD63" s="106"/>
-      <c r="BE63" s="106"/>
-      <c r="BF63" s="106"/>
-      <c r="BG63" s="106"/>
-      <c r="BH63" s="106"/>
-      <c r="BI63" s="106"/>
-      <c r="BJ63" s="106"/>
-      <c r="BK63" s="106"/>
-      <c r="BL63" s="106"/>
-      <c r="BM63" s="106"/>
-      <c r="BN63" s="106"/>
-    </row>
-    <row r="64" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A64" s="60" t="str">
+      <c r="J64" s="95"/>
+      <c r="K64" s="106"/>
+      <c r="L64" s="106"/>
+      <c r="M64" s="106"/>
+      <c r="N64" s="106"/>
+      <c r="O64" s="106"/>
+      <c r="P64" s="106"/>
+      <c r="Q64" s="106"/>
+      <c r="R64" s="106"/>
+      <c r="S64" s="106"/>
+      <c r="T64" s="106"/>
+      <c r="U64" s="106"/>
+      <c r="V64" s="106"/>
+      <c r="W64" s="106"/>
+      <c r="X64" s="106"/>
+      <c r="Y64" s="106"/>
+      <c r="Z64" s="106"/>
+      <c r="AA64" s="106"/>
+      <c r="AB64" s="106"/>
+      <c r="AC64" s="106"/>
+      <c r="AD64" s="106"/>
+      <c r="AE64" s="106"/>
+      <c r="AF64" s="106"/>
+      <c r="AG64" s="106"/>
+      <c r="AH64" s="106"/>
+      <c r="AI64" s="106"/>
+      <c r="AJ64" s="106"/>
+      <c r="AK64" s="106"/>
+      <c r="AL64" s="106"/>
+      <c r="AM64" s="106"/>
+      <c r="AN64" s="106"/>
+      <c r="AO64" s="106"/>
+      <c r="AP64" s="106"/>
+      <c r="AQ64" s="106"/>
+      <c r="AR64" s="106"/>
+      <c r="AS64" s="106"/>
+      <c r="AT64" s="106"/>
+      <c r="AU64" s="106"/>
+      <c r="AV64" s="106"/>
+      <c r="AW64" s="106"/>
+      <c r="AX64" s="106"/>
+      <c r="AY64" s="106"/>
+      <c r="AZ64" s="106"/>
+      <c r="BA64" s="106"/>
+      <c r="BB64" s="106"/>
+      <c r="BC64" s="106"/>
+      <c r="BD64" s="106"/>
+      <c r="BE64" s="106"/>
+      <c r="BF64" s="106"/>
+      <c r="BG64" s="106"/>
+      <c r="BH64" s="106"/>
+      <c r="BI64" s="106"/>
+      <c r="BJ64" s="106"/>
+      <c r="BK64" s="106"/>
+      <c r="BL64" s="106"/>
+      <c r="BM64" s="106"/>
+      <c r="BN64" s="106"/>
+    </row>
+    <row r="65" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A65" s="60" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>12.1</v>
-      </c>
-      <c r="B64" s="81"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="160"/>
-      <c r="F64" s="163" t="str">
-        <f t="shared" si="34"/>
+        <v>13.1</v>
+      </c>
+      <c r="B65" s="81"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="160"/>
+      <c r="F65" s="163" t="str">
+        <f t="shared" si="36"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G64" s="62"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="80" t="str">
-        <f t="shared" si="35"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="80" t="str">
+        <f t="shared" si="37"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J64" s="98"/>
-      <c r="K64" s="105"/>
-      <c r="L64" s="105"/>
-      <c r="M64" s="105"/>
-      <c r="N64" s="105"/>
-      <c r="O64" s="105"/>
-      <c r="P64" s="105"/>
-      <c r="Q64" s="105"/>
-      <c r="R64" s="105"/>
-      <c r="S64" s="105"/>
-      <c r="T64" s="105"/>
-      <c r="U64" s="105"/>
-      <c r="V64" s="105"/>
-      <c r="W64" s="105"/>
-      <c r="X64" s="105"/>
-      <c r="Y64" s="105"/>
-      <c r="Z64" s="105"/>
-      <c r="AA64" s="105"/>
-      <c r="AB64" s="105"/>
-      <c r="AC64" s="105"/>
-      <c r="AD64" s="105"/>
-      <c r="AE64" s="105"/>
-      <c r="AF64" s="105"/>
-      <c r="AG64" s="105"/>
-      <c r="AH64" s="105"/>
-      <c r="AI64" s="105"/>
-      <c r="AJ64" s="105"/>
-      <c r="AK64" s="105"/>
-      <c r="AL64" s="105"/>
-      <c r="AM64" s="105"/>
-      <c r="AN64" s="105"/>
-      <c r="AO64" s="105"/>
-      <c r="AP64" s="105"/>
-      <c r="AQ64" s="105"/>
-      <c r="AR64" s="105"/>
-      <c r="AS64" s="105"/>
-      <c r="AT64" s="105"/>
-      <c r="AU64" s="105"/>
-      <c r="AV64" s="105"/>
-      <c r="AW64" s="105"/>
-      <c r="AX64" s="105"/>
-      <c r="AY64" s="105"/>
-      <c r="AZ64" s="105"/>
-      <c r="BA64" s="105"/>
-      <c r="BB64" s="105"/>
-      <c r="BC64" s="105"/>
-      <c r="BD64" s="105"/>
-      <c r="BE64" s="105"/>
-      <c r="BF64" s="105"/>
-      <c r="BG64" s="105"/>
-      <c r="BH64" s="105"/>
-      <c r="BI64" s="105"/>
-      <c r="BJ64" s="105"/>
-      <c r="BK64" s="105"/>
-      <c r="BL64" s="105"/>
-      <c r="BM64" s="105"/>
-      <c r="BN64" s="105"/>
-    </row>
-    <row r="65" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A65" s="60"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="69" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J65" s="96"/>
+      <c r="J65" s="98"/>
       <c r="K65" s="105"/>
       <c r="L65" s="105"/>
       <c r="M65" s="105"/>
@@ -9733,19 +9780,20 @@
       <c r="BM65" s="105"/>
       <c r="BN65" s="105"/>
     </row>
-    <row r="66" spans="1:66" s="75" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A66" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="72"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="102"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="74"/>
-      <c r="J66" s="97"/>
+    <row r="66" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A66" s="60"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="69" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J66" s="96"/>
       <c r="K66" s="105"/>
       <c r="L66" s="105"/>
       <c r="M66" s="105"/>
@@ -9803,18 +9851,18 @@
       <c r="BM66" s="105"/>
       <c r="BN66" s="105"/>
     </row>
-    <row r="67" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A67" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="77"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77"/>
+    <row r="67" spans="1:66" s="75" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A67" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="72"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
       <c r="J67" s="97"/>
       <c r="K67" s="105"/>
       <c r="L67" s="105"/>
@@ -9874,27 +9922,18 @@
       <c r="BN67" s="105"/>
     </row>
     <row r="68" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A68" s="124" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B68" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" s="78"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="100" t="str">
-        <f t="shared" ref="F68:F71" si="36">IF(ISBLANK(E68)," - ",IF(G68=0,E68,E68+G68-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G68" s="62"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="80" t="str">
-        <f>IF(OR(F68=0,E68=0)," - ",NETWORKDAYS(E68,F68))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J68" s="98"/>
+      <c r="A68" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="77"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="97"/>
       <c r="K68" s="105"/>
       <c r="L68" s="105"/>
       <c r="M68" s="105"/>
@@ -9953,24 +9992,24 @@
       <c r="BN68" s="105"/>
     </row>
     <row r="69" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A69" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B69" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="81"/>
+      <c r="A69" s="124" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B69" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="78"/>
       <c r="D69" s="79"/>
       <c r="E69" s="99"/>
       <c r="F69" s="100" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="F69:F72" si="38">IF(ISBLANK(E69)," - ",IF(G69=0,E69,E69+G69-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G69" s="62"/>
       <c r="H69" s="63"/>
       <c r="I69" s="80" t="str">
-        <f t="shared" ref="I69:I71" si="37">IF(OR(F69=0,E69=0)," - ",NETWORKDAYS(E69,F69))</f>
+        <f>IF(OR(F69=0,E69=0)," - ",NETWORKDAYS(E69,F69))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J69" s="98"/>
@@ -10033,23 +10072,23 @@
     </row>
     <row r="70" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A70" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B70" s="82" t="s">
-        <v>63</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B70" s="81" t="s">
+        <v>62</v>
       </c>
       <c r="C70" s="81"/>
       <c r="D70" s="79"/>
       <c r="E70" s="99"/>
       <c r="F70" s="100" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G70" s="62"/>
       <c r="H70" s="63"/>
       <c r="I70" s="80" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="I70:I72" si="39">IF(OR(F70=0,E70=0)," - ",NETWORKDAYS(E70,F70))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J70" s="98"/>
@@ -10112,23 +10151,23 @@
     </row>
     <row r="71" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A71" s="60" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
       </c>
       <c r="B71" s="82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="81"/>
       <c r="D71" s="79"/>
       <c r="E71" s="99"/>
       <c r="F71" s="100" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G71" s="62"/>
       <c r="H71" s="63"/>
       <c r="I71" s="80" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J71" s="98"/>
@@ -10189,77 +10228,165 @@
       <c r="BM71" s="105"/>
       <c r="BN71" s="105"/>
     </row>
-    <row r="72" spans="1:66" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="30"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="31"/>
-      <c r="Q72" s="31"/>
-      <c r="R72" s="31"/>
-      <c r="S72" s="31"/>
-      <c r="T72" s="31"/>
-      <c r="U72" s="31"/>
-      <c r="V72" s="31"/>
-      <c r="W72" s="31"/>
-      <c r="X72" s="31"/>
-      <c r="Y72" s="31"/>
-      <c r="Z72" s="31"/>
-      <c r="AA72" s="31"/>
-      <c r="AB72" s="31"/>
-      <c r="AC72" s="31"/>
-      <c r="AD72" s="31"/>
-      <c r="AE72" s="31"/>
-      <c r="AF72" s="31"/>
-      <c r="AG72" s="31"/>
-      <c r="AH72" s="31"/>
-      <c r="AI72" s="31"/>
-      <c r="AJ72" s="31"/>
-      <c r="AK72" s="31"/>
-      <c r="AL72" s="31"/>
-      <c r="AM72" s="31"/>
-      <c r="AN72" s="31"/>
-      <c r="AO72" s="31"/>
-      <c r="AP72" s="31"/>
-      <c r="AQ72" s="31"/>
-      <c r="AR72" s="31"/>
-      <c r="AS72" s="31"/>
-      <c r="AT72" s="31"/>
-      <c r="AU72" s="31"/>
-      <c r="AV72" s="31"/>
-      <c r="AW72" s="31"/>
-      <c r="AX72" s="31"/>
-      <c r="AY72" s="31"/>
-      <c r="AZ72" s="31"/>
-      <c r="BA72" s="31"/>
-      <c r="BB72" s="31"/>
-      <c r="BC72" s="31"/>
-      <c r="BD72" s="31"/>
-      <c r="BE72" s="31"/>
-      <c r="BF72" s="31"/>
-      <c r="BG72" s="31"/>
-      <c r="BH72" s="31"/>
-      <c r="BI72" s="31"/>
-      <c r="BJ72" s="31"/>
-      <c r="BK72" s="31"/>
-      <c r="BL72" s="31"/>
-      <c r="BM72" s="31"/>
-      <c r="BN72" s="31"/>
+    <row r="72" spans="1:66" s="70" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A72" s="60" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B72" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="81"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="100" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G72" s="62"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="80" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J72" s="98"/>
+      <c r="K72" s="105"/>
+      <c r="L72" s="105"/>
+      <c r="M72" s="105"/>
+      <c r="N72" s="105"/>
+      <c r="O72" s="105"/>
+      <c r="P72" s="105"/>
+      <c r="Q72" s="105"/>
+      <c r="R72" s="105"/>
+      <c r="S72" s="105"/>
+      <c r="T72" s="105"/>
+      <c r="U72" s="105"/>
+      <c r="V72" s="105"/>
+      <c r="W72" s="105"/>
+      <c r="X72" s="105"/>
+      <c r="Y72" s="105"/>
+      <c r="Z72" s="105"/>
+      <c r="AA72" s="105"/>
+      <c r="AB72" s="105"/>
+      <c r="AC72" s="105"/>
+      <c r="AD72" s="105"/>
+      <c r="AE72" s="105"/>
+      <c r="AF72" s="105"/>
+      <c r="AG72" s="105"/>
+      <c r="AH72" s="105"/>
+      <c r="AI72" s="105"/>
+      <c r="AJ72" s="105"/>
+      <c r="AK72" s="105"/>
+      <c r="AL72" s="105"/>
+      <c r="AM72" s="105"/>
+      <c r="AN72" s="105"/>
+      <c r="AO72" s="105"/>
+      <c r="AP72" s="105"/>
+      <c r="AQ72" s="105"/>
+      <c r="AR72" s="105"/>
+      <c r="AS72" s="105"/>
+      <c r="AT72" s="105"/>
+      <c r="AU72" s="105"/>
+      <c r="AV72" s="105"/>
+      <c r="AW72" s="105"/>
+      <c r="AX72" s="105"/>
+      <c r="AY72" s="105"/>
+      <c r="AZ72" s="105"/>
+      <c r="BA72" s="105"/>
+      <c r="BB72" s="105"/>
+      <c r="BC72" s="105"/>
+      <c r="BD72" s="105"/>
+      <c r="BE72" s="105"/>
+      <c r="BF72" s="105"/>
+      <c r="BG72" s="105"/>
+      <c r="BH72" s="105"/>
+      <c r="BI72" s="105"/>
+      <c r="BJ72" s="105"/>
+      <c r="BK72" s="105"/>
+      <c r="BL72" s="105"/>
+      <c r="BM72" s="105"/>
+      <c r="BN72" s="105"/>
+    </row>
+    <row r="73" spans="1:66" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="30"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="31"/>
+      <c r="T73" s="31"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="31"/>
+      <c r="X73" s="31"/>
+      <c r="Y73" s="31"/>
+      <c r="Z73" s="31"/>
+      <c r="AA73" s="31"/>
+      <c r="AB73" s="31"/>
+      <c r="AC73" s="31"/>
+      <c r="AD73" s="31"/>
+      <c r="AE73" s="31"/>
+      <c r="AF73" s="31"/>
+      <c r="AG73" s="31"/>
+      <c r="AH73" s="31"/>
+      <c r="AI73" s="31"/>
+      <c r="AJ73" s="31"/>
+      <c r="AK73" s="31"/>
+      <c r="AL73" s="31"/>
+      <c r="AM73" s="31"/>
+      <c r="AN73" s="31"/>
+      <c r="AO73" s="31"/>
+      <c r="AP73" s="31"/>
+      <c r="AQ73" s="31"/>
+      <c r="AR73" s="31"/>
+      <c r="AS73" s="31"/>
+      <c r="AT73" s="31"/>
+      <c r="AU73" s="31"/>
+      <c r="AV73" s="31"/>
+      <c r="AW73" s="31"/>
+      <c r="AX73" s="31"/>
+      <c r="AY73" s="31"/>
+      <c r="AZ73" s="31"/>
+      <c r="BA73" s="31"/>
+      <c r="BB73" s="31"/>
+      <c r="BC73" s="31"/>
+      <c r="BD73" s="31"/>
+      <c r="BE73" s="31"/>
+      <c r="BF73" s="31"/>
+      <c r="BG73" s="31"/>
+      <c r="BH73" s="31"/>
+      <c r="BI73" s="31"/>
+      <c r="BJ73" s="31"/>
+      <c r="BK73" s="31"/>
+      <c r="BL73" s="31"/>
+      <c r="BM73" s="31"/>
+      <c r="BN73" s="31"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -10270,19 +10397,10 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H11 H16:H18 H65:H71 H30 H20:H28 H13">
-    <cfRule type="dataBar" priority="198">
+  <conditionalFormatting sqref="H8:H11 H16:H18 H66:H72 H30 H20:H28 H13">
+    <cfRule type="dataBar" priority="206">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10296,25 +10414,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="68" priority="241">
+    <cfRule type="expression" dxfId="65" priority="249">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN11 K13:BN18 K20:BN30 K33:BN34 K40:BN53 K55:BN71">
-    <cfRule type="expression" dxfId="67" priority="244">
+  <conditionalFormatting sqref="K8:BN11 K13:BN18 K20:BN30 K33:BN34 K37:BN53 K56:BN72">
+    <cfRule type="expression" dxfId="64" priority="252">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="245">
+    <cfRule type="expression" dxfId="63" priority="253">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN11 K16:BN18 K65:BN71 K30:BN30 K20:BN28 K13:BN13">
-    <cfRule type="expression" dxfId="65" priority="204">
+  <conditionalFormatting sqref="K6:BN11 K16:BN18 K66:BN72 K30:BN30 K20:BN28 K13:BN13">
+    <cfRule type="expression" dxfId="62" priority="212">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="dataBar" priority="182">
+    <cfRule type="dataBar" priority="190">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10328,17 +10446,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:BN15">
-    <cfRule type="expression" dxfId="64" priority="189">
+    <cfRule type="expression" dxfId="61" priority="197">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:BN14">
-    <cfRule type="expression" dxfId="63" priority="185">
+    <cfRule type="expression" dxfId="60" priority="193">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="dataBar" priority="183">
+    <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10352,7 +10470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="dataBar" priority="175">
+    <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10366,12 +10484,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:BN33">
-    <cfRule type="expression" dxfId="62" priority="176">
+    <cfRule type="expression" dxfId="59" priority="184">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10384,8 +10502,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="dataBar" priority="159">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10399,12 +10517,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34:BN34">
-    <cfRule type="expression" dxfId="61" priority="168">
+    <cfRule type="expression" dxfId="58" priority="176">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="dataBar" priority="151">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10417,13 +10535,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:BN41">
-    <cfRule type="expression" dxfId="60" priority="160">
+  <conditionalFormatting sqref="K40:BN40">
+    <cfRule type="expression" dxfId="57" priority="168">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="dataBar" priority="163">
+  <conditionalFormatting sqref="H39">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10436,13 +10554,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:BN40">
-    <cfRule type="expression" dxfId="59" priority="164">
+  <conditionalFormatting sqref="K39:BN39">
+    <cfRule type="expression" dxfId="56" priority="172">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="dataBar" priority="143">
+  <conditionalFormatting sqref="H65">
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10455,13 +10573,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:BN56">
-    <cfRule type="expression" dxfId="58" priority="152">
+  <conditionalFormatting sqref="K57:BN57">
+    <cfRule type="expression" dxfId="55" priority="160">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="dataBar" priority="135">
+  <conditionalFormatting sqref="H61">
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10474,13 +10592,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:BN64">
-    <cfRule type="expression" dxfId="57" priority="144">
+  <conditionalFormatting sqref="K65:BN65">
+    <cfRule type="expression" dxfId="54" priority="152">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="dataBar" priority="155">
+  <conditionalFormatting sqref="H56">
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10493,13 +10611,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN55">
-    <cfRule type="expression" dxfId="56" priority="156">
+  <conditionalFormatting sqref="K56:BN56">
+    <cfRule type="expression" dxfId="53" priority="164">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="dataBar" priority="127">
+  <conditionalFormatting sqref="H59">
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10512,13 +10630,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60:BN60">
-    <cfRule type="expression" dxfId="55" priority="136">
+  <conditionalFormatting sqref="K61:BN61">
+    <cfRule type="expression" dxfId="52" priority="144">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="dataBar" priority="147">
+  <conditionalFormatting sqref="H64">
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10531,13 +10649,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:BN63">
-    <cfRule type="expression" dxfId="54" priority="148">
+  <conditionalFormatting sqref="K64:BN64">
+    <cfRule type="expression" dxfId="51" priority="156">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="dataBar" priority="119">
+  <conditionalFormatting sqref="H45">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10550,13 +10668,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K58:BN58">
-    <cfRule type="expression" dxfId="53" priority="128">
+  <conditionalFormatting sqref="K59:BN59">
+    <cfRule type="expression" dxfId="50" priority="136">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="dataBar" priority="139">
+  <conditionalFormatting sqref="H60">
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10569,13 +10687,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:BN59">
-    <cfRule type="expression" dxfId="52" priority="140">
+  <conditionalFormatting sqref="K60:BN60">
+    <cfRule type="expression" dxfId="49" priority="148">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="111">
+  <conditionalFormatting sqref="H43">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10588,13 +10706,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:BN46">
-    <cfRule type="expression" dxfId="51" priority="120">
+  <conditionalFormatting sqref="K45:BN45">
+    <cfRule type="expression" dxfId="48" priority="128">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="dataBar" priority="131">
+  <conditionalFormatting sqref="H58">
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10607,13 +10725,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:BN57">
-    <cfRule type="expression" dxfId="50" priority="132">
+  <conditionalFormatting sqref="K58:BN58">
+    <cfRule type="expression" dxfId="47" priority="140">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="dataBar" priority="103">
+  <conditionalFormatting sqref="H63">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10626,13 +10744,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="49" priority="112">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="46" priority="120">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="123">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10645,13 +10763,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="48" priority="124">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="45" priority="132">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="dataBar" priority="99">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10664,13 +10782,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:BN62">
-    <cfRule type="expression" dxfId="47" priority="104">
+  <conditionalFormatting sqref="K63:BN63">
+    <cfRule type="expression" dxfId="44" priority="112">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="dataBar" priority="115">
+  <conditionalFormatting sqref="H41">
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10683,18 +10801,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42:BN42">
-    <cfRule type="expression" dxfId="46" priority="116">
+  <conditionalFormatting sqref="K41:BN41">
+    <cfRule type="expression" dxfId="43" priority="124">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:BN29">
-    <cfRule type="expression" dxfId="45" priority="100">
+    <cfRule type="expression" dxfId="42" priority="108">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="dataBar" priority="107">
+  <conditionalFormatting sqref="H62">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10707,13 +10825,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K61:BN61">
-    <cfRule type="expression" dxfId="44" priority="108">
+  <conditionalFormatting sqref="K62:BN62">
+    <cfRule type="expression" dxfId="41" priority="116">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="dataBar" priority="81">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10727,20 +10845,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="43" priority="83">
+    <cfRule type="expression" dxfId="40" priority="91">
       <formula>AND($E12&lt;=K$6,ROUNDDOWN(($F12-$E12+1)*$H12,0)+$E12-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="84">
+    <cfRule type="expression" dxfId="39" priority="92">
       <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$6,$F12&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:BN12">
-    <cfRule type="expression" dxfId="41" priority="82">
+    <cfRule type="expression" dxfId="38" priority="90">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="dataBar" priority="77">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10754,20 +10872,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="40" priority="79">
+    <cfRule type="expression" dxfId="37" priority="87">
       <formula>AND($E19&lt;=K$6,ROUNDDOWN(($F19-$E19+1)*$H19,0)+$E19-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="80">
+    <cfRule type="expression" dxfId="36" priority="88">
       <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$6,$F19&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:BN19">
-    <cfRule type="expression" dxfId="38" priority="78">
+    <cfRule type="expression" dxfId="35" priority="86">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10781,20 +10899,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="37" priority="75">
+    <cfRule type="expression" dxfId="34" priority="83">
       <formula>AND($E31&lt;=K$6,ROUNDDOWN(($F31-$E31+1)*$H31,0)+$E31-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="76">
+    <cfRule type="expression" dxfId="33" priority="84">
       <formula>AND(NOT(ISBLANK($E31)),$E31&lt;=K$6,$F31&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:BN31">
-    <cfRule type="expression" dxfId="35" priority="74">
+    <cfRule type="expression" dxfId="32" priority="82">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="dataBar" priority="69">
+  <conditionalFormatting sqref="H42">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10807,13 +10925,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN43">
-    <cfRule type="expression" dxfId="34" priority="70">
+  <conditionalFormatting sqref="K42:BN42">
+    <cfRule type="expression" dxfId="31" priority="78">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="dataBar" priority="67">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10826,13 +10944,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45:BN45">
-    <cfRule type="expression" dxfId="33" priority="68">
+  <conditionalFormatting sqref="K44:BN44">
+    <cfRule type="expression" dxfId="30" priority="76">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="dataBar" priority="63">
+  <conditionalFormatting sqref="H43">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10845,13 +10963,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44:BN44">
-    <cfRule type="expression" dxfId="32" priority="64">
+  <conditionalFormatting sqref="K43:BN43">
+    <cfRule type="expression" dxfId="29" priority="72">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="dataBar" priority="57">
+  <conditionalFormatting sqref="H49">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10864,8 +10982,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="dataBar" priority="55">
+  <conditionalFormatting sqref="H47">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10878,18 +10996,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:BN50">
-    <cfRule type="expression" dxfId="31" priority="58">
+  <conditionalFormatting sqref="K49:BN49">
+    <cfRule type="expression" dxfId="28" priority="66">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="30" priority="56">
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="27" priority="64">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="59">
+  <conditionalFormatting sqref="H48">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10902,13 +11020,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="29" priority="60">
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="26" priority="68">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="dataBar" priority="51">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10921,13 +11039,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN47">
-    <cfRule type="expression" dxfId="28" priority="52">
+  <conditionalFormatting sqref="K46:BN46">
+    <cfRule type="expression" dxfId="25" priority="60">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="dataBar" priority="49">
+  <conditionalFormatting sqref="H48">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10940,13 +11058,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:BN49">
-    <cfRule type="expression" dxfId="27" priority="50">
+  <conditionalFormatting sqref="K48:BN48">
+    <cfRule type="expression" dxfId="24" priority="58">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="dataBar" priority="45">
+  <conditionalFormatting sqref="H47">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10959,13 +11077,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:BN48">
-    <cfRule type="expression" dxfId="26" priority="46">
+  <conditionalFormatting sqref="K47:BN47">
+    <cfRule type="expression" dxfId="23" priority="54">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="39">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10978,13 +11096,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="25" priority="40">
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="22" priority="48">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="41">
+  <conditionalFormatting sqref="H52">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -10997,13 +11115,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="24" priority="42">
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="21" priority="50">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="dataBar" priority="35">
+  <conditionalFormatting sqref="H50">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11016,13 +11134,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN51">
-    <cfRule type="expression" dxfId="23" priority="36">
+  <conditionalFormatting sqref="K50:BN50">
+    <cfRule type="expression" dxfId="20" priority="44">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="dataBar" priority="33">
+  <conditionalFormatting sqref="H52">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11035,13 +11153,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53:BN53">
-    <cfRule type="expression" dxfId="22" priority="34">
+  <conditionalFormatting sqref="K52:BN52">
+    <cfRule type="expression" dxfId="19" priority="42">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11054,13 +11172,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:BN52">
-    <cfRule type="expression" dxfId="21" priority="30">
+  <conditionalFormatting sqref="K51:BN51">
+    <cfRule type="expression" dxfId="18" priority="38">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11074,28 +11192,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="20" priority="27">
+    <cfRule type="expression" dxfId="17" priority="35">
       <formula>AND($E32&lt;=K$6,ROUNDDOWN(($F32-$E32+1)*$H32,0)+$E32-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="16" priority="36">
       <formula>AND(NOT(ISBLANK($E32)),$E32&lt;=K$6,$F32&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:BN32">
-    <cfRule type="expression" dxfId="18" priority="26">
+    <cfRule type="expression" dxfId="15" priority="34">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="14" priority="31">
       <formula>AND($E35&lt;=K$6,ROUNDDOWN(($F35-$E35+1)*$H35,0)+$E35-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="13" priority="32">
       <formula>AND(NOT(ISBLANK($E35)),$E35&lt;=K$6,$F35&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11109,20 +11227,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:BN35">
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="12" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="11" priority="27">
       <formula>AND($E36&lt;=K$6,ROUNDDOWN(($F36-$E36+1)*$H36,0)+$E36-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="10" priority="28">
       <formula>AND(NOT(ISBLANK($E36)),$E36&lt;=K$6,$F36&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11136,47 +11254,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:BN36">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="9" priority="26">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>AND($E37&lt;=K$6,ROUNDDOWN(($F37-$E37+1)*$H37,0)+$E37-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>AND(NOT(ISBLANK($E37)),$E37&lt;=K$6,$F37&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6E1B22DB-86C9-5E4B-83EB-94BCBA19F8C9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37:BN37">
-    <cfRule type="expression" dxfId="9" priority="14">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>AND($E38&lt;=K$6,ROUNDDOWN(($F38-$E38+1)*$H38,0)+$E38-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>AND(NOT(ISBLANK($E38)),$E38&lt;=K$6,$F38&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11189,21 +11272,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:BN38">
-    <cfRule type="expression" dxfId="6" priority="10">
+  <conditionalFormatting sqref="K37:BN37">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND($E39&lt;=K$6,ROUNDDOWN(($F39-$E39+1)*$H39,0)+$E39-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>AND(NOT(ISBLANK($E39)),$E39&lt;=K$6,$F39&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="H38">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11216,13 +11291,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:BN39">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="K38:BN38">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H53">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11235,28 +11310,74 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K53:BN53">
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{910ED5D5-A724-334B-944C-5D03D18E3B6F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K54:BN54">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>AND($E54&lt;=K$6,ROUNDDOWN(($F54-$E54+1)*$H54,0)+$E54-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(NOT(ISBLANK($E54)),$E54&lt;=K$6,$F54&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:BN54">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4BE3C20B-7E8A-0340-A82D-76ED7D1338B6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:BN55">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($E55&lt;=K$6,ROUNDDOWN(($F55-$E55+1)*$H55,0)+$E55-1&gt;=K$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT(ISBLANK($E55)),$E55&lt;=K$6,$F55&gt;=K$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55:BN55">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="H4"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
-  <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A65:B65 A67:B67 B66 E10 E20 E24 E65:H67 G10:H10 G20:H20 G24:H24 G68 G69:G70 G71 G25" unlockedFormula="1"/>
-    <ignoredError sqref="A24 A20 A10 A16" formula="1"/>
+    <ignoredError sqref="A66:B66 A68:B68 B67 E10 E20 E24 E66:H68 G10:H10 G20:H20 G24:H24 G69 G70:G71 G72 G25" unlockedFormula="1"/>
+    <ignoredError sqref="A24 A20 A10 A16 A54 A56 A58 A60 A62 A64" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -11306,7 +11427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H11 H16:H18 H65:H71 H30 H20:H28 H13</xm:sqref>
+          <xm:sqref>H8:H11 H16:H18 H66:H72 H30 H20:H28 H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C1E55C9C-328E-7F42-B324-A31B3CE69B6E}">
@@ -11381,7 +11502,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
+          <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DCE5909F-1F84-B443-A941-98EE3155C9AB}">
@@ -11396,7 +11517,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
+          <xm:sqref>H57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D0208E98-1C87-F945-B7BA-D5E81A01579A}">
@@ -11411,7 +11532,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40</xm:sqref>
+          <xm:sqref>H39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F79A7199-BB91-4A40-BF69-CC8C783C7011}">
@@ -11426,7 +11547,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H64</xm:sqref>
+          <xm:sqref>H65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F222E3D4-7513-264C-968B-0292F382CD5D}">
@@ -11441,7 +11562,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H60</xm:sqref>
+          <xm:sqref>H61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{526828FD-A928-6E46-95F8-D74ACD1E339B}">
@@ -11456,7 +11577,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H55</xm:sqref>
+          <xm:sqref>H56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{730B0F02-39AB-BD42-BB2A-405EFC6279DF}">
@@ -11471,7 +11592,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H58</xm:sqref>
+          <xm:sqref>H59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1C2DB213-53A8-4946-B60A-C01681F15068}">
@@ -11486,7 +11607,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H63</xm:sqref>
+          <xm:sqref>H64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D8388F22-1F90-F24E-9C6B-625491BBF15E}">
@@ -11501,7 +11622,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H46</xm:sqref>
+          <xm:sqref>H45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3CDA81EE-B6E8-9342-8A31-FAA578F3FBDA}">
@@ -11516,7 +11637,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H59</xm:sqref>
+          <xm:sqref>H60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6CC7F112-D4C4-2647-8F58-25080F8D0653}">
@@ -11531,7 +11652,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
+          <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{51803FA7-1B88-B64E-915D-B792FB43FF62}">
@@ -11546,7 +11667,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H57</xm:sqref>
+          <xm:sqref>H58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A44EC134-680C-6943-A530-937463E3A665}">
@@ -11561,7 +11682,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H62</xm:sqref>
+          <xm:sqref>H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6900B624-12B9-8C44-99D7-233CE13C7600}">
@@ -11576,7 +11697,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
+          <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{74F8D3DF-6F10-DE48-8073-38A8F97D520C}">
@@ -11606,7 +11727,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H42</xm:sqref>
+          <xm:sqref>H41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5124A7FC-6C88-7F45-B594-A5EB10C74185}">
@@ -11621,7 +11742,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H61</xm:sqref>
+          <xm:sqref>H62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B72F9582-8103-A840-9EC3-CEB5270C8B2A}">
@@ -11681,7 +11802,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H43</xm:sqref>
+          <xm:sqref>H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EC734CD8-B493-2444-A426-183D6898AB8B}">
@@ -11696,7 +11817,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H45</xm:sqref>
+          <xm:sqref>H44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E43E317B-FDC6-884D-80FD-6FE886865D02}">
@@ -11711,7 +11832,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H44</xm:sqref>
+          <xm:sqref>H43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{55EA0FDE-0D3E-4745-A36E-0B1D4AFCA0B3}">
@@ -11726,7 +11847,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H50</xm:sqref>
+          <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6197F1EF-B118-6948-9F03-A07AD16BA4B0}">
@@ -11741,7 +11862,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H48</xm:sqref>
+          <xm:sqref>H47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{62B782CE-B4EE-3248-8062-C7B6136695B8}">
@@ -11756,7 +11877,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
+          <xm:sqref>H48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B20BAABC-5D33-C841-9D14-5FFD8FE222EB}">
@@ -11771,7 +11892,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H47</xm:sqref>
+          <xm:sqref>H46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1D3271B6-B451-8B40-8A00-8FC357E3FBCB}">
@@ -11786,7 +11907,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H49</xm:sqref>
+          <xm:sqref>H48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EEA9B63F-7FAE-E843-9C9B-383F4A834582}">
@@ -11801,7 +11922,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H48</xm:sqref>
+          <xm:sqref>H47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{45DBF916-A8A9-7242-A073-3F7A0C031371}">
@@ -11816,7 +11937,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
+          <xm:sqref>H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{892E8868-478E-5D49-B9E6-1D987C0BEC52}">
@@ -11831,7 +11952,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
+          <xm:sqref>H52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F0001EAE-A348-374E-B4FF-F2EF90A886A7}">
@@ -11846,7 +11967,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51</xm:sqref>
+          <xm:sqref>H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5461E562-5FD8-DA4A-96D3-8D62012F23CC}">
@@ -11861,7 +11982,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H53</xm:sqref>
+          <xm:sqref>H52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93341AD5-A9C0-8C4C-9660-AABB50FC5903}">
@@ -11876,7 +11997,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H52</xm:sqref>
+          <xm:sqref>H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4E682BF2-C32E-1F48-8563-FE8672133400}">
@@ -11924,7 +12045,7 @@
           <xm:sqref>H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6E1B22DB-86C9-5E4B-83EB-94BCBA19F8C9}">
+          <x14:cfRule type="dataBar" id="{2DDD3C4E-133F-AC49-8DE6-A405AE85BB52}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11939,7 +12060,7 @@
           <xm:sqref>H37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2DDD3C4E-133F-AC49-8DE6-A405AE85BB52}">
+          <x14:cfRule type="dataBar" id="{0F2BADBA-FA87-2743-BAA3-5CA3C34E9D99}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -11954,21 +12075,6 @@
           <xm:sqref>H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0F2BADBA-FA87-2743-BAA3-5CA3C34E9D99}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DEC8A02F-80BB-FF4A-8656-257DA44E514E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -11981,7 +12087,37 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{910ED5D5-A724-334B-944C-5D03D18E3B6F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>H54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4BE3C20B-7E8A-0340-A82D-76ED7D1338B6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12189,8 +12325,8 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/0b_forms/gantt_chart.xlsx
+++ b/0b_forms/gantt_chart.xlsx
@@ -2673,23 +2673,32 @@
     <xf numFmtId="168" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="57" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="45" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="45" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="45" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="45" fillId="24" borderId="12" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="52" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2698,39 +2707,30 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="45" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="45" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="45" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="45" fillId="24" borderId="12" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3591,7 +3591,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3655,7 +3655,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3705,7 +3705,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3789,7 +3789,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3844,7 +3844,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3899,7 +3899,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4227,8 +4227,8 @@
   <dimension ref="A1:BN73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <pane ySplit="7" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4256,27 +4256,27 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="I1" s="126"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="170"/>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
@@ -4321,11 +4321,11 @@
       <c r="B4" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="172">
+      <c r="C4" s="178">
         <v>43374</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
       <c r="F4" s="108"/>
       <c r="G4" s="111" t="s">
         <v>73</v>
@@ -4335,182 +4335,182 @@
       </c>
       <c r="I4" s="109"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="164" t="str">
+      <c r="K4" s="175" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="164" t="str">
+      <c r="L4" s="176"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="176"/>
+      <c r="O4" s="176"/>
+      <c r="P4" s="176"/>
+      <c r="Q4" s="177"/>
+      <c r="R4" s="175" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="164" t="str">
+      <c r="S4" s="176"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="177"/>
+      <c r="Y4" s="175" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="Z4" s="165"/>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="165"/>
-      <c r="AE4" s="166"/>
-      <c r="AF4" s="164" t="str">
+      <c r="Z4" s="176"/>
+      <c r="AA4" s="176"/>
+      <c r="AB4" s="176"/>
+      <c r="AC4" s="176"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="177"/>
+      <c r="AF4" s="175" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AG4" s="165"/>
-      <c r="AH4" s="165"/>
-      <c r="AI4" s="165"/>
-      <c r="AJ4" s="165"/>
-      <c r="AK4" s="165"/>
-      <c r="AL4" s="166"/>
-      <c r="AM4" s="164" t="str">
+      <c r="AG4" s="176"/>
+      <c r="AH4" s="176"/>
+      <c r="AI4" s="176"/>
+      <c r="AJ4" s="176"/>
+      <c r="AK4" s="176"/>
+      <c r="AL4" s="177"/>
+      <c r="AM4" s="175" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="AN4" s="165"/>
-      <c r="AO4" s="165"/>
-      <c r="AP4" s="165"/>
-      <c r="AQ4" s="165"/>
-      <c r="AR4" s="165"/>
-      <c r="AS4" s="166"/>
-      <c r="AT4" s="164" t="str">
+      <c r="AN4" s="176"/>
+      <c r="AO4" s="176"/>
+      <c r="AP4" s="176"/>
+      <c r="AQ4" s="176"/>
+      <c r="AR4" s="176"/>
+      <c r="AS4" s="177"/>
+      <c r="AT4" s="175" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="AU4" s="165"/>
-      <c r="AV4" s="165"/>
-      <c r="AW4" s="165"/>
-      <c r="AX4" s="165"/>
-      <c r="AY4" s="165"/>
-      <c r="AZ4" s="166"/>
-      <c r="BA4" s="164" t="str">
+      <c r="AU4" s="176"/>
+      <c r="AV4" s="176"/>
+      <c r="AW4" s="176"/>
+      <c r="AX4" s="176"/>
+      <c r="AY4" s="176"/>
+      <c r="AZ4" s="177"/>
+      <c r="BA4" s="175" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BB4" s="165"/>
-      <c r="BC4" s="165"/>
-      <c r="BD4" s="165"/>
-      <c r="BE4" s="165"/>
-      <c r="BF4" s="165"/>
-      <c r="BG4" s="166"/>
-      <c r="BH4" s="164" t="str">
+      <c r="BB4" s="176"/>
+      <c r="BC4" s="176"/>
+      <c r="BD4" s="176"/>
+      <c r="BE4" s="176"/>
+      <c r="BF4" s="176"/>
+      <c r="BG4" s="177"/>
+      <c r="BH4" s="175" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="BI4" s="165"/>
-      <c r="BJ4" s="165"/>
-      <c r="BK4" s="165"/>
-      <c r="BL4" s="165"/>
-      <c r="BM4" s="165"/>
-      <c r="BN4" s="166"/>
+      <c r="BI4" s="176"/>
+      <c r="BJ4" s="176"/>
+      <c r="BK4" s="176"/>
+      <c r="BL4" s="176"/>
+      <c r="BM4" s="176"/>
+      <c r="BN4" s="177"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="107"/>
       <c r="B5" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="171">
+      <c r="C5" s="174">
         <v>43612</v>
       </c>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
       <c r="F5" s="110"/>
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
       <c r="I5" s="110"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="167">
+      <c r="K5" s="179">
         <f>K6</f>
         <v>43395</v>
       </c>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="167">
+      <c r="L5" s="180"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="180"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="179">
         <f>R6</f>
         <v>43402</v>
       </c>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="169"/>
-      <c r="Y5" s="167">
+      <c r="S5" s="180"/>
+      <c r="T5" s="180"/>
+      <c r="U5" s="180"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="179">
         <f>Y6</f>
         <v>43409</v>
       </c>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="168"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="168"/>
-      <c r="AE5" s="169"/>
-      <c r="AF5" s="167">
+      <c r="Z5" s="180"/>
+      <c r="AA5" s="180"/>
+      <c r="AB5" s="180"/>
+      <c r="AC5" s="180"/>
+      <c r="AD5" s="180"/>
+      <c r="AE5" s="181"/>
+      <c r="AF5" s="179">
         <f>AF6</f>
         <v>43416</v>
       </c>
-      <c r="AG5" s="168"/>
-      <c r="AH5" s="168"/>
-      <c r="AI5" s="168"/>
-      <c r="AJ5" s="168"/>
-      <c r="AK5" s="168"/>
-      <c r="AL5" s="169"/>
-      <c r="AM5" s="167">
+      <c r="AG5" s="180"/>
+      <c r="AH5" s="180"/>
+      <c r="AI5" s="180"/>
+      <c r="AJ5" s="180"/>
+      <c r="AK5" s="180"/>
+      <c r="AL5" s="181"/>
+      <c r="AM5" s="179">
         <f>AM6</f>
         <v>43423</v>
       </c>
-      <c r="AN5" s="168"/>
-      <c r="AO5" s="168"/>
-      <c r="AP5" s="168"/>
-      <c r="AQ5" s="168"/>
-      <c r="AR5" s="168"/>
-      <c r="AS5" s="169"/>
-      <c r="AT5" s="167">
+      <c r="AN5" s="180"/>
+      <c r="AO5" s="180"/>
+      <c r="AP5" s="180"/>
+      <c r="AQ5" s="180"/>
+      <c r="AR5" s="180"/>
+      <c r="AS5" s="181"/>
+      <c r="AT5" s="179">
         <f>AT6</f>
         <v>43430</v>
       </c>
-      <c r="AU5" s="168"/>
-      <c r="AV5" s="168"/>
-      <c r="AW5" s="168"/>
-      <c r="AX5" s="168"/>
-      <c r="AY5" s="168"/>
-      <c r="AZ5" s="169"/>
-      <c r="BA5" s="167">
+      <c r="AU5" s="180"/>
+      <c r="AV5" s="180"/>
+      <c r="AW5" s="180"/>
+      <c r="AX5" s="180"/>
+      <c r="AY5" s="180"/>
+      <c r="AZ5" s="181"/>
+      <c r="BA5" s="179">
         <f>BA6</f>
         <v>43437</v>
       </c>
-      <c r="BB5" s="168"/>
-      <c r="BC5" s="168"/>
-      <c r="BD5" s="168"/>
-      <c r="BE5" s="168"/>
-      <c r="BF5" s="168"/>
-      <c r="BG5" s="169"/>
-      <c r="BH5" s="167">
+      <c r="BB5" s="180"/>
+      <c r="BC5" s="180"/>
+      <c r="BD5" s="180"/>
+      <c r="BE5" s="180"/>
+      <c r="BF5" s="180"/>
+      <c r="BG5" s="181"/>
+      <c r="BH5" s="179">
         <f>BH6</f>
         <v>43444</v>
       </c>
-      <c r="BI5" s="168"/>
-      <c r="BJ5" s="168"/>
-      <c r="BK5" s="168"/>
-      <c r="BL5" s="168"/>
-      <c r="BM5" s="168"/>
-      <c r="BN5" s="169"/>
+      <c r="BI5" s="180"/>
+      <c r="BJ5" s="180"/>
+      <c r="BK5" s="180"/>
+      <c r="BL5" s="180"/>
+      <c r="BM5" s="180"/>
+      <c r="BN5" s="181"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
@@ -8019,7 +8019,9 @@
       <c r="G44" s="62">
         <v>4</v>
       </c>
-      <c r="H44" s="63"/>
+      <c r="H44" s="63">
+        <v>1</v>
+      </c>
       <c r="I44" s="80">
         <f t="shared" si="29"/>
         <v>4</v>
@@ -8843,28 +8845,28 @@
       <c r="BM53" s="105"/>
       <c r="BN53" s="105"/>
     </row>
-    <row r="54" spans="1:66" s="182" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:66" s="172" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A54" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>8</v>
       </c>
-      <c r="B54" s="174" t="s">
+      <c r="B54" s="164" t="s">
         <v>187</v>
       </c>
-      <c r="C54" s="175"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="177"/>
-      <c r="F54" s="178" t="str">
+      <c r="C54" s="165"/>
+      <c r="D54" s="166"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="168" t="str">
         <f t="shared" ref="F54:F55" si="32">IF(ISBLANK(E54)," - ",IF(G54=0,E54,E54+G54-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G54" s="179"/>
-      <c r="H54" s="180"/>
-      <c r="I54" s="179" t="str">
+      <c r="G54" s="169"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="169" t="str">
         <f>IF(OR(F54=0,E54=0)," - ",NETWORKDAYS(E54,F54))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J54" s="181"/>
+      <c r="J54" s="171"/>
       <c r="K54" s="106"/>
       <c r="L54" s="106"/>
       <c r="M54" s="106"/>
@@ -10378,15 +10380,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -10397,6 +10390,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H11 H16:H18 H66:H72 H30 H20:H28 H13">
@@ -12384,10 +12386,10 @@
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="173"/>
+      <c r="B13" s="182"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:3" s="128" customFormat="1" ht="18" x14ac:dyDescent="0.15">
@@ -12449,10 +12451,10 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="173"/>
+      <c r="B24" s="182"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A25" s="138"/>
@@ -12525,10 +12527,10 @@
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="173" t="s">
+      <c r="A38" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="173"/>
+      <c r="B38" s="182"/>
     </row>
     <row r="39" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B39" s="135" t="s">
@@ -12565,10 +12567,10 @@
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="173" t="s">
+      <c r="A49" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="173"/>
+      <c r="B49" s="182"/>
     </row>
     <row r="50" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B50" s="135" t="s">
@@ -12666,10 +12668,10 @@
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="173" t="s">
+      <c r="A65" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="173"/>
+      <c r="B65" s="182"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="B66" s="135" t="s">
@@ -12680,10 +12682,10 @@
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="173" t="s">
+      <c r="A68" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="173"/>
+      <c r="B68" s="182"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="150" t="s">

--- a/0b_forms/gantt_chart.xlsx
+++ b/0b_forms/gantt_chart.xlsx
@@ -2700,6 +2700,24 @@
     <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2707,27 +2725,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="43" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="43" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3591,7 +3591,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3655,7 +3655,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002E200000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3705,7 +3705,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3789,7 +3789,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3844,7 +3844,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3899,7 +3899,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4227,8 +4227,8 @@
   <dimension ref="A1:BN73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4256,27 +4256,27 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="I1" s="126"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="179"/>
+      <c r="T1" s="179"/>
+      <c r="U1" s="179"/>
+      <c r="V1" s="179"/>
+      <c r="W1" s="179"/>
+      <c r="X1" s="179"/>
+      <c r="Y1" s="179"/>
+      <c r="Z1" s="179"/>
+      <c r="AA1" s="179"/>
+      <c r="AB1" s="179"/>
+      <c r="AC1" s="179"/>
+      <c r="AD1" s="179"/>
+      <c r="AE1" s="179"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
@@ -4321,11 +4321,11 @@
       <c r="B4" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="178">
+      <c r="C4" s="181">
         <v>43374</v>
       </c>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
       <c r="F4" s="108"/>
       <c r="G4" s="111" t="s">
         <v>73</v>
@@ -4335,182 +4335,182 @@
       </c>
       <c r="I4" s="109"/>
       <c r="J4" s="50"/>
-      <c r="K4" s="175" t="str">
+      <c r="K4" s="173" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="175" t="str">
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="173" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="S4" s="176"/>
-      <c r="T4" s="176"/>
-      <c r="U4" s="176"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="176"/>
-      <c r="X4" s="177"/>
-      <c r="Y4" s="175" t="str">
+      <c r="S4" s="174"/>
+      <c r="T4" s="174"/>
+      <c r="U4" s="174"/>
+      <c r="V4" s="174"/>
+      <c r="W4" s="174"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="173" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="Z4" s="176"/>
-      <c r="AA4" s="176"/>
-      <c r="AB4" s="176"/>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="176"/>
-      <c r="AE4" s="177"/>
-      <c r="AF4" s="175" t="str">
+      <c r="Z4" s="174"/>
+      <c r="AA4" s="174"/>
+      <c r="AB4" s="174"/>
+      <c r="AC4" s="174"/>
+      <c r="AD4" s="174"/>
+      <c r="AE4" s="175"/>
+      <c r="AF4" s="173" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AG4" s="176"/>
-      <c r="AH4" s="176"/>
-      <c r="AI4" s="176"/>
-      <c r="AJ4" s="176"/>
-      <c r="AK4" s="176"/>
-      <c r="AL4" s="177"/>
-      <c r="AM4" s="175" t="str">
+      <c r="AG4" s="174"/>
+      <c r="AH4" s="174"/>
+      <c r="AI4" s="174"/>
+      <c r="AJ4" s="174"/>
+      <c r="AK4" s="174"/>
+      <c r="AL4" s="175"/>
+      <c r="AM4" s="173" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="AN4" s="176"/>
-      <c r="AO4" s="176"/>
-      <c r="AP4" s="176"/>
-      <c r="AQ4" s="176"/>
-      <c r="AR4" s="176"/>
-      <c r="AS4" s="177"/>
-      <c r="AT4" s="175" t="str">
+      <c r="AN4" s="174"/>
+      <c r="AO4" s="174"/>
+      <c r="AP4" s="174"/>
+      <c r="AQ4" s="174"/>
+      <c r="AR4" s="174"/>
+      <c r="AS4" s="175"/>
+      <c r="AT4" s="173" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="AU4" s="176"/>
-      <c r="AV4" s="176"/>
-      <c r="AW4" s="176"/>
-      <c r="AX4" s="176"/>
-      <c r="AY4" s="176"/>
-      <c r="AZ4" s="177"/>
-      <c r="BA4" s="175" t="str">
+      <c r="AU4" s="174"/>
+      <c r="AV4" s="174"/>
+      <c r="AW4" s="174"/>
+      <c r="AX4" s="174"/>
+      <c r="AY4" s="174"/>
+      <c r="AZ4" s="175"/>
+      <c r="BA4" s="173" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BB4" s="176"/>
-      <c r="BC4" s="176"/>
-      <c r="BD4" s="176"/>
-      <c r="BE4" s="176"/>
-      <c r="BF4" s="176"/>
-      <c r="BG4" s="177"/>
-      <c r="BH4" s="175" t="str">
+      <c r="BB4" s="174"/>
+      <c r="BC4" s="174"/>
+      <c r="BD4" s="174"/>
+      <c r="BE4" s="174"/>
+      <c r="BF4" s="174"/>
+      <c r="BG4" s="175"/>
+      <c r="BH4" s="173" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="BI4" s="176"/>
-      <c r="BJ4" s="176"/>
-      <c r="BK4" s="176"/>
-      <c r="BL4" s="176"/>
-      <c r="BM4" s="176"/>
-      <c r="BN4" s="177"/>
+      <c r="BI4" s="174"/>
+      <c r="BJ4" s="174"/>
+      <c r="BK4" s="174"/>
+      <c r="BL4" s="174"/>
+      <c r="BM4" s="174"/>
+      <c r="BN4" s="175"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="107"/>
       <c r="B5" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="174">
+      <c r="C5" s="180">
         <v>43612</v>
       </c>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
       <c r="F5" s="110"/>
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
       <c r="I5" s="110"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="179">
+      <c r="K5" s="176">
         <f>K6</f>
         <v>43395</v>
       </c>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="179">
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="178"/>
+      <c r="R5" s="176">
         <f>R6</f>
         <v>43402</v>
       </c>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="181"/>
-      <c r="Y5" s="179">
+      <c r="S5" s="177"/>
+      <c r="T5" s="177"/>
+      <c r="U5" s="177"/>
+      <c r="V5" s="177"/>
+      <c r="W5" s="177"/>
+      <c r="X5" s="178"/>
+      <c r="Y5" s="176">
         <f>Y6</f>
         <v>43409</v>
       </c>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="180"/>
-      <c r="AC5" s="180"/>
-      <c r="AD5" s="180"/>
-      <c r="AE5" s="181"/>
-      <c r="AF5" s="179">
+      <c r="Z5" s="177"/>
+      <c r="AA5" s="177"/>
+      <c r="AB5" s="177"/>
+      <c r="AC5" s="177"/>
+      <c r="AD5" s="177"/>
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="176">
         <f>AF6</f>
         <v>43416</v>
       </c>
-      <c r="AG5" s="180"/>
-      <c r="AH5" s="180"/>
-      <c r="AI5" s="180"/>
-      <c r="AJ5" s="180"/>
-      <c r="AK5" s="180"/>
-      <c r="AL5" s="181"/>
-      <c r="AM5" s="179">
+      <c r="AG5" s="177"/>
+      <c r="AH5" s="177"/>
+      <c r="AI5" s="177"/>
+      <c r="AJ5" s="177"/>
+      <c r="AK5" s="177"/>
+      <c r="AL5" s="178"/>
+      <c r="AM5" s="176">
         <f>AM6</f>
         <v>43423</v>
       </c>
-      <c r="AN5" s="180"/>
-      <c r="AO5" s="180"/>
-      <c r="AP5" s="180"/>
-      <c r="AQ5" s="180"/>
-      <c r="AR5" s="180"/>
-      <c r="AS5" s="181"/>
-      <c r="AT5" s="179">
+      <c r="AN5" s="177"/>
+      <c r="AO5" s="177"/>
+      <c r="AP5" s="177"/>
+      <c r="AQ5" s="177"/>
+      <c r="AR5" s="177"/>
+      <c r="AS5" s="178"/>
+      <c r="AT5" s="176">
         <f>AT6</f>
         <v>43430</v>
       </c>
-      <c r="AU5" s="180"/>
-      <c r="AV5" s="180"/>
-      <c r="AW5" s="180"/>
-      <c r="AX5" s="180"/>
-      <c r="AY5" s="180"/>
-      <c r="AZ5" s="181"/>
-      <c r="BA5" s="179">
+      <c r="AU5" s="177"/>
+      <c r="AV5" s="177"/>
+      <c r="AW5" s="177"/>
+      <c r="AX5" s="177"/>
+      <c r="AY5" s="177"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="176">
         <f>BA6</f>
         <v>43437</v>
       </c>
-      <c r="BB5" s="180"/>
-      <c r="BC5" s="180"/>
-      <c r="BD5" s="180"/>
-      <c r="BE5" s="180"/>
-      <c r="BF5" s="180"/>
-      <c r="BG5" s="181"/>
-      <c r="BH5" s="179">
+      <c r="BB5" s="177"/>
+      <c r="BC5" s="177"/>
+      <c r="BD5" s="177"/>
+      <c r="BE5" s="177"/>
+      <c r="BF5" s="177"/>
+      <c r="BG5" s="178"/>
+      <c r="BH5" s="176">
         <f>BH6</f>
         <v>43444</v>
       </c>
-      <c r="BI5" s="180"/>
-      <c r="BJ5" s="180"/>
-      <c r="BK5" s="180"/>
-      <c r="BL5" s="180"/>
-      <c r="BM5" s="180"/>
-      <c r="BN5" s="181"/>
+      <c r="BI5" s="177"/>
+      <c r="BJ5" s="177"/>
+      <c r="BK5" s="177"/>
+      <c r="BL5" s="177"/>
+      <c r="BM5" s="177"/>
+      <c r="BN5" s="178"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
@@ -8445,7 +8445,7 @@
         <v>6</v>
       </c>
       <c r="H49" s="63">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I49" s="80">
         <f>IF(OR(F49=0,E49=0)," - ",NETWORKDAYS(E49,F49))</f>
@@ -8614,7 +8614,9 @@
       <c r="G51" s="62">
         <v>6</v>
       </c>
-      <c r="H51" s="63"/>
+      <c r="H51" s="63">
+        <v>1</v>
+      </c>
       <c r="I51" s="80">
         <f t="shared" si="31"/>
         <v>5</v>
@@ -8944,7 +8946,9 @@
       <c r="G55" s="62">
         <v>7</v>
       </c>
-      <c r="H55" s="63"/>
+      <c r="H55" s="63">
+        <v>1</v>
+      </c>
       <c r="I55" s="80">
         <f t="shared" ref="I55" si="33">IF(OR(F55=0,E55=0)," - ",NETWORKDAYS(E55,F55))</f>
         <v>5</v>
@@ -10380,6 +10384,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -10390,15 +10403,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H11 H16:H18 H66:H72 H30 H20:H28 H13">
